--- a/webserver/model_data/TrainingData_ml.xlsx
+++ b/webserver/model_data/TrainingData_ml.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12622" uniqueCount="1947">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13157" uniqueCount="2032">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -5471,9 +5471,6 @@
     <t>Dort machen sie dann auch Erfahrungen mit Menschen anderer Herkunft, die sie selbst dort prägen, wo sie nicht positiv sind.</t>
   </si>
   <si>
-    <t>0.0.2</t>
-  </si>
-  <si>
     <t>ZeitGeistGestörter</t>
   </si>
   <si>
@@ -5868,6 +5865,264 @@
   </si>
   <si>
     <t>Björn van Zwoll</t>
+  </si>
+  <si>
+    <t>Mit Leuten wie Borjans geht sowas gar nicht</t>
+  </si>
+  <si>
+    <t>Waere hoechste Zeit fuer eine solche Reform.</t>
+  </si>
+  <si>
+    <t>Heike-Doreen Ehling</t>
+  </si>
+  <si>
+    <t>SJ hat wirklich in vielen Rollen brilliert</t>
+  </si>
+  <si>
+    <t>https://www.zeit.de/kultur/film/2020-02/scarlett-johansson-oscar-verleihung-nomierung-film/seite-2</t>
+  </si>
+  <si>
+    <t>Tobmal</t>
+  </si>
+  <si>
+    <t>Die Bandbreite der Genres ist groß</t>
+  </si>
+  <si>
+    <t>Sie hat es wirklich verdient!</t>
+  </si>
+  <si>
+    <t>Sorry, aber da fällt mir erstmal Isabelle Huppert ein</t>
+  </si>
+  <si>
+    <t>prinzessin.leia</t>
+  </si>
+  <si>
+    <t>Wahnsinnig schön, vielseitig und x-fach ausgezeichnet</t>
+  </si>
+  <si>
+    <t>Marriage Story ist wirklich ein hervorragender Film.</t>
+  </si>
+  <si>
+    <t>stadtmutter</t>
+  </si>
+  <si>
+    <t>Lohnt sich.</t>
+  </si>
+  <si>
+    <t>Vielleicht für Frauen.</t>
+  </si>
+  <si>
+    <t>Ich als Mann kann mich der Meinung nur anschließen und den Film uneingeschränkt empfehlen.</t>
+  </si>
+  <si>
+    <t>Ich konnte beide Partnern der Ehe sehr gut mitfühlen.</t>
+  </si>
+  <si>
+    <t>Adam Drive und Scarlett Johansson spielen ihre Rollen wirklich sehr authentisch und nahbar.</t>
+  </si>
+  <si>
+    <t>Zwar toll gespielt, aber die Story hat ihre Schwächen und unnötige Längen.</t>
+  </si>
+  <si>
+    <t>Heinrich der Föwler</t>
+  </si>
+  <si>
+    <t>DM aus K</t>
+  </si>
+  <si>
+    <t>Fanfähnchen</t>
+  </si>
+  <si>
+    <t>Scarlett Johansson ist eine absolut grandiose Schauspielerin!</t>
+  </si>
+  <si>
+    <t>Xy-ungelöst</t>
+  </si>
+  <si>
+    <t>Leider mag ich viele ihrer Filme nicht, was allerdings nie an ihr liegt</t>
+  </si>
+  <si>
+    <t>Zweifelsohne eine gute Schauspielerin</t>
+  </si>
+  <si>
+    <t>Einen Film mit Scarlett Johansson unbedingt in der Originalfassung ansehen/anhören.</t>
+  </si>
+  <si>
+    <t>elfotografo</t>
+  </si>
+  <si>
+    <t>Ihre Stimme ist noch einmal genauso sexy wie Ihr Aussehen, Ihre Ausstrahlung.</t>
+  </si>
+  <si>
+    <t>Glauben Sie ernsthaft, Ihr Vorredner kommt über den Trailer hinaus?</t>
+  </si>
+  <si>
+    <t>astor131</t>
+  </si>
+  <si>
+    <t>0.97</t>
+  </si>
+  <si>
+    <t>Die CDU sollte sich auf Ihrer Werte besinnen und auf das C das sie im Namen trägt.</t>
+  </si>
+  <si>
+    <t>jgbk</t>
+  </si>
+  <si>
+    <t>Mit dem U und besonders dem D haben die aber auch so ihre Probleme.</t>
+  </si>
+  <si>
+    <t>cnlzeitonline</t>
+  </si>
+  <si>
+    <t>Welche Werte? Wann war die CDU" Christlich", außer das sie das C im Namen trägt?</t>
+  </si>
+  <si>
+    <t>selten dämliche Überschrift</t>
+  </si>
+  <si>
+    <t>riennevaplus</t>
+  </si>
+  <si>
+    <t>Valerian I</t>
+  </si>
+  <si>
+    <t>https://www.zeit.de/politik/deutschland/2020-02/cdu-nachfolge-jens-spahn-armin-laschet-friedrich-merz</t>
+  </si>
+  <si>
+    <t>Ich hätte gern mal jemand junges</t>
+  </si>
+  <si>
+    <t>Arisaka</t>
+  </si>
+  <si>
+    <t>Vielleicht fliegt man damit auf die Nase, aber ich würde es gerne ausprobieren.</t>
+  </si>
+  <si>
+    <t>Nein ernsthaft: Die jüngeren können sich nicht durchsetzen</t>
+  </si>
+  <si>
+    <t>Slackovic</t>
+  </si>
+  <si>
+    <t>Na gut, dann halt Laschet als kleinstes Übel.</t>
+  </si>
+  <si>
+    <t>Was für eine dürftige Auswahl:</t>
+  </si>
+  <si>
+    <t>Friedrich Merz, der das Auslaufmodell Neoliberalismus der 80er Jahre wieder zurück haben will</t>
+  </si>
+  <si>
+    <t>Armin Laschet, der es nicht mal geschafft hat, in seinem Bundesland ein Waldstück in den Griff zu bekommen</t>
+  </si>
+  <si>
+    <t>Jens Spahn, der zwar als einziger der Unions-Minister fleißig und professionell arbeitet, aber das Image des ewigen Karrieristen nicht los wird.</t>
+  </si>
+  <si>
+    <t>Gut finde ich das nicht</t>
+  </si>
+  <si>
+    <t>Sommerrolle</t>
+  </si>
+  <si>
+    <t>https://www.zeit.de/politik/deutschland/2020-02/annegret-kramp-karrenbauer-ruecktritt-cdu</t>
+  </si>
+  <si>
+    <t>ich befürchte, dass die Zeit der großen Volksparteien dem Ende entgegen geht.</t>
+  </si>
+  <si>
+    <t>Und auf Verhältnisse wie die in Italien zusteuern.</t>
+  </si>
+  <si>
+    <t>Ich hielt Merz immer für ein Grossmaul ohne viel dahinter, und ich kann nicht sehen dass sich daran viel geändert hat.</t>
+  </si>
+  <si>
+    <t>Die sichere Wahl für die CDU ist Laschet, die mutige Wahl Spahn.</t>
+  </si>
+  <si>
+    <t>HKaspar</t>
+  </si>
+  <si>
+    <t>das ist das beste was den Grünen passieren kann</t>
+  </si>
+  <si>
+    <t>Direkte Demokratie 1</t>
+  </si>
+  <si>
+    <t>Ganz Deutschrap left the CHAT</t>
+  </si>
+  <si>
+    <t>Gülcan Kara</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=LgFQS4u--H0</t>
+  </si>
+  <si>
+    <t>Was ist das für ne sprache denkt sich jeder mero fan :))</t>
+  </si>
+  <si>
+    <t>Hadii Bakaliim</t>
+  </si>
+  <si>
+    <t>Das ist rap Punkt und jeder der damals schon deutschrap gehört hat weiß das</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>Man kann sagen was man will, aber Bushidos Stimme ist für so Shit wie gemacht.</t>
+  </si>
+  <si>
+    <t>Hisoka</t>
+  </si>
+  <si>
+    <t>Brett.. Warte schon auf Sonny Black 2</t>
+  </si>
+  <si>
+    <t>Dr Dodi</t>
+  </si>
+  <si>
+    <t>Guter Beat, guter Texzt! CCN 4 einfach ein Meisterwerk</t>
+  </si>
+  <si>
+    <t>P****HanneZ CCN4</t>
+  </si>
+  <si>
+    <t>Ich finde es nice dass du den alten beats treu bleibst</t>
+  </si>
+  <si>
+    <t>DJ_DBM Music</t>
+  </si>
+  <si>
+    <t>0.96</t>
+  </si>
+  <si>
+    <t>Das Album wird sich jetzt gegönnt</t>
+  </si>
+  <si>
+    <t>Beste line</t>
+  </si>
+  <si>
+    <t>M2ilfschnitte</t>
+  </si>
+  <si>
+    <t>Sachlich gesehen ist der Rap schon geil</t>
+  </si>
+  <si>
+    <t>Florian Harings</t>
+  </si>
+  <si>
+    <t>Bushido ist der beste und bleibt auch der beste</t>
+  </si>
+  <si>
+    <t>Volkan Erisoglu</t>
+  </si>
+  <si>
+    <t>Guter stuff. Auch stimmlich gute Combo.</t>
+  </si>
+  <si>
+    <t>Patrick Fame</t>
   </si>
 </sst>
 </file>
@@ -6227,12 +6482,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W1150"/>
+  <dimension ref="A1:W1200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="158" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1133" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="125" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1189" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="M1150" sqref="M1150:N1150"/>
+      <selection pane="bottomLeft" activeCell="M1197" sqref="M1197:N1200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -61368,7 +61623,7 @@
         <v>18</v>
       </c>
       <c r="R1078" t="s">
-        <v>1814</v>
+        <v>250</v>
       </c>
       <c r="S1078">
         <v>0.28000000000000003</v>
@@ -61391,16 +61646,16 @@
         <v>1234</v>
       </c>
       <c r="L1079" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="M1079" t="s">
         <v>1034</v>
       </c>
       <c r="N1079" t="s">
+        <v>1815</v>
+      </c>
+      <c r="P1079" t="s">
         <v>1816</v>
-      </c>
-      <c r="P1079" t="s">
-        <v>1817</v>
       </c>
       <c r="Q1079" t="s">
         <v>17</v>
@@ -61429,16 +61684,16 @@
         <v>1235</v>
       </c>
       <c r="L1080" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="M1080" t="s">
         <v>1034</v>
       </c>
       <c r="N1080" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="P1080" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="Q1080" t="s">
         <v>19</v>
@@ -61467,16 +61722,16 @@
         <v>1236</v>
       </c>
       <c r="L1081" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="M1081" t="s">
         <v>1034</v>
       </c>
       <c r="N1081" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="P1081" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="Q1081" t="s">
         <v>20</v>
@@ -61505,16 +61760,16 @@
         <v>1237</v>
       </c>
       <c r="L1082" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="M1082" t="s">
         <v>1034</v>
       </c>
       <c r="N1082" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="P1082" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="Q1082" t="s">
         <v>20</v>
@@ -61543,16 +61798,16 @@
         <v>1238</v>
       </c>
       <c r="L1083" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="M1083" t="s">
         <v>1034</v>
       </c>
       <c r="N1083" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="P1083" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="Q1083" t="s">
         <v>16</v>
@@ -61581,16 +61836,16 @@
         <v>1239</v>
       </c>
       <c r="L1084" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="M1084" t="s">
         <v>123</v>
       </c>
       <c r="N1084" t="s">
+        <v>1824</v>
+      </c>
+      <c r="P1084" t="s">
         <v>1825</v>
-      </c>
-      <c r="P1084" t="s">
-        <v>1826</v>
       </c>
       <c r="Q1084" t="s">
         <v>20</v>
@@ -61619,16 +61874,16 @@
         <v>1240</v>
       </c>
       <c r="L1085" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="M1085" t="s">
         <v>123</v>
       </c>
       <c r="N1085" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="P1085" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="Q1085" t="s">
         <v>20</v>
@@ -61657,16 +61912,16 @@
         <v>1241</v>
       </c>
       <c r="L1086" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="M1086" t="s">
         <v>123</v>
       </c>
       <c r="N1086" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="P1086" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="Q1086" t="s">
         <v>19</v>
@@ -61695,16 +61950,16 @@
         <v>1242</v>
       </c>
       <c r="L1087" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="M1087" t="s">
         <v>123</v>
       </c>
       <c r="N1087" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="P1087" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="Q1087" t="s">
         <v>17</v>
@@ -61733,16 +61988,16 @@
         <v>1243</v>
       </c>
       <c r="L1088" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="M1088" t="s">
         <v>123</v>
       </c>
       <c r="N1088" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="P1088" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="Q1088" t="s">
         <v>20</v>
@@ -61771,16 +62026,16 @@
         <v>1244</v>
       </c>
       <c r="L1089" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="M1089" t="s">
         <v>123</v>
       </c>
       <c r="N1089" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="P1089" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="Q1089" t="s">
         <v>19</v>
@@ -61809,16 +62064,16 @@
         <v>1245</v>
       </c>
       <c r="L1090" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="M1090" t="s">
         <v>123</v>
       </c>
       <c r="N1090" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="P1090" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="Q1090" t="s">
         <v>18</v>
@@ -61847,16 +62102,16 @@
         <v>1246</v>
       </c>
       <c r="L1091" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="M1091" t="s">
         <v>123</v>
       </c>
       <c r="N1091" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="P1091" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="Q1091" t="s">
         <v>17</v>
@@ -61885,16 +62140,16 @@
         <v>1247</v>
       </c>
       <c r="L1092" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="M1092" t="s">
         <v>123</v>
       </c>
       <c r="N1092" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="P1092" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="Q1092" t="s">
         <v>17</v>
@@ -61923,16 +62178,16 @@
         <v>1248</v>
       </c>
       <c r="L1093" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="M1093" t="s">
         <v>123</v>
       </c>
       <c r="N1093" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="P1093" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="Q1093" t="s">
         <v>17</v>
@@ -61961,16 +62216,16 @@
         <v>1249</v>
       </c>
       <c r="L1094" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="M1094" t="s">
         <v>123</v>
       </c>
       <c r="N1094" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="P1094" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="Q1094" t="s">
         <v>17</v>
@@ -61999,16 +62254,16 @@
         <v>1250</v>
       </c>
       <c r="L1095" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="M1095" t="s">
         <v>123</v>
       </c>
       <c r="N1095" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="P1095" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="Q1095" t="s">
         <v>17</v>
@@ -62037,16 +62292,16 @@
         <v>1251</v>
       </c>
       <c r="L1096" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="M1096" t="s">
         <v>123</v>
       </c>
       <c r="N1096" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="P1096" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="Q1096" t="s">
         <v>20</v>
@@ -62075,16 +62330,16 @@
         <v>1252</v>
       </c>
       <c r="L1097" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="M1097" t="s">
         <v>62</v>
       </c>
       <c r="N1097" t="s">
+        <v>1845</v>
+      </c>
+      <c r="P1097" t="s">
         <v>1846</v>
-      </c>
-      <c r="P1097" t="s">
-        <v>1847</v>
       </c>
       <c r="Q1097" t="s">
         <v>18</v>
@@ -62119,10 +62374,10 @@
         <v>62</v>
       </c>
       <c r="N1098" t="s">
+        <v>1847</v>
+      </c>
+      <c r="P1098" t="s">
         <v>1848</v>
-      </c>
-      <c r="P1098" t="s">
-        <v>1849</v>
       </c>
       <c r="Q1098" t="s">
         <v>17</v>
@@ -62151,16 +62406,16 @@
         <v>1254</v>
       </c>
       <c r="L1099" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="M1099" t="s">
         <v>62</v>
       </c>
       <c r="N1099" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="P1099" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="Q1099" t="s">
         <v>17</v>
@@ -62189,16 +62444,16 @@
         <v>1255</v>
       </c>
       <c r="L1100" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="M1100" t="s">
         <v>62</v>
       </c>
       <c r="N1100" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="P1100" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="Q1100" t="s">
         <v>17</v>
@@ -62227,16 +62482,16 @@
         <v>1256</v>
       </c>
       <c r="L1101" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="M1101" t="s">
         <v>62</v>
       </c>
       <c r="N1101" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="P1101" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="Q1101" t="s">
         <v>19</v>
@@ -62265,16 +62520,16 @@
         <v>1257</v>
       </c>
       <c r="L1102" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="M1102" t="s">
         <v>62</v>
       </c>
       <c r="N1102" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="P1102" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="Q1102" t="s">
         <v>19</v>
@@ -62309,10 +62564,10 @@
         <v>62</v>
       </c>
       <c r="N1103" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="P1103" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="Q1103" t="s">
         <v>20</v>
@@ -62347,10 +62602,10 @@
         <v>62</v>
       </c>
       <c r="N1104" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="P1104" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="Q1104" t="s">
         <v>16</v>
@@ -62379,16 +62634,16 @@
         <v>1260</v>
       </c>
       <c r="L1105" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="M1105" t="s">
         <v>62</v>
       </c>
       <c r="N1105" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="P1105" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="Q1105" t="s">
         <v>20</v>
@@ -62417,16 +62672,16 @@
         <v>1261</v>
       </c>
       <c r="L1106" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="M1106" t="s">
         <v>62</v>
       </c>
       <c r="N1106" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="P1106" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="Q1106" t="s">
         <v>19</v>
@@ -62455,16 +62710,16 @@
         <v>1262</v>
       </c>
       <c r="L1107" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="M1107" t="s">
         <v>62</v>
       </c>
       <c r="N1107" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="P1107" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="Q1107" t="s">
         <v>17</v>
@@ -62493,16 +62748,16 @@
         <v>1263</v>
       </c>
       <c r="L1108" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="M1108" t="s">
         <v>62</v>
       </c>
       <c r="N1108" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="P1108" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="Q1108" t="s">
         <v>19</v>
@@ -62531,16 +62786,16 @@
         <v>1264</v>
       </c>
       <c r="L1109" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="M1109" t="s">
         <v>62</v>
       </c>
       <c r="N1109" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="P1109" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="Q1109" t="s">
         <v>20</v>
@@ -62569,16 +62824,16 @@
         <v>1265</v>
       </c>
       <c r="L1110" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="M1110" t="s">
         <v>62</v>
       </c>
       <c r="N1110" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="P1110" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="Q1110" t="s">
         <v>17</v>
@@ -62607,16 +62862,16 @@
         <v>1266</v>
       </c>
       <c r="L1111" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="M1111" t="s">
         <v>62</v>
       </c>
       <c r="N1111" t="s">
+        <v>1867</v>
+      </c>
+      <c r="P1111" t="s">
         <v>1868</v>
-      </c>
-      <c r="P1111" t="s">
-        <v>1869</v>
       </c>
       <c r="Q1111" t="s">
         <v>20</v>
@@ -62645,16 +62900,16 @@
         <v>1267</v>
       </c>
       <c r="L1112" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="M1112" t="s">
         <v>62</v>
       </c>
       <c r="N1112" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="P1112" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="Q1112" t="s">
         <v>16</v>
@@ -62683,16 +62938,16 @@
         <v>1268</v>
       </c>
       <c r="L1113" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="M1113" t="s">
         <v>62</v>
       </c>
       <c r="N1113" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="P1113" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="Q1113" t="s">
         <v>17</v>
@@ -62721,16 +62976,16 @@
         <v>1269</v>
       </c>
       <c r="L1114" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="M1114" t="s">
         <v>62</v>
       </c>
       <c r="N1114" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="P1114" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="Q1114" t="s">
         <v>20</v>
@@ -62759,16 +63014,16 @@
         <v>1270</v>
       </c>
       <c r="L1115" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="M1115" t="s">
         <v>62</v>
       </c>
       <c r="N1115" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="P1115" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="Q1115" t="s">
         <v>18</v>
@@ -62797,16 +63052,16 @@
         <v>1271</v>
       </c>
       <c r="L1116" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="M1116" t="s">
         <v>62</v>
       </c>
       <c r="N1116" t="s">
+        <v>1878</v>
+      </c>
+      <c r="P1116" t="s">
         <v>1879</v>
-      </c>
-      <c r="P1116" t="s">
-        <v>1880</v>
       </c>
       <c r="Q1116" t="s">
         <v>18</v>
@@ -62835,16 +63090,16 @@
         <v>1272</v>
       </c>
       <c r="L1117" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="M1117" t="s">
         <v>62</v>
       </c>
       <c r="N1117" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="P1117" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="Q1117" t="s">
         <v>18</v>
@@ -62873,16 +63128,16 @@
         <v>1273</v>
       </c>
       <c r="L1118" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="M1118" t="s">
         <v>62</v>
       </c>
       <c r="N1118" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="P1118" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="Q1118" t="s">
         <v>18</v>
@@ -62911,16 +63166,16 @@
         <v>1274</v>
       </c>
       <c r="L1119" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="M1119" t="s">
         <v>62</v>
       </c>
       <c r="N1119" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="P1119" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="Q1119" t="s">
         <v>19</v>
@@ -62949,16 +63204,16 @@
         <v>1275</v>
       </c>
       <c r="L1120" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="M1120" t="s">
         <v>62</v>
       </c>
       <c r="N1120" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="P1120" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="Q1120" t="s">
         <v>16</v>
@@ -62987,16 +63242,16 @@
         <v>1276</v>
       </c>
       <c r="L1121" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="M1121" t="s">
         <v>62</v>
       </c>
       <c r="N1121" t="s">
+        <v>1887</v>
+      </c>
+      <c r="P1121" t="s">
         <v>1888</v>
-      </c>
-      <c r="P1121" t="s">
-        <v>1889</v>
       </c>
       <c r="Q1121" t="s">
         <v>19</v>
@@ -63025,16 +63280,16 @@
         <v>1277</v>
       </c>
       <c r="L1122" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="M1122" t="s">
         <v>62</v>
       </c>
       <c r="N1122" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="P1122" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="Q1122" t="s">
         <v>19</v>
@@ -63063,16 +63318,16 @@
         <v>1278</v>
       </c>
       <c r="L1123" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="M1123" t="s">
         <v>62</v>
       </c>
       <c r="N1123" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="P1123" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="Q1123" t="s">
         <v>20</v>
@@ -63101,16 +63356,16 @@
         <v>1279</v>
       </c>
       <c r="L1124" t="s">
+        <v>1892</v>
+      </c>
+      <c r="M1124" t="s">
         <v>1893</v>
       </c>
-      <c r="M1124" t="s">
+      <c r="N1124" t="s">
         <v>1894</v>
       </c>
-      <c r="N1124" t="s">
+      <c r="P1124" t="s">
         <v>1895</v>
-      </c>
-      <c r="P1124" t="s">
-        <v>1896</v>
       </c>
       <c r="Q1124" t="s">
         <v>17</v>
@@ -63139,16 +63394,16 @@
         <v>1280</v>
       </c>
       <c r="L1125" t="s">
+        <v>1892</v>
+      </c>
+      <c r="M1125" t="s">
         <v>1893</v>
       </c>
-      <c r="M1125" t="s">
-        <v>1894</v>
-      </c>
       <c r="N1125" t="s">
+        <v>1896</v>
+      </c>
+      <c r="P1125" t="s">
         <v>1897</v>
-      </c>
-      <c r="P1125" t="s">
-        <v>1898</v>
       </c>
       <c r="Q1125" t="s">
         <v>17</v>
@@ -63177,16 +63432,16 @@
         <v>1281</v>
       </c>
       <c r="L1126" t="s">
+        <v>1898</v>
+      </c>
+      <c r="M1126" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1126" t="s">
+        <v>1896</v>
+      </c>
+      <c r="P1126" t="s">
         <v>1899</v>
-      </c>
-      <c r="M1126" t="s">
-        <v>1894</v>
-      </c>
-      <c r="N1126" t="s">
-        <v>1897</v>
-      </c>
-      <c r="P1126" t="s">
-        <v>1900</v>
       </c>
       <c r="Q1126" t="s">
         <v>19</v>
@@ -63215,16 +63470,16 @@
         <v>1282</v>
       </c>
       <c r="L1127" t="s">
+        <v>1900</v>
+      </c>
+      <c r="M1127" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1127" t="s">
+        <v>1896</v>
+      </c>
+      <c r="P1127" t="s">
         <v>1901</v>
-      </c>
-      <c r="M1127" t="s">
-        <v>1894</v>
-      </c>
-      <c r="N1127" t="s">
-        <v>1897</v>
-      </c>
-      <c r="P1127" t="s">
-        <v>1902</v>
       </c>
       <c r="Q1127" t="s">
         <v>17</v>
@@ -63253,16 +63508,16 @@
         <v>1283</v>
       </c>
       <c r="L1128" t="s">
+        <v>1902</v>
+      </c>
+      <c r="M1128" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1128" t="s">
+        <v>1896</v>
+      </c>
+      <c r="P1128" t="s">
         <v>1903</v>
-      </c>
-      <c r="M1128" t="s">
-        <v>1894</v>
-      </c>
-      <c r="N1128" t="s">
-        <v>1897</v>
-      </c>
-      <c r="P1128" t="s">
-        <v>1904</v>
       </c>
       <c r="Q1128" t="s">
         <v>20</v>
@@ -63291,16 +63546,16 @@
         <v>1284</v>
       </c>
       <c r="L1129" t="s">
+        <v>1904</v>
+      </c>
+      <c r="M1129" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1129" t="s">
+        <v>1896</v>
+      </c>
+      <c r="P1129" t="s">
         <v>1905</v>
-      </c>
-      <c r="M1129" t="s">
-        <v>1894</v>
-      </c>
-      <c r="N1129" t="s">
-        <v>1897</v>
-      </c>
-      <c r="P1129" t="s">
-        <v>1906</v>
       </c>
       <c r="Q1129" t="s">
         <v>17</v>
@@ -63329,16 +63584,16 @@
         <v>1285</v>
       </c>
       <c r="L1130" t="s">
+        <v>1906</v>
+      </c>
+      <c r="M1130" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1130" t="s">
+        <v>1896</v>
+      </c>
+      <c r="P1130" t="s">
         <v>1907</v>
-      </c>
-      <c r="M1130" t="s">
-        <v>1894</v>
-      </c>
-      <c r="N1130" t="s">
-        <v>1897</v>
-      </c>
-      <c r="P1130" t="s">
-        <v>1908</v>
       </c>
       <c r="Q1130" t="s">
         <v>17</v>
@@ -63367,16 +63622,16 @@
         <v>1286</v>
       </c>
       <c r="L1131" t="s">
+        <v>1908</v>
+      </c>
+      <c r="M1131" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1131" t="s">
+        <v>1896</v>
+      </c>
+      <c r="P1131" t="s">
         <v>1909</v>
-      </c>
-      <c r="M1131" t="s">
-        <v>1894</v>
-      </c>
-      <c r="N1131" t="s">
-        <v>1897</v>
-      </c>
-      <c r="P1131" t="s">
-        <v>1910</v>
       </c>
       <c r="Q1131" t="s">
         <v>16</v>
@@ -63405,16 +63660,16 @@
         <v>1287</v>
       </c>
       <c r="L1132" t="s">
+        <v>1910</v>
+      </c>
+      <c r="M1132" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1132" t="s">
+        <v>1896</v>
+      </c>
+      <c r="P1132" t="s">
         <v>1911</v>
-      </c>
-      <c r="M1132" t="s">
-        <v>1894</v>
-      </c>
-      <c r="N1132" t="s">
-        <v>1897</v>
-      </c>
-      <c r="P1132" t="s">
-        <v>1912</v>
       </c>
       <c r="Q1132" t="s">
         <v>17</v>
@@ -63443,16 +63698,16 @@
         <v>1288</v>
       </c>
       <c r="L1133" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="M1133" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="N1133" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="P1133" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="Q1133" t="s">
         <v>17</v>
@@ -63481,16 +63736,16 @@
         <v>1289</v>
       </c>
       <c r="L1134" t="s">
+        <v>1913</v>
+      </c>
+      <c r="M1134" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1134" t="s">
+        <v>1896</v>
+      </c>
+      <c r="P1134" t="s">
         <v>1914</v>
-      </c>
-      <c r="M1134" t="s">
-        <v>1894</v>
-      </c>
-      <c r="N1134" t="s">
-        <v>1897</v>
-      </c>
-      <c r="P1134" t="s">
-        <v>1915</v>
       </c>
       <c r="Q1134" t="s">
         <v>19</v>
@@ -63519,16 +63774,16 @@
         <v>1290</v>
       </c>
       <c r="L1135" t="s">
+        <v>1915</v>
+      </c>
+      <c r="M1135" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1135" t="s">
+        <v>1896</v>
+      </c>
+      <c r="P1135" t="s">
         <v>1916</v>
-      </c>
-      <c r="M1135" t="s">
-        <v>1894</v>
-      </c>
-      <c r="N1135" t="s">
-        <v>1897</v>
-      </c>
-      <c r="P1135" t="s">
-        <v>1917</v>
       </c>
       <c r="Q1135" t="s">
         <v>19</v>
@@ -63557,16 +63812,16 @@
         <v>1291</v>
       </c>
       <c r="L1136" t="s">
+        <v>1917</v>
+      </c>
+      <c r="M1136" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1136" t="s">
+        <v>1896</v>
+      </c>
+      <c r="P1136" t="s">
         <v>1918</v>
-      </c>
-      <c r="M1136" t="s">
-        <v>1894</v>
-      </c>
-      <c r="N1136" t="s">
-        <v>1897</v>
-      </c>
-      <c r="P1136" t="s">
-        <v>1919</v>
       </c>
       <c r="Q1136" t="s">
         <v>17</v>
@@ -63595,16 +63850,16 @@
         <v>1292</v>
       </c>
       <c r="L1137" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="M1137" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="N1137" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="P1137" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="Q1137" t="s">
         <v>20</v>
@@ -63633,16 +63888,16 @@
         <v>1293</v>
       </c>
       <c r="L1138" t="s">
+        <v>1920</v>
+      </c>
+      <c r="M1138" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1138" t="s">
+        <v>1896</v>
+      </c>
+      <c r="P1138" t="s">
         <v>1921</v>
-      </c>
-      <c r="M1138" t="s">
-        <v>1894</v>
-      </c>
-      <c r="N1138" t="s">
-        <v>1897</v>
-      </c>
-      <c r="P1138" t="s">
-        <v>1922</v>
       </c>
       <c r="Q1138" t="s">
         <v>16</v>
@@ -63671,16 +63926,16 @@
         <v>1294</v>
       </c>
       <c r="L1139" t="s">
+        <v>1922</v>
+      </c>
+      <c r="M1139" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1139" t="s">
+        <v>1896</v>
+      </c>
+      <c r="P1139" t="s">
         <v>1923</v>
-      </c>
-      <c r="M1139" t="s">
-        <v>1894</v>
-      </c>
-      <c r="N1139" t="s">
-        <v>1897</v>
-      </c>
-      <c r="P1139" t="s">
-        <v>1924</v>
       </c>
       <c r="Q1139" t="s">
         <v>17</v>
@@ -63709,16 +63964,16 @@
         <v>1295</v>
       </c>
       <c r="L1140" t="s">
+        <v>1924</v>
+      </c>
+      <c r="M1140" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1140" t="s">
+        <v>1896</v>
+      </c>
+      <c r="P1140" t="s">
         <v>1925</v>
-      </c>
-      <c r="M1140" t="s">
-        <v>1894</v>
-      </c>
-      <c r="N1140" t="s">
-        <v>1897</v>
-      </c>
-      <c r="P1140" t="s">
-        <v>1926</v>
       </c>
       <c r="Q1140" t="s">
         <v>17</v>
@@ -63747,16 +64002,16 @@
         <v>1296</v>
       </c>
       <c r="L1141" t="s">
+        <v>1926</v>
+      </c>
+      <c r="M1141" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1141" t="s">
+        <v>1896</v>
+      </c>
+      <c r="P1141" t="s">
         <v>1927</v>
-      </c>
-      <c r="M1141" t="s">
-        <v>1894</v>
-      </c>
-      <c r="N1141" t="s">
-        <v>1897</v>
-      </c>
-      <c r="P1141" t="s">
-        <v>1928</v>
       </c>
       <c r="Q1141" t="s">
         <v>17</v>
@@ -63785,16 +64040,16 @@
         <v>1297</v>
       </c>
       <c r="L1142" t="s">
+        <v>1928</v>
+      </c>
+      <c r="M1142" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1142" t="s">
+        <v>1896</v>
+      </c>
+      <c r="P1142" t="s">
         <v>1929</v>
-      </c>
-      <c r="M1142" t="s">
-        <v>1894</v>
-      </c>
-      <c r="N1142" t="s">
-        <v>1897</v>
-      </c>
-      <c r="P1142" t="s">
-        <v>1930</v>
       </c>
       <c r="Q1142" t="s">
         <v>17</v>
@@ -63823,16 +64078,16 @@
         <v>1298</v>
       </c>
       <c r="L1143" t="s">
+        <v>1930</v>
+      </c>
+      <c r="M1143" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1143" t="s">
+        <v>1896</v>
+      </c>
+      <c r="P1143" t="s">
         <v>1931</v>
-      </c>
-      <c r="M1143" t="s">
-        <v>1894</v>
-      </c>
-      <c r="N1143" t="s">
-        <v>1897</v>
-      </c>
-      <c r="P1143" t="s">
-        <v>1932</v>
       </c>
       <c r="Q1143" t="s">
         <v>17</v>
@@ -63861,19 +64116,34 @@
         <v>1299</v>
       </c>
       <c r="L1144" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="M1144" t="s">
         <v>123</v>
       </c>
       <c r="N1144" t="s">
+        <v>1933</v>
+      </c>
+      <c r="P1144" t="s">
         <v>1934</v>
-      </c>
-      <c r="P1144" t="s">
-        <v>1935</v>
       </c>
       <c r="Q1144" t="s">
         <v>17</v>
+      </c>
+      <c r="R1144" t="s">
+        <v>197</v>
+      </c>
+      <c r="S1144" t="s">
+        <v>1669</v>
+      </c>
+      <c r="T1144" t="s">
+        <v>165</v>
+      </c>
+      <c r="U1144" t="s">
+        <v>197</v>
+      </c>
+      <c r="V1144" t="s">
+        <v>455</v>
       </c>
       <c r="W1144" t="s">
         <v>32</v>
@@ -63884,19 +64154,34 @@
         <v>1300</v>
       </c>
       <c r="L1145" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="M1145" t="s">
         <v>123</v>
       </c>
       <c r="N1145" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="P1145" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="Q1145" t="s">
         <v>17</v>
+      </c>
+      <c r="R1145" t="s">
+        <v>211</v>
+      </c>
+      <c r="S1145" t="s">
+        <v>907</v>
+      </c>
+      <c r="T1145" t="s">
+        <v>165</v>
+      </c>
+      <c r="U1145" t="s">
+        <v>197</v>
+      </c>
+      <c r="V1145" t="s">
+        <v>102</v>
       </c>
       <c r="W1145" t="s">
         <v>32</v>
@@ -63907,19 +64192,34 @@
         <v>1301</v>
       </c>
       <c r="L1146" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="M1146" t="s">
         <v>123</v>
       </c>
       <c r="N1146" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="P1146" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="Q1146" t="s">
         <v>20</v>
+      </c>
+      <c r="R1146" t="s">
+        <v>53</v>
+      </c>
+      <c r="S1146" t="s">
+        <v>102</v>
+      </c>
+      <c r="T1146" t="s">
+        <v>211</v>
+      </c>
+      <c r="U1146" t="s">
+        <v>211</v>
+      </c>
+      <c r="V1146" t="s">
+        <v>542</v>
       </c>
       <c r="W1146" t="s">
         <v>32</v>
@@ -63930,73 +64230,1733 @@
         <v>1302</v>
       </c>
       <c r="L1147" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="M1147" t="s">
         <v>123</v>
       </c>
       <c r="N1147" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="P1147" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="Q1147" t="s">
         <v>20</v>
       </c>
+      <c r="R1147" t="s">
+        <v>53</v>
+      </c>
+      <c r="S1147" t="s">
+        <v>160</v>
+      </c>
+      <c r="T1147" t="s">
+        <v>211</v>
+      </c>
+      <c r="U1147" t="s">
+        <v>165</v>
+      </c>
+      <c r="V1147" t="s">
+        <v>613</v>
+      </c>
       <c r="W1147" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="1148" spans="1:23" x14ac:dyDescent="0.2">
       <c r="L1148" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="M1148" t="s">
         <v>62</v>
       </c>
       <c r="N1148" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="P1148" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="Q1148" t="s">
         <v>16</v>
       </c>
+      <c r="R1148" t="s">
+        <v>542</v>
+      </c>
+      <c r="S1148" t="s">
+        <v>211</v>
+      </c>
+      <c r="T1148" t="s">
+        <v>102</v>
+      </c>
+      <c r="U1148" t="s">
+        <v>141</v>
+      </c>
+      <c r="V1148" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="1149" spans="1:23" x14ac:dyDescent="0.2">
       <c r="L1149" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="M1149" t="s">
         <v>62</v>
       </c>
       <c r="N1149" t="s">
+        <v>1941</v>
+      </c>
+      <c r="P1149" t="s">
         <v>1942</v>
-      </c>
-      <c r="P1149" t="s">
-        <v>1943</v>
       </c>
       <c r="Q1149" t="s">
         <v>17</v>
       </c>
+      <c r="R1149" t="s">
+        <v>64</v>
+      </c>
+      <c r="S1149" t="s">
+        <v>1635</v>
+      </c>
+      <c r="T1149" t="s">
+        <v>64</v>
+      </c>
+      <c r="U1149" t="s">
+        <v>43</v>
+      </c>
+      <c r="V1149" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="1150" spans="1:23" x14ac:dyDescent="0.2">
       <c r="L1150" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="M1150" t="s">
         <v>62</v>
       </c>
       <c r="N1150" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="P1150" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="Q1150" t="s">
         <v>18</v>
+      </c>
+      <c r="R1150" t="s">
+        <v>65</v>
+      </c>
+      <c r="S1150" t="s">
+        <v>211</v>
+      </c>
+      <c r="T1150" t="s">
+        <v>635</v>
+      </c>
+      <c r="U1150" t="s">
+        <v>101</v>
+      </c>
+      <c r="V1150" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="L1151" t="s">
+        <v>1945</v>
+      </c>
+      <c r="M1151" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1151" t="s">
+        <v>1941</v>
+      </c>
+      <c r="P1151" t="s">
+        <v>1946</v>
+      </c>
+      <c r="Q1151" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1151" t="s">
+        <v>65</v>
+      </c>
+      <c r="S1151" t="s">
+        <v>211</v>
+      </c>
+      <c r="T1151" t="s">
+        <v>613</v>
+      </c>
+      <c r="U1151" t="s">
+        <v>142</v>
+      </c>
+      <c r="V1151" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="L1152" t="s">
+        <v>1948</v>
+      </c>
+      <c r="M1152" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1152" t="s">
+        <v>1941</v>
+      </c>
+      <c r="P1152" t="s">
+        <v>1947</v>
+      </c>
+      <c r="Q1152" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1152" t="s">
+        <v>709</v>
+      </c>
+      <c r="S1152" t="s">
+        <v>101</v>
+      </c>
+      <c r="T1152" t="s">
+        <v>211</v>
+      </c>
+      <c r="U1152" t="s">
+        <v>211</v>
+      </c>
+      <c r="V1152" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="1153" spans="12:22" x14ac:dyDescent="0.2">
+      <c r="L1153" t="s">
+        <v>1951</v>
+      </c>
+      <c r="M1153" t="s">
+        <v>270</v>
+      </c>
+      <c r="N1153" t="s">
+        <v>1950</v>
+      </c>
+      <c r="P1153" t="s">
+        <v>1949</v>
+      </c>
+      <c r="Q1153" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1153" t="s">
+        <v>211</v>
+      </c>
+      <c r="S1153" t="s">
+        <v>106</v>
+      </c>
+      <c r="T1153" t="s">
+        <v>64</v>
+      </c>
+      <c r="U1153" t="s">
+        <v>197</v>
+      </c>
+      <c r="V1153" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="1154" spans="12:22" x14ac:dyDescent="0.2">
+      <c r="L1154" t="s">
+        <v>1951</v>
+      </c>
+      <c r="M1154" t="s">
+        <v>270</v>
+      </c>
+      <c r="N1154" t="s">
+        <v>1950</v>
+      </c>
+      <c r="P1154" t="s">
+        <v>1952</v>
+      </c>
+      <c r="Q1154" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1154" t="s">
+        <v>211</v>
+      </c>
+      <c r="S1154" t="s">
+        <v>102</v>
+      </c>
+      <c r="T1154" t="s">
+        <v>64</v>
+      </c>
+      <c r="U1154" t="s">
+        <v>197</v>
+      </c>
+      <c r="V1154" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="1155" spans="12:22" x14ac:dyDescent="0.2">
+      <c r="L1155" t="s">
+        <v>1951</v>
+      </c>
+      <c r="M1155" t="s">
+        <v>270</v>
+      </c>
+      <c r="N1155" t="s">
+        <v>1950</v>
+      </c>
+      <c r="P1155" t="s">
+        <v>1953</v>
+      </c>
+      <c r="Q1155" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1155" t="s">
+        <v>211</v>
+      </c>
+      <c r="S1155" t="s">
+        <v>1635</v>
+      </c>
+      <c r="T1155" t="s">
+        <v>64</v>
+      </c>
+      <c r="U1155" t="s">
+        <v>197</v>
+      </c>
+      <c r="V1155" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="1156" spans="12:22" x14ac:dyDescent="0.2">
+      <c r="L1156" t="s">
+        <v>1955</v>
+      </c>
+      <c r="M1156" t="s">
+        <v>270</v>
+      </c>
+      <c r="N1156" t="s">
+        <v>1950</v>
+      </c>
+      <c r="P1156" t="s">
+        <v>1954</v>
+      </c>
+      <c r="Q1156" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1156" t="s">
+        <v>80</v>
+      </c>
+      <c r="S1156" t="s">
+        <v>211</v>
+      </c>
+      <c r="T1156" t="s">
+        <v>228</v>
+      </c>
+      <c r="U1156" t="s">
+        <v>106</v>
+      </c>
+      <c r="V1156" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="1157" spans="12:22" x14ac:dyDescent="0.2">
+      <c r="L1157" t="s">
+        <v>1955</v>
+      </c>
+      <c r="M1157" t="s">
+        <v>270</v>
+      </c>
+      <c r="N1157" t="s">
+        <v>1950</v>
+      </c>
+      <c r="P1157" t="s">
+        <v>1956</v>
+      </c>
+      <c r="Q1157" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1157" t="s">
+        <v>211</v>
+      </c>
+      <c r="S1157" t="s">
+        <v>1669</v>
+      </c>
+      <c r="T1157" t="s">
+        <v>197</v>
+      </c>
+      <c r="U1157" t="s">
+        <v>197</v>
+      </c>
+      <c r="V1157" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="1158" spans="12:22" x14ac:dyDescent="0.2">
+      <c r="L1158" t="s">
+        <v>1958</v>
+      </c>
+      <c r="M1158" t="s">
+        <v>270</v>
+      </c>
+      <c r="N1158" t="s">
+        <v>1950</v>
+      </c>
+      <c r="P1158" t="s">
+        <v>1957</v>
+      </c>
+      <c r="Q1158" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1158" t="s">
+        <v>211</v>
+      </c>
+      <c r="S1158" t="s">
+        <v>1353</v>
+      </c>
+      <c r="T1158" t="s">
+        <v>64</v>
+      </c>
+      <c r="U1158" t="s">
+        <v>85</v>
+      </c>
+      <c r="V1158" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="1159" spans="12:22" x14ac:dyDescent="0.2">
+      <c r="L1159" t="s">
+        <v>1958</v>
+      </c>
+      <c r="M1159" t="s">
+        <v>270</v>
+      </c>
+      <c r="N1159" t="s">
+        <v>1950</v>
+      </c>
+      <c r="P1159" t="s">
+        <v>1959</v>
+      </c>
+      <c r="Q1159" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1159" t="s">
+        <v>65</v>
+      </c>
+      <c r="S1159" t="s">
+        <v>530</v>
+      </c>
+      <c r="T1159" t="s">
+        <v>64</v>
+      </c>
+      <c r="U1159" t="s">
+        <v>43</v>
+      </c>
+      <c r="V1159" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="1160" spans="12:22" x14ac:dyDescent="0.2">
+      <c r="L1160" t="s">
+        <v>1965</v>
+      </c>
+      <c r="M1160" t="s">
+        <v>270</v>
+      </c>
+      <c r="N1160" t="s">
+        <v>1950</v>
+      </c>
+      <c r="P1160" t="s">
+        <v>1960</v>
+      </c>
+      <c r="Q1160" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1160" t="s">
+        <v>99</v>
+      </c>
+      <c r="S1160" t="s">
+        <v>211</v>
+      </c>
+      <c r="T1160" t="s">
+        <v>79</v>
+      </c>
+      <c r="U1160" t="s">
+        <v>31</v>
+      </c>
+      <c r="V1160" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="1161" spans="12:22" x14ac:dyDescent="0.2">
+      <c r="L1161" t="s">
+        <v>1966</v>
+      </c>
+      <c r="M1161" t="s">
+        <v>270</v>
+      </c>
+      <c r="N1161" t="s">
+        <v>1950</v>
+      </c>
+      <c r="P1161" t="s">
+        <v>1961</v>
+      </c>
+      <c r="Q1161" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1161" t="s">
+        <v>222</v>
+      </c>
+      <c r="S1161" t="s">
+        <v>106</v>
+      </c>
+      <c r="T1161" t="s">
+        <v>64</v>
+      </c>
+      <c r="U1161" t="s">
+        <v>197</v>
+      </c>
+      <c r="V1161" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="1162" spans="12:22" x14ac:dyDescent="0.2">
+      <c r="L1162" t="s">
+        <v>1966</v>
+      </c>
+      <c r="M1162" t="s">
+        <v>270</v>
+      </c>
+      <c r="N1162" t="s">
+        <v>1950</v>
+      </c>
+      <c r="P1162" t="s">
+        <v>1962</v>
+      </c>
+      <c r="Q1162" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1162" t="s">
+        <v>64</v>
+      </c>
+      <c r="S1162" t="s">
+        <v>106</v>
+      </c>
+      <c r="T1162" t="s">
+        <v>197</v>
+      </c>
+      <c r="U1162" t="s">
+        <v>43</v>
+      </c>
+      <c r="V1162" t="s">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="1163" spans="12:22" x14ac:dyDescent="0.2">
+      <c r="L1163" t="s">
+        <v>1966</v>
+      </c>
+      <c r="M1163" t="s">
+        <v>270</v>
+      </c>
+      <c r="N1163" t="s">
+        <v>1950</v>
+      </c>
+      <c r="P1163" t="s">
+        <v>1963</v>
+      </c>
+      <c r="Q1163" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1163" t="s">
+        <v>165</v>
+      </c>
+      <c r="S1163" t="s">
+        <v>1669</v>
+      </c>
+      <c r="T1163" t="s">
+        <v>64</v>
+      </c>
+      <c r="U1163" t="s">
+        <v>43</v>
+      </c>
+      <c r="V1163" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="1164" spans="12:22" x14ac:dyDescent="0.2">
+      <c r="L1164" t="s">
+        <v>1967</v>
+      </c>
+      <c r="M1164" t="s">
+        <v>270</v>
+      </c>
+      <c r="N1164" t="s">
+        <v>1950</v>
+      </c>
+      <c r="P1164" t="s">
+        <v>1964</v>
+      </c>
+      <c r="Q1164" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1164" t="s">
+        <v>95</v>
+      </c>
+      <c r="S1164" t="s">
+        <v>305</v>
+      </c>
+      <c r="T1164" t="s">
+        <v>211</v>
+      </c>
+      <c r="U1164" t="s">
+        <v>635</v>
+      </c>
+      <c r="V1164" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="1165" spans="12:22" x14ac:dyDescent="0.2">
+      <c r="L1165" t="s">
+        <v>1969</v>
+      </c>
+      <c r="M1165" t="s">
+        <v>270</v>
+      </c>
+      <c r="N1165" t="s">
+        <v>1950</v>
+      </c>
+      <c r="P1165" t="s">
+        <v>1968</v>
+      </c>
+      <c r="Q1165" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1165" t="s">
+        <v>64</v>
+      </c>
+      <c r="S1165" t="s">
+        <v>1977</v>
+      </c>
+      <c r="T1165" t="s">
+        <v>197</v>
+      </c>
+      <c r="U1165" t="s">
+        <v>85</v>
+      </c>
+      <c r="V1165" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="1166" spans="12:22" x14ac:dyDescent="0.2">
+      <c r="L1166" t="s">
+        <v>1969</v>
+      </c>
+      <c r="M1166" t="s">
+        <v>270</v>
+      </c>
+      <c r="N1166" t="s">
+        <v>1950</v>
+      </c>
+      <c r="P1166" t="s">
+        <v>1970</v>
+      </c>
+      <c r="Q1166" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1166" t="s">
+        <v>211</v>
+      </c>
+      <c r="S1166" t="s">
+        <v>152</v>
+      </c>
+      <c r="T1166" t="s">
+        <v>211</v>
+      </c>
+      <c r="U1166" t="s">
+        <v>185</v>
+      </c>
+      <c r="V1166" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="1167" spans="12:22" x14ac:dyDescent="0.2">
+      <c r="L1167" t="s">
+        <v>1969</v>
+      </c>
+      <c r="M1167" t="s">
+        <v>270</v>
+      </c>
+      <c r="N1167" t="s">
+        <v>1950</v>
+      </c>
+      <c r="P1167" t="s">
+        <v>1971</v>
+      </c>
+      <c r="Q1167" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1167" t="s">
+        <v>211</v>
+      </c>
+      <c r="S1167" t="s">
+        <v>101</v>
+      </c>
+      <c r="T1167" t="s">
+        <v>64</v>
+      </c>
+      <c r="U1167" t="s">
+        <v>211</v>
+      </c>
+      <c r="V1167" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="1168" spans="12:22" x14ac:dyDescent="0.2">
+      <c r="L1168" t="s">
+        <v>1973</v>
+      </c>
+      <c r="M1168" t="s">
+        <v>270</v>
+      </c>
+      <c r="N1168" t="s">
+        <v>1950</v>
+      </c>
+      <c r="P1168" t="s">
+        <v>1972</v>
+      </c>
+      <c r="Q1168" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1168" t="s">
+        <v>366</v>
+      </c>
+      <c r="S1168" t="s">
+        <v>160</v>
+      </c>
+      <c r="T1168" t="s">
+        <v>64</v>
+      </c>
+      <c r="U1168" t="s">
+        <v>64</v>
+      </c>
+      <c r="V1168" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="1169" spans="12:22" x14ac:dyDescent="0.2">
+      <c r="L1169" t="s">
+        <v>1973</v>
+      </c>
+      <c r="M1169" t="s">
+        <v>270</v>
+      </c>
+      <c r="N1169" t="s">
+        <v>1950</v>
+      </c>
+      <c r="P1169" t="s">
+        <v>1974</v>
+      </c>
+      <c r="Q1169" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1169" t="s">
+        <v>207</v>
+      </c>
+      <c r="S1169" t="s">
+        <v>1353</v>
+      </c>
+      <c r="T1169" t="s">
+        <v>64</v>
+      </c>
+      <c r="U1169" t="s">
+        <v>43</v>
+      </c>
+      <c r="V1169" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="1170" spans="12:22" x14ac:dyDescent="0.2">
+      <c r="L1170" t="s">
+        <v>1976</v>
+      </c>
+      <c r="M1170" t="s">
+        <v>270</v>
+      </c>
+      <c r="N1170" t="s">
+        <v>1950</v>
+      </c>
+      <c r="P1170" t="s">
+        <v>1975</v>
+      </c>
+      <c r="Q1170" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1170" t="s">
+        <v>185</v>
+      </c>
+      <c r="S1170" t="s">
+        <v>211</v>
+      </c>
+      <c r="T1170" t="s">
+        <v>542</v>
+      </c>
+      <c r="U1170" t="s">
+        <v>350</v>
+      </c>
+      <c r="V1170" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="1171" spans="12:22" x14ac:dyDescent="0.2">
+      <c r="L1171" t="s">
+        <v>1979</v>
+      </c>
+      <c r="M1171" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1171" t="s">
+        <v>1986</v>
+      </c>
+      <c r="P1171" t="s">
+        <v>1978</v>
+      </c>
+      <c r="Q1171" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1171" t="s">
+        <v>79</v>
+      </c>
+      <c r="S1171" t="s">
+        <v>211</v>
+      </c>
+      <c r="T1171" t="s">
+        <v>986</v>
+      </c>
+      <c r="U1171" t="s">
+        <v>877</v>
+      </c>
+      <c r="V1171" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="1172" spans="12:22" x14ac:dyDescent="0.2">
+      <c r="L1172" t="s">
+        <v>1981</v>
+      </c>
+      <c r="M1172" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1172" t="s">
+        <v>1986</v>
+      </c>
+      <c r="P1172" t="s">
+        <v>1980</v>
+      </c>
+      <c r="Q1172" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1172" t="s">
+        <v>101</v>
+      </c>
+      <c r="S1172" t="s">
+        <v>159</v>
+      </c>
+      <c r="T1172" t="s">
+        <v>552</v>
+      </c>
+      <c r="U1172" t="s">
+        <v>613</v>
+      </c>
+      <c r="V1172" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="1173" spans="12:22" x14ac:dyDescent="0.2">
+      <c r="L1173" t="s">
+        <v>1985</v>
+      </c>
+      <c r="M1173" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1173" t="s">
+        <v>1986</v>
+      </c>
+      <c r="P1173" t="s">
+        <v>1982</v>
+      </c>
+      <c r="Q1173" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1173" t="s">
+        <v>240</v>
+      </c>
+      <c r="S1173" t="s">
+        <v>159</v>
+      </c>
+      <c r="T1173" t="s">
+        <v>101</v>
+      </c>
+      <c r="U1173" t="s">
+        <v>542</v>
+      </c>
+      <c r="V1173" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="1174" spans="12:22" x14ac:dyDescent="0.2">
+      <c r="L1174" t="s">
+        <v>1984</v>
+      </c>
+      <c r="M1174" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1174" t="s">
+        <v>1986</v>
+      </c>
+      <c r="P1174" t="s">
+        <v>1983</v>
+      </c>
+      <c r="Q1174" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1174" t="s">
+        <v>228</v>
+      </c>
+      <c r="S1174" t="s">
+        <v>165</v>
+      </c>
+      <c r="T1174" t="s">
+        <v>986</v>
+      </c>
+      <c r="U1174" t="s">
+        <v>530</v>
+      </c>
+      <c r="V1174" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="1175" spans="12:22" x14ac:dyDescent="0.2">
+      <c r="L1175" t="s">
+        <v>1988</v>
+      </c>
+      <c r="M1175" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1175" t="s">
+        <v>1986</v>
+      </c>
+      <c r="P1175" t="s">
+        <v>1987</v>
+      </c>
+      <c r="Q1175" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1175" t="s">
+        <v>165</v>
+      </c>
+      <c r="S1175" t="s">
+        <v>452</v>
+      </c>
+      <c r="T1175" t="s">
+        <v>165</v>
+      </c>
+      <c r="U1175" t="s">
+        <v>53</v>
+      </c>
+      <c r="V1175" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1176" spans="12:22" x14ac:dyDescent="0.2">
+      <c r="L1176" t="s">
+        <v>1988</v>
+      </c>
+      <c r="M1176" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1176" t="s">
+        <v>1986</v>
+      </c>
+      <c r="P1176" t="s">
+        <v>1989</v>
+      </c>
+      <c r="Q1176" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1176" t="s">
+        <v>64</v>
+      </c>
+      <c r="S1176" t="s">
+        <v>240</v>
+      </c>
+      <c r="T1176" t="s">
+        <v>211</v>
+      </c>
+      <c r="U1176" t="s">
+        <v>202</v>
+      </c>
+      <c r="V1176" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="1177" spans="12:22" x14ac:dyDescent="0.2">
+      <c r="L1177" t="s">
+        <v>1991</v>
+      </c>
+      <c r="M1177" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1177" t="s">
+        <v>1986</v>
+      </c>
+      <c r="P1177" t="s">
+        <v>1990</v>
+      </c>
+      <c r="Q1177" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1177" t="s">
+        <v>111</v>
+      </c>
+      <c r="S1177" t="s">
+        <v>211</v>
+      </c>
+      <c r="T1177" t="s">
+        <v>141</v>
+      </c>
+      <c r="U1177" t="s">
+        <v>79</v>
+      </c>
+      <c r="V1177" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="1178" spans="12:22" x14ac:dyDescent="0.2">
+      <c r="L1178" t="s">
+        <v>1028</v>
+      </c>
+      <c r="M1178" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1178" t="s">
+        <v>1986</v>
+      </c>
+      <c r="P1178" t="s">
+        <v>1992</v>
+      </c>
+      <c r="Q1178" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1178" t="s">
+        <v>211</v>
+      </c>
+      <c r="S1178" t="s">
+        <v>844</v>
+      </c>
+      <c r="T1178" t="s">
+        <v>211</v>
+      </c>
+      <c r="U1178" t="s">
+        <v>141</v>
+      </c>
+      <c r="V1178" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="1179" spans="12:22" x14ac:dyDescent="0.2">
+      <c r="L1179" t="s">
+        <v>1869</v>
+      </c>
+      <c r="M1179" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1179" t="s">
+        <v>1986</v>
+      </c>
+      <c r="P1179" t="s">
+        <v>1993</v>
+      </c>
+      <c r="Q1179" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1179" t="s">
+        <v>228</v>
+      </c>
+      <c r="S1179" t="s">
+        <v>211</v>
+      </c>
+      <c r="T1179" t="s">
+        <v>65</v>
+      </c>
+      <c r="U1179" t="s">
+        <v>530</v>
+      </c>
+      <c r="V1179" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="1180" spans="12:22" x14ac:dyDescent="0.2">
+      <c r="L1180" t="s">
+        <v>1869</v>
+      </c>
+      <c r="M1180" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1180" t="s">
+        <v>1986</v>
+      </c>
+      <c r="P1180" t="s">
+        <v>1994</v>
+      </c>
+      <c r="Q1180" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1180" t="s">
+        <v>825</v>
+      </c>
+      <c r="S1180" t="s">
+        <v>202</v>
+      </c>
+      <c r="T1180" t="s">
+        <v>542</v>
+      </c>
+      <c r="U1180" t="s">
+        <v>552</v>
+      </c>
+      <c r="V1180" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="1181" spans="12:22" x14ac:dyDescent="0.2">
+      <c r="L1181" t="s">
+        <v>1869</v>
+      </c>
+      <c r="M1181" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1181" t="s">
+        <v>1986</v>
+      </c>
+      <c r="P1181" t="s">
+        <v>1995</v>
+      </c>
+      <c r="Q1181" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1181" t="s">
+        <v>825</v>
+      </c>
+      <c r="S1181" t="s">
+        <v>165</v>
+      </c>
+      <c r="T1181" t="s">
+        <v>141</v>
+      </c>
+      <c r="U1181" t="s">
+        <v>613</v>
+      </c>
+      <c r="V1181" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="1182" spans="12:22" x14ac:dyDescent="0.2">
+      <c r="L1182" t="s">
+        <v>1869</v>
+      </c>
+      <c r="M1182" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1182" t="s">
+        <v>1986</v>
+      </c>
+      <c r="P1182" t="s">
+        <v>1996</v>
+      </c>
+      <c r="Q1182" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1182" t="s">
+        <v>884</v>
+      </c>
+      <c r="S1182" t="s">
+        <v>53</v>
+      </c>
+      <c r="T1182" t="s">
+        <v>240</v>
+      </c>
+      <c r="U1182" t="s">
+        <v>575</v>
+      </c>
+      <c r="V1182" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="1183" spans="12:22" x14ac:dyDescent="0.2">
+      <c r="L1183" t="s">
+        <v>1998</v>
+      </c>
+      <c r="M1183" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1183" t="s">
+        <v>1999</v>
+      </c>
+      <c r="P1183" t="s">
+        <v>1997</v>
+      </c>
+      <c r="Q1183" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1183" t="s">
+        <v>211</v>
+      </c>
+      <c r="S1183" t="s">
+        <v>211</v>
+      </c>
+      <c r="T1183" t="s">
+        <v>211</v>
+      </c>
+      <c r="U1183" t="s">
+        <v>907</v>
+      </c>
+      <c r="V1183" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1184" spans="12:22" x14ac:dyDescent="0.2">
+      <c r="L1184" t="s">
+        <v>1998</v>
+      </c>
+      <c r="M1184" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1184" t="s">
+        <v>1999</v>
+      </c>
+      <c r="P1184" t="s">
+        <v>2000</v>
+      </c>
+      <c r="Q1184" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1184" t="s">
+        <v>53</v>
+      </c>
+      <c r="S1184" t="s">
+        <v>211</v>
+      </c>
+      <c r="T1184" t="s">
+        <v>53</v>
+      </c>
+      <c r="U1184" t="s">
+        <v>552</v>
+      </c>
+      <c r="V1184" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="1185" spans="12:22" x14ac:dyDescent="0.2">
+      <c r="L1185" t="s">
+        <v>1998</v>
+      </c>
+      <c r="M1185" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1185" t="s">
+        <v>1999</v>
+      </c>
+      <c r="P1185" t="s">
+        <v>2001</v>
+      </c>
+      <c r="Q1185" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1185" t="s">
+        <v>53</v>
+      </c>
+      <c r="S1185" t="s">
+        <v>211</v>
+      </c>
+      <c r="T1185" t="s">
+        <v>542</v>
+      </c>
+      <c r="U1185" t="s">
+        <v>552</v>
+      </c>
+      <c r="V1185" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="1186" spans="12:22" x14ac:dyDescent="0.2">
+      <c r="L1186" t="s">
+        <v>2004</v>
+      </c>
+      <c r="M1186" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1186" t="s">
+        <v>1999</v>
+      </c>
+      <c r="P1186" t="s">
+        <v>2002</v>
+      </c>
+      <c r="Q1186" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1186" t="s">
+        <v>53</v>
+      </c>
+      <c r="S1186" t="s">
+        <v>64</v>
+      </c>
+      <c r="T1186" t="s">
+        <v>79</v>
+      </c>
+      <c r="U1186" t="s">
+        <v>42</v>
+      </c>
+      <c r="V1186" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="1187" spans="12:22" x14ac:dyDescent="0.2">
+      <c r="L1187" t="s">
+        <v>2004</v>
+      </c>
+      <c r="M1187" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1187" t="s">
+        <v>1999</v>
+      </c>
+      <c r="P1187" t="s">
+        <v>2003</v>
+      </c>
+      <c r="Q1187" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1187" t="s">
+        <v>613</v>
+      </c>
+      <c r="S1187" t="s">
+        <v>189</v>
+      </c>
+      <c r="T1187" t="s">
+        <v>185</v>
+      </c>
+      <c r="U1187" t="s">
+        <v>654</v>
+      </c>
+      <c r="V1187" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="1188" spans="12:22" x14ac:dyDescent="0.2">
+      <c r="L1188" t="s">
+        <v>2006</v>
+      </c>
+      <c r="M1188" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1188" t="s">
+        <v>1999</v>
+      </c>
+      <c r="P1188" t="s">
+        <v>2005</v>
+      </c>
+      <c r="Q1188" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1188" t="s">
+        <v>111</v>
+      </c>
+      <c r="S1188" t="s">
+        <v>211</v>
+      </c>
+      <c r="T1188" t="s">
+        <v>588</v>
+      </c>
+      <c r="U1188" t="s">
+        <v>236</v>
+      </c>
+      <c r="V1188" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="1189" spans="12:22" x14ac:dyDescent="0.2">
+      <c r="L1189" t="s">
+        <v>2008</v>
+      </c>
+      <c r="M1189" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1189" t="s">
+        <v>2009</v>
+      </c>
+      <c r="P1189" t="s">
+        <v>2007</v>
+      </c>
+      <c r="Q1189" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1189" t="s">
+        <v>185</v>
+      </c>
+      <c r="S1189" t="s">
+        <v>211</v>
+      </c>
+      <c r="T1189" t="s">
+        <v>613</v>
+      </c>
+      <c r="U1189" t="s">
+        <v>240</v>
+      </c>
+      <c r="V1189" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="1190" spans="12:22" x14ac:dyDescent="0.2">
+      <c r="L1190" t="s">
+        <v>2011</v>
+      </c>
+      <c r="M1190" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1190" t="s">
+        <v>2009</v>
+      </c>
+      <c r="P1190" t="s">
+        <v>2010</v>
+      </c>
+      <c r="Q1190" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1190" t="s">
+        <v>189</v>
+      </c>
+      <c r="S1190" t="s">
+        <v>211</v>
+      </c>
+      <c r="T1190" t="s">
+        <v>530</v>
+      </c>
+      <c r="U1190" t="s">
+        <v>240</v>
+      </c>
+      <c r="V1190" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="1191" spans="12:22" x14ac:dyDescent="0.2">
+      <c r="L1191" t="s">
+        <v>2013</v>
+      </c>
+      <c r="M1191" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1191" t="s">
+        <v>2009</v>
+      </c>
+      <c r="P1191" t="s">
+        <v>2012</v>
+      </c>
+      <c r="Q1191" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1191" t="s">
+        <v>31</v>
+      </c>
+      <c r="S1191" t="s">
+        <v>530</v>
+      </c>
+      <c r="T1191" t="s">
+        <v>142</v>
+      </c>
+      <c r="U1191" t="s">
+        <v>211</v>
+      </c>
+      <c r="V1191" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="1192" spans="12:22" x14ac:dyDescent="0.2">
+      <c r="L1192" t="s">
+        <v>2015</v>
+      </c>
+      <c r="M1192" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1192" t="s">
+        <v>2009</v>
+      </c>
+      <c r="P1192" t="s">
+        <v>2014</v>
+      </c>
+      <c r="Q1192" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1192" t="s">
+        <v>65</v>
+      </c>
+      <c r="S1192" t="s">
+        <v>402</v>
+      </c>
+      <c r="T1192" t="s">
+        <v>53</v>
+      </c>
+      <c r="U1192" t="s">
+        <v>159</v>
+      </c>
+      <c r="V1192" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="1193" spans="12:22" x14ac:dyDescent="0.2">
+      <c r="L1193" t="s">
+        <v>2017</v>
+      </c>
+      <c r="M1193" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1193" t="s">
+        <v>2009</v>
+      </c>
+      <c r="P1193" t="s">
+        <v>2016</v>
+      </c>
+      <c r="Q1193" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1193" t="s">
+        <v>64</v>
+      </c>
+      <c r="S1193" t="s">
+        <v>530</v>
+      </c>
+      <c r="T1193" t="s">
+        <v>211</v>
+      </c>
+      <c r="U1193" t="s">
+        <v>43</v>
+      </c>
+      <c r="V1193" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="1194" spans="12:22" x14ac:dyDescent="0.2">
+      <c r="L1194" t="s">
+        <v>2019</v>
+      </c>
+      <c r="M1194" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1194" t="s">
+        <v>2009</v>
+      </c>
+      <c r="P1194" t="s">
+        <v>2018</v>
+      </c>
+      <c r="Q1194" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1194" t="s">
+        <v>197</v>
+      </c>
+      <c r="S1194" t="s">
+        <v>1669</v>
+      </c>
+      <c r="T1194" t="s">
+        <v>64</v>
+      </c>
+      <c r="U1194" t="s">
+        <v>85</v>
+      </c>
+      <c r="V1194" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1195" spans="12:22" x14ac:dyDescent="0.2">
+      <c r="L1195" t="s">
+        <v>2021</v>
+      </c>
+      <c r="M1195" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1195" t="s">
+        <v>2009</v>
+      </c>
+      <c r="P1195" t="s">
+        <v>2020</v>
+      </c>
+      <c r="Q1195" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1195" t="s">
+        <v>197</v>
+      </c>
+      <c r="S1195" t="s">
+        <v>2022</v>
+      </c>
+      <c r="T1195" t="s">
+        <v>53</v>
+      </c>
+      <c r="U1195" t="s">
+        <v>43</v>
+      </c>
+      <c r="V1195" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="1196" spans="12:22" x14ac:dyDescent="0.2">
+      <c r="L1196" t="s">
+        <v>2021</v>
+      </c>
+      <c r="M1196" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1196" t="s">
+        <v>2009</v>
+      </c>
+      <c r="P1196" t="s">
+        <v>2023</v>
+      </c>
+      <c r="Q1196" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1196" t="s">
+        <v>85</v>
+      </c>
+      <c r="S1196" t="s">
+        <v>42</v>
+      </c>
+      <c r="T1196" t="s">
+        <v>43</v>
+      </c>
+      <c r="U1196" t="s">
+        <v>85</v>
+      </c>
+      <c r="V1196" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="1197" spans="12:22" x14ac:dyDescent="0.2">
+      <c r="L1197" t="s">
+        <v>2025</v>
+      </c>
+      <c r="M1197" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1197" t="s">
+        <v>2009</v>
+      </c>
+      <c r="P1197" t="s">
+        <v>2024</v>
+      </c>
+      <c r="Q1197" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1197" t="s">
+        <v>53</v>
+      </c>
+      <c r="S1197" t="s">
+        <v>907</v>
+      </c>
+      <c r="T1197" t="s">
+        <v>197</v>
+      </c>
+      <c r="U1197" t="s">
+        <v>43</v>
+      </c>
+      <c r="V1197" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="1198" spans="12:22" x14ac:dyDescent="0.2">
+      <c r="L1198" t="s">
+        <v>2027</v>
+      </c>
+      <c r="M1198" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1198" t="s">
+        <v>2009</v>
+      </c>
+      <c r="P1198" t="s">
+        <v>2026</v>
+      </c>
+      <c r="Q1198" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1198" t="s">
+        <v>240</v>
+      </c>
+      <c r="S1198" t="s">
+        <v>613</v>
+      </c>
+      <c r="T1198" t="s">
+        <v>197</v>
+      </c>
+      <c r="U1198" t="s">
+        <v>43</v>
+      </c>
+      <c r="V1198" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="1199" spans="12:22" x14ac:dyDescent="0.2">
+      <c r="L1199" t="s">
+        <v>2029</v>
+      </c>
+      <c r="M1199" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1199" t="s">
+        <v>2009</v>
+      </c>
+      <c r="P1199" t="s">
+        <v>2028</v>
+      </c>
+      <c r="Q1199" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1199" t="s">
+        <v>73</v>
+      </c>
+      <c r="S1199" t="s">
+        <v>1353</v>
+      </c>
+      <c r="T1199" t="s">
+        <v>64</v>
+      </c>
+      <c r="U1199" t="s">
+        <v>53</v>
+      </c>
+      <c r="V1199" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1200" spans="12:22" x14ac:dyDescent="0.2">
+      <c r="L1200" t="s">
+        <v>2031</v>
+      </c>
+      <c r="M1200" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1200" t="s">
+        <v>2009</v>
+      </c>
+      <c r="P1200" t="s">
+        <v>2030</v>
+      </c>
+      <c r="Q1200" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1200" t="s">
+        <v>211</v>
+      </c>
+      <c r="S1200" t="s">
+        <v>1669</v>
+      </c>
+      <c r="T1200" t="s">
+        <v>197</v>
+      </c>
+      <c r="U1200" t="s">
+        <v>43</v>
+      </c>
+      <c r="V1200" t="s">
+        <v>588</v>
       </c>
     </row>
   </sheetData>

--- a/webserver/model_data/TrainingData_ml.xlsx
+++ b/webserver/model_data/TrainingData_ml.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13157" uniqueCount="2032">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13630" uniqueCount="2152">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -6123,6 +6123,366 @@
   </si>
   <si>
     <t>Patrick Fame</t>
+  </si>
+  <si>
+    <t>mal an die hier meckern kleiner Tipp von mir macht euern Kopf zu oder hört es auch doch einfach nicht an Hauptsache mal dumm daher gelabbert</t>
+  </si>
+  <si>
+    <t>Herbert Uttrich</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=2czABFw6RnE</t>
+  </si>
+  <si>
+    <t>ihr Wichtigtuer</t>
+  </si>
+  <si>
+    <t>Ist zwar nicht meine Musikrichtung, finde den Song aber trotzdem geil!!!</t>
+  </si>
+  <si>
+    <t>Reverend Music</t>
+  </si>
+  <si>
+    <t>Live ist sie immer besser als ihre Videos</t>
+  </si>
+  <si>
+    <t>Wudruff Wildcard</t>
+  </si>
+  <si>
+    <t>Das ist es, was jeden richtig guten Künstler auszeichnet</t>
+  </si>
+  <si>
+    <t>Helene Fischer ist das beste!</t>
+  </si>
+  <si>
+    <t>Marilene Wolf</t>
+  </si>
+  <si>
+    <t>Ich mag sehr gerne!</t>
+  </si>
+  <si>
+    <t>Schön Muzik!</t>
+  </si>
+  <si>
+    <t>So eine schöne stimme</t>
+  </si>
+  <si>
+    <t>JeskesBegurem</t>
+  </si>
+  <si>
+    <t>geiles Video und geile frau</t>
+  </si>
+  <si>
+    <t>Florian Florian</t>
+  </si>
+  <si>
+    <t>ich liebe dich und du hast das Musik sehr gut gemacht</t>
+  </si>
+  <si>
+    <t>das Lied, okay- ich verstehe, warum es ein Hit war.</t>
+  </si>
+  <si>
+    <t>Scrubbini</t>
+  </si>
+  <si>
+    <t>Aber das Video sieht so nach 1-€-Produktion aus..echt nicht gut.</t>
+  </si>
+  <si>
+    <t>Coole Clips, Coole Musik!</t>
+  </si>
+  <si>
+    <t>Ich liebe das Lied.</t>
+  </si>
+  <si>
+    <t>christina tas</t>
+  </si>
+  <si>
+    <t>Ich glaube, dass das bestes Deutsches Lied ist</t>
+  </si>
+  <si>
+    <t>Alte Erinnerungen kommen hoch</t>
+  </si>
+  <si>
+    <t>lyre elain</t>
+  </si>
+  <si>
+    <t>Ich mag immernoch Helene Fischer hab sie auch in real life gesehen</t>
+  </si>
+  <si>
+    <t>geiles lied es ist auf platz 1 meiner top 10 lieblings lieder</t>
+  </si>
+  <si>
+    <t>WolfyNova</t>
+  </si>
+  <si>
+    <t>Sven Brochhagen</t>
+  </si>
+  <si>
+    <t>Helene du bist schön und hast eine tolle Stimme und du hast es ein großes talent</t>
+  </si>
+  <si>
+    <t>Werner Mettlach</t>
+  </si>
+  <si>
+    <t>Helene Fischer bei dir ist einfach alles perfekt</t>
+  </si>
+  <si>
+    <t>Lelolinchen</t>
+  </si>
+  <si>
+    <t>sie kann sehr gut singen das ist klar</t>
+  </si>
+  <si>
+    <t>Steven Sell</t>
+  </si>
+  <si>
+    <t>Die Frau ist wunderbar und macht deutsche Musik attraktive !!!!!!!</t>
+  </si>
+  <si>
+    <t>sifis sidis</t>
+  </si>
+  <si>
+    <t>Hellenen du bist meine Traumfrau</t>
+  </si>
+  <si>
+    <t>Philipp Meyer</t>
+  </si>
+  <si>
+    <t>Sie kann echt gut singen</t>
+  </si>
+  <si>
+    <t>Cemyoo</t>
+  </si>
+  <si>
+    <t>Gänsehaut pur</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Gmo4WVqaU1g</t>
+  </si>
+  <si>
+    <t>Lisa Ru</t>
+  </si>
+  <si>
+    <t>Wundervolle Stimme ihr beiden</t>
+  </si>
+  <si>
+    <t>Jason Enrico Altendorf</t>
+  </si>
+  <si>
+    <t>Mir kommen immer die Tränen</t>
+  </si>
+  <si>
+    <t>Kurz Stier</t>
+  </si>
+  <si>
+    <t>Eines der schönsten Lieder überhaupt</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Xytt5PNC0Wo</t>
+  </si>
+  <si>
+    <t>Mike Hanson</t>
+  </si>
+  <si>
+    <t>Richtiger Ohrwurm-Song bei mir momentan</t>
+  </si>
+  <si>
+    <t>Hendrik B</t>
+  </si>
+  <si>
+    <t>Oh wie ich dieses Video liebe</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=8BX70FI7hfI</t>
+  </si>
+  <si>
+    <t>ApertureIntern023</t>
+  </si>
+  <si>
+    <t>Diese beiden Jungs. Welche große Kunst die beiden da machen.</t>
+  </si>
+  <si>
+    <t>Super Lied!</t>
+  </si>
+  <si>
+    <t>Jorg Meguin</t>
+  </si>
+  <si>
+    <t>Immer noch schön, ich weine</t>
+  </si>
+  <si>
+    <t>floomdesk</t>
+  </si>
+  <si>
+    <t>Yeah Baby!</t>
+  </si>
+  <si>
+    <t>Norbert Ketterl</t>
+  </si>
+  <si>
+    <t>Große Liebe!</t>
+  </si>
+  <si>
+    <t>Herr Engels</t>
+  </si>
+  <si>
+    <t>Dirk Amos</t>
+  </si>
+  <si>
+    <t>Cool</t>
+  </si>
+  <si>
+    <t>verfluchte scheisse... der song ist 20 jahre alt...</t>
+  </si>
+  <si>
+    <t>Agares Blight</t>
+  </si>
+  <si>
+    <t>Meine Jugend zieht an meinem inneren Auge vorbei wenn ich das höre .... Gänsehaut !!!</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vZPMJCmBfi4</t>
+  </si>
+  <si>
+    <t>The1Rausch</t>
+  </si>
+  <si>
+    <t>2018 und immer noch mega.</t>
+  </si>
+  <si>
+    <t>Zeitlos!</t>
+  </si>
+  <si>
+    <t>It sounds like Cherry</t>
+  </si>
+  <si>
+    <t>Hamburger schule!!!!</t>
+  </si>
+  <si>
+    <t>toll</t>
+  </si>
+  <si>
+    <t>thomas böge</t>
+  </si>
+  <si>
+    <t>uoeigrono</t>
+  </si>
+  <si>
+    <t>der track ist geil so wie er ist</t>
+  </si>
+  <si>
+    <t>yomanpolanski</t>
+  </si>
+  <si>
+    <t>sehr geil!!!</t>
+  </si>
+  <si>
+    <t>devilshaircut</t>
+  </si>
+  <si>
+    <t>allezhenry</t>
+  </si>
+  <si>
+    <t>ich reg mich blos immerwieder auf wenn ich anfange die dämlichen comments zu lesen</t>
+  </si>
+  <si>
+    <t>ICH LIEBE ES!!!!!!</t>
+  </si>
+  <si>
+    <t>Daggi1234</t>
+  </si>
+  <si>
+    <t>Wer keine Ahnung hat, der sollte den Sabbel halten ;)</t>
+  </si>
+  <si>
+    <t>renethann</t>
+  </si>
+  <si>
+    <t>Recht hast du, tagtraeumer1990!</t>
+  </si>
+  <si>
+    <t>TheCLion</t>
+  </si>
+  <si>
+    <t>Ich freue mich schon auf die Konzerte 2008!!!!!!</t>
+  </si>
+  <si>
+    <t>chechersf</t>
+  </si>
+  <si>
+    <t>eines der schönsten Lieder von Tocotronic!!!</t>
+  </si>
+  <si>
+    <t>das lied is echt ziemlich bis sehr geil</t>
+  </si>
+  <si>
+    <t>Pupa Strav</t>
+  </si>
+  <si>
+    <t>Kann allen nur zustimmen!!Eines der Besten Lider von den Tocos!!</t>
+  </si>
+  <si>
+    <t>frvfl76</t>
+  </si>
+  <si>
+    <t>zeitloses meisterwerk!</t>
+  </si>
+  <si>
+    <t>schwarzemilch</t>
+  </si>
+  <si>
+    <t>also des video hält sich in grenzen, aber.. der text is gut un so</t>
+  </si>
+  <si>
+    <t>Essipnetzak</t>
+  </si>
+  <si>
+    <t>ich finds ziemlich geil....</t>
+  </si>
+  <si>
+    <t>das beste lied was sie je rausgebracht haben!!!</t>
+  </si>
+  <si>
+    <t>reeloop1</t>
+  </si>
+  <si>
+    <t>Feinstes tocotronic!</t>
+  </si>
+  <si>
+    <t>Martin Nö</t>
+  </si>
+  <si>
+    <t>Vergesst alles was ihr kennt und dann wisst ihr endlich das was ihr braucht.</t>
+  </si>
+  <si>
+    <t>pop gegen deutschland</t>
+  </si>
+  <si>
+    <t>ekili11</t>
+  </si>
+  <si>
+    <t>Diese Möchtegernaufrichtigkeit von dir ist ja wohl echt lächerlich!!!</t>
+  </si>
+  <si>
+    <t>Was hat denn das mit nem Nazi zu tun, wenn man sagt, dass das richtig gute deutsche Musik ist!</t>
+  </si>
+  <si>
+    <t>tagtraeumer1990</t>
+  </si>
+  <si>
+    <t>Ehrlich wenn man nicht mal mehr ne Band loben kann, nur weil die aus Deutschland ist, dann ist dir auch nicht mehr zu helfen!</t>
+  </si>
+  <si>
+    <t>du glaubst bestimmt von dir selbst, daß du ein total lockerer und vor allem toleranter typ bist.</t>
+  </si>
+  <si>
+    <t>cycling4ever</t>
+  </si>
+  <si>
+    <t>Typen von Deiner Sorte gibt es zu Hunderten -auch im linken Lager.</t>
+  </si>
+  <si>
+    <t>Ich weiß, das hört Ihr nicht so gerne...</t>
   </si>
 </sst>
 </file>
@@ -6482,12 +6842,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W1200"/>
+  <dimension ref="A1:W1266"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="L1" zoomScale="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1189" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A1242" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="M1197" sqref="M1197:N1200"/>
+      <selection pane="bottomLeft" activeCell="M1240" sqref="M1240:N1266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -65959,6 +66319,1557 @@
         <v>588</v>
       </c>
     </row>
+    <row r="1201" spans="12:22" x14ac:dyDescent="0.2">
+      <c r="L1201" t="s">
+        <v>2033</v>
+      </c>
+      <c r="M1201" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1201" t="s">
+        <v>2034</v>
+      </c>
+      <c r="P1201" t="s">
+        <v>2032</v>
+      </c>
+      <c r="Q1201" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1201" t="s">
+        <v>530</v>
+      </c>
+      <c r="S1201" t="s">
+        <v>165</v>
+      </c>
+      <c r="T1201" t="s">
+        <v>128</v>
+      </c>
+      <c r="U1201" t="s">
+        <v>52</v>
+      </c>
+      <c r="V1201" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="1202" spans="12:22" x14ac:dyDescent="0.2">
+      <c r="L1202" t="s">
+        <v>2033</v>
+      </c>
+      <c r="M1202" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1202" t="s">
+        <v>2034</v>
+      </c>
+      <c r="P1202" t="s">
+        <v>2035</v>
+      </c>
+      <c r="Q1202" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1202" t="s">
+        <v>142</v>
+      </c>
+      <c r="S1202" t="s">
+        <v>64</v>
+      </c>
+      <c r="T1202" t="s">
+        <v>305</v>
+      </c>
+      <c r="U1202" t="s">
+        <v>1645</v>
+      </c>
+      <c r="V1202" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="1203" spans="12:22" x14ac:dyDescent="0.2">
+      <c r="L1203" t="s">
+        <v>2037</v>
+      </c>
+      <c r="M1203" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1203" t="s">
+        <v>2034</v>
+      </c>
+      <c r="P1203" t="s">
+        <v>2036</v>
+      </c>
+      <c r="Q1203" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1203" t="s">
+        <v>53</v>
+      </c>
+      <c r="S1203" t="s">
+        <v>106</v>
+      </c>
+      <c r="T1203" t="s">
+        <v>197</v>
+      </c>
+      <c r="U1203" t="s">
+        <v>189</v>
+      </c>
+      <c r="V1203" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="1204" spans="12:22" x14ac:dyDescent="0.2">
+      <c r="L1204" t="s">
+        <v>2039</v>
+      </c>
+      <c r="M1204" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1204" t="s">
+        <v>2034</v>
+      </c>
+      <c r="P1204" t="s">
+        <v>2038</v>
+      </c>
+      <c r="Q1204" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1204" t="s">
+        <v>223</v>
+      </c>
+      <c r="S1204" t="s">
+        <v>1645</v>
+      </c>
+      <c r="T1204" t="s">
+        <v>197</v>
+      </c>
+      <c r="U1204" t="s">
+        <v>197</v>
+      </c>
+      <c r="V1204" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="1205" spans="12:22" x14ac:dyDescent="0.2">
+      <c r="L1205" t="s">
+        <v>2039</v>
+      </c>
+      <c r="M1205" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1205" t="s">
+        <v>2034</v>
+      </c>
+      <c r="P1205" t="s">
+        <v>2040</v>
+      </c>
+      <c r="Q1205" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1205" t="s">
+        <v>530</v>
+      </c>
+      <c r="S1205" t="s">
+        <v>102</v>
+      </c>
+      <c r="T1205" t="s">
+        <v>197</v>
+      </c>
+      <c r="U1205" t="s">
+        <v>197</v>
+      </c>
+      <c r="V1205" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="1206" spans="12:22" x14ac:dyDescent="0.2">
+      <c r="L1206" t="s">
+        <v>2042</v>
+      </c>
+      <c r="M1206" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1206" t="s">
+        <v>2034</v>
+      </c>
+      <c r="P1206" t="s">
+        <v>2041</v>
+      </c>
+      <c r="Q1206" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1206" t="s">
+        <v>53</v>
+      </c>
+      <c r="S1206" t="s">
+        <v>2022</v>
+      </c>
+      <c r="T1206" t="s">
+        <v>211</v>
+      </c>
+      <c r="U1206" t="s">
+        <v>197</v>
+      </c>
+      <c r="V1206" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1207" spans="12:22" x14ac:dyDescent="0.2">
+      <c r="L1207" t="s">
+        <v>2042</v>
+      </c>
+      <c r="M1207" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1207" t="s">
+        <v>2034</v>
+      </c>
+      <c r="P1207" t="s">
+        <v>2043</v>
+      </c>
+      <c r="Q1207" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1207" t="s">
+        <v>197</v>
+      </c>
+      <c r="S1207" t="s">
+        <v>588</v>
+      </c>
+      <c r="T1207" t="s">
+        <v>85</v>
+      </c>
+      <c r="U1207" t="s">
+        <v>85</v>
+      </c>
+      <c r="V1207" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="1208" spans="12:22" x14ac:dyDescent="0.2">
+      <c r="L1208" t="s">
+        <v>2042</v>
+      </c>
+      <c r="M1208" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1208" t="s">
+        <v>2034</v>
+      </c>
+      <c r="P1208" t="s">
+        <v>2044</v>
+      </c>
+      <c r="Q1208" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1208" t="s">
+        <v>43</v>
+      </c>
+      <c r="S1208" t="s">
+        <v>1669</v>
+      </c>
+      <c r="T1208" t="s">
+        <v>43</v>
+      </c>
+      <c r="U1208" t="s">
+        <v>85</v>
+      </c>
+      <c r="V1208" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1209" spans="12:22" x14ac:dyDescent="0.2">
+      <c r="L1209" t="s">
+        <v>2046</v>
+      </c>
+      <c r="M1209" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1209" t="s">
+        <v>2034</v>
+      </c>
+      <c r="P1209" t="s">
+        <v>2045</v>
+      </c>
+      <c r="Q1209" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1209" t="s">
+        <v>211</v>
+      </c>
+      <c r="S1209" t="s">
+        <v>1669</v>
+      </c>
+      <c r="T1209" t="s">
+        <v>43</v>
+      </c>
+      <c r="U1209" t="s">
+        <v>43</v>
+      </c>
+      <c r="V1209" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1210" spans="12:22" x14ac:dyDescent="0.2">
+      <c r="L1210" t="s">
+        <v>2048</v>
+      </c>
+      <c r="M1210" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1210" t="s">
+        <v>2034</v>
+      </c>
+      <c r="P1210" t="s">
+        <v>2047</v>
+      </c>
+      <c r="Q1210" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1210" t="s">
+        <v>197</v>
+      </c>
+      <c r="S1210" t="s">
+        <v>1977</v>
+      </c>
+      <c r="T1210" t="s">
+        <v>211</v>
+      </c>
+      <c r="U1210" t="s">
+        <v>43</v>
+      </c>
+      <c r="V1210" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="1211" spans="12:22" x14ac:dyDescent="0.2">
+      <c r="M1211" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1211" t="s">
+        <v>2034</v>
+      </c>
+      <c r="P1211" t="s">
+        <v>2049</v>
+      </c>
+      <c r="Q1211" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1211" t="s">
+        <v>197</v>
+      </c>
+      <c r="S1211" t="s">
+        <v>1977</v>
+      </c>
+      <c r="T1211" t="s">
+        <v>43</v>
+      </c>
+      <c r="U1211" t="s">
+        <v>43</v>
+      </c>
+      <c r="V1211" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="1212" spans="12:22" x14ac:dyDescent="0.2">
+      <c r="L1212" t="s">
+        <v>2051</v>
+      </c>
+      <c r="M1212" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1212" t="s">
+        <v>2034</v>
+      </c>
+      <c r="P1212" t="s">
+        <v>2050</v>
+      </c>
+      <c r="Q1212" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1212" t="s">
+        <v>211</v>
+      </c>
+      <c r="S1212" t="s">
+        <v>137</v>
+      </c>
+      <c r="T1212" t="s">
+        <v>211</v>
+      </c>
+      <c r="U1212" t="s">
+        <v>189</v>
+      </c>
+      <c r="V1212" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="1213" spans="12:22" x14ac:dyDescent="0.2">
+      <c r="L1213" t="s">
+        <v>2051</v>
+      </c>
+      <c r="M1213" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1213" t="s">
+        <v>2034</v>
+      </c>
+      <c r="P1213" t="s">
+        <v>2052</v>
+      </c>
+      <c r="Q1213" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1213" t="s">
+        <v>350</v>
+      </c>
+      <c r="S1213" t="s">
+        <v>165</v>
+      </c>
+      <c r="T1213" t="s">
+        <v>31</v>
+      </c>
+      <c r="U1213" t="s">
+        <v>907</v>
+      </c>
+      <c r="V1213" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="1214" spans="12:22" x14ac:dyDescent="0.2">
+      <c r="M1214" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1214" t="s">
+        <v>2034</v>
+      </c>
+      <c r="P1214" t="s">
+        <v>2053</v>
+      </c>
+      <c r="Q1214" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1214" t="s">
+        <v>43</v>
+      </c>
+      <c r="S1214" t="s">
+        <v>1669</v>
+      </c>
+      <c r="T1214" t="s">
+        <v>197</v>
+      </c>
+      <c r="U1214" t="s">
+        <v>43</v>
+      </c>
+      <c r="V1214" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1215" spans="12:22" x14ac:dyDescent="0.2">
+      <c r="L1215" t="s">
+        <v>2055</v>
+      </c>
+      <c r="M1215" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1215" t="s">
+        <v>2034</v>
+      </c>
+      <c r="P1215" t="s">
+        <v>2054</v>
+      </c>
+      <c r="Q1215" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1215" t="s">
+        <v>86</v>
+      </c>
+      <c r="S1215" t="s">
+        <v>138</v>
+      </c>
+      <c r="T1215" t="s">
+        <v>86</v>
+      </c>
+      <c r="U1215" t="s">
+        <v>85</v>
+      </c>
+      <c r="V1215" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="1216" spans="12:22" x14ac:dyDescent="0.2">
+      <c r="L1216" t="s">
+        <v>2055</v>
+      </c>
+      <c r="M1216" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1216" t="s">
+        <v>2034</v>
+      </c>
+      <c r="P1216" t="s">
+        <v>2056</v>
+      </c>
+      <c r="Q1216" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1216" t="s">
+        <v>211</v>
+      </c>
+      <c r="S1216" t="s">
+        <v>366</v>
+      </c>
+      <c r="T1216" t="s">
+        <v>189</v>
+      </c>
+      <c r="U1216" t="s">
+        <v>43</v>
+      </c>
+      <c r="V1216" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="1217" spans="12:22" x14ac:dyDescent="0.2">
+      <c r="L1217" t="s">
+        <v>2058</v>
+      </c>
+      <c r="M1217" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1217" t="s">
+        <v>2034</v>
+      </c>
+      <c r="P1217" t="s">
+        <v>2057</v>
+      </c>
+      <c r="Q1217" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1217" t="s">
+        <v>197</v>
+      </c>
+      <c r="S1217" t="s">
+        <v>160</v>
+      </c>
+      <c r="T1217" t="s">
+        <v>197</v>
+      </c>
+      <c r="U1217" t="s">
+        <v>211</v>
+      </c>
+      <c r="V1217" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="1218" spans="12:22" x14ac:dyDescent="0.2">
+      <c r="L1218" t="s">
+        <v>2061</v>
+      </c>
+      <c r="M1218" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1218" t="s">
+        <v>2034</v>
+      </c>
+      <c r="P1218" t="s">
+        <v>2059</v>
+      </c>
+      <c r="Q1218" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1218" t="s">
+        <v>197</v>
+      </c>
+      <c r="S1218" t="s">
+        <v>102</v>
+      </c>
+      <c r="T1218" t="s">
+        <v>197</v>
+      </c>
+      <c r="U1218" t="s">
+        <v>159</v>
+      </c>
+      <c r="V1218" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="1219" spans="12:22" x14ac:dyDescent="0.2">
+      <c r="L1219" t="s">
+        <v>2062</v>
+      </c>
+      <c r="M1219" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1219" t="s">
+        <v>2034</v>
+      </c>
+      <c r="P1219" t="s">
+        <v>2060</v>
+      </c>
+      <c r="Q1219" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1219" t="s">
+        <v>43</v>
+      </c>
+      <c r="S1219" t="s">
+        <v>2022</v>
+      </c>
+      <c r="T1219" t="s">
+        <v>43</v>
+      </c>
+      <c r="U1219" t="s">
+        <v>43</v>
+      </c>
+      <c r="V1219" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1220" spans="12:22" x14ac:dyDescent="0.2">
+      <c r="L1220" t="s">
+        <v>2064</v>
+      </c>
+      <c r="M1220" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1220" t="s">
+        <v>2034</v>
+      </c>
+      <c r="P1220" t="s">
+        <v>2063</v>
+      </c>
+      <c r="Q1220" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1220" t="s">
+        <v>53</v>
+      </c>
+      <c r="S1220" t="s">
+        <v>1977</v>
+      </c>
+      <c r="T1220" t="s">
+        <v>43</v>
+      </c>
+      <c r="U1220" t="s">
+        <v>85</v>
+      </c>
+      <c r="V1220" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="1221" spans="12:22" x14ac:dyDescent="0.2">
+      <c r="L1221" t="s">
+        <v>2066</v>
+      </c>
+      <c r="M1221" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1221" t="s">
+        <v>2034</v>
+      </c>
+      <c r="P1221" t="s">
+        <v>2065</v>
+      </c>
+      <c r="Q1221" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1221" t="s">
+        <v>197</v>
+      </c>
+      <c r="S1221" t="s">
+        <v>1977</v>
+      </c>
+      <c r="T1221" t="s">
+        <v>85</v>
+      </c>
+      <c r="U1221" t="s">
+        <v>86</v>
+      </c>
+      <c r="V1221" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1222" spans="12:22" x14ac:dyDescent="0.2">
+      <c r="L1222" t="s">
+        <v>2068</v>
+      </c>
+      <c r="M1222" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1222" t="s">
+        <v>2034</v>
+      </c>
+      <c r="P1222" t="s">
+        <v>2067</v>
+      </c>
+      <c r="Q1222" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1222" t="s">
+        <v>211</v>
+      </c>
+      <c r="S1222" t="s">
+        <v>138</v>
+      </c>
+      <c r="T1222" t="s">
+        <v>85</v>
+      </c>
+      <c r="U1222" t="s">
+        <v>85</v>
+      </c>
+      <c r="V1222" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="1223" spans="12:22" x14ac:dyDescent="0.2">
+      <c r="L1223" t="s">
+        <v>2070</v>
+      </c>
+      <c r="M1223" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1223" t="s">
+        <v>2034</v>
+      </c>
+      <c r="P1223" t="s">
+        <v>2069</v>
+      </c>
+      <c r="Q1223" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1223" t="s">
+        <v>305</v>
+      </c>
+      <c r="S1223" t="s">
+        <v>1645</v>
+      </c>
+      <c r="T1223" t="s">
+        <v>43</v>
+      </c>
+      <c r="U1223" t="s">
+        <v>72</v>
+      </c>
+      <c r="V1223" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1224" spans="12:22" x14ac:dyDescent="0.2">
+      <c r="L1224" t="s">
+        <v>2072</v>
+      </c>
+      <c r="M1224" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1224" t="s">
+        <v>2034</v>
+      </c>
+      <c r="P1224" t="s">
+        <v>2071</v>
+      </c>
+      <c r="Q1224" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1224" t="s">
+        <v>43</v>
+      </c>
+      <c r="S1224" t="s">
+        <v>635</v>
+      </c>
+      <c r="T1224" t="s">
+        <v>85</v>
+      </c>
+      <c r="U1224" t="s">
+        <v>86</v>
+      </c>
+      <c r="V1224" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="1225" spans="12:22" x14ac:dyDescent="0.2">
+      <c r="L1225" t="s">
+        <v>2074</v>
+      </c>
+      <c r="M1225" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1225" t="s">
+        <v>2034</v>
+      </c>
+      <c r="P1225" t="s">
+        <v>2073</v>
+      </c>
+      <c r="Q1225" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1225" t="s">
+        <v>197</v>
+      </c>
+      <c r="S1225" t="s">
+        <v>366</v>
+      </c>
+      <c r="T1225" t="s">
+        <v>43</v>
+      </c>
+      <c r="U1225" t="s">
+        <v>85</v>
+      </c>
+      <c r="V1225" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="1226" spans="12:22" x14ac:dyDescent="0.2">
+      <c r="L1226" t="s">
+        <v>2077</v>
+      </c>
+      <c r="M1226" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1226" t="s">
+        <v>2076</v>
+      </c>
+      <c r="P1226" t="s">
+        <v>2075</v>
+      </c>
+      <c r="Q1226" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1226" t="s">
+        <v>43</v>
+      </c>
+      <c r="S1226" t="s">
+        <v>1977</v>
+      </c>
+      <c r="T1226" t="s">
+        <v>43</v>
+      </c>
+      <c r="U1226" t="s">
+        <v>85</v>
+      </c>
+      <c r="V1226" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="1227" spans="12:22" x14ac:dyDescent="0.2">
+      <c r="L1227" t="s">
+        <v>2079</v>
+      </c>
+      <c r="M1227" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1227" t="s">
+        <v>2076</v>
+      </c>
+      <c r="P1227" t="s">
+        <v>2078</v>
+      </c>
+      <c r="Q1227" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1227" t="s">
+        <v>43</v>
+      </c>
+      <c r="S1227" t="s">
+        <v>2022</v>
+      </c>
+      <c r="T1227" t="s">
+        <v>43</v>
+      </c>
+      <c r="U1227" t="s">
+        <v>85</v>
+      </c>
+      <c r="V1227" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="1228" spans="12:22" x14ac:dyDescent="0.2">
+      <c r="L1228" t="s">
+        <v>2081</v>
+      </c>
+      <c r="M1228" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1228" t="s">
+        <v>2076</v>
+      </c>
+      <c r="P1228" t="s">
+        <v>2080</v>
+      </c>
+      <c r="Q1228" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1228" t="s">
+        <v>85</v>
+      </c>
+      <c r="S1228" t="s">
+        <v>369</v>
+      </c>
+      <c r="T1228" t="s">
+        <v>85</v>
+      </c>
+      <c r="U1228" t="s">
+        <v>211</v>
+      </c>
+      <c r="V1228" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="1229" spans="12:22" x14ac:dyDescent="0.2">
+      <c r="L1229" t="s">
+        <v>2084</v>
+      </c>
+      <c r="M1229" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1229" t="s">
+        <v>2083</v>
+      </c>
+      <c r="P1229" t="s">
+        <v>2082</v>
+      </c>
+      <c r="Q1229" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1229" t="s">
+        <v>222</v>
+      </c>
+      <c r="S1229" t="s">
+        <v>1977</v>
+      </c>
+      <c r="T1229" t="s">
+        <v>211</v>
+      </c>
+      <c r="U1229" t="s">
+        <v>86</v>
+      </c>
+      <c r="V1229" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="1230" spans="12:22" x14ac:dyDescent="0.2">
+      <c r="L1230" t="s">
+        <v>2086</v>
+      </c>
+      <c r="M1230" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1230" t="s">
+        <v>2083</v>
+      </c>
+      <c r="P1230" t="s">
+        <v>2085</v>
+      </c>
+      <c r="Q1230" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1231" spans="12:22" x14ac:dyDescent="0.2">
+      <c r="L1231" t="s">
+        <v>2089</v>
+      </c>
+      <c r="M1231" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1231" t="s">
+        <v>2088</v>
+      </c>
+      <c r="P1231" t="s">
+        <v>2087</v>
+      </c>
+      <c r="Q1231" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1232" spans="12:22" x14ac:dyDescent="0.2">
+      <c r="L1232" t="s">
+        <v>2089</v>
+      </c>
+      <c r="M1232" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1232" t="s">
+        <v>2088</v>
+      </c>
+      <c r="P1232" t="s">
+        <v>2090</v>
+      </c>
+      <c r="Q1232" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1233" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1233" t="s">
+        <v>2092</v>
+      </c>
+      <c r="M1233" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1233" t="s">
+        <v>2088</v>
+      </c>
+      <c r="P1233" t="s">
+        <v>2091</v>
+      </c>
+      <c r="Q1233" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1234" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1234" t="s">
+        <v>2094</v>
+      </c>
+      <c r="M1234" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1234" t="s">
+        <v>2088</v>
+      </c>
+      <c r="P1234" t="s">
+        <v>2093</v>
+      </c>
+      <c r="Q1234" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1235" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1235" t="s">
+        <v>2096</v>
+      </c>
+      <c r="M1235" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1235" t="s">
+        <v>2088</v>
+      </c>
+      <c r="P1235" t="s">
+        <v>2095</v>
+      </c>
+      <c r="Q1235" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1236" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1236" t="s">
+        <v>2098</v>
+      </c>
+      <c r="M1236" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1236" t="s">
+        <v>2088</v>
+      </c>
+      <c r="P1236" t="s">
+        <v>2097</v>
+      </c>
+      <c r="Q1236" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1237" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1237" t="s">
+        <v>2099</v>
+      </c>
+      <c r="M1237" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1237" t="s">
+        <v>2088</v>
+      </c>
+      <c r="P1237" t="s">
+        <v>2100</v>
+      </c>
+      <c r="Q1237" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1238" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1238" t="s">
+        <v>2102</v>
+      </c>
+      <c r="M1238" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1238" t="s">
+        <v>2088</v>
+      </c>
+      <c r="P1238" t="s">
+        <v>2101</v>
+      </c>
+      <c r="Q1238" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1239" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1239" t="s">
+        <v>2105</v>
+      </c>
+      <c r="M1239" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1239" t="s">
+        <v>2104</v>
+      </c>
+      <c r="P1239" t="s">
+        <v>2103</v>
+      </c>
+      <c r="Q1239" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1240" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1240" t="s">
+        <v>2108</v>
+      </c>
+      <c r="M1240" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1240" t="s">
+        <v>2104</v>
+      </c>
+      <c r="P1240" t="s">
+        <v>2106</v>
+      </c>
+      <c r="Q1240" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1241" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1241" t="s">
+        <v>2108</v>
+      </c>
+      <c r="M1241" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1241" t="s">
+        <v>2104</v>
+      </c>
+      <c r="P1241" t="s">
+        <v>2107</v>
+      </c>
+      <c r="Q1241" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1242" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1242" t="s">
+        <v>2111</v>
+      </c>
+      <c r="M1242" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1242" t="s">
+        <v>2104</v>
+      </c>
+      <c r="P1242" t="s">
+        <v>2109</v>
+      </c>
+      <c r="Q1242" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1243" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1243" t="s">
+        <v>2112</v>
+      </c>
+      <c r="M1243" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1243" t="s">
+        <v>2104</v>
+      </c>
+      <c r="P1243" t="s">
+        <v>2110</v>
+      </c>
+      <c r="Q1243" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1244" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1244" t="s">
+        <v>2114</v>
+      </c>
+      <c r="M1244" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1244" t="s">
+        <v>2104</v>
+      </c>
+      <c r="P1244" t="s">
+        <v>2113</v>
+      </c>
+      <c r="Q1244" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1245" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1245" t="s">
+        <v>2116</v>
+      </c>
+      <c r="M1245" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1245" t="s">
+        <v>2104</v>
+      </c>
+      <c r="P1245" t="s">
+        <v>2115</v>
+      </c>
+      <c r="Q1245" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1246" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1246" t="s">
+        <v>2117</v>
+      </c>
+      <c r="M1246" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1246" t="s">
+        <v>2104</v>
+      </c>
+      <c r="P1246" t="s">
+        <v>2118</v>
+      </c>
+      <c r="Q1246" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1247" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1247" t="s">
+        <v>2120</v>
+      </c>
+      <c r="M1247" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1247" t="s">
+        <v>2104</v>
+      </c>
+      <c r="P1247" t="s">
+        <v>2119</v>
+      </c>
+      <c r="Q1247" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1248" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1248" t="s">
+        <v>2122</v>
+      </c>
+      <c r="M1248" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1248" t="s">
+        <v>2104</v>
+      </c>
+      <c r="P1248" t="s">
+        <v>2121</v>
+      </c>
+      <c r="Q1248" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1249" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1249" t="s">
+        <v>2124</v>
+      </c>
+      <c r="M1249" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1249" t="s">
+        <v>2104</v>
+      </c>
+      <c r="P1249" t="s">
+        <v>2123</v>
+      </c>
+      <c r="Q1249" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1250" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1250" t="s">
+        <v>2126</v>
+      </c>
+      <c r="M1250" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1250" t="s">
+        <v>2104</v>
+      </c>
+      <c r="P1250" t="s">
+        <v>2125</v>
+      </c>
+      <c r="Q1250" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1251" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1251" t="s">
+        <v>2120</v>
+      </c>
+      <c r="M1251" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1251" t="s">
+        <v>2104</v>
+      </c>
+      <c r="P1251" t="s">
+        <v>2127</v>
+      </c>
+      <c r="Q1251" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1252" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1252" t="s">
+        <v>2129</v>
+      </c>
+      <c r="M1252" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1252" t="s">
+        <v>2104</v>
+      </c>
+      <c r="P1252" t="s">
+        <v>2128</v>
+      </c>
+      <c r="Q1252" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1253" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1253" t="s">
+        <v>2131</v>
+      </c>
+      <c r="M1253" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1253" t="s">
+        <v>2104</v>
+      </c>
+      <c r="P1253" t="s">
+        <v>2130</v>
+      </c>
+      <c r="Q1253" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1254" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1254" t="s">
+        <v>2133</v>
+      </c>
+      <c r="M1254" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1254" t="s">
+        <v>2104</v>
+      </c>
+      <c r="P1254" t="s">
+        <v>2132</v>
+      </c>
+      <c r="Q1254" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1255" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1255" t="s">
+        <v>2135</v>
+      </c>
+      <c r="M1255" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1255" t="s">
+        <v>2104</v>
+      </c>
+      <c r="P1255" t="s">
+        <v>2134</v>
+      </c>
+      <c r="Q1255" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1256" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1256" t="s">
+        <v>2135</v>
+      </c>
+      <c r="M1256" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1256" t="s">
+        <v>2104</v>
+      </c>
+      <c r="P1256" t="s">
+        <v>2136</v>
+      </c>
+      <c r="Q1256" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1257" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1257" t="s">
+        <v>2138</v>
+      </c>
+      <c r="M1257" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1257" t="s">
+        <v>2104</v>
+      </c>
+      <c r="P1257" t="s">
+        <v>2137</v>
+      </c>
+      <c r="Q1257" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1258" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1258" t="s">
+        <v>2140</v>
+      </c>
+      <c r="M1258" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1258" t="s">
+        <v>2104</v>
+      </c>
+      <c r="P1258" t="s">
+        <v>2139</v>
+      </c>
+      <c r="Q1258" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1259" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1259" t="s">
+        <v>2140</v>
+      </c>
+      <c r="M1259" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1259" t="s">
+        <v>2104</v>
+      </c>
+      <c r="P1259" t="s">
+        <v>2141</v>
+      </c>
+      <c r="Q1259" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1260" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1260" t="s">
+        <v>2143</v>
+      </c>
+      <c r="M1260" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1260" t="s">
+        <v>2104</v>
+      </c>
+      <c r="P1260" t="s">
+        <v>2142</v>
+      </c>
+      <c r="Q1260" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1261" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1261" t="s">
+        <v>2146</v>
+      </c>
+      <c r="M1261" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1261" t="s">
+        <v>2104</v>
+      </c>
+      <c r="P1261" t="s">
+        <v>2144</v>
+      </c>
+      <c r="Q1261" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1262" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1262" t="s">
+        <v>2146</v>
+      </c>
+      <c r="M1262" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1262" t="s">
+        <v>2104</v>
+      </c>
+      <c r="P1262" t="s">
+        <v>2145</v>
+      </c>
+      <c r="Q1262" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1263" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1263" t="s">
+        <v>2146</v>
+      </c>
+      <c r="M1263" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1263" t="s">
+        <v>2104</v>
+      </c>
+      <c r="P1263" t="s">
+        <v>2147</v>
+      </c>
+      <c r="Q1263" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1264" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1264" t="s">
+        <v>2149</v>
+      </c>
+      <c r="M1264" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1264" t="s">
+        <v>2104</v>
+      </c>
+      <c r="P1264" t="s">
+        <v>2148</v>
+      </c>
+      <c r="Q1264" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1265" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1265" t="s">
+        <v>2149</v>
+      </c>
+      <c r="M1265" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1265" t="s">
+        <v>2104</v>
+      </c>
+      <c r="P1265" t="s">
+        <v>2150</v>
+      </c>
+      <c r="Q1265" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1266" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1266" t="s">
+        <v>2149</v>
+      </c>
+      <c r="M1266" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1266" t="s">
+        <v>2104</v>
+      </c>
+      <c r="P1266" t="s">
+        <v>2151</v>
+      </c>
+      <c r="Q1266" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/webserver/model_data/TrainingData_ml.xlsx
+++ b/webserver/model_data/TrainingData_ml.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13630" uniqueCount="2152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13955" uniqueCount="2251">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -6483,13 +6483,333 @@
   </si>
   <si>
     <t>Ich weiß, das hört Ihr nicht so gerne...</t>
+  </si>
+  <si>
+    <t>Der spricht mir aus dem Herzen.</t>
+  </si>
+  <si>
+    <t>Applaus fuer den Titel des Beitrags</t>
+  </si>
+  <si>
+    <t>Lukas Werth</t>
+  </si>
+  <si>
+    <t>https://www.faz.net/aktuell/wissen/coronavirus-uebertraeger-die-rache-des-schuppentiers-16622676.html?utm_source=pocket-newtab</t>
+  </si>
+  <si>
+    <t>Und ich will hier keinesfals weiteren Vorurteilen gegenueber der chinesischen Gesellschaft den Mund reden.</t>
+  </si>
+  <si>
+    <t>Doch glaube oder, besser, hoffe ich, dass es diese Rache der Tiere wirklich gibt.</t>
+  </si>
+  <si>
+    <t>Schweine aus der industrialisierten Tierfolter verstopfen unsere Arterien - recht so.</t>
+  </si>
+  <si>
+    <t>Ich hoffe nur, dass Trump Junior, wenn er das naechste Mal auf Grosswildjagd geht, von einem Tier ueber den Haufen gerannt wird.</t>
+  </si>
+  <si>
+    <t>Die Reaktion der Partei war klar</t>
+  </si>
+  <si>
+    <t>CaoKy</t>
+  </si>
+  <si>
+    <t>Die Wahrheit war Kommunisten schon immer egal wenn sie nicht in ihr Programm gepasst hat.</t>
+  </si>
+  <si>
+    <t>Hysterie und Verfolgungswahn wollen wir doch einmal beiseite lassen und festhalten was wir wissen</t>
+  </si>
+  <si>
+    <t>Oliver Gerd Wormer</t>
+  </si>
+  <si>
+    <t>Man kann nur hoffen, dass die jetzige Virus-Katastrophe zu einem radikalen Umdenken der chinesischen Führung ausreicht</t>
+  </si>
+  <si>
+    <t>Peter Krcmar</t>
+  </si>
+  <si>
+    <t>Hoffentlich ändert sich jetzt daran etwas in China.</t>
+  </si>
+  <si>
+    <t>Nina Neumann</t>
+  </si>
+  <si>
+    <t>Das ist irgendwie die Strafe für katastrophalen Umgang mit Tieren und unermessliches Tierleid auf dem Tiermarkt in Wuhan sowie die rücksichtslose Ausbeutung und Ausrottung vieler Tierarten.</t>
+  </si>
+  <si>
+    <t>Gratulation an die Briten, die es im Gegensatz zu uns Deutschen geschafft haben, sich von Frau Merkel zu emanzipieren!</t>
+  </si>
+  <si>
+    <t>Rainer Kyon</t>
+  </si>
+  <si>
+    <t>https://www.faz.net/aktuell/brexit/brexit-vollzogen-johnson-und-die-suche-nach-den-muskeln-16611660.html</t>
+  </si>
+  <si>
+    <t>Beneidenswert frei</t>
+  </si>
+  <si>
+    <t>Da schauen einige durchaus nachdenklich drein...</t>
+  </si>
+  <si>
+    <t>Andreas Martin</t>
+  </si>
+  <si>
+    <t>Nun endlich kann die EU ihren Weg fortsetzen</t>
+  </si>
+  <si>
+    <t>Rainhart Raack</t>
+  </si>
+  <si>
+    <t>Natürlich werden sich die Verhandlungen mit dem neuen Drittstaat, dem Bittsteller Groß Britannien, noch hinziehen.</t>
+  </si>
+  <si>
+    <t>Doch GB hat seine EU-Rechte verloren.</t>
+  </si>
+  <si>
+    <t>Und die EU ist endlich von der ständigen Mäkelei, Quertreiberei und dem Pochen auf Sonderrechte , kurz, vom Klotz am Bein befreit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Einfach Danke für die letzten Jahre. </t>
+  </si>
+  <si>
+    <t>FeineSahneFischFilet</t>
+  </si>
+  <si>
+    <t>https://twitter.com/feinesahne/status/1214858502230958080</t>
+  </si>
+  <si>
+    <t>Danke an alle Menschen vor, auf und neben der Bühne.</t>
+  </si>
+  <si>
+    <t>Danke für euer Aktiv sein, für eure Einmischung und die Unterstützung, die wir von euch bekommen haben!</t>
+  </si>
+  <si>
+    <t>Demmin Nazifrei</t>
+  </si>
+  <si>
+    <t>Danke für die Hoffnung, dass wir doch noch nicht komplett im Arsch sind.</t>
+  </si>
+  <si>
+    <t>matzetremonia</t>
+  </si>
+  <si>
+    <t>Danke auch euch und bis demnächst</t>
+  </si>
+  <si>
+    <t>Ron</t>
+  </si>
+  <si>
+    <t>Ich denke, ihr seid toll!</t>
+  </si>
+  <si>
+    <t>Skadi Winter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bin zwar 67, aber was soll's? </t>
+  </si>
+  <si>
+    <t>Es gibt aber auch andere Beispiele in der Gründerszene.</t>
+  </si>
+  <si>
+    <t>https://www.gruenderszene.de/karriere/jobprotokoll-gruender-gehalt?utm_source=pocket-newtab</t>
+  </si>
+  <si>
+    <t>Die ganze Geschichte klingt nach einem Schmarrn.</t>
+  </si>
+  <si>
+    <t>kofiallstar</t>
+  </si>
+  <si>
+    <t>HHeinz</t>
+  </si>
+  <si>
+    <t>Bonuspunkt für den Inhaber hier, denn er bezahlt anscheinend ordentlich und lässt seine Mitarbeiter(innen) zusätzlich am Erfolg teilhaben.</t>
+  </si>
+  <si>
+    <t>Das hier beschriebene Unternehmen ist aber zu anonym um daraus einen Mehrwert zu ziehen, sprich die Geschichte könnte auch frei erfunden sein.</t>
+  </si>
+  <si>
+    <t>Naja, ich sag es mal so</t>
+  </si>
+  <si>
+    <t>Etherion</t>
+  </si>
+  <si>
+    <t>Wenn das Unternehmen Gewinne abwirft und die Mitarbeiter tatsächlich mit Ihrem Arbeitsleben und Gehalt zufrieden sind, warum dann nicht?</t>
+  </si>
+  <si>
+    <t>Ich kenne die Branche des Herren nicht, also kann ich auch nicht beurteilen, ob er überhaupt investieren muss</t>
+  </si>
+  <si>
+    <t>Und dieses Gehalt ist nichtmal extrem.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Darf hier eigentlich jeder </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hanswurst</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Gründer rumprahlen?</t>
+    </r>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>Wenn ihr das verdienen wollt, dann spart Geld an, entwickelt eine gute ertragreiche Idee und setzt sie um.</t>
+  </si>
+  <si>
+    <t>Jörg Becker</t>
+  </si>
+  <si>
+    <t>Dann könnt ihr auch so viel Geld verdienen.</t>
+  </si>
+  <si>
+    <t>Bitte um Antwort Dr. Schlauberger.</t>
+  </si>
+  <si>
+    <t>fpstefan</t>
+  </si>
+  <si>
+    <t>https://www.heise.de/forum/heise-online/News-Kommentare/Cryptoleaks-CIA-und-BND-steckten-jahrzehntelang-hinter-Verschluesselungsfirma/Re-Wer-sich-ausspionieren-laesst-ist-selber-Schuld-kwt/posting-36113334/show/</t>
+  </si>
+  <si>
+    <t>Wer sich ausspionieren lässt, ist selber schuld</t>
+  </si>
+  <si>
+    <t>memex666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aber das ist doch seit 25 Jahren bekannt </t>
+  </si>
+  <si>
+    <t>Ulriko</t>
+  </si>
+  <si>
+    <t>Und dass jetzt etliche Medien das wieder bringen, weil ein ZDF-Reporter letztes Jahr "neue Beweise" zugespielt bekam - na gut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mit Vollbitverschlüsselung wäre das nicht passiert </t>
+  </si>
+  <si>
+    <t>Cabriofahrer</t>
+  </si>
+  <si>
+    <t>Warum heult alles rum wegen Crypto AG</t>
+  </si>
+  <si>
+    <t>LaMünz</t>
+  </si>
+  <si>
+    <t>Müller Maguhn der linke Klops, der sich so gerne vor den Kameras der Medien damit brüstet ein so toller Typ zu sein, petzt doch alle Nase lang an der Verfassungsschutz und BND.</t>
+  </si>
+  <si>
+    <t>Der Typ ist einfach nur gierig nach Anerkennung.</t>
+  </si>
+  <si>
+    <t>Also schaut lieber auf Euren eigenen Misthaufen anstatt alten Hut zu lesen.</t>
+  </si>
+  <si>
+    <t>Dass der CCC überhaupt noch an diesem Verräter festhält ist echt ein Unikum.</t>
+  </si>
+  <si>
+    <t>Und jeder weiss doch, dass der Vatikan in Wirklichkeit Prostitution mit den politischen Weltmächten betreibt</t>
+  </si>
+  <si>
+    <t>öfit</t>
+  </si>
+  <si>
+    <t>Es gibt hier eine Reihe von interessanten Beiträgen zur Historie diese historischen Events</t>
+  </si>
+  <si>
+    <t>Föhn</t>
+  </si>
+  <si>
+    <t>Ist das blindes Fishing nach Empörung? gehört das wirklich hier her?</t>
+  </si>
+  <si>
+    <t>manchmal sind die Artikel zu Flach</t>
+  </si>
+  <si>
+    <t>aber woran liegt es, dass Heise Artikel immer häufiger nicht aus technisch wissenschaftlicher Sicht kommentiert werden, sondern als Politikbashing misbraucht werden?</t>
+  </si>
+  <si>
+    <t>Kann ich empfehlen.</t>
+  </si>
+  <si>
+    <t>Hursch</t>
+  </si>
+  <si>
+    <t>sagte schon Brecht, das trifft hier in abgewandelter Form auch zu.</t>
+  </si>
+  <si>
+    <t>ganzfaul</t>
+  </si>
+  <si>
+    <t>Aber noch cleverer, denn man kann von den Gewinnen der Firma auch noch das eigentliche Geschäft finanzieren.</t>
+  </si>
+  <si>
+    <t>Ehrlich, was braucht man noch Verschwörungstheorien bei den Machenschaften der Akteure in unserer "Wertegemeinschaft".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ok, und wann kommen die technischen Details? </t>
+  </si>
+  <si>
+    <t>Dass das so ist, ist ja jetzt nicht sonderlich überraschend</t>
+  </si>
+  <si>
+    <t>Die NZZ bringt es wieder einmal auf den Punkt!</t>
+  </si>
+  <si>
+    <t>Regi87</t>
+  </si>
+  <si>
+    <t>Von wegen "investigative Recherche" des ZDF .... LOL ..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die TS hat einen schön weichgewaschenen Artikel dazu gebracht... </t>
+  </si>
+  <si>
+    <t>in welchem sie es sorgfältig vermeidet, das Wort "Hintertür" auch nur in den Mund zu nehmen.</t>
+  </si>
+  <si>
+    <t>Auch den Namen "Siemens" vermeidet die Tagesschau akribisch.</t>
+  </si>
+  <si>
+    <t>sou</t>
+  </si>
+  <si>
+    <t>Sowas nennt man auch Framing, die TS ist da ganz groß drin.</t>
+  </si>
+  <si>
+    <t>Weichspüler für's Dummvieh.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6501,6 +6821,14 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -6842,12 +7170,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W1266"/>
+  <dimension ref="A1:W1331"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="L1" zoomScale="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1242" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A1329" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="M1240" sqref="M1240:N1266"/>
+      <selection pane="bottomLeft" activeCell="P1331" sqref="P1331"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -67870,7 +68198,1118 @@
         <v>18</v>
       </c>
     </row>
+    <row r="1267" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1267" t="s">
+        <v>2154</v>
+      </c>
+      <c r="M1267" t="s">
+        <v>123</v>
+      </c>
+      <c r="N1267" t="s">
+        <v>2155</v>
+      </c>
+      <c r="P1267" t="s">
+        <v>2153</v>
+      </c>
+      <c r="Q1267" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1268" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1268" t="s">
+        <v>2154</v>
+      </c>
+      <c r="M1268" t="s">
+        <v>123</v>
+      </c>
+      <c r="N1268" t="s">
+        <v>2155</v>
+      </c>
+      <c r="P1268" t="s">
+        <v>2152</v>
+      </c>
+      <c r="Q1268" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1269" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1269" t="s">
+        <v>2154</v>
+      </c>
+      <c r="M1269" t="s">
+        <v>123</v>
+      </c>
+      <c r="N1269" t="s">
+        <v>2155</v>
+      </c>
+      <c r="P1269" t="s">
+        <v>2156</v>
+      </c>
+      <c r="Q1269" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1270" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1270" t="s">
+        <v>2154</v>
+      </c>
+      <c r="M1270" t="s">
+        <v>123</v>
+      </c>
+      <c r="N1270" t="s">
+        <v>2155</v>
+      </c>
+      <c r="P1270" t="s">
+        <v>2157</v>
+      </c>
+      <c r="Q1270" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1271" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1271" t="s">
+        <v>2154</v>
+      </c>
+      <c r="M1271" t="s">
+        <v>123</v>
+      </c>
+      <c r="N1271" t="s">
+        <v>2155</v>
+      </c>
+      <c r="P1271" t="s">
+        <v>2158</v>
+      </c>
+      <c r="Q1271" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1272" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1272" t="s">
+        <v>2154</v>
+      </c>
+      <c r="M1272" t="s">
+        <v>123</v>
+      </c>
+      <c r="N1272" t="s">
+        <v>2155</v>
+      </c>
+      <c r="P1272" t="s">
+        <v>2159</v>
+      </c>
+      <c r="Q1272" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1273" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1273" t="s">
+        <v>2161</v>
+      </c>
+      <c r="M1273" t="s">
+        <v>123</v>
+      </c>
+      <c r="N1273" t="s">
+        <v>2155</v>
+      </c>
+      <c r="P1273" t="s">
+        <v>2160</v>
+      </c>
+      <c r="Q1273" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1274" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1274" t="s">
+        <v>2161</v>
+      </c>
+      <c r="M1274" t="s">
+        <v>123</v>
+      </c>
+      <c r="N1274" t="s">
+        <v>2155</v>
+      </c>
+      <c r="P1274" t="s">
+        <v>2162</v>
+      </c>
+      <c r="Q1274" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1275" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1275" t="s">
+        <v>2164</v>
+      </c>
+      <c r="M1275" t="s">
+        <v>123</v>
+      </c>
+      <c r="N1275" t="s">
+        <v>2155</v>
+      </c>
+      <c r="P1275" t="s">
+        <v>2163</v>
+      </c>
+      <c r="Q1275" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1276" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1276" t="s">
+        <v>2166</v>
+      </c>
+      <c r="M1276" t="s">
+        <v>123</v>
+      </c>
+      <c r="N1276" t="s">
+        <v>2155</v>
+      </c>
+      <c r="P1276" t="s">
+        <v>2165</v>
+      </c>
+      <c r="Q1276" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1277" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1277" t="s">
+        <v>2168</v>
+      </c>
+      <c r="M1277" t="s">
+        <v>123</v>
+      </c>
+      <c r="N1277" t="s">
+        <v>2155</v>
+      </c>
+      <c r="P1277" t="s">
+        <v>2167</v>
+      </c>
+      <c r="Q1277" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1278" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1278" t="s">
+        <v>2168</v>
+      </c>
+      <c r="M1278" t="s">
+        <v>123</v>
+      </c>
+      <c r="N1278" t="s">
+        <v>2155</v>
+      </c>
+      <c r="P1278" t="s">
+        <v>2169</v>
+      </c>
+      <c r="Q1278" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1279" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1279" t="s">
+        <v>2171</v>
+      </c>
+      <c r="M1279" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1279" t="s">
+        <v>2172</v>
+      </c>
+      <c r="P1279" t="s">
+        <v>2170</v>
+      </c>
+      <c r="Q1279" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1280" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1280" t="s">
+        <v>2171</v>
+      </c>
+      <c r="M1280" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1280" t="s">
+        <v>2172</v>
+      </c>
+      <c r="P1280" t="s">
+        <v>2173</v>
+      </c>
+      <c r="Q1280" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1281" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1281" t="s">
+        <v>2175</v>
+      </c>
+      <c r="M1281" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1281" t="s">
+        <v>2172</v>
+      </c>
+      <c r="P1281" t="s">
+        <v>2174</v>
+      </c>
+      <c r="Q1281" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1282" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1282" t="s">
+        <v>2177</v>
+      </c>
+      <c r="M1282" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1282" t="s">
+        <v>2172</v>
+      </c>
+      <c r="P1282" t="s">
+        <v>2176</v>
+      </c>
+      <c r="Q1282" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1283" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1283" t="s">
+        <v>2177</v>
+      </c>
+      <c r="M1283" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1283" t="s">
+        <v>2172</v>
+      </c>
+      <c r="P1283" t="s">
+        <v>2178</v>
+      </c>
+      <c r="Q1283" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1284" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1284" t="s">
+        <v>2177</v>
+      </c>
+      <c r="M1284" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1284" t="s">
+        <v>2172</v>
+      </c>
+      <c r="P1284" t="s">
+        <v>2179</v>
+      </c>
+      <c r="Q1284" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1285" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1285" t="s">
+        <v>2177</v>
+      </c>
+      <c r="M1285" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1285" t="s">
+        <v>2172</v>
+      </c>
+      <c r="P1285" t="s">
+        <v>2180</v>
+      </c>
+      <c r="Q1285" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1286" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1286" t="s">
+        <v>2182</v>
+      </c>
+      <c r="M1286" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1286" t="s">
+        <v>2183</v>
+      </c>
+      <c r="P1286" t="s">
+        <v>2181</v>
+      </c>
+      <c r="Q1286" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1287" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1287" t="s">
+        <v>2182</v>
+      </c>
+      <c r="M1287" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1287" t="s">
+        <v>2183</v>
+      </c>
+      <c r="P1287" t="s">
+        <v>2184</v>
+      </c>
+      <c r="Q1287" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1288" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1288" t="s">
+        <v>2186</v>
+      </c>
+      <c r="M1288" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1288" t="s">
+        <v>2183</v>
+      </c>
+      <c r="P1288" t="s">
+        <v>2185</v>
+      </c>
+      <c r="Q1288" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1289" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1289" t="s">
+        <v>2188</v>
+      </c>
+      <c r="M1289" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1289" t="s">
+        <v>2183</v>
+      </c>
+      <c r="P1289" t="s">
+        <v>2187</v>
+      </c>
+      <c r="Q1289" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1290" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1290" t="s">
+        <v>2190</v>
+      </c>
+      <c r="M1290" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1290" t="s">
+        <v>2183</v>
+      </c>
+      <c r="P1290" t="s">
+        <v>2189</v>
+      </c>
+      <c r="Q1290" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1291" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1291" t="s">
+        <v>2192</v>
+      </c>
+      <c r="M1291" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1291" t="s">
+        <v>2183</v>
+      </c>
+      <c r="P1291" t="s">
+        <v>2191</v>
+      </c>
+      <c r="Q1291" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1292" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1292" t="s">
+        <v>2192</v>
+      </c>
+      <c r="M1292" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1292" t="s">
+        <v>2183</v>
+      </c>
+      <c r="P1292" t="s">
+        <v>2193</v>
+      </c>
+      <c r="Q1292" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1293" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1293" t="s">
+        <v>2198</v>
+      </c>
+      <c r="M1293" t="s">
+        <v>1080</v>
+      </c>
+      <c r="N1293" t="s">
+        <v>2195</v>
+      </c>
+      <c r="P1293" t="s">
+        <v>2194</v>
+      </c>
+      <c r="Q1293" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1294" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1294" t="s">
+        <v>2197</v>
+      </c>
+      <c r="M1294" t="s">
+        <v>1080</v>
+      </c>
+      <c r="N1294" t="s">
+        <v>2195</v>
+      </c>
+      <c r="P1294" t="s">
+        <v>2196</v>
+      </c>
+      <c r="Q1294" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1295" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1295" t="s">
+        <v>2198</v>
+      </c>
+      <c r="M1295" t="s">
+        <v>1080</v>
+      </c>
+      <c r="N1295" t="s">
+        <v>2195</v>
+      </c>
+      <c r="P1295" t="s">
+        <v>2199</v>
+      </c>
+      <c r="Q1295" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1296" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1296" t="s">
+        <v>2198</v>
+      </c>
+      <c r="M1296" t="s">
+        <v>1080</v>
+      </c>
+      <c r="N1296" t="s">
+        <v>2195</v>
+      </c>
+      <c r="P1296" t="s">
+        <v>2200</v>
+      </c>
+      <c r="Q1296" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1297" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1297" t="s">
+        <v>2202</v>
+      </c>
+      <c r="M1297" t="s">
+        <v>1080</v>
+      </c>
+      <c r="N1297" t="s">
+        <v>2195</v>
+      </c>
+      <c r="P1297" t="s">
+        <v>2201</v>
+      </c>
+      <c r="Q1297" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1298" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1298" t="s">
+        <v>2202</v>
+      </c>
+      <c r="M1298" t="s">
+        <v>1080</v>
+      </c>
+      <c r="N1298" t="s">
+        <v>2195</v>
+      </c>
+      <c r="P1298" t="s">
+        <v>2203</v>
+      </c>
+      <c r="Q1298" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1299" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1299" t="s">
+        <v>2202</v>
+      </c>
+      <c r="M1299" t="s">
+        <v>1080</v>
+      </c>
+      <c r="N1299" t="s">
+        <v>2195</v>
+      </c>
+      <c r="P1299" t="s">
+        <v>2204</v>
+      </c>
+      <c r="Q1299" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1300" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1300" t="s">
+        <v>2202</v>
+      </c>
+      <c r="M1300" t="s">
+        <v>1080</v>
+      </c>
+      <c r="N1300" t="s">
+        <v>2195</v>
+      </c>
+      <c r="P1300" t="s">
+        <v>2205</v>
+      </c>
+      <c r="Q1300" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1301" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1301" t="s">
+        <v>2207</v>
+      </c>
+      <c r="M1301" t="s">
+        <v>1080</v>
+      </c>
+      <c r="N1301" t="s">
+        <v>2195</v>
+      </c>
+      <c r="P1301" t="s">
+        <v>2206</v>
+      </c>
+      <c r="Q1301" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1302" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1302" t="s">
+        <v>2209</v>
+      </c>
+      <c r="M1302" t="s">
+        <v>1080</v>
+      </c>
+      <c r="N1302" t="s">
+        <v>2195</v>
+      </c>
+      <c r="P1302" t="s">
+        <v>2208</v>
+      </c>
+      <c r="Q1302" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1303" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1303" t="s">
+        <v>2209</v>
+      </c>
+      <c r="M1303" t="s">
+        <v>1080</v>
+      </c>
+      <c r="N1303" t="s">
+        <v>2195</v>
+      </c>
+      <c r="P1303" t="s">
+        <v>2210</v>
+      </c>
+      <c r="Q1303" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1304" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1304" t="s">
+        <v>2212</v>
+      </c>
+      <c r="M1304" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1304" t="s">
+        <v>2213</v>
+      </c>
+      <c r="P1304" t="s">
+        <v>2211</v>
+      </c>
+      <c r="Q1304" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1305" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1305" t="s">
+        <v>2215</v>
+      </c>
+      <c r="M1305" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1305" t="s">
+        <v>2213</v>
+      </c>
+      <c r="P1305" t="s">
+        <v>2214</v>
+      </c>
+      <c r="Q1305" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1306" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1306" t="s">
+        <v>2217</v>
+      </c>
+      <c r="M1306" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1306" t="s">
+        <v>2213</v>
+      </c>
+      <c r="P1306" t="s">
+        <v>2216</v>
+      </c>
+      <c r="Q1306" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1307" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1307" t="s">
+        <v>2217</v>
+      </c>
+      <c r="M1307" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1307" t="s">
+        <v>2213</v>
+      </c>
+      <c r="P1307" t="s">
+        <v>2218</v>
+      </c>
+      <c r="Q1307" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1308" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1308" t="s">
+        <v>2220</v>
+      </c>
+      <c r="M1308" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1308" t="s">
+        <v>2213</v>
+      </c>
+      <c r="P1308" t="s">
+        <v>2219</v>
+      </c>
+      <c r="Q1308" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1309" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1309" t="s">
+        <v>2222</v>
+      </c>
+      <c r="M1309" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1309" t="s">
+        <v>2213</v>
+      </c>
+      <c r="P1309" t="s">
+        <v>2221</v>
+      </c>
+      <c r="Q1309" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1310" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1310" t="s">
+        <v>2222</v>
+      </c>
+      <c r="M1310" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1310" t="s">
+        <v>2213</v>
+      </c>
+      <c r="P1310" t="s">
+        <v>2223</v>
+      </c>
+      <c r="Q1310" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1311" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1311" t="s">
+        <v>2222</v>
+      </c>
+      <c r="M1311" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1311" t="s">
+        <v>2213</v>
+      </c>
+      <c r="P1311" t="s">
+        <v>2224</v>
+      </c>
+      <c r="Q1311" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1312" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1312" t="s">
+        <v>2222</v>
+      </c>
+      <c r="M1312" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1312" t="s">
+        <v>2213</v>
+      </c>
+      <c r="P1312" t="s">
+        <v>2225</v>
+      </c>
+      <c r="Q1312" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1313" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1313" t="s">
+        <v>2222</v>
+      </c>
+      <c r="M1313" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1313" t="s">
+        <v>2213</v>
+      </c>
+      <c r="P1313" t="s">
+        <v>2226</v>
+      </c>
+      <c r="Q1313" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1314" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1314" t="s">
+        <v>2228</v>
+      </c>
+      <c r="M1314" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1314" t="s">
+        <v>2213</v>
+      </c>
+      <c r="P1314" t="s">
+        <v>2227</v>
+      </c>
+      <c r="Q1314" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1315" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1315" t="s">
+        <v>2230</v>
+      </c>
+      <c r="M1315" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1315" t="s">
+        <v>2213</v>
+      </c>
+      <c r="P1315" t="s">
+        <v>2229</v>
+      </c>
+      <c r="Q1315" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1316" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1316" t="s">
+        <v>2230</v>
+      </c>
+      <c r="M1316" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1316" t="s">
+        <v>2213</v>
+      </c>
+      <c r="P1316" t="s">
+        <v>2231</v>
+      </c>
+      <c r="Q1316" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1317" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1317" t="s">
+        <v>2230</v>
+      </c>
+      <c r="M1317" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1317" t="s">
+        <v>2213</v>
+      </c>
+      <c r="P1317" t="s">
+        <v>2232</v>
+      </c>
+      <c r="Q1317" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1318" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1318" t="s">
+        <v>2230</v>
+      </c>
+      <c r="M1318" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1318" t="s">
+        <v>2213</v>
+      </c>
+      <c r="P1318" t="s">
+        <v>2233</v>
+      </c>
+      <c r="Q1318" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1319" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1319" t="s">
+        <v>2235</v>
+      </c>
+      <c r="M1319" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1319" t="s">
+        <v>2213</v>
+      </c>
+      <c r="P1319" t="s">
+        <v>2234</v>
+      </c>
+      <c r="Q1319" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1320" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1320" t="s">
+        <v>2237</v>
+      </c>
+      <c r="M1320" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1320" t="s">
+        <v>2213</v>
+      </c>
+      <c r="P1320" t="s">
+        <v>2236</v>
+      </c>
+      <c r="Q1320" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1321" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1321" t="s">
+        <v>2237</v>
+      </c>
+      <c r="M1321" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1321" t="s">
+        <v>2213</v>
+      </c>
+      <c r="P1321" t="s">
+        <v>2238</v>
+      </c>
+      <c r="Q1321" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1322" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1322" t="s">
+        <v>2237</v>
+      </c>
+      <c r="M1322" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1322" t="s">
+        <v>2213</v>
+      </c>
+      <c r="P1322" t="s">
+        <v>2239</v>
+      </c>
+      <c r="Q1322" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1323" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1323" t="s">
+        <v>2235</v>
+      </c>
+      <c r="M1323" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1323" t="s">
+        <v>2213</v>
+      </c>
+      <c r="P1323" t="s">
+        <v>2240</v>
+      </c>
+      <c r="Q1323" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1324" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1324" t="s">
+        <v>2235</v>
+      </c>
+      <c r="M1324" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1324" t="s">
+        <v>2213</v>
+      </c>
+      <c r="P1324" t="s">
+        <v>2241</v>
+      </c>
+      <c r="Q1324" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1325" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1325" t="s">
+        <v>2243</v>
+      </c>
+      <c r="M1325" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1325" t="s">
+        <v>2213</v>
+      </c>
+      <c r="P1325" t="s">
+        <v>2242</v>
+      </c>
+      <c r="Q1325" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1326" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1326" t="s">
+        <v>2243</v>
+      </c>
+      <c r="M1326" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1326" t="s">
+        <v>2213</v>
+      </c>
+      <c r="P1326" t="s">
+        <v>2244</v>
+      </c>
+      <c r="Q1326" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1327" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1327" t="s">
+        <v>2248</v>
+      </c>
+      <c r="M1327" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1327" t="s">
+        <v>2213</v>
+      </c>
+      <c r="P1327" t="s">
+        <v>2245</v>
+      </c>
+      <c r="Q1327" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1328" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1328" t="s">
+        <v>2248</v>
+      </c>
+      <c r="M1328" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1328" t="s">
+        <v>2213</v>
+      </c>
+      <c r="P1328" t="s">
+        <v>2246</v>
+      </c>
+      <c r="Q1328" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1329" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1329" t="s">
+        <v>2248</v>
+      </c>
+      <c r="M1329" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1329" t="s">
+        <v>2213</v>
+      </c>
+      <c r="P1329" t="s">
+        <v>2247</v>
+      </c>
+      <c r="Q1329" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1330" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1330" t="s">
+        <v>2248</v>
+      </c>
+      <c r="M1330" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1330" t="s">
+        <v>2213</v>
+      </c>
+      <c r="P1330" t="s">
+        <v>2249</v>
+      </c>
+      <c r="Q1330" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1331" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1331" t="s">
+        <v>2248</v>
+      </c>
+      <c r="M1331" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1331" t="s">
+        <v>2213</v>
+      </c>
+      <c r="P1331" t="s">
+        <v>2250</v>
+      </c>
+      <c r="Q1331" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="P1306" r:id="rId1"/>
+    <hyperlink ref="P1308" r:id="rId2"/>
+    <hyperlink ref="P1323" r:id="rId3"/>
+    <hyperlink ref="P1327" r:id="rId4"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>

--- a/webserver/model_data/TrainingData_ml.xlsx
+++ b/webserver/model_data/TrainingData_ml.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13955" uniqueCount="2251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14330" uniqueCount="2383">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -6803,6 +6803,402 @@
   </si>
   <si>
     <t>Weichspüler für's Dummvieh.</t>
+  </si>
+  <si>
+    <t>Dennoch freue ich mich, dass es Menschen gibt, die sich dieser Angelegenheit annehmen.</t>
+  </si>
+  <si>
+    <t>andenhorn</t>
+  </si>
+  <si>
+    <t>https://www.zeit.de/zeit-magazin/essen-trinken/2020-01/nachhaltige-ernaehrung-lebensmittel-restaurant-gemeinschaft-regional/seite-2</t>
+  </si>
+  <si>
+    <t>Nein, die Antwort darf nicht "extensive" Landwirtschaft heißen.</t>
+  </si>
+  <si>
+    <t>Oschnelle</t>
+  </si>
+  <si>
+    <t>Mit Methoden, die früher aus der Not heraus geboren wurden, finden wir keine Antworten auf die Fragen der Zukunft</t>
+  </si>
+  <si>
+    <t>Die Antwort ist sicher aber auch nicht die sog. "Landwirtschaft 4.0".</t>
+  </si>
+  <si>
+    <t>Wir stehen gerade am Anfang eines Erkenntnisprozesses, der die bisher ziemliche hohlen Worte "Mit der Natur arbeiten statt gegen sie" endlich mit Inhalt füllt.</t>
+  </si>
+  <si>
+    <t>Leute von heute</t>
+  </si>
+  <si>
+    <t>Kein Mensch auf dieser Welt muss "Wollhausschweine" oder "Rauwollige Landschafe" und sonstige Tiere essen.</t>
+  </si>
+  <si>
+    <t>zudem tun sich Menschen, egal ob arm, ob reich persönlich etwas Gutes, wenn sie sich fortan pflanzlich ernähren.</t>
+  </si>
+  <si>
+    <t>Ist in jeder Hinsicht das Fortschrittlichste für alle Beteiligten, gerade für diejenigen die nach uns kommen.</t>
+  </si>
+  <si>
+    <t>Das Recht auf tägliches Fleisch und Milch wird gern gepredigt.</t>
+  </si>
+  <si>
+    <t>AGB akzeptiert</t>
+  </si>
+  <si>
+    <t>Ich genieße jedoch weiterhin die Freiheit, die eine Woche vielleicht 5 Mal oder andere Wochen gar kein Fleisch zu essen.</t>
+  </si>
+  <si>
+    <t>Ring Road</t>
+  </si>
+  <si>
+    <t>Für mich wäre das nicht toll.</t>
+  </si>
+  <si>
+    <t>Es wäre zumindest ein Anfang und würde so einige Probleme lösen.</t>
+  </si>
+  <si>
+    <t>Aber man sieht: manche wollen frei sein und ihren Konsum um jeden Preis ausleben.</t>
+  </si>
+  <si>
+    <t>Sie haben den Begriff schon genannt: Freiheit</t>
+  </si>
+  <si>
+    <t>Doch was für eine Freiheit ist das, sich gegenüber anderen Arten von Lebewesen gewalttätig und rücksichtslos zu verhalten und durch diese angebliche Freiheit die Erde und die Biodiversität nachhaltig zu zerstören?</t>
+  </si>
+  <si>
+    <t>Ja, Egoismus ist die Basis allen Übels.</t>
+  </si>
+  <si>
+    <t>Irren ist nunmal menschlich.</t>
+  </si>
+  <si>
+    <t>Mal abgesehen davon, wie realistisch ist Ihr Vorschlag?</t>
+  </si>
+  <si>
+    <t>Wer kontrolliert denn, ob ich zweimal wöchentlich Fleisch esse?</t>
+  </si>
+  <si>
+    <t>Sehen Sie, je mehr man darüber nachdenkt, umso unwirklicher wirkt dieser Gedanke.</t>
+  </si>
+  <si>
+    <t>Warum kontrollieren Sie es denn nicht nicht einfach selbst?</t>
+  </si>
+  <si>
+    <t>seli</t>
+  </si>
+  <si>
+    <t>Wenn Sie nicht auf Ihrem vermeintlichen Freiheitsrecht pochen würden, sondern Einsicht und Rücksicht für die Bedürfnisse der Welt finden könnten, würden solche Fragen überflüssig und ein wenig Utopie würde Wirklichkeit.</t>
+  </si>
+  <si>
+    <t>Gute Entscheidung, wenn ich das mal so unbedarft sagen darf.</t>
+  </si>
+  <si>
+    <t>Daniel-Pascal Zorn</t>
+  </si>
+  <si>
+    <t>https://twitter.com/jholofernes/status/1197188701144657920</t>
+  </si>
+  <si>
+    <t>Persona abwerfen, sich neu entwerfen.</t>
+  </si>
+  <si>
+    <t>Das klingt wunderbar!</t>
+  </si>
+  <si>
+    <t>jasmin schreiber</t>
+  </si>
+  <si>
+    <t>Stefan Baur</t>
+  </si>
+  <si>
+    <t>Schade, die Helden fehlen mir immer noch sehr.</t>
+  </si>
+  <si>
+    <t>Ich freue mich auf alle kommenden Reiseberichte.</t>
+  </si>
+  <si>
+    <t>Super schön geschrieben.</t>
+  </si>
+  <si>
+    <t>Mike Linsenbold</t>
+  </si>
+  <si>
+    <t>Micha</t>
+  </si>
+  <si>
+    <t>Das ist so aufregend.</t>
+  </si>
+  <si>
+    <t>Lea's imperfect photography</t>
+  </si>
+  <si>
+    <t>Ein tolles und mutiges Statement</t>
+  </si>
+  <si>
+    <t>Jonas Caesar</t>
+  </si>
+  <si>
+    <t>Ja gut. Schon einen an der Waffel. Insofern schadet ein Rücktritt nicht.</t>
+  </si>
+  <si>
+    <t>Chris Bloom</t>
+  </si>
+  <si>
+    <t>Ich bin sowas von mit am Start!</t>
+  </si>
+  <si>
+    <t>Telekommanderin</t>
+  </si>
+  <si>
+    <t>wie cool und praktisch, dass dein neues und altes ich den gleichen namen tragen</t>
+  </si>
+  <si>
+    <t>kellners</t>
+  </si>
+  <si>
+    <t>Toll, Du machst den Ziggy Stardust.</t>
+  </si>
+  <si>
+    <t>Woman in the attic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dein Ding wird bestimmt großartig, </t>
+  </si>
+  <si>
+    <t>Dorothea Müller</t>
+  </si>
+  <si>
+    <t>ich freu mich für Dich...Wiese im Herbst ist fantastisch!</t>
+  </si>
+  <si>
+    <t>Frau Hasenherz</t>
+  </si>
+  <si>
+    <t>Die schönste Rücktrittserklärung überhaupt.</t>
+  </si>
+  <si>
+    <t>Charlotte Obermeier</t>
+  </si>
+  <si>
+    <t>Nur der Wandel ist stetig!</t>
+  </si>
+  <si>
+    <t>DerBuddler</t>
+  </si>
+  <si>
+    <t>Herzlichen Glückwunsch und gutes Gelingen!</t>
+  </si>
+  <si>
+    <t>Das wird so geil, yeah!</t>
+  </si>
+  <si>
+    <t>We are the Discovery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Das liest sich alles sooooo schön. </t>
+  </si>
+  <si>
+    <t>Moritz</t>
+  </si>
+  <si>
+    <t>Wünsche dir alles tolle!!!</t>
+  </si>
+  <si>
+    <t>Ein Mensch</t>
+  </si>
+  <si>
+    <t>immer wieder sich neu erfinden mache ich auch immer</t>
+  </si>
+  <si>
+    <t>Wie überaus bedauerlich.</t>
+  </si>
+  <si>
+    <t>Jörg Karlauf</t>
+  </si>
+  <si>
+    <t>Ich werde die Musikerin Judith Holofernes ganz dolle vermissen...</t>
+  </si>
+  <si>
+    <t>Aber das Video ist ganz schön hart</t>
+  </si>
+  <si>
+    <t>Laila</t>
+  </si>
+  <si>
+    <t>https://twitter.com/unheilig_com/status/1029075613846568961</t>
+  </si>
+  <si>
+    <t>Super Song</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Klingt von der Musik her,schon arg nach Unheilig.Nicht schlecht </t>
+  </si>
+  <si>
+    <t>Holger Kupitz</t>
+  </si>
+  <si>
+    <t>Was für ein toller Auftritt von Sotiria beim Schlagerbooom 2018!</t>
+  </si>
+  <si>
+    <t>Ich find Schlager toll</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?time_continue=50&amp;v=p8B7J0YkMro&amp;feature=emb_logo</t>
+  </si>
+  <si>
+    <t>Man merkt einfach das der Graf an dem Lied mitgewirkt hat.</t>
+  </si>
+  <si>
+    <t>Hört sich aber super an.</t>
+  </si>
+  <si>
+    <t>Christian V</t>
+  </si>
+  <si>
+    <t>Absoluter Gänsehaut Titel.</t>
+  </si>
+  <si>
+    <t>Hendrik Schmidt</t>
+  </si>
+  <si>
+    <t>So ein berührendes Lied ein Titel der unter die Haut geht</t>
+  </si>
+  <si>
+    <t>Florian Maier</t>
+  </si>
+  <si>
+    <t>Und den Grafen hört man in jedem Ton - sehr gut!</t>
+  </si>
+  <si>
+    <t>jcdcarsandmusic</t>
+  </si>
+  <si>
+    <t>Wow!! Einfach nur wow!</t>
+  </si>
+  <si>
+    <t>Vivien Kister</t>
+  </si>
+  <si>
+    <t>So ein schönes Lied.</t>
+  </si>
+  <si>
+    <t>wenn der Chor dazukommt Gänsehaut pur</t>
+  </si>
+  <si>
+    <t>Cindy H.</t>
+  </si>
+  <si>
+    <t>Der Graf hat mal wieder eine prima eingebung gehabt und dann super dargestellt einfach</t>
+  </si>
+  <si>
+    <t>Nico Neidthardt</t>
+  </si>
+  <si>
+    <t>Wow was für ein Tolles Lied</t>
+  </si>
+  <si>
+    <t>Lydia Wolff</t>
+  </si>
+  <si>
+    <t>Wunderschönes Lied aber wie Sotiria, Bravo!</t>
+  </si>
+  <si>
+    <t>M.T.K.</t>
+  </si>
+  <si>
+    <t>Einfach eine tolle Sängerin und eine super Frau</t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>Wunderschön und sehr gefühlsvoll</t>
+  </si>
+  <si>
+    <t>little lamm</t>
+  </si>
+  <si>
+    <t>Das Lied ist soooooo schön</t>
+  </si>
+  <si>
+    <t>Julia Schöfberger</t>
+  </si>
+  <si>
+    <t>Wahnsinn! Dieses Lied ist mega</t>
+  </si>
+  <si>
+    <t>Tinord</t>
+  </si>
+  <si>
+    <t>Ich kannte sie vorher gar nicht...aber der Song hat mich schon berührt</t>
+  </si>
+  <si>
+    <t>Michael Lohmann</t>
+  </si>
+  <si>
+    <t>Diese Lied erinnert mich an ein anderes</t>
+  </si>
+  <si>
+    <t>Ari</t>
+  </si>
+  <si>
+    <t>Playback des Jahres?</t>
+  </si>
+  <si>
+    <t>Akhi</t>
+  </si>
+  <si>
+    <t>Schön aber ich bezweifle ob es wirklich Live ist</t>
+  </si>
+  <si>
+    <t>johan bauwens</t>
+  </si>
+  <si>
+    <t>ja so geht's mir auch manchmal</t>
+  </si>
+  <si>
+    <t>Jürgen Schulze</t>
+  </si>
+  <si>
+    <t>Soooooooooooooooooooo toll</t>
+  </si>
+  <si>
+    <t>Jana</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=uaEiVAODN-A</t>
+  </si>
+  <si>
+    <t>Ich liebe diesen Gitarristen.</t>
+  </si>
+  <si>
+    <t>Hardocore</t>
+  </si>
+  <si>
+    <t>Die Nummer ist so geil.</t>
+  </si>
+  <si>
+    <t>1carnivore1</t>
+  </si>
+  <si>
+    <t>die gnaze band war extraklasse</t>
+  </si>
+  <si>
+    <t>ustwelve</t>
+  </si>
+  <si>
+    <t>Der Drummer war/ist klasse.</t>
+  </si>
+  <si>
+    <t>Mo makes Art</t>
+  </si>
+  <si>
+    <t>immer wieder mega !!!!!</t>
+  </si>
+  <si>
+    <t>Rene Muellers</t>
   </si>
 </sst>
 </file>
@@ -7170,12 +7566,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W1331"/>
+  <dimension ref="A1:W1406"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1329" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="125" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1404" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="P1331" sqref="P1331"/>
+      <selection pane="bottomLeft" activeCell="M1403" sqref="M1403:N1406"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -69303,6 +69699,1281 @@
         <v>19</v>
       </c>
     </row>
+    <row r="1332" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1332" t="s">
+        <v>2252</v>
+      </c>
+      <c r="M1332" t="s">
+        <v>1034</v>
+      </c>
+      <c r="N1332" t="s">
+        <v>2253</v>
+      </c>
+      <c r="P1332" t="s">
+        <v>2251</v>
+      </c>
+      <c r="Q1332" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1333" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1333" t="s">
+        <v>2255</v>
+      </c>
+      <c r="M1333" t="s">
+        <v>1034</v>
+      </c>
+      <c r="N1333" t="s">
+        <v>2253</v>
+      </c>
+      <c r="P1333" t="s">
+        <v>2254</v>
+      </c>
+      <c r="Q1333" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1334" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1334" t="s">
+        <v>2255</v>
+      </c>
+      <c r="M1334" t="s">
+        <v>1034</v>
+      </c>
+      <c r="N1334" t="s">
+        <v>2253</v>
+      </c>
+      <c r="P1334" t="s">
+        <v>2256</v>
+      </c>
+      <c r="Q1334" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1335" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1335" t="s">
+        <v>2255</v>
+      </c>
+      <c r="M1335" t="s">
+        <v>1034</v>
+      </c>
+      <c r="N1335" t="s">
+        <v>2253</v>
+      </c>
+      <c r="P1335" t="s">
+        <v>2257</v>
+      </c>
+      <c r="Q1335" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1336" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1336" t="s">
+        <v>2255</v>
+      </c>
+      <c r="M1336" t="s">
+        <v>1034</v>
+      </c>
+      <c r="N1336" t="s">
+        <v>2253</v>
+      </c>
+      <c r="P1336" t="s">
+        <v>2258</v>
+      </c>
+      <c r="Q1336" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1337" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1337" t="s">
+        <v>2259</v>
+      </c>
+      <c r="M1337" t="s">
+        <v>1034</v>
+      </c>
+      <c r="N1337" t="s">
+        <v>2253</v>
+      </c>
+      <c r="P1337" t="s">
+        <v>2260</v>
+      </c>
+      <c r="Q1337" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1338" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1338" t="s">
+        <v>2259</v>
+      </c>
+      <c r="M1338" t="s">
+        <v>1034</v>
+      </c>
+      <c r="N1338" t="s">
+        <v>2253</v>
+      </c>
+      <c r="P1338" t="s">
+        <v>2261</v>
+      </c>
+      <c r="Q1338" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1339" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1339" t="s">
+        <v>2259</v>
+      </c>
+      <c r="M1339" t="s">
+        <v>1034</v>
+      </c>
+      <c r="N1339" t="s">
+        <v>2253</v>
+      </c>
+      <c r="P1339" t="s">
+        <v>2262</v>
+      </c>
+      <c r="Q1339" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1340" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1340" t="s">
+        <v>2264</v>
+      </c>
+      <c r="M1340" t="s">
+        <v>1034</v>
+      </c>
+      <c r="N1340" t="s">
+        <v>2253</v>
+      </c>
+      <c r="P1340" t="s">
+        <v>2263</v>
+      </c>
+      <c r="Q1340" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1341" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1341" t="s">
+        <v>2266</v>
+      </c>
+      <c r="M1341" t="s">
+        <v>1034</v>
+      </c>
+      <c r="N1341" t="s">
+        <v>2253</v>
+      </c>
+      <c r="P1341" t="s">
+        <v>2265</v>
+      </c>
+      <c r="Q1341" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1342" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1342" t="s">
+        <v>2259</v>
+      </c>
+      <c r="M1342" t="s">
+        <v>1034</v>
+      </c>
+      <c r="N1342" t="s">
+        <v>2253</v>
+      </c>
+      <c r="P1342" t="s">
+        <v>2267</v>
+      </c>
+      <c r="Q1342" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1343" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1343" t="s">
+        <v>2264</v>
+      </c>
+      <c r="M1343" t="s">
+        <v>1034</v>
+      </c>
+      <c r="N1343" t="s">
+        <v>2253</v>
+      </c>
+      <c r="P1343" t="s">
+        <v>2268</v>
+      </c>
+      <c r="Q1343" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1344" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1344" t="s">
+        <v>2264</v>
+      </c>
+      <c r="M1344" t="s">
+        <v>1034</v>
+      </c>
+      <c r="N1344" t="s">
+        <v>2253</v>
+      </c>
+      <c r="P1344" t="s">
+        <v>2269</v>
+      </c>
+      <c r="Q1344" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1345" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1345" t="s">
+        <v>2266</v>
+      </c>
+      <c r="M1345" t="s">
+        <v>1034</v>
+      </c>
+      <c r="N1345" t="s">
+        <v>2253</v>
+      </c>
+      <c r="P1345" t="s">
+        <v>2270</v>
+      </c>
+      <c r="Q1345" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1346" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1346" t="s">
+        <v>2264</v>
+      </c>
+      <c r="M1346" t="s">
+        <v>1034</v>
+      </c>
+      <c r="N1346" t="s">
+        <v>2253</v>
+      </c>
+      <c r="P1346" t="s">
+        <v>2271</v>
+      </c>
+      <c r="Q1346" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1347" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1347" t="s">
+        <v>2259</v>
+      </c>
+      <c r="M1347" t="s">
+        <v>1034</v>
+      </c>
+      <c r="N1347" t="s">
+        <v>2253</v>
+      </c>
+      <c r="P1347" t="s">
+        <v>2272</v>
+      </c>
+      <c r="Q1347" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1348" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1348" t="s">
+        <v>2266</v>
+      </c>
+      <c r="M1348" t="s">
+        <v>1034</v>
+      </c>
+      <c r="N1348" t="s">
+        <v>2253</v>
+      </c>
+      <c r="P1348" t="s">
+        <v>2273</v>
+      </c>
+      <c r="Q1348" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1349" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1349" t="s">
+        <v>2266</v>
+      </c>
+      <c r="M1349" t="s">
+        <v>1034</v>
+      </c>
+      <c r="N1349" t="s">
+        <v>2253</v>
+      </c>
+      <c r="P1349" t="s">
+        <v>2274</v>
+      </c>
+      <c r="Q1349" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1350" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1350" t="s">
+        <v>2266</v>
+      </c>
+      <c r="M1350" t="s">
+        <v>1034</v>
+      </c>
+      <c r="N1350" t="s">
+        <v>2253</v>
+      </c>
+      <c r="P1350" t="s">
+        <v>2275</v>
+      </c>
+      <c r="Q1350" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1351" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1351" t="s">
+        <v>2266</v>
+      </c>
+      <c r="M1351" t="s">
+        <v>1034</v>
+      </c>
+      <c r="N1351" t="s">
+        <v>2253</v>
+      </c>
+      <c r="P1351" t="s">
+        <v>2276</v>
+      </c>
+      <c r="Q1351" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1352" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1352" t="s">
+        <v>2278</v>
+      </c>
+      <c r="M1352" t="s">
+        <v>1034</v>
+      </c>
+      <c r="N1352" t="s">
+        <v>2253</v>
+      </c>
+      <c r="P1352" t="s">
+        <v>2277</v>
+      </c>
+      <c r="Q1352" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1353" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1353" t="s">
+        <v>2278</v>
+      </c>
+      <c r="M1353" t="s">
+        <v>1034</v>
+      </c>
+      <c r="N1353" t="s">
+        <v>2253</v>
+      </c>
+      <c r="P1353" t="s">
+        <v>2279</v>
+      </c>
+      <c r="Q1353" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1354" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1354" t="s">
+        <v>2281</v>
+      </c>
+      <c r="M1354" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1354" t="s">
+        <v>2282</v>
+      </c>
+      <c r="P1354" t="s">
+        <v>2280</v>
+      </c>
+      <c r="Q1354" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1355" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1355" t="s">
+        <v>2281</v>
+      </c>
+      <c r="M1355" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1355" t="s">
+        <v>2282</v>
+      </c>
+      <c r="P1355" t="s">
+        <v>2283</v>
+      </c>
+      <c r="Q1355" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1356" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1356" t="s">
+        <v>2285</v>
+      </c>
+      <c r="M1356" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1356" t="s">
+        <v>2282</v>
+      </c>
+      <c r="P1356" t="s">
+        <v>2284</v>
+      </c>
+      <c r="Q1356" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1357" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1357" t="s">
+        <v>2286</v>
+      </c>
+      <c r="M1357" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1357" t="s">
+        <v>2282</v>
+      </c>
+      <c r="P1357" t="s">
+        <v>2287</v>
+      </c>
+      <c r="Q1357" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1358" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1358" t="s">
+        <v>2291</v>
+      </c>
+      <c r="M1358" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1358" t="s">
+        <v>2282</v>
+      </c>
+      <c r="P1358" t="s">
+        <v>2288</v>
+      </c>
+      <c r="Q1358" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1359" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1359" t="s">
+        <v>2290</v>
+      </c>
+      <c r="M1359" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1359" t="s">
+        <v>2282</v>
+      </c>
+      <c r="P1359" t="s">
+        <v>2289</v>
+      </c>
+      <c r="Q1359" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1360" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1360" t="s">
+        <v>2293</v>
+      </c>
+      <c r="M1360" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1360" t="s">
+        <v>2282</v>
+      </c>
+      <c r="P1360" t="s">
+        <v>2292</v>
+      </c>
+      <c r="Q1360" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1361" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1361" t="s">
+        <v>2295</v>
+      </c>
+      <c r="M1361" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1361" t="s">
+        <v>2282</v>
+      </c>
+      <c r="P1361" t="s">
+        <v>2294</v>
+      </c>
+      <c r="Q1361" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1362" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1362" t="s">
+        <v>2297</v>
+      </c>
+      <c r="M1362" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1362" t="s">
+        <v>2282</v>
+      </c>
+      <c r="P1362" t="s">
+        <v>2296</v>
+      </c>
+      <c r="Q1362" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1363" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1363" t="s">
+        <v>2299</v>
+      </c>
+      <c r="M1363" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1363" t="s">
+        <v>2282</v>
+      </c>
+      <c r="P1363" t="s">
+        <v>2298</v>
+      </c>
+      <c r="Q1363" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1364" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1364" t="s">
+        <v>2301</v>
+      </c>
+      <c r="M1364" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1364" t="s">
+        <v>2282</v>
+      </c>
+      <c r="P1364" t="s">
+        <v>2300</v>
+      </c>
+      <c r="Q1364" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1365" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1365" t="s">
+        <v>2303</v>
+      </c>
+      <c r="M1365" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1365" t="s">
+        <v>2282</v>
+      </c>
+      <c r="P1365" t="s">
+        <v>2302</v>
+      </c>
+      <c r="Q1365" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1366" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1366" t="s">
+        <v>2305</v>
+      </c>
+      <c r="M1366" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1366" t="s">
+        <v>2282</v>
+      </c>
+      <c r="P1366" t="s">
+        <v>2304</v>
+      </c>
+      <c r="Q1366" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1367" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1367" t="s">
+        <v>2307</v>
+      </c>
+      <c r="M1367" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1367" t="s">
+        <v>2282</v>
+      </c>
+      <c r="P1367" t="s">
+        <v>2306</v>
+      </c>
+      <c r="Q1367" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1368" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1368" t="s">
+        <v>2309</v>
+      </c>
+      <c r="M1368" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1368" t="s">
+        <v>2282</v>
+      </c>
+      <c r="P1368" t="s">
+        <v>2308</v>
+      </c>
+      <c r="Q1368" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1369" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1369" t="s">
+        <v>2311</v>
+      </c>
+      <c r="M1369" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1369" t="s">
+        <v>2282</v>
+      </c>
+      <c r="P1369" t="s">
+        <v>2310</v>
+      </c>
+      <c r="Q1369" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1370" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1370" t="s">
+        <v>2314</v>
+      </c>
+      <c r="M1370" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1370" t="s">
+        <v>2282</v>
+      </c>
+      <c r="P1370" t="s">
+        <v>2312</v>
+      </c>
+      <c r="Q1370" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1371" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1371" t="s">
+        <v>2314</v>
+      </c>
+      <c r="M1371" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1371" t="s">
+        <v>2282</v>
+      </c>
+      <c r="P1371" t="s">
+        <v>2313</v>
+      </c>
+      <c r="Q1371" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1372" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1372" t="s">
+        <v>2316</v>
+      </c>
+      <c r="M1372" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1372" t="s">
+        <v>2282</v>
+      </c>
+      <c r="P1372" t="s">
+        <v>2315</v>
+      </c>
+      <c r="Q1372" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1373" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1373" t="s">
+        <v>2316</v>
+      </c>
+      <c r="M1373" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1373" t="s">
+        <v>2282</v>
+      </c>
+      <c r="P1373" t="s">
+        <v>2317</v>
+      </c>
+      <c r="Q1373" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1374" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1374" t="s">
+        <v>2318</v>
+      </c>
+      <c r="M1374" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1374" t="s">
+        <v>2282</v>
+      </c>
+      <c r="P1374" t="s">
+        <v>2319</v>
+      </c>
+      <c r="Q1374" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1375" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1375" t="s">
+        <v>2321</v>
+      </c>
+      <c r="M1375" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1375" t="s">
+        <v>2282</v>
+      </c>
+      <c r="P1375" t="s">
+        <v>2320</v>
+      </c>
+      <c r="Q1375" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1376" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1376" t="s">
+        <v>2321</v>
+      </c>
+      <c r="M1376" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1376" t="s">
+        <v>2282</v>
+      </c>
+      <c r="P1376" t="s">
+        <v>2322</v>
+      </c>
+      <c r="Q1376" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1377" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1377" t="s">
+        <v>2324</v>
+      </c>
+      <c r="M1377" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1377" t="s">
+        <v>2325</v>
+      </c>
+      <c r="P1377" t="s">
+        <v>2323</v>
+      </c>
+      <c r="Q1377" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1378" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1378" t="s">
+        <v>2324</v>
+      </c>
+      <c r="M1378" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1378" t="s">
+        <v>2325</v>
+      </c>
+      <c r="P1378" t="s">
+        <v>2326</v>
+      </c>
+      <c r="Q1378" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1379" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1379" t="s">
+        <v>2328</v>
+      </c>
+      <c r="M1379" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1379" t="s">
+        <v>2325</v>
+      </c>
+      <c r="P1379" t="s">
+        <v>2327</v>
+      </c>
+      <c r="Q1379" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1380" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1380" t="s">
+        <v>2330</v>
+      </c>
+      <c r="M1380" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1380" t="s">
+        <v>2331</v>
+      </c>
+      <c r="P1380" t="s">
+        <v>2329</v>
+      </c>
+      <c r="Q1380" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1381" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1381" t="s">
+        <v>2334</v>
+      </c>
+      <c r="M1381" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1381" t="s">
+        <v>2331</v>
+      </c>
+      <c r="P1381" t="s">
+        <v>2332</v>
+      </c>
+      <c r="Q1381" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1382" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1382" t="s">
+        <v>2334</v>
+      </c>
+      <c r="M1382" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1382" t="s">
+        <v>2331</v>
+      </c>
+      <c r="P1382" t="s">
+        <v>2333</v>
+      </c>
+      <c r="Q1382" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1383" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1383" t="s">
+        <v>2336</v>
+      </c>
+      <c r="M1383" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1383" t="s">
+        <v>2331</v>
+      </c>
+      <c r="P1383" t="s">
+        <v>2335</v>
+      </c>
+      <c r="Q1383" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1384" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1384" t="s">
+        <v>2338</v>
+      </c>
+      <c r="M1384" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1384" t="s">
+        <v>2331</v>
+      </c>
+      <c r="P1384" t="s">
+        <v>2337</v>
+      </c>
+      <c r="Q1384" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1385" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1385" t="s">
+        <v>2340</v>
+      </c>
+      <c r="M1385" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1385" t="s">
+        <v>2331</v>
+      </c>
+      <c r="P1385" t="s">
+        <v>2339</v>
+      </c>
+      <c r="Q1385" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1386" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1386" t="s">
+        <v>2342</v>
+      </c>
+      <c r="M1386" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1386" t="s">
+        <v>2331</v>
+      </c>
+      <c r="P1386" t="s">
+        <v>2341</v>
+      </c>
+      <c r="Q1386" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1387" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1387" t="s">
+        <v>2342</v>
+      </c>
+      <c r="M1387" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1387" t="s">
+        <v>2331</v>
+      </c>
+      <c r="P1387" t="s">
+        <v>2343</v>
+      </c>
+      <c r="Q1387" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1388" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1388" t="s">
+        <v>2345</v>
+      </c>
+      <c r="M1388" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1388" t="s">
+        <v>2331</v>
+      </c>
+      <c r="P1388" t="s">
+        <v>2344</v>
+      </c>
+      <c r="Q1388" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1389" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1389" t="s">
+        <v>2347</v>
+      </c>
+      <c r="M1389" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1389" t="s">
+        <v>2331</v>
+      </c>
+      <c r="P1389" t="s">
+        <v>2346</v>
+      </c>
+      <c r="Q1389" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1390" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1390" t="s">
+        <v>2349</v>
+      </c>
+      <c r="M1390" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1390" t="s">
+        <v>2331</v>
+      </c>
+      <c r="P1390" t="s">
+        <v>2348</v>
+      </c>
+      <c r="Q1390" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1391" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1391" t="s">
+        <v>2351</v>
+      </c>
+      <c r="M1391" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1391" t="s">
+        <v>2331</v>
+      </c>
+      <c r="P1391" t="s">
+        <v>2350</v>
+      </c>
+      <c r="Q1391" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1392" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1392" t="s">
+        <v>2353</v>
+      </c>
+      <c r="M1392" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1392" t="s">
+        <v>2331</v>
+      </c>
+      <c r="P1392" t="s">
+        <v>2352</v>
+      </c>
+      <c r="Q1392" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1393" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1393" t="s">
+        <v>2355</v>
+      </c>
+      <c r="M1393" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1393" t="s">
+        <v>2331</v>
+      </c>
+      <c r="P1393" t="s">
+        <v>2354</v>
+      </c>
+      <c r="Q1393" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1394" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1394" t="s">
+        <v>2357</v>
+      </c>
+      <c r="M1394" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1394" t="s">
+        <v>2331</v>
+      </c>
+      <c r="P1394" t="s">
+        <v>2356</v>
+      </c>
+      <c r="Q1394" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1395" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1395" t="s">
+        <v>2359</v>
+      </c>
+      <c r="M1395" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1395" t="s">
+        <v>2331</v>
+      </c>
+      <c r="P1395" t="s">
+        <v>2358</v>
+      </c>
+      <c r="Q1395" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1396" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1396" t="s">
+        <v>2361</v>
+      </c>
+      <c r="M1396" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1396" t="s">
+        <v>2331</v>
+      </c>
+      <c r="P1396" t="s">
+        <v>2360</v>
+      </c>
+      <c r="Q1396" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1397" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1397" t="s">
+        <v>2363</v>
+      </c>
+      <c r="M1397" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1397" t="s">
+        <v>2331</v>
+      </c>
+      <c r="P1397" t="s">
+        <v>2362</v>
+      </c>
+      <c r="Q1397" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1398" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1398" t="s">
+        <v>2365</v>
+      </c>
+      <c r="M1398" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1398" t="s">
+        <v>2331</v>
+      </c>
+      <c r="P1398" t="s">
+        <v>2364</v>
+      </c>
+      <c r="Q1398" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1399" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1399" t="s">
+        <v>2367</v>
+      </c>
+      <c r="M1399" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1399" t="s">
+        <v>2331</v>
+      </c>
+      <c r="P1399" t="s">
+        <v>2366</v>
+      </c>
+      <c r="Q1399" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1400" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1400" t="s">
+        <v>2369</v>
+      </c>
+      <c r="M1400" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1400" t="s">
+        <v>2331</v>
+      </c>
+      <c r="P1400" t="s">
+        <v>2368</v>
+      </c>
+      <c r="Q1400" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1401" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1401" t="s">
+        <v>2371</v>
+      </c>
+      <c r="M1401" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1401" t="s">
+        <v>2331</v>
+      </c>
+      <c r="P1401" t="s">
+        <v>2370</v>
+      </c>
+      <c r="Q1401" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1402" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1402" t="s">
+        <v>2374</v>
+      </c>
+      <c r="M1402" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1402" t="s">
+        <v>2372</v>
+      </c>
+      <c r="P1402" t="s">
+        <v>2373</v>
+      </c>
+      <c r="Q1402" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1403" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1403" t="s">
+        <v>2376</v>
+      </c>
+      <c r="M1403" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1403" t="s">
+        <v>2372</v>
+      </c>
+      <c r="P1403" t="s">
+        <v>2375</v>
+      </c>
+      <c r="Q1403" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1404" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1404" t="s">
+        <v>2378</v>
+      </c>
+      <c r="M1404" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1404" t="s">
+        <v>2372</v>
+      </c>
+      <c r="P1404" t="s">
+        <v>2377</v>
+      </c>
+      <c r="Q1404" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1405" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1405" t="s">
+        <v>2380</v>
+      </c>
+      <c r="M1405" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1405" t="s">
+        <v>2372</v>
+      </c>
+      <c r="P1405" t="s">
+        <v>2379</v>
+      </c>
+      <c r="Q1405" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1406" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1406" t="s">
+        <v>2382</v>
+      </c>
+      <c r="M1406" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1406" t="s">
+        <v>2372</v>
+      </c>
+      <c r="P1406" t="s">
+        <v>2381</v>
+      </c>
+      <c r="Q1406" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="P1306" r:id="rId1"/>

--- a/webserver/model_data/TrainingData_ml.xlsx
+++ b/webserver/model_data/TrainingData_ml.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14330" uniqueCount="2383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14868" uniqueCount="2542">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -7199,6 +7199,483 @@
   </si>
   <si>
     <t>Rene Muellers</t>
+  </si>
+  <si>
+    <t>Das ist so ne Rotze zum Schluss die schreit und stönnt ja nur noch rum</t>
+  </si>
+  <si>
+    <t>Mr LackMulex</t>
+  </si>
+  <si>
+    <t>So ein kak Lied!</t>
+  </si>
+  <si>
+    <t>Karin Geiler</t>
+  </si>
+  <si>
+    <t>Bullshit</t>
+  </si>
+  <si>
+    <t>JjSs WERER</t>
+  </si>
+  <si>
+    <t>Die Genialität und die Einzigartigkeit dieses Werks scheint kaum noch Gehör zu finden, geschweige denn den Respekt/die Anerkennung zu erfahren, der ihr gebührt.</t>
+  </si>
+  <si>
+    <t>Alan Ladd seine Katze</t>
+  </si>
+  <si>
+    <t>Das ist kackeeeeeeeeee</t>
+  </si>
+  <si>
+    <t>squaddEmre</t>
+  </si>
+  <si>
+    <t>punk a la card</t>
+  </si>
+  <si>
+    <t>Gregor Bakunin</t>
+  </si>
+  <si>
+    <t>Hinter dieser starken Message geht es beinahe verloren, dass dieses Lied auch musikalisch und gesangstechnisch von einer Qualität ist, die man heute vergeblich sucht.</t>
+  </si>
+  <si>
+    <t>Benno Witter</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=GK51vq95j1s</t>
+  </si>
+  <si>
+    <t>Top Sound</t>
+  </si>
+  <si>
+    <t>L Wagner</t>
+  </si>
+  <si>
+    <t>Lyric trifft ins Schwarze.</t>
+  </si>
+  <si>
+    <t>Schöne klare Stimme!</t>
+  </si>
+  <si>
+    <t>Das waren die 80´s toll!</t>
+  </si>
+  <si>
+    <t>Butz Pennymaker</t>
+  </si>
+  <si>
+    <t>So aktuell wie nie !!!</t>
+  </si>
+  <si>
+    <t>Birgit Kröger</t>
+  </si>
+  <si>
+    <t>Tolle Erinnerung an diese Zeit.</t>
+  </si>
+  <si>
+    <t>Vogelweyhde</t>
+  </si>
+  <si>
+    <t>sie hat voll das liebe Lächeln</t>
+  </si>
+  <si>
+    <t>C S</t>
+  </si>
+  <si>
+    <t>da hatte noch jeder seine eigene Kreativität</t>
+  </si>
+  <si>
+    <t>bernie van Halen</t>
+  </si>
+  <si>
+    <t>Schönes Lied in schönen Zeiten.</t>
+  </si>
+  <si>
+    <t>IrudienLentegia</t>
+  </si>
+  <si>
+    <t>Kult</t>
+  </si>
+  <si>
+    <t>Bernd Bratton</t>
+  </si>
+  <si>
+    <t>Soooooooo geil</t>
+  </si>
+  <si>
+    <t>Tanja Busch</t>
+  </si>
+  <si>
+    <t>Das waren Zeiten!</t>
+  </si>
+  <si>
+    <t>Storm Hansen</t>
+  </si>
+  <si>
+    <t>genial die kreative NDW Zeit ....</t>
+  </si>
+  <si>
+    <t>Hab sie gar nicht mehr so hübsch in Erinnerung</t>
+  </si>
+  <si>
+    <t>schreiterkeit</t>
+  </si>
+  <si>
+    <t>Sah echt klasse aus, damals, die Ina.</t>
+  </si>
+  <si>
+    <t>Tolles Lied</t>
+  </si>
+  <si>
+    <t>Carina Stender</t>
+  </si>
+  <si>
+    <t>Kult aus der NDW Zeit</t>
+  </si>
+  <si>
+    <t>Downnumbereight</t>
+  </si>
+  <si>
+    <t>YEEP yeep</t>
+  </si>
+  <si>
+    <t>antje tautkus</t>
+  </si>
+  <si>
+    <t>Der Klassiker</t>
+  </si>
+  <si>
+    <t>DuDie72</t>
+  </si>
+  <si>
+    <t>classic!</t>
+  </si>
+  <si>
+    <t>Gott, was 'ne tolle Frau.</t>
+  </si>
+  <si>
+    <t>Lee La</t>
+  </si>
+  <si>
+    <t>wo sind solche Frauen heute?</t>
+  </si>
+  <si>
+    <t>Ich beneide meine Mama igdwie, daß das ihre Generation ist und sie ihre Jugend in dieser Zeit erlebt hat.</t>
+  </si>
+  <si>
+    <t>Heute ist alles so gleich</t>
+  </si>
+  <si>
+    <t>alle sollen gleich sein und nur Oberflächlichkeiten beherrschen die Köpfe der meisten Frauen.</t>
+  </si>
+  <si>
+    <t>Klasse Musik!</t>
+  </si>
+  <si>
+    <t>hey men</t>
+  </si>
+  <si>
+    <t>Noch echt gute Melodien damals!</t>
+  </si>
+  <si>
+    <t>Solche Frauen wie dich, braucht das Land auch Ina.</t>
+  </si>
+  <si>
+    <t>Beste Version!</t>
+  </si>
+  <si>
+    <t>tolle Version !</t>
+  </si>
+  <si>
+    <t>monika müller</t>
+  </si>
+  <si>
+    <t>ach, schöne alte Zeiten, damals...</t>
+  </si>
+  <si>
+    <t>Adriaan Camambert</t>
+  </si>
+  <si>
+    <t>einfach nur Suuuper</t>
+  </si>
+  <si>
+    <t>ulli wiermann</t>
+  </si>
+  <si>
+    <t>Neue Frauen brauch das Land ihr seid zu verklemmt</t>
+  </si>
+  <si>
+    <t>Christian putzi</t>
+  </si>
+  <si>
+    <t>Unglaublich!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wow - diese Version gefällt mir von allen bisher gehörten am besten! </t>
+  </si>
+  <si>
+    <t>Michael Schiffmann</t>
+  </si>
+  <si>
+    <t>cinderella 0307</t>
+  </si>
+  <si>
+    <t>Da ist richtig Feuer dahinter und es kribbelt einem sofort in den Füßen.</t>
+  </si>
+  <si>
+    <t>Danke für's Einstellen.</t>
+  </si>
+  <si>
+    <t>AIDAsign medienbüro</t>
+  </si>
+  <si>
+    <t>hart aber ehrlich</t>
+  </si>
+  <si>
+    <t>echt handgezufte mucke, passt auf die heutige zeit</t>
+  </si>
+  <si>
+    <t>Diesen Einwurf mit dem Atommüll bei 3:32 finde und fand ich nie gut bei Konzerten</t>
+  </si>
+  <si>
+    <t>Hermes Phettberg</t>
+  </si>
+  <si>
+    <t>gehörte aber zur damaligen Zeit einfach dazu</t>
+  </si>
+  <si>
+    <t>Auf der anderen Seite waren es aber gerade diese Themen, die die Gesellschaft in Bewegung hielten.</t>
+  </si>
+  <si>
+    <t>Nicht immer zum Guten, wenn man den politisch motivierten Terror bedenkt</t>
+  </si>
+  <si>
+    <t>Und trotzdem fehlt mir heute irgendwie das Rotzige von damals</t>
+  </si>
+  <si>
+    <t>Alles uniformiert heute und bei manch einem ist das Ventil unter anderem auch die AFD, leider</t>
+  </si>
+  <si>
+    <t>Aber gut, war toll, diese Zeit mitgemacht zu haben.</t>
+  </si>
+  <si>
+    <t>Oh Gott Nein!</t>
+  </si>
+  <si>
+    <t>Professor Trefusius</t>
+  </si>
+  <si>
+    <t>https://www.zeit.de/kultur/musik/2020-02/james-bond-song-billie-eilish-no-time-to-die</t>
+  </si>
+  <si>
+    <t>Nicht Hans Zimmer!</t>
+  </si>
+  <si>
+    <t>Die Zahl der Filme die er mit seinem Lärm ruiniert hat (von Gladiator und bis Interstellar) ist jetzt schon Legion, jetzt bitte nicht noch James Bond!</t>
+  </si>
+  <si>
+    <t>Gegen Billy Eillish, spricht nichts, auch wenn ich sie nicht für das Uebergenie halte, dass manche in Ihr sehen.</t>
+  </si>
+  <si>
+    <t>Skyfall war viel besser.</t>
+  </si>
+  <si>
+    <t>Der Song hat fast gar nichts.</t>
+  </si>
+  <si>
+    <t>ssr</t>
+  </si>
+  <si>
+    <t>Ihre Stimme ist bei weitem nicht so überzeugend und beeindruckend wie die von z.B. Adele.</t>
+  </si>
+  <si>
+    <t>Nein, der nächste kann gerne wieder eine ausdrucksstärkere Stimme haben und origineller sein.</t>
+  </si>
+  <si>
+    <t>Ich fand den Song etwas mager.</t>
+  </si>
+  <si>
+    <t>Eher weniger als mehr.</t>
+  </si>
+  <si>
+    <t>Um Charme gehts schon lange nicht mehr.</t>
+  </si>
+  <si>
+    <t>hairy</t>
+  </si>
+  <si>
+    <t>Sondern ums Marketing.</t>
+  </si>
+  <si>
+    <t>Wenn man irgendwas besser verkaufen will, klebt man vorn noch ein celebrity mehr drauf.</t>
+  </si>
+  <si>
+    <t>Bei allem Respekt vor verschiedenen Meinungen</t>
+  </si>
+  <si>
+    <t>younes1</t>
+  </si>
+  <si>
+    <t>Hans Zimmers Musik als „Lärm“ zu bezeichnen ist wirklich lächerlich.</t>
+  </si>
+  <si>
+    <t>Zuminest einmal Interstallar wäre ohne Zimmers Musik nur halb so gut.</t>
+  </si>
+  <si>
+    <t>Frank-Werner</t>
+  </si>
+  <si>
+    <t>Wenn ich da etwa an die minutenlange Andock-Sequenz an die sich langsam zerstörende Raumstation denke, so war bzw. ist dies ein ganz großer Kino-Moment - auch dank Zimmers Musik.</t>
+  </si>
+  <si>
+    <t>Dies und vor allen Dingen: nicht immer alles so furchtbar ernst nehmen.</t>
+  </si>
+  <si>
+    <t>Dass die Vertreter der Regierung in Berlin von einer neuen DDR Träumen dürfte mittlerweile jedem klar sein.</t>
+  </si>
+  <si>
+    <t>Gelöschter Nutzer 10457</t>
+  </si>
+  <si>
+    <t>https://www.zeit.de/politik/deutschland/2019-10/wohnungspolitik-mietendeckel-mietabsenkung-berlin-immobilienmarkt-faq</t>
+  </si>
+  <si>
+    <t>Probleme verbieten, süßes Gift.</t>
+  </si>
+  <si>
+    <t>magnalogger</t>
+  </si>
+  <si>
+    <t>Das ist aber gegen die Menschen, mittelfristig.</t>
+  </si>
+  <si>
+    <t>Beeindruckend, der Mann kommt authentisch rüber und weiß, was Sache ist</t>
+  </si>
+  <si>
+    <t>married to the game</t>
+  </si>
+  <si>
+    <t>https://www.zeit.de/sport/2020-02/uli-borowka-alkoholiker-sucht-fussball-nationalspieler</t>
+  </si>
+  <si>
+    <t>Und er handelt und kann helfen</t>
+  </si>
+  <si>
+    <t>Guter Text</t>
+  </si>
+  <si>
+    <t>regreub</t>
+  </si>
+  <si>
+    <t>Herr Borowka, Sie sind der wahre Leistungsträger dieser Gesellschaft!</t>
+  </si>
+  <si>
+    <t>El Capone 2.0</t>
+  </si>
+  <si>
+    <t>Mit allergrößten Respekt verneige ich mich vor Ihnen und schlage Sie für's Bundestverdienstkreuz vor.</t>
+  </si>
+  <si>
+    <t>Auf jeden Fall tolle und wichtige Arbeit, die Uli Borowka da seit geraumer Zeit leistet</t>
+  </si>
+  <si>
+    <t>Ente Willi</t>
+  </si>
+  <si>
+    <t>Kleiner Wermutstropfen: Die Geschichte um den "Eisenfuß" herum hätte meiner Meinung nach auch diskreter gehandhabt werden können</t>
+  </si>
+  <si>
+    <t>Guter Text! Danke Uli und weiter so!</t>
+  </si>
+  <si>
+    <t>Herostratos</t>
+  </si>
+  <si>
+    <t>Beeindruckend und authentisch!</t>
+  </si>
+  <si>
+    <t>Axel T</t>
+  </si>
+  <si>
+    <t>Umso wichtiger, dass es Menschen wie UB gibt, die authentisch sind und unterstützen.</t>
+  </si>
+  <si>
+    <t>tolles Interview. Weiter so!</t>
+  </si>
+  <si>
+    <t>Beasthoven</t>
+  </si>
+  <si>
+    <t>Beeindruckender Artikel in dem ein großartiger Mensch zu Wort kommt.</t>
+  </si>
+  <si>
+    <t>Borsigkreisläufer</t>
+  </si>
+  <si>
+    <t>Selbst im Suchtumfeld beruflich aktiv habe ich größten Respekt vor Menschen die ihre Sucht beherrschen und für andere eine große Hilfe sind.</t>
+  </si>
+  <si>
+    <t>Da weiß man, aus welcher Ecke der ganze Mist stammt.</t>
+  </si>
+  <si>
+    <t>https://jungefreiheit.de/debatte/kommentar/2020/saekularer-tugendwettbewerb/</t>
+  </si>
+  <si>
+    <t>Kersti Wolnow</t>
+  </si>
+  <si>
+    <t>Einen größeren Unsinn kann man nicht verbreiten</t>
+  </si>
+  <si>
+    <t>M.Kratzsch</t>
+  </si>
+  <si>
+    <t>Ideologie ist anscheinend auch für die Lehrer eine Fessel geworden, die das wissenschaftlich Denken, zumindest das Aussprechen von Wahrheiten verhindert</t>
+  </si>
+  <si>
+    <t>Wem vertrauen wir nur unsere Kinder an ?</t>
+  </si>
+  <si>
+    <t>Im Gegenteil, diese Haltung wird als STOLZ, im Sinne von Hybris, verstanden.</t>
+  </si>
+  <si>
+    <t>Veronika Batz-Jevec</t>
+  </si>
+  <si>
+    <t>Sie sind dumm und manipuliert.</t>
+  </si>
+  <si>
+    <t>Erwin der Querdenker</t>
+  </si>
+  <si>
+    <t>Von der Klimaforschung, lassen sie mich raten, haben diese Herrschaften Null Ahnung!</t>
+  </si>
+  <si>
+    <t>Sie begreifen auch nicht, dass sie missbraucht werden.</t>
+  </si>
+  <si>
+    <t>Vermutlich werden sie sehr aggressiv auf Gegenargumente und eine Gegenaufklärung reagieren.</t>
+  </si>
+  <si>
+    <t>Vernunft wird bei dieser glaubensmäßigen Sektiererei völlig ausgeschaltet.</t>
+  </si>
+  <si>
+    <t>Hieran wird deutlich, wie krank manche Ideologien machen und wie sehr diese das menschliche Hirn psychisch vergiften.</t>
+  </si>
+  <si>
+    <t>Zwischen einem paranoiden Schizphrenen gibt es hierbei durchaus erschreckende Parallelen.</t>
+  </si>
+  <si>
+    <t>Deshalb können solche auf Angst und psychischer Kontrolle beruhenden Bewegung als eine ernste Gefahr für unsere Gesellschaft gesehen werden.</t>
+  </si>
+  <si>
+    <t>Da, wo der gesunde Menschenverstand erfolgreich durch eine fortwährende Gehirnwäsche jedoch gelähmt wurde, lässt sich mit Vernunft leider nichts mehr erreichen.</t>
+  </si>
+  <si>
+    <t>Ein solches Vorgehen wirkt bei solchen Menschen immer wie eine Aggression.</t>
+  </si>
+  <si>
+    <t>Entsprechend sind dann ihre Reaktionen.</t>
   </si>
 </sst>
 </file>
@@ -7566,12 +8043,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W1406"/>
+  <dimension ref="A1:W1508"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" zoomScale="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1404" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A1484" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="M1403" sqref="M1403:N1406"/>
+      <selection pane="bottomLeft" activeCell="P1509" sqref="P1509"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -47375,7 +47852,7 @@
         <v>1198</v>
       </c>
       <c r="I714">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="J714">
         <v>0.5</v>
@@ -70972,6 +71449,1824 @@
       </c>
       <c r="Q1406" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="1407" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1407" t="s">
+        <v>2384</v>
+      </c>
+      <c r="M1407" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1407" t="s">
+        <v>2372</v>
+      </c>
+      <c r="P1407" t="s">
+        <v>2383</v>
+      </c>
+      <c r="Q1407" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1408" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1408" t="s">
+        <v>2386</v>
+      </c>
+      <c r="M1408" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1408" t="s">
+        <v>2372</v>
+      </c>
+      <c r="P1408" t="s">
+        <v>2385</v>
+      </c>
+      <c r="Q1408" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1409" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1409" t="s">
+        <v>2388</v>
+      </c>
+      <c r="M1409" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1409" t="s">
+        <v>2372</v>
+      </c>
+      <c r="P1409" t="s">
+        <v>2387</v>
+      </c>
+      <c r="Q1409" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1410" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1410" t="s">
+        <v>2390</v>
+      </c>
+      <c r="M1410" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1410" t="s">
+        <v>2372</v>
+      </c>
+      <c r="P1410" t="s">
+        <v>2389</v>
+      </c>
+      <c r="Q1410" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1411" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1411" t="s">
+        <v>2392</v>
+      </c>
+      <c r="M1411" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1411" t="s">
+        <v>2372</v>
+      </c>
+      <c r="P1411" t="s">
+        <v>2391</v>
+      </c>
+      <c r="Q1411" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1412" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1412" t="s">
+        <v>2394</v>
+      </c>
+      <c r="M1412" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1412" t="s">
+        <v>2372</v>
+      </c>
+      <c r="P1412" t="s">
+        <v>2393</v>
+      </c>
+      <c r="Q1412" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1413" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1413" t="s">
+        <v>2396</v>
+      </c>
+      <c r="M1413" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1413" t="s">
+        <v>2397</v>
+      </c>
+      <c r="P1413" t="s">
+        <v>2395</v>
+      </c>
+      <c r="Q1413" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1414" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1414" t="s">
+        <v>2399</v>
+      </c>
+      <c r="M1414" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1414" t="s">
+        <v>2397</v>
+      </c>
+      <c r="P1414" t="s">
+        <v>2398</v>
+      </c>
+      <c r="Q1414" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1415" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1415" t="s">
+        <v>2399</v>
+      </c>
+      <c r="M1415" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1415" t="s">
+        <v>2397</v>
+      </c>
+      <c r="P1415" t="s">
+        <v>2400</v>
+      </c>
+      <c r="Q1415" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1416" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1416" t="s">
+        <v>2399</v>
+      </c>
+      <c r="M1416" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1416" t="s">
+        <v>2397</v>
+      </c>
+      <c r="P1416" t="s">
+        <v>2401</v>
+      </c>
+      <c r="Q1416" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1417" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1417" t="s">
+        <v>2403</v>
+      </c>
+      <c r="M1417" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1417" t="s">
+        <v>2397</v>
+      </c>
+      <c r="P1417" t="s">
+        <v>2402</v>
+      </c>
+      <c r="Q1417" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1418" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1418" t="s">
+        <v>2405</v>
+      </c>
+      <c r="M1418" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1418" t="s">
+        <v>2397</v>
+      </c>
+      <c r="P1418" t="s">
+        <v>2404</v>
+      </c>
+      <c r="Q1418" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1419" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1419" t="s">
+        <v>2407</v>
+      </c>
+      <c r="M1419" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1419" t="s">
+        <v>2397</v>
+      </c>
+      <c r="P1419" t="s">
+        <v>2406</v>
+      </c>
+      <c r="Q1419" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1420" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1420" t="s">
+        <v>2409</v>
+      </c>
+      <c r="M1420" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1420" t="s">
+        <v>2397</v>
+      </c>
+      <c r="P1420" t="s">
+        <v>2408</v>
+      </c>
+      <c r="Q1420" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1421" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1421" t="s">
+        <v>2411</v>
+      </c>
+      <c r="M1421" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1421" t="s">
+        <v>2397</v>
+      </c>
+      <c r="P1421" t="s">
+        <v>2410</v>
+      </c>
+      <c r="Q1421" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1422" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1422" t="s">
+        <v>2413</v>
+      </c>
+      <c r="M1422" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1422" t="s">
+        <v>2397</v>
+      </c>
+      <c r="P1422" t="s">
+        <v>2412</v>
+      </c>
+      <c r="Q1422" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1423" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1423" t="s">
+        <v>2415</v>
+      </c>
+      <c r="M1423" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1423" t="s">
+        <v>2397</v>
+      </c>
+      <c r="P1423" t="s">
+        <v>2414</v>
+      </c>
+      <c r="Q1423" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1424" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1424" t="s">
+        <v>2417</v>
+      </c>
+      <c r="M1424" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1424" t="s">
+        <v>2397</v>
+      </c>
+      <c r="P1424" t="s">
+        <v>2416</v>
+      </c>
+      <c r="Q1424" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1425" spans="11:23" x14ac:dyDescent="0.2">
+      <c r="L1425" t="s">
+        <v>2419</v>
+      </c>
+      <c r="M1425" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1425" t="s">
+        <v>2397</v>
+      </c>
+      <c r="P1425" t="s">
+        <v>2418</v>
+      </c>
+      <c r="Q1425" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1426" spans="11:23" x14ac:dyDescent="0.2">
+      <c r="L1426" t="s">
+        <v>2411</v>
+      </c>
+      <c r="M1426" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1426" t="s">
+        <v>2397</v>
+      </c>
+      <c r="P1426" t="s">
+        <v>2420</v>
+      </c>
+      <c r="Q1426" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1427" spans="11:23" x14ac:dyDescent="0.2">
+      <c r="L1427" t="s">
+        <v>2422</v>
+      </c>
+      <c r="M1427" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1427" t="s">
+        <v>2397</v>
+      </c>
+      <c r="P1427" t="s">
+        <v>2421</v>
+      </c>
+      <c r="Q1427" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1428" spans="11:23" x14ac:dyDescent="0.2">
+      <c r="L1428" t="s">
+        <v>2422</v>
+      </c>
+      <c r="M1428" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1428" t="s">
+        <v>2397</v>
+      </c>
+      <c r="P1428" t="s">
+        <v>2423</v>
+      </c>
+      <c r="Q1428" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1429" spans="11:23" x14ac:dyDescent="0.2">
+      <c r="L1429" t="s">
+        <v>2425</v>
+      </c>
+      <c r="M1429" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1429" t="s">
+        <v>2397</v>
+      </c>
+      <c r="P1429" t="s">
+        <v>2424</v>
+      </c>
+      <c r="Q1429" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1430" spans="11:23" x14ac:dyDescent="0.2">
+      <c r="L1430" t="s">
+        <v>2427</v>
+      </c>
+      <c r="M1430" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1430" t="s">
+        <v>2397</v>
+      </c>
+      <c r="P1430" t="s">
+        <v>2426</v>
+      </c>
+      <c r="Q1430" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1431" spans="11:23" x14ac:dyDescent="0.2">
+      <c r="L1431" t="s">
+        <v>2429</v>
+      </c>
+      <c r="M1431" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1431" t="s">
+        <v>2397</v>
+      </c>
+      <c r="P1431" t="s">
+        <v>2428</v>
+      </c>
+      <c r="Q1431" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1432" spans="11:23" x14ac:dyDescent="0.2">
+      <c r="K1432" t="s">
+        <v>2432</v>
+      </c>
+      <c r="L1432" t="s">
+        <v>2431</v>
+      </c>
+      <c r="M1432" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1432" t="s">
+        <v>2397</v>
+      </c>
+      <c r="P1432" t="s">
+        <v>2430</v>
+      </c>
+      <c r="Q1432" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1432" t="s">
+        <v>53</v>
+      </c>
+      <c r="S1432" t="s">
+        <v>1645</v>
+      </c>
+      <c r="T1432" t="s">
+        <v>197</v>
+      </c>
+      <c r="U1432" t="s">
+        <v>211</v>
+      </c>
+      <c r="V1432" t="s">
+        <v>72</v>
+      </c>
+      <c r="W1432" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1433" spans="11:23" x14ac:dyDescent="0.2">
+      <c r="L1433" t="s">
+        <v>2434</v>
+      </c>
+      <c r="M1433" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1433" t="s">
+        <v>2397</v>
+      </c>
+      <c r="P1433" t="s">
+        <v>2433</v>
+      </c>
+      <c r="Q1433" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1434" spans="11:23" x14ac:dyDescent="0.2">
+      <c r="L1434" t="s">
+        <v>2434</v>
+      </c>
+      <c r="M1434" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1434" t="s">
+        <v>2397</v>
+      </c>
+      <c r="P1434" t="s">
+        <v>2435</v>
+      </c>
+      <c r="Q1434" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1435" spans="11:23" x14ac:dyDescent="0.2">
+      <c r="L1435" t="s">
+        <v>2434</v>
+      </c>
+      <c r="M1435" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1435" t="s">
+        <v>2397</v>
+      </c>
+      <c r="P1435" t="s">
+        <v>2436</v>
+      </c>
+      <c r="Q1435" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1435" t="s">
+        <v>211</v>
+      </c>
+      <c r="S1435" t="s">
+        <v>142</v>
+      </c>
+      <c r="T1435" t="s">
+        <v>53</v>
+      </c>
+      <c r="U1435" t="s">
+        <v>825</v>
+      </c>
+      <c r="V1435" t="s">
+        <v>542</v>
+      </c>
+      <c r="W1435" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1436" spans="11:23" x14ac:dyDescent="0.2">
+      <c r="L1436" t="s">
+        <v>2434</v>
+      </c>
+      <c r="M1436" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1436" t="s">
+        <v>2397</v>
+      </c>
+      <c r="P1436" t="s">
+        <v>2437</v>
+      </c>
+      <c r="Q1436" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1436" t="s">
+        <v>53</v>
+      </c>
+      <c r="S1436" t="s">
+        <v>211</v>
+      </c>
+      <c r="T1436" t="s">
+        <v>552</v>
+      </c>
+      <c r="U1436" t="s">
+        <v>588</v>
+      </c>
+      <c r="V1436" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="1437" spans="11:23" x14ac:dyDescent="0.2">
+      <c r="L1437" t="s">
+        <v>2434</v>
+      </c>
+      <c r="M1437" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1437" t="s">
+        <v>2397</v>
+      </c>
+      <c r="P1437" t="s">
+        <v>2438</v>
+      </c>
+      <c r="Q1437" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1437" t="s">
+        <v>53</v>
+      </c>
+      <c r="S1437" t="s">
+        <v>211</v>
+      </c>
+      <c r="T1437" t="s">
+        <v>1645</v>
+      </c>
+      <c r="U1437" t="s">
+        <v>106</v>
+      </c>
+      <c r="V1437" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="1438" spans="11:23" x14ac:dyDescent="0.2">
+      <c r="L1438" t="s">
+        <v>2440</v>
+      </c>
+      <c r="M1438" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1438" t="s">
+        <v>2397</v>
+      </c>
+      <c r="P1438" t="s">
+        <v>2439</v>
+      </c>
+      <c r="Q1438" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1439" spans="11:23" x14ac:dyDescent="0.2">
+      <c r="L1439" t="s">
+        <v>2440</v>
+      </c>
+      <c r="M1439" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1439" t="s">
+        <v>2397</v>
+      </c>
+      <c r="P1439" t="s">
+        <v>2441</v>
+      </c>
+      <c r="Q1439" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1440" spans="11:23" x14ac:dyDescent="0.2">
+      <c r="L1440" t="s">
+        <v>2440</v>
+      </c>
+      <c r="M1440" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1440" t="s">
+        <v>2397</v>
+      </c>
+      <c r="P1440" t="s">
+        <v>2442</v>
+      </c>
+      <c r="Q1440" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1441" spans="12:22" x14ac:dyDescent="0.2">
+      <c r="L1441" t="s">
+        <v>2440</v>
+      </c>
+      <c r="M1441" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1441" t="s">
+        <v>2397</v>
+      </c>
+      <c r="P1441" t="s">
+        <v>2443</v>
+      </c>
+      <c r="Q1441" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1442" spans="12:22" x14ac:dyDescent="0.2">
+      <c r="L1442" t="s">
+        <v>2445</v>
+      </c>
+      <c r="M1442" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1442" t="s">
+        <v>2397</v>
+      </c>
+      <c r="P1442" t="s">
+        <v>2444</v>
+      </c>
+      <c r="Q1442" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1443" spans="12:22" x14ac:dyDescent="0.2">
+      <c r="L1443" t="s">
+        <v>2447</v>
+      </c>
+      <c r="M1443" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1443" t="s">
+        <v>2397</v>
+      </c>
+      <c r="P1443" t="s">
+        <v>2446</v>
+      </c>
+      <c r="Q1443" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1444" spans="12:22" x14ac:dyDescent="0.2">
+      <c r="L1444" t="s">
+        <v>2449</v>
+      </c>
+      <c r="M1444" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1444" t="s">
+        <v>2397</v>
+      </c>
+      <c r="P1444" t="s">
+        <v>2448</v>
+      </c>
+      <c r="Q1444" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1445" spans="12:22" x14ac:dyDescent="0.2">
+      <c r="L1445" t="s">
+        <v>2451</v>
+      </c>
+      <c r="M1445" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1445" t="s">
+        <v>2397</v>
+      </c>
+      <c r="P1445" t="s">
+        <v>2450</v>
+      </c>
+      <c r="Q1445" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1446" spans="12:22" x14ac:dyDescent="0.2">
+      <c r="L1446" t="s">
+        <v>2454</v>
+      </c>
+      <c r="M1446" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1446" t="s">
+        <v>2397</v>
+      </c>
+      <c r="P1446" t="s">
+        <v>2452</v>
+      </c>
+      <c r="Q1446" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1446" t="s">
+        <v>65</v>
+      </c>
+      <c r="S1446" t="s">
+        <v>142</v>
+      </c>
+      <c r="T1446" t="s">
+        <v>53</v>
+      </c>
+      <c r="U1446" t="s">
+        <v>350</v>
+      </c>
+      <c r="V1446" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="1447" spans="12:22" x14ac:dyDescent="0.2">
+      <c r="L1447" t="s">
+        <v>2455</v>
+      </c>
+      <c r="M1447" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1447" t="s">
+        <v>2397</v>
+      </c>
+      <c r="P1447" t="s">
+        <v>2453</v>
+      </c>
+      <c r="Q1447" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1448" spans="12:22" x14ac:dyDescent="0.2">
+      <c r="L1448" t="s">
+        <v>2455</v>
+      </c>
+      <c r="M1448" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1448" t="s">
+        <v>2397</v>
+      </c>
+      <c r="P1448" t="s">
+        <v>2456</v>
+      </c>
+      <c r="Q1448" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1449" spans="12:22" x14ac:dyDescent="0.2">
+      <c r="L1449" t="s">
+        <v>2455</v>
+      </c>
+      <c r="M1449" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1449" t="s">
+        <v>2397</v>
+      </c>
+      <c r="P1449" t="s">
+        <v>2457</v>
+      </c>
+      <c r="Q1449" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1450" spans="12:22" x14ac:dyDescent="0.2">
+      <c r="L1450" t="s">
+        <v>2458</v>
+      </c>
+      <c r="M1450" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1450" t="s">
+        <v>2397</v>
+      </c>
+      <c r="P1450" t="s">
+        <v>2459</v>
+      </c>
+      <c r="Q1450" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1451" spans="12:22" x14ac:dyDescent="0.2">
+      <c r="L1451" t="s">
+        <v>2458</v>
+      </c>
+      <c r="M1451" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1451" t="s">
+        <v>2397</v>
+      </c>
+      <c r="P1451" t="s">
+        <v>2460</v>
+      </c>
+      <c r="Q1451" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1452" spans="12:22" x14ac:dyDescent="0.2">
+      <c r="L1452" t="s">
+        <v>2462</v>
+      </c>
+      <c r="M1452" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1452" t="s">
+        <v>2397</v>
+      </c>
+      <c r="P1452" t="s">
+        <v>2461</v>
+      </c>
+      <c r="Q1452" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1453" spans="12:22" x14ac:dyDescent="0.2">
+      <c r="L1453" t="s">
+        <v>2462</v>
+      </c>
+      <c r="M1453" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1453" t="s">
+        <v>2397</v>
+      </c>
+      <c r="P1453" t="s">
+        <v>2463</v>
+      </c>
+      <c r="Q1453" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1454" spans="12:22" x14ac:dyDescent="0.2">
+      <c r="L1454" t="s">
+        <v>2462</v>
+      </c>
+      <c r="M1454" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1454" t="s">
+        <v>2397</v>
+      </c>
+      <c r="P1454" t="s">
+        <v>2464</v>
+      </c>
+      <c r="Q1454" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1455" spans="12:22" x14ac:dyDescent="0.2">
+      <c r="L1455" t="s">
+        <v>2462</v>
+      </c>
+      <c r="M1455" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1455" t="s">
+        <v>2397</v>
+      </c>
+      <c r="P1455" t="s">
+        <v>2465</v>
+      </c>
+      <c r="Q1455" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1456" spans="12:22" x14ac:dyDescent="0.2">
+      <c r="L1456" t="s">
+        <v>2462</v>
+      </c>
+      <c r="M1456" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1456" t="s">
+        <v>2397</v>
+      </c>
+      <c r="P1456" t="s">
+        <v>2466</v>
+      </c>
+      <c r="Q1456" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1457" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1457" t="s">
+        <v>2462</v>
+      </c>
+      <c r="M1457" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1457" t="s">
+        <v>2397</v>
+      </c>
+      <c r="P1457" t="s">
+        <v>2467</v>
+      </c>
+      <c r="Q1457" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1458" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1458" t="s">
+        <v>2462</v>
+      </c>
+      <c r="M1458" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1458" t="s">
+        <v>2397</v>
+      </c>
+      <c r="P1458" t="s">
+        <v>2468</v>
+      </c>
+      <c r="Q1458" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1459" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1459" t="s">
+        <v>2470</v>
+      </c>
+      <c r="M1459" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1459" t="s">
+        <v>2471</v>
+      </c>
+      <c r="P1459" t="s">
+        <v>2469</v>
+      </c>
+      <c r="Q1459" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1460" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1460" t="s">
+        <v>2470</v>
+      </c>
+      <c r="M1460" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1460" t="s">
+        <v>2471</v>
+      </c>
+      <c r="P1460" t="s">
+        <v>2472</v>
+      </c>
+      <c r="Q1460" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1461" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1461" t="s">
+        <v>2470</v>
+      </c>
+      <c r="M1461" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1461" t="s">
+        <v>2471</v>
+      </c>
+      <c r="P1461" t="s">
+        <v>2473</v>
+      </c>
+      <c r="Q1461" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1462" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1462" t="s">
+        <v>2470</v>
+      </c>
+      <c r="M1462" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1462" t="s">
+        <v>2471</v>
+      </c>
+      <c r="P1462" t="s">
+        <v>2474</v>
+      </c>
+      <c r="Q1462" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1463" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1463" t="s">
+        <v>2477</v>
+      </c>
+      <c r="M1463" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1463" t="s">
+        <v>2471</v>
+      </c>
+      <c r="P1463" t="s">
+        <v>2475</v>
+      </c>
+      <c r="Q1463" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1464" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1464" t="s">
+        <v>2477</v>
+      </c>
+      <c r="M1464" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1464" t="s">
+        <v>2471</v>
+      </c>
+      <c r="P1464" t="s">
+        <v>2476</v>
+      </c>
+      <c r="Q1464" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1465" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1465" t="s">
+        <v>1955</v>
+      </c>
+      <c r="M1465" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1465" t="s">
+        <v>2471</v>
+      </c>
+      <c r="P1465" t="s">
+        <v>2478</v>
+      </c>
+      <c r="Q1465" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1466" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1466" t="s">
+        <v>1955</v>
+      </c>
+      <c r="M1466" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1466" t="s">
+        <v>2471</v>
+      </c>
+      <c r="P1466" t="s">
+        <v>2479</v>
+      </c>
+      <c r="Q1466" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1467" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1467" t="s">
+        <v>1841</v>
+      </c>
+      <c r="M1467" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1467" t="s">
+        <v>2471</v>
+      </c>
+      <c r="P1467" t="s">
+        <v>2480</v>
+      </c>
+      <c r="Q1467" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1468" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1468" t="s">
+        <v>1841</v>
+      </c>
+      <c r="M1468" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1468" t="s">
+        <v>2471</v>
+      </c>
+      <c r="P1468" t="s">
+        <v>2481</v>
+      </c>
+      <c r="Q1468" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1469" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1469" t="s">
+        <v>2483</v>
+      </c>
+      <c r="M1469" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1469" t="s">
+        <v>2471</v>
+      </c>
+      <c r="P1469" t="s">
+        <v>2482</v>
+      </c>
+      <c r="Q1469" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1470" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1470" t="s">
+        <v>2483</v>
+      </c>
+      <c r="M1470" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1470" t="s">
+        <v>2471</v>
+      </c>
+      <c r="P1470" t="s">
+        <v>2484</v>
+      </c>
+      <c r="Q1470" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1471" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1471" t="s">
+        <v>2483</v>
+      </c>
+      <c r="M1471" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1471" t="s">
+        <v>2471</v>
+      </c>
+      <c r="P1471" t="s">
+        <v>2485</v>
+      </c>
+      <c r="Q1471" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1472" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1472" t="s">
+        <v>2487</v>
+      </c>
+      <c r="M1472" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1472" t="s">
+        <v>2471</v>
+      </c>
+      <c r="P1472" t="s">
+        <v>2486</v>
+      </c>
+      <c r="Q1472" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1473" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1473" t="s">
+        <v>2487</v>
+      </c>
+      <c r="M1473" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1473" t="s">
+        <v>2471</v>
+      </c>
+      <c r="P1473" t="s">
+        <v>2488</v>
+      </c>
+      <c r="Q1473" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1474" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1474" t="s">
+        <v>2490</v>
+      </c>
+      <c r="M1474" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1474" t="s">
+        <v>2471</v>
+      </c>
+      <c r="P1474" t="s">
+        <v>2489</v>
+      </c>
+      <c r="Q1474" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1475" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1475" t="s">
+        <v>2490</v>
+      </c>
+      <c r="M1475" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1475" t="s">
+        <v>2471</v>
+      </c>
+      <c r="P1475" t="s">
+        <v>2491</v>
+      </c>
+      <c r="Q1475" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1476" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1476" t="s">
+        <v>2490</v>
+      </c>
+      <c r="M1476" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1476" t="s">
+        <v>2471</v>
+      </c>
+      <c r="P1476" t="s">
+        <v>2492</v>
+      </c>
+      <c r="Q1476" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1477" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1477" t="s">
+        <v>2494</v>
+      </c>
+      <c r="M1477" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1477" t="s">
+        <v>2495</v>
+      </c>
+      <c r="P1477" t="s">
+        <v>2493</v>
+      </c>
+      <c r="Q1477" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1478" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1478" t="s">
+        <v>2497</v>
+      </c>
+      <c r="M1478" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1478" t="s">
+        <v>2495</v>
+      </c>
+      <c r="P1478" t="s">
+        <v>2496</v>
+      </c>
+      <c r="Q1478" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1479" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1479" t="s">
+        <v>2497</v>
+      </c>
+      <c r="M1479" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1479" t="s">
+        <v>2495</v>
+      </c>
+      <c r="P1479" t="s">
+        <v>2498</v>
+      </c>
+      <c r="Q1479" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1480" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1480" t="s">
+        <v>2500</v>
+      </c>
+      <c r="M1480" t="s">
+        <v>1650</v>
+      </c>
+      <c r="N1480" t="s">
+        <v>2501</v>
+      </c>
+      <c r="P1480" t="s">
+        <v>2499</v>
+      </c>
+      <c r="Q1480" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1481" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1481" t="s">
+        <v>2500</v>
+      </c>
+      <c r="M1481" t="s">
+        <v>1650</v>
+      </c>
+      <c r="N1481" t="s">
+        <v>2501</v>
+      </c>
+      <c r="P1481" t="s">
+        <v>2502</v>
+      </c>
+      <c r="Q1481" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1482" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1482" t="s">
+        <v>2504</v>
+      </c>
+      <c r="M1482" t="s">
+        <v>1650</v>
+      </c>
+      <c r="N1482" t="s">
+        <v>2501</v>
+      </c>
+      <c r="P1482" t="s">
+        <v>2503</v>
+      </c>
+      <c r="Q1482" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1483" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1483" t="s">
+        <v>2506</v>
+      </c>
+      <c r="M1483" t="s">
+        <v>1650</v>
+      </c>
+      <c r="N1483" t="s">
+        <v>2501</v>
+      </c>
+      <c r="P1483" t="s">
+        <v>2505</v>
+      </c>
+      <c r="Q1483" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1484" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1484" t="s">
+        <v>2506</v>
+      </c>
+      <c r="M1484" t="s">
+        <v>1650</v>
+      </c>
+      <c r="N1484" t="s">
+        <v>2501</v>
+      </c>
+      <c r="P1484" t="s">
+        <v>2507</v>
+      </c>
+      <c r="Q1484" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1485" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1485" t="s">
+        <v>2509</v>
+      </c>
+      <c r="M1485" t="s">
+        <v>1650</v>
+      </c>
+      <c r="N1485" t="s">
+        <v>2501</v>
+      </c>
+      <c r="P1485" t="s">
+        <v>2508</v>
+      </c>
+      <c r="Q1485" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1486" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1486" t="s">
+        <v>2509</v>
+      </c>
+      <c r="M1486" t="s">
+        <v>1650</v>
+      </c>
+      <c r="N1486" t="s">
+        <v>2501</v>
+      </c>
+      <c r="P1486" t="s">
+        <v>2510</v>
+      </c>
+      <c r="Q1486" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1487" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1487" t="s">
+        <v>2512</v>
+      </c>
+      <c r="M1487" t="s">
+        <v>1650</v>
+      </c>
+      <c r="N1487" t="s">
+        <v>2501</v>
+      </c>
+      <c r="P1487" t="s">
+        <v>2511</v>
+      </c>
+      <c r="Q1487" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1488" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1488" t="s">
+        <v>2514</v>
+      </c>
+      <c r="M1488" t="s">
+        <v>1650</v>
+      </c>
+      <c r="N1488" t="s">
+        <v>2501</v>
+      </c>
+      <c r="P1488" t="s">
+        <v>2513</v>
+      </c>
+      <c r="Q1488" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1489" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1489" t="s">
+        <v>2514</v>
+      </c>
+      <c r="M1489" t="s">
+        <v>1650</v>
+      </c>
+      <c r="N1489" t="s">
+        <v>2501</v>
+      </c>
+      <c r="P1489" t="s">
+        <v>2515</v>
+      </c>
+      <c r="Q1489" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1490" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1490" t="s">
+        <v>2517</v>
+      </c>
+      <c r="M1490" t="s">
+        <v>1650</v>
+      </c>
+      <c r="N1490" t="s">
+        <v>2501</v>
+      </c>
+      <c r="P1490" t="s">
+        <v>2516</v>
+      </c>
+      <c r="Q1490" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1491" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1491" t="s">
+        <v>2519</v>
+      </c>
+      <c r="M1491" t="s">
+        <v>1650</v>
+      </c>
+      <c r="N1491" t="s">
+        <v>2501</v>
+      </c>
+      <c r="P1491" t="s">
+        <v>2518</v>
+      </c>
+      <c r="Q1491" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1492" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1492" t="s">
+        <v>2519</v>
+      </c>
+      <c r="M1492" t="s">
+        <v>1650</v>
+      </c>
+      <c r="N1492" t="s">
+        <v>2501</v>
+      </c>
+      <c r="P1492" t="s">
+        <v>2520</v>
+      </c>
+      <c r="Q1492" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1493" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1493" t="s">
+        <v>2523</v>
+      </c>
+      <c r="M1493" t="s">
+        <v>123</v>
+      </c>
+      <c r="N1493" t="s">
+        <v>2522</v>
+      </c>
+      <c r="P1493" t="s">
+        <v>2521</v>
+      </c>
+      <c r="Q1493" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1494" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1494" t="s">
+        <v>2525</v>
+      </c>
+      <c r="M1494" t="s">
+        <v>123</v>
+      </c>
+      <c r="N1494" t="s">
+        <v>2522</v>
+      </c>
+      <c r="P1494" t="s">
+        <v>2524</v>
+      </c>
+      <c r="Q1494" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1495" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1495" t="s">
+        <v>2525</v>
+      </c>
+      <c r="M1495" t="s">
+        <v>123</v>
+      </c>
+      <c r="N1495" t="s">
+        <v>2522</v>
+      </c>
+      <c r="P1495" t="s">
+        <v>2526</v>
+      </c>
+      <c r="Q1495" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1496" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1496" t="s">
+        <v>2525</v>
+      </c>
+      <c r="M1496" t="s">
+        <v>123</v>
+      </c>
+      <c r="N1496" t="s">
+        <v>2522</v>
+      </c>
+      <c r="P1496" t="s">
+        <v>2527</v>
+      </c>
+      <c r="Q1496" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1497" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1497" t="s">
+        <v>2529</v>
+      </c>
+      <c r="M1497" t="s">
+        <v>123</v>
+      </c>
+      <c r="N1497" t="s">
+        <v>2522</v>
+      </c>
+      <c r="P1497" t="s">
+        <v>2528</v>
+      </c>
+      <c r="Q1497" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1498" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1498" t="s">
+        <v>2531</v>
+      </c>
+      <c r="M1498" t="s">
+        <v>123</v>
+      </c>
+      <c r="N1498" t="s">
+        <v>2522</v>
+      </c>
+      <c r="P1498" t="s">
+        <v>2530</v>
+      </c>
+      <c r="Q1498" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1499" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1499" t="s">
+        <v>2531</v>
+      </c>
+      <c r="M1499" t="s">
+        <v>123</v>
+      </c>
+      <c r="N1499" t="s">
+        <v>2522</v>
+      </c>
+      <c r="P1499" t="s">
+        <v>2532</v>
+      </c>
+      <c r="Q1499" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1500" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1500" t="s">
+        <v>2531</v>
+      </c>
+      <c r="M1500" t="s">
+        <v>123</v>
+      </c>
+      <c r="N1500" t="s">
+        <v>2522</v>
+      </c>
+      <c r="P1500" t="s">
+        <v>2533</v>
+      </c>
+      <c r="Q1500" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1501" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1501" t="s">
+        <v>2531</v>
+      </c>
+      <c r="M1501" t="s">
+        <v>123</v>
+      </c>
+      <c r="N1501" t="s">
+        <v>2522</v>
+      </c>
+      <c r="P1501" t="s">
+        <v>2534</v>
+      </c>
+      <c r="Q1501" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1502" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1502" t="s">
+        <v>2531</v>
+      </c>
+      <c r="M1502" t="s">
+        <v>123</v>
+      </c>
+      <c r="N1502" t="s">
+        <v>2522</v>
+      </c>
+      <c r="P1502" t="s">
+        <v>2535</v>
+      </c>
+      <c r="Q1502" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1503" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1503" t="s">
+        <v>2531</v>
+      </c>
+      <c r="M1503" t="s">
+        <v>123</v>
+      </c>
+      <c r="N1503" t="s">
+        <v>2522</v>
+      </c>
+      <c r="P1503" t="s">
+        <v>2536</v>
+      </c>
+      <c r="Q1503" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1504" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1504" t="s">
+        <v>2531</v>
+      </c>
+      <c r="M1504" t="s">
+        <v>123</v>
+      </c>
+      <c r="N1504" t="s">
+        <v>2522</v>
+      </c>
+      <c r="P1504" t="s">
+        <v>2537</v>
+      </c>
+      <c r="Q1504" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1505" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1505" t="s">
+        <v>2531</v>
+      </c>
+      <c r="M1505" t="s">
+        <v>123</v>
+      </c>
+      <c r="N1505" t="s">
+        <v>2522</v>
+      </c>
+      <c r="P1505" t="s">
+        <v>2538</v>
+      </c>
+      <c r="Q1505" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1506" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1506" t="s">
+        <v>2531</v>
+      </c>
+      <c r="M1506" t="s">
+        <v>123</v>
+      </c>
+      <c r="N1506" t="s">
+        <v>2522</v>
+      </c>
+      <c r="P1506" t="s">
+        <v>2539</v>
+      </c>
+      <c r="Q1506" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1507" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1507" t="s">
+        <v>2531</v>
+      </c>
+      <c r="M1507" t="s">
+        <v>123</v>
+      </c>
+      <c r="N1507" t="s">
+        <v>2522</v>
+      </c>
+      <c r="P1507" t="s">
+        <v>2540</v>
+      </c>
+      <c r="Q1507" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1508" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1508" t="s">
+        <v>2531</v>
+      </c>
+      <c r="M1508" t="s">
+        <v>123</v>
+      </c>
+      <c r="N1508" t="s">
+        <v>2522</v>
+      </c>
+      <c r="P1508" t="s">
+        <v>2541</v>
+      </c>
+      <c r="Q1508" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -70980,6 +73275,7 @@
     <hyperlink ref="P1308" r:id="rId2"/>
     <hyperlink ref="P1323" r:id="rId3"/>
     <hyperlink ref="P1327" r:id="rId4"/>
+    <hyperlink ref="P1452" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/webserver/model_data/TrainingData_ml.xlsx
+++ b/webserver/model_data/TrainingData_ml.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14868" uniqueCount="2542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15338" uniqueCount="2690">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -7677,12 +7677,456 @@
   <si>
     <t>Entsprechend sind dann ihre Reaktionen.</t>
   </si>
+  <si>
+    <t>Die Klimabewegung ist eine Kampagne der Anhänger der Linken Weltanschauung.</t>
+  </si>
+  <si>
+    <t>Diogenes</t>
+  </si>
+  <si>
+    <t>Das war so , das ist so und das wird auch so bleiben.</t>
+  </si>
+  <si>
+    <t>Heinrich Seidelbast</t>
+  </si>
+  <si>
+    <t>Die Meinung ist kritisch, ich teile sie nicht unbedingt, aber er hat schon einen Punkt.</t>
+  </si>
+  <si>
+    <t>Alex Bruckes</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=f7JXQfT9ou0</t>
+  </si>
+  <si>
+    <t>Respekt vor euch beiden</t>
+  </si>
+  <si>
+    <t>Volcom2712</t>
+  </si>
+  <si>
+    <t>Sehr gutes Interview, sehr angenehme Gesprächsführung und sehr wichtiger Dialog</t>
+  </si>
+  <si>
+    <t>Relativ neutrales Interview</t>
+  </si>
+  <si>
+    <t>Loki Wassolls</t>
+  </si>
+  <si>
+    <t>Ein sehr wissenswertes interview</t>
+  </si>
+  <si>
+    <t>Zeigt durchaus auch, dass, wenn ich auch in sehr vielen Dingen nicht seiner Meinung bin, es total falsch ist, jeden per se als Nazi abzustempeln</t>
+  </si>
+  <si>
+    <t>LunnarisLP</t>
+  </si>
+  <si>
+    <t>Igitt!!! Wie kann man nur so miesepetrig und gleichzeitig hochnäsig sein.</t>
+  </si>
+  <si>
+    <t>quiscit</t>
+  </si>
+  <si>
+    <t>https://www.zeit.de/zeit-magazin/essen-trinken/2020-02/wermule-wermut-moscow-mule-cocktail-rezept</t>
+  </si>
+  <si>
+    <t>So, jetzt will ich sie aber nicht länger von ihrer guten Tasse Malventee abhalten</t>
+  </si>
+  <si>
+    <t>Sie kennen sich offenbar genauso gut aus wie die Autorin.</t>
+  </si>
+  <si>
+    <t>https://www.zeit.de/mobilitaet/2020-02/verkehrslaerm-hannover-laermblitzer-stadtverkehr-raser</t>
+  </si>
+  <si>
+    <t>Du Kati</t>
+  </si>
+  <si>
+    <t>Vielleicht einfach mal mit den aktuellen (und angekündigten) Zulassungsvorschriften beschäftigen</t>
+  </si>
+  <si>
+    <t>Nebenbei: schon mal mit Bussen, LKW, Flugzeugen und Bahnen beschäftigt?</t>
+  </si>
+  <si>
+    <t>Ja, der Lärm ist inzwischen Teil des „Sound-Designs“</t>
+  </si>
+  <si>
+    <t>Es ist echt unglaublich, dass so etwas überhaupt zugelassen wird</t>
+  </si>
+  <si>
+    <t>Man schafft damit für Wohlhabende, besonders Rücksichtslose oder einfach nur Machoidioten bewusst eine Möglichkeit andere zu schädigen und zu belästigen</t>
+  </si>
+  <si>
+    <t>ohdochnein</t>
+  </si>
+  <si>
+    <t>Dort zeugt ein lauter Auspuff von der universellen Potenz des Fahrers bzw. sehr selten: der Fahrerin</t>
+  </si>
+  <si>
+    <t>Zumindest nach Ansicht des Fahrers</t>
+  </si>
+  <si>
+    <t>1200KG</t>
+  </si>
+  <si>
+    <t>Und die sollte man zu Ende lesen, ob der vielen Ausnahmen die da drin stehen</t>
+  </si>
+  <si>
+    <t>Entenschorsch</t>
+  </si>
+  <si>
+    <t>es ist genau anders herum wie Sie es beschreiben</t>
+  </si>
+  <si>
+    <t>Und erst Recht blöde</t>
+  </si>
+  <si>
+    <t>Aha..der gute alte Whataboutism</t>
+  </si>
+  <si>
+    <t>Best Friend Tabitha</t>
+  </si>
+  <si>
+    <t>Auch Poser, wa?</t>
+  </si>
+  <si>
+    <t>Dinge, die die Welt nicht braucht</t>
+  </si>
+  <si>
+    <t>GlobalTraveler</t>
+  </si>
+  <si>
+    <t>dumme Antwort ist dumm</t>
+  </si>
+  <si>
+    <t>JanGoldbeck</t>
+  </si>
+  <si>
+    <t>Wohn mal in einer verkehrsberuhigten Seitenstraße für ne Weile und du kannst verstehen warum viele Menschen Autolärm verringern wollen</t>
+  </si>
+  <si>
+    <t>Kenne ich. Weiß man aber auch vor dem Einzug</t>
+  </si>
+  <si>
+    <t>Ich finde die Idee gut</t>
+  </si>
+  <si>
+    <t>diametral3.0</t>
+  </si>
+  <si>
+    <t>Sie haben wohl den Artikel nicht gelesen</t>
+  </si>
+  <si>
+    <t>raflix</t>
+  </si>
+  <si>
+    <t>Der gemeine Mortorradfahrer ist meist älter, gutsituiertm gehört zur Gruppe der Zahnwälte oder Beamten auf Midlifecrisis</t>
+  </si>
+  <si>
+    <t>yamxs1</t>
+  </si>
+  <si>
+    <t>und ist gleichzeitig auch der, der sich am meisten im eigenem Wohngebiet über den Lärm der Anderen aufregt</t>
+  </si>
+  <si>
+    <t>Mich nervt diese permanente Rücksichtslosigkeit und Poserei auf Kosten seiner Mitmenschen</t>
+  </si>
+  <si>
+    <t>Schneeregen</t>
+  </si>
+  <si>
+    <t>Was ist das denn für eine schwache Argumentation?</t>
+  </si>
+  <si>
+    <t>aderz</t>
+  </si>
+  <si>
+    <t>Es geht hier ja nicht um den normalen Lärm des Straßenverkehrs, sondern um Leute die absichtlich Lärm verursachen</t>
+  </si>
+  <si>
+    <t>Es sind einfach nur Regeln und Maßnahmen um Menschen vor unnötigen Lärm zu schützen</t>
+  </si>
+  <si>
+    <t>Schade, ich bin von Ihnen eigentlich eine bessere Argumentation gewohnt</t>
+  </si>
+  <si>
+    <t>Lies - den - Artikel - bevor - du - kommentierst!</t>
+  </si>
+  <si>
+    <t>Südvorstadt</t>
+  </si>
+  <si>
+    <t>Zieht - aufs - Land!</t>
+  </si>
+  <si>
+    <t>serdna</t>
+  </si>
+  <si>
+    <t>https://www.tagesspiegel.de/politik/us-demokraten-vor-dem-super-tuesday-es-laeuft-die-operation-bernie-verhindern/25603238.html</t>
+  </si>
+  <si>
+    <t>Bernie Sanders will eine Krankenversicherung für alle</t>
+  </si>
+  <si>
+    <t>Das kann man höchst vernünftig finden</t>
+  </si>
+  <si>
+    <t>Also die Aussage, dass es lediglich auf Personen ankommt, ist umfassender, totaler Schwachsinn.</t>
+  </si>
+  <si>
+    <t>hanebutt</t>
+  </si>
+  <si>
+    <t>Die Kulissenschieber bei den Demokraten sind wieder gefragt.</t>
+  </si>
+  <si>
+    <t>Nicht nur Trump beherrscht dieses Metier</t>
+  </si>
+  <si>
+    <t>auch die Demokraten sind darin bewandert</t>
+  </si>
+  <si>
+    <t>Sie sind leiser.</t>
+  </si>
+  <si>
+    <t>... die Innenpolitik ist unterschiedlich, alles andere gleich.</t>
+  </si>
+  <si>
+    <t>Er ist schriller, ansonsten ein ganz normaler Politiker der USA.</t>
+  </si>
+  <si>
+    <t>maxost</t>
+  </si>
+  <si>
+    <t>Es zählt wer am Ende gewinnt</t>
+  </si>
+  <si>
+    <t>Sanders ist eine politische Vogelscheuche außerhalb eines linken innerparteilichen Spektrums</t>
+  </si>
+  <si>
+    <t>2010ff</t>
+  </si>
+  <si>
+    <t>Hier wird deutlich: Der Begriff "moderat" für Leute wie Biden ist "Fake-News".</t>
+  </si>
+  <si>
+    <t>teesieb</t>
+  </si>
+  <si>
+    <t>"Bernie verhindern" heißt, Trump die Präsidentschaft zu sichern.</t>
+  </si>
+  <si>
+    <t>ist schon lange, daß die etablierten Dems sich gut mit Trump arrangiert haben</t>
+  </si>
+  <si>
+    <t>Das war auch schon 2016 bei der intrigant vorgehenden Clinton und den sie unterstützenden Medien so.</t>
+  </si>
+  <si>
+    <t>Es darf halt nicht dazu kommen, dass der gesetzliche Mindestlohn steigt.</t>
+  </si>
+  <si>
+    <t>Ja, Demokratie ist in den USA eine in jeder Hinsicht extreme Sache.</t>
+  </si>
+  <si>
+    <t>derbergruft</t>
+  </si>
+  <si>
+    <t>https://www.tagesspiegel.de/wirtschaft/entscheidung-ueber-automobil-ausstellung-iaa-soll-nach-muenchen-gehen/25603462.html</t>
+  </si>
+  <si>
+    <t>Super!</t>
+  </si>
+  <si>
+    <t>Gute Entscheidung für Berlin</t>
+  </si>
+  <si>
+    <t>Stimmt auch wieder, muß ja keiner müssen.</t>
+  </si>
+  <si>
+    <t>Anarc</t>
+  </si>
+  <si>
+    <t>In keinem Bundesland sitzt die Autolobby derart deutlich mit in der Regierung als in Bayern.</t>
+  </si>
+  <si>
+    <t>Die IAA paßt dorthin.</t>
+  </si>
+  <si>
+    <t>Eine gute Entscheidung.</t>
+  </si>
+  <si>
+    <t>In Berlin wollen wir die stinkenden Kisten nicht mehr.</t>
+  </si>
+  <si>
+    <t>Berliner8000</t>
+  </si>
+  <si>
+    <t>Also Leute bin ich der Einzige, der die Standortwahl nicht versteht im Moment?</t>
+  </si>
+  <si>
+    <t>Eine Neuausrichtung, wie behauptet, weshalb man eigtl. von Frankfurt wegzog, sind eindeutig anders aus.</t>
+  </si>
+  <si>
+    <t>W.Wang</t>
+  </si>
+  <si>
+    <t>Die autogerechte Stadt war das Modell des 20. Jahrhunderts.</t>
+  </si>
+  <si>
+    <t>Viel Spaß nach München mit der IAA.</t>
+  </si>
+  <si>
+    <t>Thalmayr</t>
+  </si>
+  <si>
+    <t>Hoffentlich stimmt diese Meldung auch.</t>
+  </si>
+  <si>
+    <t>sciaridae</t>
+  </si>
+  <si>
+    <t>Ein Segen, dass dieser Schwachsinn nicht in Berlin veranstaltet wird.</t>
+  </si>
+  <si>
+    <t>Null Substanz, wie gewohnt.</t>
+  </si>
+  <si>
+    <t>Getiton</t>
+  </si>
+  <si>
+    <t>Hier werden Waren und Menschen nach Berlin gebracht.</t>
+  </si>
+  <si>
+    <t>Alles CO2 schädlich.</t>
+  </si>
+  <si>
+    <t>Wirtschaft/Geldverdienen ist hier auch verpönt.</t>
+  </si>
+  <si>
+    <t>Täglich kann man im TV beobachten, mit welchen Karossen die Herrschaften durch die Lande fahren.</t>
+  </si>
+  <si>
+    <t>Und dann ist es auch richtig, wenn Bayern die IAA bekommt.</t>
+  </si>
+  <si>
+    <t>hedgehog</t>
+  </si>
+  <si>
+    <t>Da spielt wohl auch Tesla eine Rolle.</t>
+  </si>
+  <si>
+    <t>mitte31</t>
+  </si>
+  <si>
+    <t>Eine nachvollziehbare Entscheidung.</t>
+  </si>
+  <si>
+    <t>Die Berliner Regierung sowie ein Teil der Berliner Bevölkerung sind Autofeinde.</t>
+  </si>
+  <si>
+    <t>StolzwieBolle</t>
+  </si>
+  <si>
+    <t>...die Messe Berlin macht einen guten Job,</t>
+  </si>
+  <si>
+    <t>Die verkraftet das problemlos.</t>
+  </si>
+  <si>
+    <t>Netiew</t>
+  </si>
+  <si>
+    <t>https://www.tagesspiegel.de/kultur/mailaender-lehrer-schreibt-brief-an-schueler-das-groesste-risiko-ist-nicht-das-coronavirus/25601804.html#</t>
+  </si>
+  <si>
+    <t>Diesen wunderbaren Brief ...</t>
+  </si>
+  <si>
+    <t>herjeh</t>
+  </si>
+  <si>
+    <t>https://www.tagesspiegel.de/kultur/neuer-james-bond-song-so-klingt-no-time-to-die-von-billie-eilish/25546338.html</t>
+  </si>
+  <si>
+    <t>Hier wird mal wieder deutlich, dass man keine Stimme haben muß um Erfolg zu haben.</t>
+  </si>
+  <si>
+    <t>devvkon</t>
+  </si>
+  <si>
+    <t>Einverstanden!</t>
+  </si>
+  <si>
+    <t>... klingt aber wie der vierte Aufguss Grüntee schmeckt:...</t>
+  </si>
+  <si>
+    <t>Stimmt aber nicht immer.</t>
+  </si>
+  <si>
+    <t>margard</t>
+  </si>
+  <si>
+    <t>Dito, sieht man aber auch am ESC</t>
+  </si>
+  <si>
+    <t>JuergenHockensberg</t>
+  </si>
+  <si>
+    <t>Sorry, da möchte ich Ihnen widersprechen, ...</t>
+  </si>
+  <si>
+    <t>klaus14513</t>
+  </si>
+  <si>
+    <t>... aber wissen sie überhaupt wer Billie Eilish ist?</t>
+  </si>
+  <si>
+    <t>carnet</t>
+  </si>
+  <si>
+    <t>https://www.tagesspiegel.de/kultur/justin-biebers-comebackalbum-changes-gesang-ohne-emotionen-lyrics-zum-fremdschaemen/25551754.html</t>
+  </si>
+  <si>
+    <t>Bieber ist und bleibt ein Proll.</t>
+  </si>
+  <si>
+    <t>Tja, und? :)</t>
+  </si>
+  <si>
+    <t>turbo_p</t>
+  </si>
+  <si>
+    <t>https://www.tagesspiegel.de/berlin/vorbereitung-auf-das-coronavirus-aerzte-suchen-schon-im-baumarkt-nach-einem-mundschutz/25598504.html</t>
+  </si>
+  <si>
+    <t>Eine Schande ist das.</t>
+  </si>
+  <si>
+    <t>Korsowolf</t>
+  </si>
+  <si>
+    <t>Man sollte sich nicht an der Nase herumführen lassen.</t>
+  </si>
+  <si>
+    <t>Auch in Deutschland.</t>
+  </si>
+  <si>
+    <t>Ist doch wohl lachhaft,</t>
+  </si>
+  <si>
+    <t>Ja blöde, dass ...</t>
+  </si>
+  <si>
+    <t>berit</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7702,6 +8146,29 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Docs-Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -7736,16 +8203,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Stand." xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -8043,12 +8516,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W1508"/>
+  <dimension ref="A1:W1602"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1484" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1583" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="P1509" sqref="P1509"/>
+      <selection pane="bottomLeft" activeCell="B1548" sqref="B1548:B1602"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -73269,6 +73742,1660 @@
         <v>18</v>
       </c>
     </row>
+    <row r="1509" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1509" t="s">
+        <v>2543</v>
+      </c>
+      <c r="M1509" t="s">
+        <v>123</v>
+      </c>
+      <c r="N1509" t="s">
+        <v>2522</v>
+      </c>
+      <c r="P1509" t="s">
+        <v>2542</v>
+      </c>
+      <c r="Q1509" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1510" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1510" t="s">
+        <v>2545</v>
+      </c>
+      <c r="M1510" t="s">
+        <v>123</v>
+      </c>
+      <c r="N1510" t="s">
+        <v>2522</v>
+      </c>
+      <c r="P1510" t="s">
+        <v>2544</v>
+      </c>
+      <c r="Q1510" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1511" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1511" t="s">
+        <v>2547</v>
+      </c>
+      <c r="M1511" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1511" t="s">
+        <v>2548</v>
+      </c>
+      <c r="P1511" t="s">
+        <v>2546</v>
+      </c>
+      <c r="Q1511" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1512" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1512" t="s">
+        <v>2550</v>
+      </c>
+      <c r="M1512" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1512" t="s">
+        <v>2548</v>
+      </c>
+      <c r="P1512" t="s">
+        <v>2549</v>
+      </c>
+      <c r="Q1512" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1513" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1513" t="s">
+        <v>2550</v>
+      </c>
+      <c r="M1513" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1513" t="s">
+        <v>2548</v>
+      </c>
+      <c r="P1513" t="s">
+        <v>2551</v>
+      </c>
+      <c r="Q1513" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1514" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1514" t="s">
+        <v>2553</v>
+      </c>
+      <c r="M1514" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1514" t="s">
+        <v>2548</v>
+      </c>
+      <c r="P1514" t="s">
+        <v>2552</v>
+      </c>
+      <c r="Q1514" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1515" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1515" t="s">
+        <v>2556</v>
+      </c>
+      <c r="M1515" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1515" t="s">
+        <v>2548</v>
+      </c>
+      <c r="P1515" t="s">
+        <v>2554</v>
+      </c>
+      <c r="Q1515" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1516" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1516" t="s">
+        <v>2556</v>
+      </c>
+      <c r="M1516" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1516" t="s">
+        <v>2548</v>
+      </c>
+      <c r="P1516" t="s">
+        <v>2555</v>
+      </c>
+      <c r="Q1516" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1517" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1517" t="s">
+        <v>2558</v>
+      </c>
+      <c r="M1517" t="s">
+        <v>1034</v>
+      </c>
+      <c r="N1517" t="s">
+        <v>2559</v>
+      </c>
+      <c r="P1517" t="s">
+        <v>2557</v>
+      </c>
+      <c r="Q1517" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1518" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1518" t="s">
+        <v>2558</v>
+      </c>
+      <c r="M1518" t="s">
+        <v>1034</v>
+      </c>
+      <c r="N1518" t="s">
+        <v>2559</v>
+      </c>
+      <c r="P1518" t="s">
+        <v>2560</v>
+      </c>
+      <c r="Q1518" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1519" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1519" t="s">
+        <v>2563</v>
+      </c>
+      <c r="M1519" t="s">
+        <v>396</v>
+      </c>
+      <c r="N1519" t="s">
+        <v>2562</v>
+      </c>
+      <c r="P1519" t="s">
+        <v>2561</v>
+      </c>
+      <c r="Q1519" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1520" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1520" t="s">
+        <v>2563</v>
+      </c>
+      <c r="M1520" t="s">
+        <v>396</v>
+      </c>
+      <c r="N1520" t="s">
+        <v>2562</v>
+      </c>
+      <c r="P1520" t="s">
+        <v>2564</v>
+      </c>
+      <c r="Q1520" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1521" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1521" t="s">
+        <v>2563</v>
+      </c>
+      <c r="M1521" t="s">
+        <v>396</v>
+      </c>
+      <c r="N1521" t="s">
+        <v>2562</v>
+      </c>
+      <c r="P1521" t="s">
+        <v>2565</v>
+      </c>
+      <c r="Q1521" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1522" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1522" t="s">
+        <v>1380</v>
+      </c>
+      <c r="M1522" t="s">
+        <v>396</v>
+      </c>
+      <c r="N1522" t="s">
+        <v>2562</v>
+      </c>
+      <c r="P1522" t="s">
+        <v>2566</v>
+      </c>
+      <c r="Q1522" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1523" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1523" t="s">
+        <v>1380</v>
+      </c>
+      <c r="M1523" t="s">
+        <v>396</v>
+      </c>
+      <c r="N1523" t="s">
+        <v>2562</v>
+      </c>
+      <c r="P1523" t="s">
+        <v>2567</v>
+      </c>
+      <c r="Q1523" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1524" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1524" t="s">
+        <v>2569</v>
+      </c>
+      <c r="M1524" t="s">
+        <v>396</v>
+      </c>
+      <c r="N1524" t="s">
+        <v>2562</v>
+      </c>
+      <c r="P1524" t="s">
+        <v>2568</v>
+      </c>
+      <c r="Q1524" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1525" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1525" t="s">
+        <v>2572</v>
+      </c>
+      <c r="M1525" t="s">
+        <v>396</v>
+      </c>
+      <c r="N1525" t="s">
+        <v>2562</v>
+      </c>
+      <c r="P1525" t="s">
+        <v>2570</v>
+      </c>
+      <c r="Q1525" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1526" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1526" t="s">
+        <v>2572</v>
+      </c>
+      <c r="M1526" t="s">
+        <v>396</v>
+      </c>
+      <c r="N1526" t="s">
+        <v>2562</v>
+      </c>
+      <c r="P1526" t="s">
+        <v>2571</v>
+      </c>
+      <c r="Q1526" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1527" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1527" t="s">
+        <v>2574</v>
+      </c>
+      <c r="M1527" t="s">
+        <v>396</v>
+      </c>
+      <c r="N1527" t="s">
+        <v>2562</v>
+      </c>
+      <c r="P1527" t="s">
+        <v>2573</v>
+      </c>
+      <c r="Q1527" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1528" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1528" t="s">
+        <v>2574</v>
+      </c>
+      <c r="M1528" t="s">
+        <v>396</v>
+      </c>
+      <c r="N1528" t="s">
+        <v>2562</v>
+      </c>
+      <c r="P1528" t="s">
+        <v>2575</v>
+      </c>
+      <c r="Q1528" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1529" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1529" t="s">
+        <v>2574</v>
+      </c>
+      <c r="M1529" t="s">
+        <v>396</v>
+      </c>
+      <c r="N1529" t="s">
+        <v>2562</v>
+      </c>
+      <c r="P1529" t="s">
+        <v>2576</v>
+      </c>
+      <c r="Q1529" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1530" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1530" t="s">
+        <v>2578</v>
+      </c>
+      <c r="M1530" t="s">
+        <v>396</v>
+      </c>
+      <c r="N1530" t="s">
+        <v>2562</v>
+      </c>
+      <c r="P1530" t="s">
+        <v>2577</v>
+      </c>
+      <c r="Q1530" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1531" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1531" t="s">
+        <v>2578</v>
+      </c>
+      <c r="M1531" t="s">
+        <v>396</v>
+      </c>
+      <c r="N1531" t="s">
+        <v>2562</v>
+      </c>
+      <c r="P1531" t="s">
+        <v>2579</v>
+      </c>
+      <c r="Q1531" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1532" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1532" t="s">
+        <v>2581</v>
+      </c>
+      <c r="M1532" t="s">
+        <v>396</v>
+      </c>
+      <c r="N1532" t="s">
+        <v>2562</v>
+      </c>
+      <c r="P1532" t="s">
+        <v>2580</v>
+      </c>
+      <c r="Q1532" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1533" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1533" t="s">
+        <v>2583</v>
+      </c>
+      <c r="M1533" t="s">
+        <v>396</v>
+      </c>
+      <c r="N1533" t="s">
+        <v>2562</v>
+      </c>
+      <c r="P1533" t="s">
+        <v>2582</v>
+      </c>
+      <c r="Q1533" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1534" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1534" t="s">
+        <v>2583</v>
+      </c>
+      <c r="M1534" t="s">
+        <v>396</v>
+      </c>
+      <c r="N1534" t="s">
+        <v>2562</v>
+      </c>
+      <c r="P1534" t="s">
+        <v>2584</v>
+      </c>
+      <c r="Q1534" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1535" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1535" t="s">
+        <v>2581</v>
+      </c>
+      <c r="M1535" t="s">
+        <v>396</v>
+      </c>
+      <c r="N1535" t="s">
+        <v>2562</v>
+      </c>
+      <c r="P1535" t="s">
+        <v>2585</v>
+      </c>
+      <c r="Q1535" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1536" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1536" t="s">
+        <v>2587</v>
+      </c>
+      <c r="M1536" t="s">
+        <v>396</v>
+      </c>
+      <c r="N1536" t="s">
+        <v>2562</v>
+      </c>
+      <c r="P1536" t="s">
+        <v>2586</v>
+      </c>
+      <c r="Q1536" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1537" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="L1537" t="s">
+        <v>2589</v>
+      </c>
+      <c r="M1537" t="s">
+        <v>396</v>
+      </c>
+      <c r="N1537" t="s">
+        <v>2562</v>
+      </c>
+      <c r="P1537" t="s">
+        <v>2588</v>
+      </c>
+      <c r="Q1537" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1538" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="L1538" t="s">
+        <v>2591</v>
+      </c>
+      <c r="M1538" t="s">
+        <v>396</v>
+      </c>
+      <c r="N1538" t="s">
+        <v>2562</v>
+      </c>
+      <c r="P1538" t="s">
+        <v>2590</v>
+      </c>
+      <c r="Q1538" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1539" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="L1539" t="s">
+        <v>2591</v>
+      </c>
+      <c r="M1539" t="s">
+        <v>396</v>
+      </c>
+      <c r="N1539" t="s">
+        <v>2562</v>
+      </c>
+      <c r="P1539" t="s">
+        <v>2592</v>
+      </c>
+      <c r="Q1539" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1540" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="L1540" t="s">
+        <v>2594</v>
+      </c>
+      <c r="M1540" t="s">
+        <v>396</v>
+      </c>
+      <c r="N1540" t="s">
+        <v>2562</v>
+      </c>
+      <c r="P1540" t="s">
+        <v>2593</v>
+      </c>
+      <c r="Q1540" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1541" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="L1541" t="s">
+        <v>2596</v>
+      </c>
+      <c r="M1541" t="s">
+        <v>396</v>
+      </c>
+      <c r="N1541" t="s">
+        <v>2562</v>
+      </c>
+      <c r="P1541" t="s">
+        <v>2595</v>
+      </c>
+      <c r="Q1541" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1542" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="L1542" t="s">
+        <v>2596</v>
+      </c>
+      <c r="M1542" t="s">
+        <v>396</v>
+      </c>
+      <c r="N1542" t="s">
+        <v>2562</v>
+      </c>
+      <c r="P1542" t="s">
+        <v>2597</v>
+      </c>
+      <c r="Q1542" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1543" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="L1543" t="s">
+        <v>2596</v>
+      </c>
+      <c r="M1543" t="s">
+        <v>396</v>
+      </c>
+      <c r="N1543" t="s">
+        <v>2562</v>
+      </c>
+      <c r="P1543" t="s">
+        <v>2598</v>
+      </c>
+      <c r="Q1543" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1544" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="L1544" t="s">
+        <v>2596</v>
+      </c>
+      <c r="M1544" t="s">
+        <v>396</v>
+      </c>
+      <c r="N1544" t="s">
+        <v>2562</v>
+      </c>
+      <c r="P1544" t="s">
+        <v>2599</v>
+      </c>
+      <c r="Q1544" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1545" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="L1545" t="s">
+        <v>2601</v>
+      </c>
+      <c r="M1545" t="s">
+        <v>396</v>
+      </c>
+      <c r="N1545" t="s">
+        <v>2562</v>
+      </c>
+      <c r="P1545" t="s">
+        <v>2600</v>
+      </c>
+      <c r="Q1545" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1546" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="L1546" t="s">
+        <v>2581</v>
+      </c>
+      <c r="M1546" t="s">
+        <v>396</v>
+      </c>
+      <c r="N1546" t="s">
+        <v>2562</v>
+      </c>
+      <c r="P1546" t="s">
+        <v>2602</v>
+      </c>
+      <c r="Q1546" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1547" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1547" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1547" s="2" t="s">
+        <v>2603</v>
+      </c>
+      <c r="M1547" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1547" s="3" t="s">
+        <v>2604</v>
+      </c>
+      <c r="O1547" s="2"/>
+      <c r="P1547" s="4" t="s">
+        <v>2605</v>
+      </c>
+    </row>
+    <row r="1548" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1548" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1548" s="2" t="s">
+        <v>2603</v>
+      </c>
+      <c r="M1548" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1548" s="3" t="s">
+        <v>2604</v>
+      </c>
+      <c r="O1548" s="2"/>
+      <c r="P1548" s="4" t="s">
+        <v>2606</v>
+      </c>
+    </row>
+    <row r="1549" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1549" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1549" s="2" t="s">
+        <v>2603</v>
+      </c>
+      <c r="M1549" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1549" s="3" t="s">
+        <v>2604</v>
+      </c>
+      <c r="O1549" s="2"/>
+      <c r="P1549" s="4" t="s">
+        <v>2607</v>
+      </c>
+    </row>
+    <row r="1550" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1550" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1550" s="2" t="s">
+        <v>2608</v>
+      </c>
+      <c r="M1550" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1550" s="3" t="s">
+        <v>2604</v>
+      </c>
+      <c r="O1550" s="2"/>
+      <c r="P1550" s="4" t="s">
+        <v>2609</v>
+      </c>
+    </row>
+    <row r="1551" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1551" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1551" s="2" t="s">
+        <v>2608</v>
+      </c>
+      <c r="M1551" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1551" s="3" t="s">
+        <v>2604</v>
+      </c>
+      <c r="O1551" s="2"/>
+      <c r="P1551" s="4" t="s">
+        <v>2610</v>
+      </c>
+    </row>
+    <row r="1552" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1552" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1552" s="2" t="s">
+        <v>2608</v>
+      </c>
+      <c r="M1552" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1552" s="3" t="s">
+        <v>2604</v>
+      </c>
+      <c r="O1552" s="2"/>
+      <c r="P1552" s="2" t="s">
+        <v>2611</v>
+      </c>
+    </row>
+    <row r="1553" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B1553" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1553" s="2" t="s">
+        <v>2608</v>
+      </c>
+      <c r="M1553" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1553" s="3" t="s">
+        <v>2604</v>
+      </c>
+      <c r="O1553" s="2"/>
+      <c r="P1553" s="4" t="s">
+        <v>2612</v>
+      </c>
+    </row>
+    <row r="1554" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B1554" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1554" s="5" t="s">
+        <v>2608</v>
+      </c>
+      <c r="M1554" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1554" s="3" t="s">
+        <v>2604</v>
+      </c>
+      <c r="O1554" s="2"/>
+      <c r="P1554" s="4" t="s">
+        <v>2613</v>
+      </c>
+    </row>
+    <row r="1555" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B1555" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1555" s="5" t="s">
+        <v>2608</v>
+      </c>
+      <c r="M1555" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1555" s="3" t="s">
+        <v>2604</v>
+      </c>
+      <c r="O1555" s="2"/>
+      <c r="P1555" s="4" t="s">
+        <v>2614</v>
+      </c>
+    </row>
+    <row r="1556" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B1556" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1556" s="2" t="s">
+        <v>2615</v>
+      </c>
+      <c r="M1556" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1556" s="3" t="s">
+        <v>2604</v>
+      </c>
+      <c r="O1556" s="2"/>
+      <c r="P1556" s="4" t="s">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="1557" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B1557" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1557" s="2" t="s">
+        <v>2615</v>
+      </c>
+      <c r="M1557" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1557" s="3" t="s">
+        <v>2604</v>
+      </c>
+      <c r="O1557" s="2"/>
+      <c r="P1557" s="4" t="s">
+        <v>2617</v>
+      </c>
+    </row>
+    <row r="1558" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B1558" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1558" s="2" t="s">
+        <v>2618</v>
+      </c>
+      <c r="M1558" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1558" s="3" t="s">
+        <v>2604</v>
+      </c>
+      <c r="O1558" s="2"/>
+      <c r="P1558" s="4" t="s">
+        <v>2619</v>
+      </c>
+    </row>
+    <row r="1559" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B1559" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1559" s="2" t="s">
+        <v>2620</v>
+      </c>
+      <c r="M1559" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1559" s="3" t="s">
+        <v>2604</v>
+      </c>
+      <c r="O1559" s="2"/>
+      <c r="P1559" s="4" t="s">
+        <v>2621</v>
+      </c>
+    </row>
+    <row r="1560" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B1560" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1560" s="5" t="s">
+        <v>2620</v>
+      </c>
+      <c r="M1560" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1560" s="3" t="s">
+        <v>2604</v>
+      </c>
+      <c r="O1560" s="2"/>
+      <c r="P1560" s="4" t="s">
+        <v>2622</v>
+      </c>
+    </row>
+    <row r="1561" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B1561" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1561" s="5" t="s">
+        <v>2618</v>
+      </c>
+      <c r="M1561" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1561" s="3" t="s">
+        <v>2604</v>
+      </c>
+      <c r="O1561" s="2"/>
+      <c r="P1561" s="4" t="s">
+        <v>2623</v>
+      </c>
+    </row>
+    <row r="1562" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B1562" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1562" s="2" t="s">
+        <v>2618</v>
+      </c>
+      <c r="M1562" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1562" s="3" t="s">
+        <v>2604</v>
+      </c>
+      <c r="O1562" s="2"/>
+      <c r="P1562" s="4" t="s">
+        <v>2624</v>
+      </c>
+    </row>
+    <row r="1563" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B1563" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1563" s="5" t="s">
+        <v>2618</v>
+      </c>
+      <c r="M1563" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1563" s="3" t="s">
+        <v>2604</v>
+      </c>
+      <c r="O1563" s="2"/>
+      <c r="P1563" s="4" t="s">
+        <v>2625</v>
+      </c>
+    </row>
+    <row r="1564" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B1564" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1564" s="2" t="s">
+        <v>2626</v>
+      </c>
+      <c r="M1564" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1564" s="3" t="s">
+        <v>2627</v>
+      </c>
+      <c r="O1564" s="2"/>
+      <c r="P1564" s="4" t="s">
+        <v>2628</v>
+      </c>
+    </row>
+    <row r="1565" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B1565" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1565" s="5" t="s">
+        <v>2626</v>
+      </c>
+      <c r="M1565" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1565" s="3" t="s">
+        <v>2627</v>
+      </c>
+      <c r="O1565" s="2"/>
+      <c r="P1565" s="2" t="s">
+        <v>2629</v>
+      </c>
+    </row>
+    <row r="1566" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B1566" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1566" s="5" t="s">
+        <v>2626</v>
+      </c>
+      <c r="M1566" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1566" s="3" t="s">
+        <v>2627</v>
+      </c>
+      <c r="O1566" s="2"/>
+      <c r="P1566" s="4" t="s">
+        <v>2630</v>
+      </c>
+    </row>
+    <row r="1567" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B1567" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1567" s="2" t="s">
+        <v>2631</v>
+      </c>
+      <c r="M1567" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1567" s="3" t="s">
+        <v>2627</v>
+      </c>
+      <c r="O1567" s="2"/>
+      <c r="P1567" s="4" t="s">
+        <v>2632</v>
+      </c>
+    </row>
+    <row r="1568" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B1568" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1568" s="5" t="s">
+        <v>2631</v>
+      </c>
+      <c r="M1568" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1568" s="3" t="s">
+        <v>2627</v>
+      </c>
+      <c r="O1568" s="2"/>
+      <c r="P1568" s="4" t="s">
+        <v>2633</v>
+      </c>
+    </row>
+    <row r="1569" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B1569" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1569" s="5" t="s">
+        <v>2631</v>
+      </c>
+      <c r="M1569" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1569" s="3" t="s">
+        <v>2627</v>
+      </c>
+      <c r="O1569" s="2"/>
+      <c r="P1569" s="4" t="s">
+        <v>2634</v>
+      </c>
+    </row>
+    <row r="1570" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B1570" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1570" s="5" t="s">
+        <v>2631</v>
+      </c>
+      <c r="M1570" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1570" s="3" t="s">
+        <v>2627</v>
+      </c>
+      <c r="O1570" s="2"/>
+      <c r="P1570" s="4" t="s">
+        <v>2635</v>
+      </c>
+    </row>
+    <row r="1571" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B1571" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1571" s="2" t="s">
+        <v>2636</v>
+      </c>
+      <c r="M1571" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1571" s="3" t="s">
+        <v>2627</v>
+      </c>
+      <c r="O1571" s="2"/>
+      <c r="P1571" s="4" t="s">
+        <v>2637</v>
+      </c>
+    </row>
+    <row r="1572" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B1572" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1572" s="2" t="s">
+        <v>2636</v>
+      </c>
+      <c r="M1572" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1572" s="3" t="s">
+        <v>2627</v>
+      </c>
+      <c r="O1572" s="2"/>
+      <c r="P1572" s="4" t="s">
+        <v>2638</v>
+      </c>
+    </row>
+    <row r="1573" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B1573" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1573" s="2" t="s">
+        <v>2639</v>
+      </c>
+      <c r="M1573" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1573" s="3" t="s">
+        <v>2627</v>
+      </c>
+      <c r="O1573" s="2"/>
+      <c r="P1573" s="4" t="s">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="1574" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B1574" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1574" s="2" t="s">
+        <v>2639</v>
+      </c>
+      <c r="M1574" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1574" s="3" t="s">
+        <v>2627</v>
+      </c>
+      <c r="O1574" s="2"/>
+      <c r="P1574" s="4" t="s">
+        <v>2641</v>
+      </c>
+    </row>
+    <row r="1575" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B1575" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1575" s="2" t="s">
+        <v>2642</v>
+      </c>
+      <c r="M1575" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1575" s="3" t="s">
+        <v>2627</v>
+      </c>
+      <c r="O1575" s="2"/>
+      <c r="P1575" s="4" t="s">
+        <v>2643</v>
+      </c>
+    </row>
+    <row r="1576" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B1576" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1576" s="2" t="s">
+        <v>2644</v>
+      </c>
+      <c r="M1576" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1576" s="3" t="s">
+        <v>2627</v>
+      </c>
+      <c r="O1576" s="2"/>
+      <c r="P1576" s="4" t="s">
+        <v>2645</v>
+      </c>
+    </row>
+    <row r="1577" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B1577" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1577" s="2" t="s">
+        <v>2644</v>
+      </c>
+      <c r="M1577" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1577" s="3" t="s">
+        <v>2627</v>
+      </c>
+      <c r="O1577" s="2"/>
+      <c r="P1577" s="4" t="s">
+        <v>2646</v>
+      </c>
+    </row>
+    <row r="1578" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B1578" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1578" s="2" t="s">
+        <v>2647</v>
+      </c>
+      <c r="M1578" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1578" s="3" t="s">
+        <v>2627</v>
+      </c>
+      <c r="O1578" s="2"/>
+      <c r="P1578" s="4" t="s">
+        <v>2648</v>
+      </c>
+    </row>
+    <row r="1579" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B1579" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1579" s="5" t="s">
+        <v>2647</v>
+      </c>
+      <c r="M1579" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1579" s="3" t="s">
+        <v>2627</v>
+      </c>
+      <c r="O1579" s="2"/>
+      <c r="P1579" s="4" t="s">
+        <v>2649</v>
+      </c>
+    </row>
+    <row r="1580" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B1580" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1580" s="5" t="s">
+        <v>2647</v>
+      </c>
+      <c r="M1580" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1580" s="3" t="s">
+        <v>2627</v>
+      </c>
+      <c r="O1580" s="2"/>
+      <c r="P1580" s="4" t="s">
+        <v>2650</v>
+      </c>
+    </row>
+    <row r="1581" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B1581" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1581" s="5" t="s">
+        <v>2647</v>
+      </c>
+      <c r="M1581" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1581" s="3" t="s">
+        <v>2627</v>
+      </c>
+      <c r="O1581" s="2"/>
+      <c r="P1581" s="4" t="s">
+        <v>2651</v>
+      </c>
+    </row>
+    <row r="1582" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B1582" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1582" s="2" t="s">
+        <v>2647</v>
+      </c>
+      <c r="M1582" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1582" s="3" t="s">
+        <v>2627</v>
+      </c>
+      <c r="O1582" s="2"/>
+      <c r="P1582" s="4" t="s">
+        <v>2652</v>
+      </c>
+    </row>
+    <row r="1583" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B1583" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1583" s="2" t="s">
+        <v>2653</v>
+      </c>
+      <c r="M1583" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1583" s="3" t="s">
+        <v>2627</v>
+      </c>
+      <c r="O1583" s="2"/>
+      <c r="P1583" s="4" t="s">
+        <v>2654</v>
+      </c>
+    </row>
+    <row r="1584" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B1584" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1584" s="2" t="s">
+        <v>2655</v>
+      </c>
+      <c r="M1584" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1584" s="3" t="s">
+        <v>2627</v>
+      </c>
+      <c r="O1584" s="2"/>
+      <c r="P1584" s="4" t="s">
+        <v>2656</v>
+      </c>
+    </row>
+    <row r="1585" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B1585" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1585" s="2" t="s">
+        <v>2655</v>
+      </c>
+      <c r="M1585" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1585" s="3" t="s">
+        <v>2627</v>
+      </c>
+      <c r="O1585" s="2"/>
+      <c r="P1585" s="4" t="s">
+        <v>2657</v>
+      </c>
+    </row>
+    <row r="1586" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B1586" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1586" s="2" t="s">
+        <v>2658</v>
+      </c>
+      <c r="M1586" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1586" s="3" t="s">
+        <v>2627</v>
+      </c>
+      <c r="O1586" s="2"/>
+      <c r="P1586" s="4" t="s">
+        <v>2659</v>
+      </c>
+    </row>
+    <row r="1587" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B1587" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1587" s="2" t="s">
+        <v>2658</v>
+      </c>
+      <c r="M1587" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1587" s="3" t="s">
+        <v>2627</v>
+      </c>
+      <c r="O1587" s="2"/>
+      <c r="P1587" s="4" t="s">
+        <v>2660</v>
+      </c>
+    </row>
+    <row r="1588" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B1588" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1588" s="2" t="s">
+        <v>2661</v>
+      </c>
+      <c r="M1588" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1588" s="3" t="s">
+        <v>2662</v>
+      </c>
+      <c r="O1588" s="2"/>
+      <c r="P1588" s="4" t="s">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="1589" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B1589" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1589" s="2" t="s">
+        <v>2664</v>
+      </c>
+      <c r="M1589" s="2" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1589" s="3" t="s">
+        <v>2665</v>
+      </c>
+      <c r="O1589" s="2"/>
+      <c r="P1589" s="4" t="s">
+        <v>2666</v>
+      </c>
+    </row>
+    <row r="1590" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B1590" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1590" s="2" t="s">
+        <v>2667</v>
+      </c>
+      <c r="M1590" s="2" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1590" s="3" t="s">
+        <v>2665</v>
+      </c>
+      <c r="O1590" s="2"/>
+      <c r="P1590" s="4" t="s">
+        <v>2668</v>
+      </c>
+    </row>
+    <row r="1591" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B1591" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1591" s="2" t="s">
+        <v>2667</v>
+      </c>
+      <c r="M1591" s="2" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1591" s="3" t="s">
+        <v>2665</v>
+      </c>
+      <c r="O1591" s="2"/>
+      <c r="P1591" s="4" t="s">
+        <v>2669</v>
+      </c>
+    </row>
+    <row r="1592" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B1592" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1592" s="2" t="s">
+        <v>2664</v>
+      </c>
+      <c r="M1592" s="2" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1592" s="3" t="s">
+        <v>2665</v>
+      </c>
+      <c r="O1592" s="2"/>
+      <c r="P1592" s="4" t="s">
+        <v>2670</v>
+      </c>
+    </row>
+    <row r="1593" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B1593" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1593" s="2" t="s">
+        <v>2671</v>
+      </c>
+      <c r="M1593" s="2" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1593" s="3" t="s">
+        <v>2665</v>
+      </c>
+      <c r="O1593" s="2"/>
+      <c r="P1593" s="4" t="s">
+        <v>2672</v>
+      </c>
+    </row>
+    <row r="1594" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B1594" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1594" s="2" t="s">
+        <v>2673</v>
+      </c>
+      <c r="M1594" s="2" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1594" s="3" t="s">
+        <v>2665</v>
+      </c>
+      <c r="O1594" s="2"/>
+      <c r="P1594" s="4" t="s">
+        <v>2674</v>
+      </c>
+    </row>
+    <row r="1595" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B1595" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1595" s="2" t="s">
+        <v>2675</v>
+      </c>
+      <c r="M1595" s="2" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1595" s="3" t="s">
+        <v>2665</v>
+      </c>
+      <c r="O1595" s="2"/>
+      <c r="P1595" s="4" t="s">
+        <v>2676</v>
+      </c>
+    </row>
+    <row r="1596" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B1596" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1596" s="2" t="s">
+        <v>2677</v>
+      </c>
+      <c r="M1596" s="2" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1596" s="3" t="s">
+        <v>2678</v>
+      </c>
+      <c r="O1596" s="2"/>
+      <c r="P1596" s="4" t="s">
+        <v>2679</v>
+      </c>
+    </row>
+    <row r="1597" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B1597" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1597" s="2" t="s">
+        <v>2644</v>
+      </c>
+      <c r="M1597" s="2" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1597" s="3" t="s">
+        <v>2678</v>
+      </c>
+      <c r="O1597" s="2"/>
+      <c r="P1597" s="4" t="s">
+        <v>2680</v>
+      </c>
+    </row>
+    <row r="1598" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B1598" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1598" s="2" t="s">
+        <v>2681</v>
+      </c>
+      <c r="M1598" s="2" t="s">
+        <v>1650</v>
+      </c>
+      <c r="N1598" s="3" t="s">
+        <v>2682</v>
+      </c>
+      <c r="O1598" s="2"/>
+      <c r="P1598" s="4" t="s">
+        <v>2683</v>
+      </c>
+    </row>
+    <row r="1599" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B1599" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1599" s="2" t="s">
+        <v>2684</v>
+      </c>
+      <c r="M1599" s="2" t="s">
+        <v>1650</v>
+      </c>
+      <c r="N1599" s="3" t="s">
+        <v>2682</v>
+      </c>
+      <c r="O1599" s="2"/>
+      <c r="P1599" s="4" t="s">
+        <v>2685</v>
+      </c>
+    </row>
+    <row r="1600" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B1600" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1600" s="5" t="s">
+        <v>2684</v>
+      </c>
+      <c r="M1600" s="2" t="s">
+        <v>1650</v>
+      </c>
+      <c r="N1600" s="3" t="s">
+        <v>2682</v>
+      </c>
+      <c r="O1600" s="2"/>
+      <c r="P1600" s="4" t="s">
+        <v>2686</v>
+      </c>
+    </row>
+    <row r="1601" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B1601" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1601" s="2" t="s">
+        <v>2684</v>
+      </c>
+      <c r="M1601" s="2" t="s">
+        <v>1650</v>
+      </c>
+      <c r="N1601" s="3" t="s">
+        <v>2682</v>
+      </c>
+      <c r="O1601" s="2"/>
+      <c r="P1601" s="4" t="s">
+        <v>2687</v>
+      </c>
+    </row>
+    <row r="1602" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B1602" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1602" s="2" t="s">
+        <v>2615</v>
+      </c>
+      <c r="M1602" s="2" t="s">
+        <v>1650</v>
+      </c>
+      <c r="N1602" s="3" t="s">
+        <v>2682</v>
+      </c>
+      <c r="O1602" s="2"/>
+      <c r="P1602" s="4" t="s">
+        <v>2688</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="P1306" r:id="rId1"/>
@@ -73276,6 +75403,62 @@
     <hyperlink ref="P1323" r:id="rId3"/>
     <hyperlink ref="P1327" r:id="rId4"/>
     <hyperlink ref="P1452" r:id="rId5"/>
+    <hyperlink ref="N1547" r:id="rId6"/>
+    <hyperlink ref="N1548" r:id="rId7"/>
+    <hyperlink ref="N1549" r:id="rId8"/>
+    <hyperlink ref="N1550" r:id="rId9"/>
+    <hyperlink ref="N1551" r:id="rId10"/>
+    <hyperlink ref="N1552" r:id="rId11"/>
+    <hyperlink ref="N1553" r:id="rId12"/>
+    <hyperlink ref="N1554" r:id="rId13"/>
+    <hyperlink ref="N1555" r:id="rId14"/>
+    <hyperlink ref="N1556" r:id="rId15"/>
+    <hyperlink ref="N1557" r:id="rId16"/>
+    <hyperlink ref="N1558" r:id="rId17"/>
+    <hyperlink ref="N1559" r:id="rId18"/>
+    <hyperlink ref="N1560" r:id="rId19"/>
+    <hyperlink ref="N1561" r:id="rId20"/>
+    <hyperlink ref="N1562" r:id="rId21"/>
+    <hyperlink ref="N1563" r:id="rId22"/>
+    <hyperlink ref="N1564" r:id="rId23"/>
+    <hyperlink ref="N1565" r:id="rId24"/>
+    <hyperlink ref="N1566" r:id="rId25"/>
+    <hyperlink ref="N1567" r:id="rId26"/>
+    <hyperlink ref="N1568" r:id="rId27"/>
+    <hyperlink ref="N1569" r:id="rId28"/>
+    <hyperlink ref="N1570" r:id="rId29"/>
+    <hyperlink ref="N1571" r:id="rId30"/>
+    <hyperlink ref="N1572" r:id="rId31"/>
+    <hyperlink ref="N1573" r:id="rId32"/>
+    <hyperlink ref="N1574" r:id="rId33"/>
+    <hyperlink ref="N1575" r:id="rId34"/>
+    <hyperlink ref="N1576" r:id="rId35"/>
+    <hyperlink ref="N1577" r:id="rId36"/>
+    <hyperlink ref="N1578" r:id="rId37"/>
+    <hyperlink ref="N1579" r:id="rId38"/>
+    <hyperlink ref="N1580" r:id="rId39"/>
+    <hyperlink ref="N1581" r:id="rId40"/>
+    <hyperlink ref="N1582" r:id="rId41"/>
+    <hyperlink ref="N1583" r:id="rId42"/>
+    <hyperlink ref="N1584" r:id="rId43"/>
+    <hyperlink ref="N1585" r:id="rId44"/>
+    <hyperlink ref="N1586" r:id="rId45"/>
+    <hyperlink ref="N1587" r:id="rId46"/>
+    <hyperlink ref="N1588" r:id="rId47"/>
+    <hyperlink ref="N1589" r:id="rId48"/>
+    <hyperlink ref="N1590" r:id="rId49"/>
+    <hyperlink ref="N1591" r:id="rId50"/>
+    <hyperlink ref="N1592" r:id="rId51"/>
+    <hyperlink ref="N1593" r:id="rId52"/>
+    <hyperlink ref="N1594" r:id="rId53"/>
+    <hyperlink ref="N1595" r:id="rId54"/>
+    <hyperlink ref="N1596" r:id="rId55"/>
+    <hyperlink ref="N1597" r:id="rId56"/>
+    <hyperlink ref="N1598" r:id="rId57"/>
+    <hyperlink ref="N1599" r:id="rId58"/>
+    <hyperlink ref="N1600" r:id="rId59"/>
+    <hyperlink ref="N1601" r:id="rId60"/>
+    <hyperlink ref="N1602" r:id="rId61"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/webserver/model_data/TrainingData_ml.xlsx
+++ b/webserver/model_data/TrainingData_ml.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15338" uniqueCount="2690">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16323" uniqueCount="2991">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -8121,12 +8121,915 @@
   <si>
     <t>berit</t>
   </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=lCeOvWqeTPg&amp;t=5914s</t>
+  </si>
+  <si>
+    <t>Grandios.</t>
+  </si>
+  <si>
+    <t>Für mich persönlich das mit Abstand beste Interview, das Ihr bisher gemacht habt.</t>
+  </si>
+  <si>
+    <t>Jace</t>
+  </si>
+  <si>
+    <t>Bei Jung und naiv scheint der Name wirklich Programm zu sein.</t>
+  </si>
+  <si>
+    <t>Felix Praktos</t>
+  </si>
+  <si>
+    <t>Herr Sinn kann sich sehr verständlich ausdrücken</t>
+  </si>
+  <si>
+    <t>Hannes Schläfer</t>
+  </si>
+  <si>
+    <t>Große journalistische und bereichernde Arbeit!</t>
+  </si>
+  <si>
+    <t>Bloodwork</t>
+  </si>
+  <si>
+    <t>Ich hätte dahinschmelzen können.</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>Wunderbar, ein interessanter Gast für ein Interview.</t>
+  </si>
+  <si>
+    <t>Glückwunsch!</t>
+  </si>
+  <si>
+    <t>trader</t>
+  </si>
+  <si>
+    <t>Der Rest wird sauber rausgelöffelt...;)</t>
+  </si>
+  <si>
+    <t>Pascal R.</t>
+  </si>
+  <si>
+    <t>Welch eine gigantisch schlechte Leistung von "Tilo" auf den emotionalen Ausbruch von Herrn Sinn zu reagieren.</t>
+  </si>
+  <si>
+    <t>Gustav Hellings</t>
+  </si>
+  <si>
+    <t>An manchen Stellen war es zwar etwas viel Wissen auf einmal, aber im großen und ganzen sehr informativ :)</t>
+  </si>
+  <si>
+    <t>Sehr interessantes Gespräch.</t>
+  </si>
+  <si>
+    <t>Einhornkot</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=OxAP6ieuDgI</t>
+  </si>
+  <si>
+    <t>Den Körper hätte ich schonmal, nur das Money fehlt</t>
+  </si>
+  <si>
+    <t>Why Are We Still Here</t>
+  </si>
+  <si>
+    <t>Man, das ist Maskenbildnerei vom allerfeinsten.</t>
+  </si>
+  <si>
+    <t>Coco0706080619</t>
+  </si>
+  <si>
+    <t>Das sollte auf Platz 1 der trends sein</t>
+  </si>
+  <si>
+    <t>MrEveningsun</t>
+  </si>
+  <si>
+    <t>Da fehlen ein paar fette Bläser zu dem fetten Beat.</t>
+  </si>
+  <si>
+    <t>Marshell</t>
+  </si>
+  <si>
+    <t>Das ballert einfach viel zu hart.</t>
+  </si>
+  <si>
+    <t>Miriam Kempe</t>
+  </si>
+  <si>
+    <t>Oh zu diesem Video hätte ich gerne ein Making of</t>
+  </si>
+  <si>
+    <t>hihi hoho</t>
+  </si>
+  <si>
+    <t>Jungs, ihr seid einfach TOP</t>
+  </si>
+  <si>
+    <t>Decus 1</t>
+  </si>
+  <si>
+    <t>Ich liebe dieses Lied!</t>
+  </si>
+  <si>
+    <t>Axel Porben</t>
+  </si>
+  <si>
+    <t>Zehr gut ! Jajajajaja</t>
+  </si>
+  <si>
+    <t>Leaaa</t>
+  </si>
+  <si>
+    <t>gleich kommen die ganzen leute und fühlen sich deskriminiert</t>
+  </si>
+  <si>
+    <t>Ich feier euch!</t>
+  </si>
+  <si>
+    <t>koerneldance</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vH1poPSIvOk</t>
+  </si>
+  <si>
+    <t>Produktionskosten: zwei BVG Tagestickets.</t>
+  </si>
+  <si>
+    <t>S Martin</t>
+  </si>
+  <si>
+    <t>Ich glaube inzwischen, ich weiß wie das gelaufen ist:</t>
+  </si>
+  <si>
+    <t>BugsBunny</t>
+  </si>
+  <si>
+    <t>Und in Berlin steht der Fernsehturm jetzt schief ...</t>
+  </si>
+  <si>
+    <t>Dennis Patzelt</t>
+  </si>
+  <si>
+    <t>Eidinger Style wird´s, ich sags Euch.</t>
+  </si>
+  <si>
+    <t>Random Dude #24</t>
+  </si>
+  <si>
+    <t>Hauptsache die Kommentare sind genauso geil wie der Song! :)</t>
+  </si>
+  <si>
+    <t>Karl Münster</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=XLhQvgdXbgo</t>
+  </si>
+  <si>
+    <t>Das ist die umfassendste und prägnanteste Kapitalismus-Kritik die ich in einem Deutschrap-Song je gehört hab.</t>
+  </si>
+  <si>
+    <t>Heinz1zwei</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=QXV1g-WCk4Q</t>
+  </si>
+  <si>
+    <t>Dieser Vollidiot von Moderator unterbricht einfach bei 2:30...</t>
+  </si>
+  <si>
+    <t>Anna Bolika</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=h5xjOz6d9_c</t>
+  </si>
+  <si>
+    <t>Jeder sollte einmal im leben ein Deichkind Konzert Live erlebt haben</t>
+  </si>
+  <si>
+    <t>J.G.</t>
+  </si>
+  <si>
+    <t>Selten so gelacht</t>
+  </si>
+  <si>
+    <t>Einfach dufte !!!!!</t>
+  </si>
+  <si>
+    <t>kynismos</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=twPyjKyDGpM</t>
+  </si>
+  <si>
+    <t>Wenn man Helge hat, lädt man keinen zweiten Gast ein.</t>
+  </si>
+  <si>
+    <t>Sam Riviera</t>
+  </si>
+  <si>
+    <t>So geile Antworten von Helge.</t>
+  </si>
+  <si>
+    <t>BlackAdder665</t>
+  </si>
+  <si>
+    <t>Und es gibt so viele, die ihn regelrecht hassen.</t>
+  </si>
+  <si>
+    <t>sunny lee white</t>
+  </si>
+  <si>
+    <t>Es macht den Anschein, dass Ina Müller mit Helge überfordert war,</t>
+  </si>
+  <si>
+    <t>Herberth Schaffrath</t>
+  </si>
+  <si>
+    <t>ich bin mir sicher diese sendung gibst nur damit ina saufen kann</t>
+  </si>
+  <si>
+    <t>Benito</t>
+  </si>
+  <si>
+    <t>Ihr Geschrei ist so nervig</t>
+  </si>
+  <si>
+    <t>J. Nah</t>
+  </si>
+  <si>
+    <t>Wolfgang Trepper ist ja mega dumpf</t>
+  </si>
+  <si>
+    <t>skysurfer007</t>
+  </si>
+  <si>
+    <t>Wie übel ist den Ina drauf?</t>
+  </si>
+  <si>
+    <t>Joshua</t>
+  </si>
+  <si>
+    <t>So viele dümmliche Penisanspielungen von Ina auf Helge</t>
+  </si>
+  <si>
+    <t>Jochen Walter</t>
+  </si>
+  <si>
+    <t>https://krautreporter.de/3258-egoismus-macht-das-corona-virus-schlimmer-als-es-sein-musste</t>
+  </si>
+  <si>
+    <t>Wie egoistisch.</t>
+  </si>
+  <si>
+    <t>Lars Lubienetzki</t>
+  </si>
+  <si>
+    <t>Ich finde die Berichterstattung zum Virus hier bei KR ausgewogen und nicht übertrieben panisch.</t>
+  </si>
+  <si>
+    <t>Florian Berger</t>
+  </si>
+  <si>
+    <t>Ja, wir sollten unserem Gesundheitssystem den tatsächlichen Stresstest ersparen.</t>
+  </si>
+  <si>
+    <t>Darko Majic</t>
+  </si>
+  <si>
+    <t>Es spricht niemand darüber weil es keine verlässlichen Bestätigung darüber gibt.</t>
+  </si>
+  <si>
+    <t>Silke Jäger</t>
+  </si>
+  <si>
+    <t>Hört den medizinischen Expert:innen jetzt zu.</t>
+  </si>
+  <si>
+    <t>Man kann Medien kritisieren in diesen Zeiten.</t>
+  </si>
+  <si>
+    <t>Aber ich plädiere dafür, sich mit der Komplexität der Aufgabe vertraut zu machen.</t>
+  </si>
+  <si>
+    <t>Denn Menschen wollen nichts über Unsicherheiten hören.</t>
+  </si>
+  <si>
+    <t>Vielen Dank für die rege Diskussion hier.</t>
+  </si>
+  <si>
+    <t>Darüber sollte vieleicht einmal ganz deutlich geschrieben werden.</t>
+  </si>
+  <si>
+    <t>Ilka Wild</t>
+  </si>
+  <si>
+    <t>Taiwan ist übrigens keine Diktatur, sondern eine Demokratie,</t>
+  </si>
+  <si>
+    <t>Matthias Doellert</t>
+  </si>
+  <si>
+    <t>Mich beunruhigen gerade diese Hamsterkäufe.</t>
+  </si>
+  <si>
+    <t>Denn ich halte dieses Thema für sehr wichtig.</t>
+  </si>
+  <si>
+    <t>Udo Endruscheit</t>
+  </si>
+  <si>
+    <t>Wir brauchen mehr, sehr viel mehr gesundheitliche Aufklärung.</t>
+  </si>
+  <si>
+    <t>Marius Reißner</t>
+  </si>
+  <si>
+    <t>Es herrscht überhaupt gar kein Problembewusstsein dafür, dass man so andere unnötig in Gefahr bringt,</t>
+  </si>
+  <si>
+    <t>Tom Rauhe</t>
+  </si>
+  <si>
+    <t>Gut, in dem Fall nicht ganz "Commons"</t>
+  </si>
+  <si>
+    <t>Anne-Katrin Lehmann</t>
+  </si>
+  <si>
+    <t>Danke für Deine sehr fundiert recherchierten und gut zu lesenden Artikel!</t>
+  </si>
+  <si>
+    <t>Tanja 311</t>
+  </si>
+  <si>
+    <t>https://krautreporter.de/3256-funf-gute-nachrichten-die-im-februar-untergegangen-sind</t>
+  </si>
+  <si>
+    <t>Ich teile und erzählt auch immer gerne anderen davon.</t>
+  </si>
+  <si>
+    <t>Matthias Rudolph</t>
+  </si>
+  <si>
+    <t>https://krautreporter.de/3232-putin-war-s-darum-sind-manche-lander-immer-die-bosen</t>
+  </si>
+  <si>
+    <t>Was mir im Artikel fehlt, ist eine Bewertung der sog. Petersburger Trollfabrik</t>
+  </si>
+  <si>
+    <t>Das mit den Begriffen ("Oligarch") und Phrasen finde ich interessant,</t>
+  </si>
+  <si>
+    <t>Okan Bellikli</t>
+  </si>
+  <si>
+    <t>Ja, ich sehe das ähnlich wie du.</t>
+  </si>
+  <si>
+    <t>Caro Go</t>
+  </si>
+  <si>
+    <t>Ich glaube, hier wird die Sozialisation von Millionen Ostdeutschen hintenunter fallen gelassen.</t>
+  </si>
+  <si>
+    <t>Hagen Siegel</t>
+  </si>
+  <si>
+    <t>Ich denke, dass finanzielle Interessen auch eine Rolle spielen können.</t>
+  </si>
+  <si>
+    <t>Creszenzia</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=bFjvdQfTbFY</t>
+  </si>
+  <si>
+    <t>Kann das sein, dass der Interviewer überfordert ist?</t>
+  </si>
+  <si>
+    <t>TheMusikfan007</t>
+  </si>
+  <si>
+    <t>Die Frau hat leider absolut keine Ahnung was unser Geld ist.</t>
+  </si>
+  <si>
+    <t>Olaf Rieck</t>
+  </si>
+  <si>
+    <t>Jeder VWL Student im 3. Semester hat da ein wesentlich tieferes Verständnis.</t>
+  </si>
+  <si>
+    <t>Kann man machen,</t>
+  </si>
+  <si>
+    <t>aber irgendwie ist so eine Kritik albern und einfältig.</t>
+  </si>
+  <si>
+    <t>Andre Thielmann</t>
+  </si>
+  <si>
+    <t>Von so unqualifizierten Kommentaren: "die alte hat keine Ahnung" hat keiner was...</t>
+  </si>
+  <si>
+    <t>Andi Jack</t>
+  </si>
+  <si>
+    <t>Kann Deine Aussage nicht nachvollziehen.</t>
+  </si>
+  <si>
+    <t>Jeder muss wohl schlussendlich selber seine Erfahrungen machen.</t>
+  </si>
+  <si>
+    <t>zappelfry100</t>
+  </si>
+  <si>
+    <t>nun, offensichtlich hast du die welt noch nicht so ganz verstanden</t>
+  </si>
+  <si>
+    <t>Bla</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Salvggj9bMw</t>
+  </si>
+  <si>
+    <t>bei Männern dauert die Pubertät von 13 bis zum Tod.</t>
+  </si>
+  <si>
+    <t>Lucy Lunatic</t>
+  </si>
+  <si>
+    <t>Und er ist schon wieder tot..</t>
+  </si>
+  <si>
+    <t>Silvia Nock</t>
+  </si>
+  <si>
+    <t>Er kann so herrlich psycho gucken</t>
+  </si>
+  <si>
+    <t>Dan Zero</t>
+  </si>
+  <si>
+    <t>Farin könnte aber auch echt nen geilen joker dargeben oder? i</t>
+  </si>
+  <si>
+    <t>Nemas L</t>
+  </si>
+  <si>
+    <t>So eine elegant, geniale Textzeile!</t>
+  </si>
+  <si>
+    <t>Michael Freitag</t>
+  </si>
+  <si>
+    <t>Wahrscheinlich der eigentliche Ärzte-Style.</t>
+  </si>
+  <si>
+    <t>Sandra Leese</t>
+  </si>
+  <si>
+    <t>Zack ..und schon wieder mein Herz an Herrn Farin U. verloren</t>
+  </si>
+  <si>
+    <t>The Zett</t>
+  </si>
+  <si>
+    <t>Farins Grinsen bei 2:33 ist einfach legendär!</t>
+  </si>
+  <si>
+    <t>Melanie G.</t>
+  </si>
+  <si>
+    <t>Da hat wohl jemand die Hannibal-Serie gesehen.</t>
+  </si>
+  <si>
+    <t>Chrisk404</t>
+  </si>
+  <si>
+    <t>Das aller, aller, aller beste Liede auf dem Album.</t>
+  </si>
+  <si>
+    <t>ilcbab</t>
+  </si>
+  <si>
+    <t>Ein weiterer Geniestreich.</t>
+  </si>
+  <si>
+    <t>Oliver Rettig</t>
+  </si>
+  <si>
+    <t>https://krautreporter.de/3105-die-eigentlichen-gegenspieler-in-der-klimafrage-sind-die-grunen-und-die-fdp</t>
+  </si>
+  <si>
+    <t>Insbesondere die Beschreibung der Positionierung der AFD finde ich gelungen.</t>
+  </si>
+  <si>
+    <t>Allerdings erscheint mir der FDP zu viel Bedeutung beigemessen zu sein.</t>
+  </si>
+  <si>
+    <t>Knut Harnisch</t>
+  </si>
+  <si>
+    <t>Alexander Görlach träumt.</t>
+  </si>
+  <si>
+    <t>Sebastian Marsching</t>
+  </si>
+  <si>
+    <t>Tatsächlich dürfte das Feld sogar noch etwas komplexer sein</t>
+  </si>
+  <si>
+    <t>m b</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=l8oHlsunGss</t>
+  </si>
+  <si>
+    <t>Komisch, dass alle Food Reporter so Hungerhaken sind.</t>
+  </si>
+  <si>
+    <t>Sagstetter Andreas</t>
+  </si>
+  <si>
+    <t>Kennt keine sau.</t>
+  </si>
+  <si>
+    <t>Dodobro</t>
+  </si>
+  <si>
+    <t>würg</t>
+  </si>
+  <si>
+    <t>Mark Hallstein</t>
+  </si>
+  <si>
+    <t>Dieser Reporter ist peinlich und aufdringlich</t>
+  </si>
+  <si>
+    <t>Tobias Schneider</t>
+  </si>
+  <si>
+    <t>Sympathisch ist er mir auch.</t>
+  </si>
+  <si>
+    <t>Bolzge Games</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=JPgixKMP23M</t>
+  </si>
+  <si>
+    <t>Soviel gelaber vom Moderator</t>
+  </si>
+  <si>
+    <t>madelenixe</t>
+  </si>
+  <si>
+    <t>bitterstoffe sind durchaus nicht alle gesund</t>
+  </si>
+  <si>
+    <t>AceMan</t>
+  </si>
+  <si>
+    <t>Ohne wissenschaftliche Studien glaube ich das nicht.</t>
+  </si>
+  <si>
+    <t>N.M.</t>
+  </si>
+  <si>
+    <t>bitter ist das neue süss</t>
+  </si>
+  <si>
+    <t>Vigilant</t>
+  </si>
+  <si>
+    <t>Leute, bitter heilt!</t>
+  </si>
+  <si>
+    <t>Macht mal einen 3 Tage Test.</t>
+  </si>
+  <si>
+    <t>Elbsegler</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=IN1GMq5rqV8</t>
+  </si>
+  <si>
+    <t>Klasse Song und Video</t>
+  </si>
+  <si>
+    <t>Torsten Vollmann</t>
+  </si>
+  <si>
+    <t>Hut ab für die jahrelange stilsichere Arbeit!</t>
+  </si>
+  <si>
+    <t>winston smith</t>
+  </si>
+  <si>
+    <t>Das Jackett ist aber Carsten aujch ein klein wenig zu eng</t>
+  </si>
+  <si>
+    <t>Kapitel</t>
+  </si>
+  <si>
+    <t>https://www.tagesspiegel.de/gesellschaft/medien/dieter-nuhr-ueber-greta-thunberg-sie-ist-nicht-der-messias-das-ist-juergen-klopp/25355666.html</t>
+  </si>
+  <si>
+    <t>Dieter Nuhr ist das "Sodbrennen der linksliberalen WG Westdeutschlands".</t>
+  </si>
+  <si>
+    <t>gesundermenschenverstand</t>
+  </si>
+  <si>
+    <t>eine dicke portion mitleid</t>
+  </si>
+  <si>
+    <t>rmj</t>
+  </si>
+  <si>
+    <t>Statt BER könnte er z.B. mal die Kölner Oper erwähnen.</t>
+  </si>
+  <si>
+    <t>cz284</t>
+  </si>
+  <si>
+    <t>Manchem gefällt es nicht mal einen Spiegel vorgehalten zu bekommen.</t>
+  </si>
+  <si>
+    <t>bmkt</t>
+  </si>
+  <si>
+    <t>Die Greta-Episode war nur ein Nebenplatz.</t>
+  </si>
+  <si>
+    <t>lilli90</t>
+  </si>
+  <si>
+    <t>Ist es nicht ureigenste Aufgabe eines Kabarettisten/einer Kabarettistin, sich Ärger einzuhandeln?</t>
+  </si>
+  <si>
+    <t>smitz</t>
+  </si>
+  <si>
+    <t>Also ich finde die Witzchen von Nuhr nur noch plumpdumm.</t>
+  </si>
+  <si>
+    <t>baltar</t>
+  </si>
+  <si>
+    <t>Diese Frage ist berechtigt.</t>
+  </si>
+  <si>
+    <t>Ur-Berliner</t>
+  </si>
+  <si>
+    <t>Wer die Sendung gesehen hat und noch aus seiner Blase herausschauen kann, der hat viel Wahres gehört....</t>
+  </si>
+  <si>
+    <t>rita75</t>
+  </si>
+  <si>
+    <t>Ich war am Montag sogar im Saal und mir hat's gefallen.</t>
+  </si>
+  <si>
+    <t>Wer in der Nuhr-Blase steckt will sich nur bestätigt wissen.</t>
+  </si>
+  <si>
+    <t>Tatsächlich handelt es sich eher um eine Meinung, geprägt vom subjektiven Geschmack des Schreibers.</t>
+  </si>
+  <si>
+    <t>https://www.tagesspiegel.de/politik/vorwahlkampf-der-us-demokraten-joe-biden-auf-dem-weg-zur-nominierung/25631136.html</t>
+  </si>
+  <si>
+    <t>Biden kann durchaus einen Durchmarsch machen.</t>
+  </si>
+  <si>
+    <t>Er wird anschließend fachgerecht zerpflügt werden</t>
+  </si>
+  <si>
+    <t>sar</t>
+  </si>
+  <si>
+    <t>Ok. Es wird also wahrscheinlich Biden werden.</t>
+  </si>
+  <si>
+    <t>CaliGuy</t>
+  </si>
+  <si>
+    <t>Sanders und Warren vertreten nicht wirklich ähnliche Position.</t>
+  </si>
+  <si>
+    <t>Schmocksberg</t>
+  </si>
+  <si>
+    <t>https://www.tagesspiegel.de/kultur/rapperin-sookee-ueber-ihren-abschied-jedes-konzert-muss-ein-abriss-sein/25618754.html</t>
+  </si>
+  <si>
+    <t>Zeit, erwachsen zu werden und sich ein erwachsenes Umfeld zu suchen.</t>
+  </si>
+  <si>
+    <t>Das Interview liefert leider keine Antworten auf diese interessanten Fragen.</t>
+  </si>
+  <si>
+    <t>Erfolg und Anerkennung ist etwas das man sich beim Publikum erarbeiten muss.</t>
+  </si>
+  <si>
+    <t>Jelissei</t>
+  </si>
+  <si>
+    <t>Ihre Kritik geht vollkommen ins Leere.</t>
+  </si>
+  <si>
+    <t>Solch eine Empörungsmentalität ist echt traurig.</t>
+  </si>
+  <si>
+    <t>Big Papa</t>
+  </si>
+  <si>
+    <t>https://www.zeit.de/kultur/film/2020-03/harvey-weinstein-zu-23-jahren-haft-verurteilt</t>
+  </si>
+  <si>
+    <t>Gute Nachricht.</t>
+  </si>
+  <si>
+    <t>Kyösti Vitus</t>
+  </si>
+  <si>
+    <t>Dies kann nur der Anfang von vielen Verurteilungen sein.</t>
+  </si>
+  <si>
+    <t>Milva LXI.</t>
+  </si>
+  <si>
+    <t>Das Urteil ist maßlos, wie vieles aus den USA.</t>
+  </si>
+  <si>
+    <t>Rheinländer</t>
+  </si>
+  <si>
+    <t>Dieser Typ Mann ist leider sehr verbreitet.</t>
+  </si>
+  <si>
+    <t>Ciolith</t>
+  </si>
+  <si>
+    <t>Über die Angemessenheit des Strafmaßes kann man sicherlich diskutieren.</t>
+  </si>
+  <si>
+    <t>FelixLassmann</t>
+  </si>
+  <si>
+    <t>Es gibt sie noch, die erfreulichen Nachrichten.</t>
+  </si>
+  <si>
+    <t>Dr. Huber</t>
+  </si>
+  <si>
+    <t>Gerechte Strafe!</t>
+  </si>
+  <si>
+    <t>anton014</t>
+  </si>
+  <si>
+    <t>https://www.zeit.de/kultur/musik/2020-03/led-zeppelin-stairway-to-heaven-plagiat-freispruch-urheberrecht</t>
+  </si>
+  <si>
+    <t>Amerikanische Anwälte werden immer versuchen, aus Jedem und Allem ihren Profit zu schlagen.</t>
+  </si>
+  <si>
+    <t>Que Che</t>
+  </si>
+  <si>
+    <t>Wer die Lieder verglichen hat weiss: es ist eines.</t>
+  </si>
+  <si>
+    <t>Dann haben Sie das falsche Lied angehört.</t>
+  </si>
+  <si>
+    <t>kajot</t>
+  </si>
+  <si>
+    <t>Ansonsten sind Juristen bei solchen Fällen völlig überfordert</t>
+  </si>
+  <si>
+    <t>Das abzustreiten ist lächerlich.</t>
+  </si>
+  <si>
+    <t>Sokrat3s</t>
+  </si>
+  <si>
+    <t>Da lohnt sich jede Berufung und der Gang durch sämtliche Instanzen...</t>
+  </si>
+  <si>
+    <t>Simplicio</t>
+  </si>
+  <si>
+    <t>Popmusik und Plagiat gehört irgenwie zusammen</t>
+  </si>
+  <si>
+    <t>Zeno Kortin</t>
+  </si>
+  <si>
+    <t>Ist ziemlich lustig.</t>
+  </si>
+  <si>
+    <t>Gravitationswellen</t>
+  </si>
+  <si>
+    <t>Led Zeppelin hat nicht geklaut, Leute das ist Led Zeppelin.</t>
+  </si>
+  <si>
+    <t>wandalina</t>
+  </si>
+  <si>
+    <t>Das Gericht hat entschieden und das sollte man aktzeptieren</t>
+  </si>
+  <si>
+    <t>Horror-Clown</t>
+  </si>
+  <si>
+    <t>Erstaunlich wie viele Wahrheit verleugnen wenn sie ihnen nicht gefällt.</t>
+  </si>
+  <si>
+    <t>Horror was Sie da los lassen</t>
+  </si>
+  <si>
+    <t>sweetspot66</t>
+  </si>
+  <si>
+    <t>Zumal die Herren Page und Plant den Song 100%-ig kannten.</t>
+  </si>
+  <si>
+    <t>Master-Blender</t>
+  </si>
+  <si>
+    <t>https://www.zeit.de/wirtschaft/2020-03/britischer-leitzins-notenbanken-coronavirus</t>
+  </si>
+  <si>
+    <t>Das ist doch kein Argument.</t>
+  </si>
+  <si>
+    <t>"Ein negativer Leitzins ist kein Zins. "</t>
+  </si>
+  <si>
+    <t>gottesschöpfung</t>
+  </si>
+  <si>
+    <t>https://www.zeit.de/kultur/musik/2020-03/placido-domingo-opernsaenger-sexuelle-uebergriffe-la-opera</t>
+  </si>
+  <si>
+    <t>Unangemessene Verhalten..</t>
+  </si>
+  <si>
+    <t>Don Alberto</t>
+  </si>
+  <si>
+    <t>Metoo ist die neue wahre Justiz.</t>
+  </si>
+  <si>
+    <t>Merken Sie in welchem falschen Film sie sind?</t>
+  </si>
+  <si>
+    <t>Die Causa Domingo ist der Offenbarungseid der ganzen Metoobewegung.</t>
+  </si>
+  <si>
+    <t>D. Meister</t>
+  </si>
+  <si>
+    <t>https://www.zeit.de/kultur/2020-02/christoph-schlingensief-dokumentarfilm-bettina-boehler-10nach8</t>
+  </si>
+  <si>
+    <t>Ehre sei Schlingensief.</t>
+  </si>
+  <si>
+    <t>Fu</t>
+  </si>
+  <si>
+    <t>Toller Typ,</t>
+  </si>
+  <si>
+    <t>Zeitwesen</t>
+  </si>
+  <si>
+    <t>Toll und gut gerade seine politischen Visionen bzw. Vorahnungen:</t>
+  </si>
+  <si>
+    <t>Juanito alimaña</t>
+  </si>
+  <si>
+    <t>Das war er nicht, das wird ihm nicht gerecht, so ein Beitrag hat er nicht verdient.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8170,6 +9073,26 @@
       <color rgb="FF000000"/>
       <name val="Docs-Calibri"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF030303"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Tisa Sans"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF252525"/>
+      <name val="TabletGothic"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -8207,7 +9130,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -8216,6 +9139,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -8516,12 +9443,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W1602"/>
+  <dimension ref="A1:W1757"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1583" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A1750" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="B1548" sqref="B1548:B1602"/>
+      <selection pane="bottomLeft" activeCell="L1757" sqref="L1757"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -74405,6 +75332,9 @@
       <c r="P1547" s="4" t="s">
         <v>2605</v>
       </c>
+      <c r="Q1547" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="1548" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B1548" t="s">
@@ -74423,6 +75353,9 @@
       <c r="P1548" s="4" t="s">
         <v>2606</v>
       </c>
+      <c r="Q1548" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1549" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B1549" t="s">
@@ -74441,6 +75374,9 @@
       <c r="P1549" s="4" t="s">
         <v>2607</v>
       </c>
+      <c r="Q1549" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="1550" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B1550" t="s">
@@ -74459,6 +75395,9 @@
       <c r="P1550" s="4" t="s">
         <v>2609</v>
       </c>
+      <c r="Q1550" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="1551" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B1551" t="s">
@@ -74477,6 +75416,9 @@
       <c r="P1551" s="4" t="s">
         <v>2610</v>
       </c>
+      <c r="Q1551" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1552" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B1552" t="s">
@@ -74495,8 +75437,11 @@
       <c r="P1552" s="2" t="s">
         <v>2611</v>
       </c>
-    </row>
-    <row r="1553" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q1552" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1553" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B1553" t="s">
         <v>2689</v>
       </c>
@@ -74513,8 +75458,11 @@
       <c r="P1553" s="4" t="s">
         <v>2612</v>
       </c>
-    </row>
-    <row r="1554" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q1553" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1554" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B1554" t="s">
         <v>2689</v>
       </c>
@@ -74531,8 +75479,11 @@
       <c r="P1554" s="4" t="s">
         <v>2613</v>
       </c>
-    </row>
-    <row r="1555" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q1554" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1555" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B1555" t="s">
         <v>2689</v>
       </c>
@@ -74549,8 +75500,11 @@
       <c r="P1555" s="4" t="s">
         <v>2614</v>
       </c>
-    </row>
-    <row r="1556" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q1555" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1556" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B1556" t="s">
         <v>2689</v>
       </c>
@@ -74567,8 +75521,11 @@
       <c r="P1556" s="4" t="s">
         <v>2616</v>
       </c>
-    </row>
-    <row r="1557" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q1556" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1557" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B1557" t="s">
         <v>2689</v>
       </c>
@@ -74585,8 +75542,11 @@
       <c r="P1557" s="4" t="s">
         <v>2617</v>
       </c>
-    </row>
-    <row r="1558" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q1557" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1558" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B1558" t="s">
         <v>2689</v>
       </c>
@@ -74603,8 +75563,11 @@
       <c r="P1558" s="4" t="s">
         <v>2619</v>
       </c>
-    </row>
-    <row r="1559" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q1558" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1559" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B1559" t="s">
         <v>2689</v>
       </c>
@@ -74621,8 +75584,11 @@
       <c r="P1559" s="4" t="s">
         <v>2621</v>
       </c>
-    </row>
-    <row r="1560" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q1559" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1560" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B1560" t="s">
         <v>2689</v>
       </c>
@@ -74639,8 +75605,11 @@
       <c r="P1560" s="4" t="s">
         <v>2622</v>
       </c>
-    </row>
-    <row r="1561" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q1560" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1561" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B1561" t="s">
         <v>2689</v>
       </c>
@@ -74657,8 +75626,11 @@
       <c r="P1561" s="4" t="s">
         <v>2623</v>
       </c>
-    </row>
-    <row r="1562" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q1561" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1562" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B1562" t="s">
         <v>2689</v>
       </c>
@@ -74675,8 +75647,11 @@
       <c r="P1562" s="4" t="s">
         <v>2624</v>
       </c>
-    </row>
-    <row r="1563" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q1562" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1563" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B1563" t="s">
         <v>2689</v>
       </c>
@@ -74693,8 +75668,11 @@
       <c r="P1563" s="4" t="s">
         <v>2625</v>
       </c>
-    </row>
-    <row r="1564" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q1563" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1564" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B1564" t="s">
         <v>2689</v>
       </c>
@@ -74711,8 +75689,11 @@
       <c r="P1564" s="4" t="s">
         <v>2628</v>
       </c>
-    </row>
-    <row r="1565" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q1564" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1565" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B1565" t="s">
         <v>2689</v>
       </c>
@@ -74729,8 +75710,11 @@
       <c r="P1565" s="2" t="s">
         <v>2629</v>
       </c>
-    </row>
-    <row r="1566" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q1565" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1566" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B1566" t="s">
         <v>2689</v>
       </c>
@@ -74747,8 +75731,11 @@
       <c r="P1566" s="4" t="s">
         <v>2630</v>
       </c>
-    </row>
-    <row r="1567" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q1566" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1567" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B1567" t="s">
         <v>2689</v>
       </c>
@@ -74765,8 +75752,11 @@
       <c r="P1567" s="4" t="s">
         <v>2632</v>
       </c>
-    </row>
-    <row r="1568" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q1567" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1568" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B1568" t="s">
         <v>2689</v>
       </c>
@@ -74783,8 +75773,11 @@
       <c r="P1568" s="4" t="s">
         <v>2633</v>
       </c>
-    </row>
-    <row r="1569" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q1568" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1569" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B1569" t="s">
         <v>2689</v>
       </c>
@@ -74801,8 +75794,11 @@
       <c r="P1569" s="4" t="s">
         <v>2634</v>
       </c>
-    </row>
-    <row r="1570" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q1569" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1570" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B1570" t="s">
         <v>2689</v>
       </c>
@@ -74819,8 +75815,11 @@
       <c r="P1570" s="4" t="s">
         <v>2635</v>
       </c>
-    </row>
-    <row r="1571" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q1570" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1571" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B1571" t="s">
         <v>2689</v>
       </c>
@@ -74837,8 +75836,11 @@
       <c r="P1571" s="4" t="s">
         <v>2637</v>
       </c>
-    </row>
-    <row r="1572" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q1571" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1572" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B1572" t="s">
         <v>2689</v>
       </c>
@@ -74855,8 +75857,11 @@
       <c r="P1572" s="4" t="s">
         <v>2638</v>
       </c>
-    </row>
-    <row r="1573" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q1572" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1573" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B1573" t="s">
         <v>2689</v>
       </c>
@@ -74873,8 +75878,11 @@
       <c r="P1573" s="4" t="s">
         <v>2640</v>
       </c>
-    </row>
-    <row r="1574" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q1573" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1574" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B1574" t="s">
         <v>2689</v>
       </c>
@@ -74891,8 +75899,11 @@
       <c r="P1574" s="4" t="s">
         <v>2641</v>
       </c>
-    </row>
-    <row r="1575" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q1574" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1575" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B1575" t="s">
         <v>2689</v>
       </c>
@@ -74909,8 +75920,11 @@
       <c r="P1575" s="4" t="s">
         <v>2643</v>
       </c>
-    </row>
-    <row r="1576" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q1575" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1576" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B1576" t="s">
         <v>2689</v>
       </c>
@@ -74927,8 +75941,11 @@
       <c r="P1576" s="4" t="s">
         <v>2645</v>
       </c>
-    </row>
-    <row r="1577" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q1576" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1577" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B1577" t="s">
         <v>2689</v>
       </c>
@@ -74945,8 +75962,11 @@
       <c r="P1577" s="4" t="s">
         <v>2646</v>
       </c>
-    </row>
-    <row r="1578" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q1577" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1578" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B1578" t="s">
         <v>2689</v>
       </c>
@@ -74963,8 +75983,11 @@
       <c r="P1578" s="4" t="s">
         <v>2648</v>
       </c>
-    </row>
-    <row r="1579" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q1578" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1579" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B1579" t="s">
         <v>2689</v>
       </c>
@@ -74981,8 +76004,11 @@
       <c r="P1579" s="4" t="s">
         <v>2649</v>
       </c>
-    </row>
-    <row r="1580" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q1579" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1580" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B1580" t="s">
         <v>2689</v>
       </c>
@@ -74999,8 +76025,11 @@
       <c r="P1580" s="4" t="s">
         <v>2650</v>
       </c>
-    </row>
-    <row r="1581" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q1580" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1581" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B1581" t="s">
         <v>2689</v>
       </c>
@@ -75017,8 +76046,11 @@
       <c r="P1581" s="4" t="s">
         <v>2651</v>
       </c>
-    </row>
-    <row r="1582" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q1581" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1582" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B1582" t="s">
         <v>2689</v>
       </c>
@@ -75035,8 +76067,11 @@
       <c r="P1582" s="4" t="s">
         <v>2652</v>
       </c>
-    </row>
-    <row r="1583" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q1582" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1583" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B1583" t="s">
         <v>2689</v>
       </c>
@@ -75053,8 +76088,11 @@
       <c r="P1583" s="4" t="s">
         <v>2654</v>
       </c>
-    </row>
-    <row r="1584" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q1583" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1584" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B1584" t="s">
         <v>2689</v>
       </c>
@@ -75071,8 +76109,11 @@
       <c r="P1584" s="4" t="s">
         <v>2656</v>
       </c>
-    </row>
-    <row r="1585" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q1584" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1585" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B1585" t="s">
         <v>2689</v>
       </c>
@@ -75089,8 +76130,11 @@
       <c r="P1585" s="4" t="s">
         <v>2657</v>
       </c>
-    </row>
-    <row r="1586" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q1585" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1586" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B1586" t="s">
         <v>2689</v>
       </c>
@@ -75107,8 +76151,11 @@
       <c r="P1586" s="4" t="s">
         <v>2659</v>
       </c>
-    </row>
-    <row r="1587" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q1586" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1587" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B1587" t="s">
         <v>2689</v>
       </c>
@@ -75125,8 +76172,11 @@
       <c r="P1587" s="4" t="s">
         <v>2660</v>
       </c>
-    </row>
-    <row r="1588" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q1587" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1588" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B1588" t="s">
         <v>2689</v>
       </c>
@@ -75143,8 +76193,11 @@
       <c r="P1588" s="4" t="s">
         <v>2663</v>
       </c>
-    </row>
-    <row r="1589" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q1588" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1589" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B1589" t="s">
         <v>2689</v>
       </c>
@@ -75161,8 +76214,11 @@
       <c r="P1589" s="4" t="s">
         <v>2666</v>
       </c>
-    </row>
-    <row r="1590" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q1589" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1590" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B1590" t="s">
         <v>2689</v>
       </c>
@@ -75179,8 +76235,11 @@
       <c r="P1590" s="4" t="s">
         <v>2668</v>
       </c>
-    </row>
-    <row r="1591" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q1590" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1591" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B1591" t="s">
         <v>2689</v>
       </c>
@@ -75197,8 +76256,11 @@
       <c r="P1591" s="4" t="s">
         <v>2669</v>
       </c>
-    </row>
-    <row r="1592" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q1591" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1592" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B1592" t="s">
         <v>2689</v>
       </c>
@@ -75215,8 +76277,11 @@
       <c r="P1592" s="4" t="s">
         <v>2670</v>
       </c>
-    </row>
-    <row r="1593" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q1592" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1593" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B1593" t="s">
         <v>2689</v>
       </c>
@@ -75233,8 +76298,11 @@
       <c r="P1593" s="4" t="s">
         <v>2672</v>
       </c>
-    </row>
-    <row r="1594" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q1593" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1594" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B1594" t="s">
         <v>2689</v>
       </c>
@@ -75251,8 +76319,11 @@
       <c r="P1594" s="4" t="s">
         <v>2674</v>
       </c>
-    </row>
-    <row r="1595" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q1594" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1595" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B1595" t="s">
         <v>2689</v>
       </c>
@@ -75269,8 +76340,11 @@
       <c r="P1595" s="4" t="s">
         <v>2676</v>
       </c>
-    </row>
-    <row r="1596" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q1595" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1596" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B1596" t="s">
         <v>2689</v>
       </c>
@@ -75287,8 +76361,11 @@
       <c r="P1596" s="4" t="s">
         <v>2679</v>
       </c>
-    </row>
-    <row r="1597" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q1596" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1597" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B1597" t="s">
         <v>2689</v>
       </c>
@@ -75305,8 +76382,11 @@
       <c r="P1597" s="4" t="s">
         <v>2680</v>
       </c>
-    </row>
-    <row r="1598" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q1597" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1598" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B1598" t="s">
         <v>2689</v>
       </c>
@@ -75323,8 +76403,11 @@
       <c r="P1598" s="4" t="s">
         <v>2683</v>
       </c>
-    </row>
-    <row r="1599" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q1598" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1599" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B1599" t="s">
         <v>2689</v>
       </c>
@@ -75341,8 +76424,11 @@
       <c r="P1599" s="4" t="s">
         <v>2685</v>
       </c>
-    </row>
-    <row r="1600" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q1599" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1600" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B1600" t="s">
         <v>2689</v>
       </c>
@@ -75359,8 +76445,11 @@
       <c r="P1600" s="4" t="s">
         <v>2686</v>
       </c>
-    </row>
-    <row r="1601" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q1600" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1601" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B1601" t="s">
         <v>2689</v>
       </c>
@@ -75377,8 +76466,11 @@
       <c r="P1601" s="4" t="s">
         <v>2687</v>
       </c>
-    </row>
-    <row r="1602" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q1601" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1602" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B1602" t="s">
         <v>2689</v>
       </c>
@@ -75394,6 +76486,3264 @@
       <c r="O1602" s="2"/>
       <c r="P1602" s="4" t="s">
         <v>2688</v>
+      </c>
+      <c r="Q1602" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1603" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1603" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1603" s="2" t="s">
+        <v>1499</v>
+      </c>
+      <c r="M1603" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1603" s="3" t="s">
+        <v>2690</v>
+      </c>
+      <c r="O1603" s="2"/>
+      <c r="P1603" s="2" t="s">
+        <v>2691</v>
+      </c>
+      <c r="Q1603" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1604" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1604" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1604" s="2" t="s">
+        <v>1499</v>
+      </c>
+      <c r="M1604" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1604" s="3" t="s">
+        <v>2690</v>
+      </c>
+      <c r="O1604" s="2"/>
+      <c r="P1604" s="2" t="s">
+        <v>2692</v>
+      </c>
+      <c r="Q1604" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1605" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1605" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1605" s="2" t="s">
+        <v>2693</v>
+      </c>
+      <c r="M1605" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1605" s="3" t="s">
+        <v>2690</v>
+      </c>
+      <c r="O1605" s="2"/>
+      <c r="P1605" s="2" t="s">
+        <v>2694</v>
+      </c>
+      <c r="Q1605" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1606" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1606" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1606" s="2" t="s">
+        <v>2695</v>
+      </c>
+      <c r="M1606" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1606" s="3" t="s">
+        <v>2690</v>
+      </c>
+      <c r="O1606" s="2"/>
+      <c r="P1606" s="2" t="s">
+        <v>2696</v>
+      </c>
+      <c r="Q1606" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1607" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1607" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1607" s="2" t="s">
+        <v>2697</v>
+      </c>
+      <c r="M1607" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1607" s="3" t="s">
+        <v>2690</v>
+      </c>
+      <c r="O1607" s="2"/>
+      <c r="P1607" s="2" t="s">
+        <v>2698</v>
+      </c>
+      <c r="Q1607" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1608" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1608" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1608" s="2" t="s">
+        <v>1501</v>
+      </c>
+      <c r="M1608" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1608" s="3" t="s">
+        <v>2690</v>
+      </c>
+      <c r="O1608" s="2"/>
+      <c r="P1608" s="2" t="s">
+        <v>1502</v>
+      </c>
+      <c r="Q1608" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1609" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1609" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1609" s="2" t="s">
+        <v>2699</v>
+      </c>
+      <c r="M1609" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1609" s="3" t="s">
+        <v>2690</v>
+      </c>
+      <c r="O1609" s="2"/>
+      <c r="P1609" s="2" t="s">
+        <v>2700</v>
+      </c>
+      <c r="Q1609" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1610" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1610" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1610" s="2" t="s">
+        <v>2701</v>
+      </c>
+      <c r="M1610" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1610" s="3" t="s">
+        <v>2690</v>
+      </c>
+      <c r="O1610" s="2"/>
+      <c r="P1610" s="2" t="s">
+        <v>2702</v>
+      </c>
+      <c r="Q1610" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1611" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1611" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1611" s="2">
+        <v>3430600</v>
+      </c>
+      <c r="M1611" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1611" s="3" t="s">
+        <v>2690</v>
+      </c>
+      <c r="O1611" s="2"/>
+      <c r="P1611" s="2" t="s">
+        <v>2703</v>
+      </c>
+      <c r="Q1611" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1612" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1612" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1612" s="2" t="s">
+        <v>2704</v>
+      </c>
+      <c r="M1612" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1612" s="3" t="s">
+        <v>2690</v>
+      </c>
+      <c r="O1612" s="2"/>
+      <c r="P1612" s="2" t="s">
+        <v>2705</v>
+      </c>
+      <c r="Q1612" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1613" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1613" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1613" s="2" t="s">
+        <v>2706</v>
+      </c>
+      <c r="M1613" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1613" s="3" t="s">
+        <v>2690</v>
+      </c>
+      <c r="O1613" s="2"/>
+      <c r="P1613" s="2" t="s">
+        <v>2707</v>
+      </c>
+      <c r="Q1613" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1614" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1614" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1614" s="2" t="s">
+        <v>2708</v>
+      </c>
+      <c r="M1614" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1614" s="3" t="s">
+        <v>2690</v>
+      </c>
+      <c r="O1614" s="2"/>
+      <c r="P1614" s="2" t="s">
+        <v>2709</v>
+      </c>
+      <c r="Q1614" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1615" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1615" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1615" s="5" t="s">
+        <v>2708</v>
+      </c>
+      <c r="M1615" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1615" s="3" t="s">
+        <v>2690</v>
+      </c>
+      <c r="O1615" s="2"/>
+      <c r="P1615" s="2" t="s">
+        <v>2710</v>
+      </c>
+      <c r="Q1615" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1616" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1616" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1616" s="2" t="s">
+        <v>2711</v>
+      </c>
+      <c r="M1616" s="2" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1616" s="3" t="s">
+        <v>2712</v>
+      </c>
+      <c r="O1616" s="2"/>
+      <c r="P1616" s="2" t="s">
+        <v>2713</v>
+      </c>
+      <c r="Q1616" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1617" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1617" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1617" s="2" t="s">
+        <v>2714</v>
+      </c>
+      <c r="M1617" s="2" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1617" s="3" t="s">
+        <v>2712</v>
+      </c>
+      <c r="O1617" s="2"/>
+      <c r="P1617" s="2" t="s">
+        <v>2715</v>
+      </c>
+      <c r="Q1617" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1618" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1618" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1618" s="2" t="s">
+        <v>2716</v>
+      </c>
+      <c r="M1618" s="2" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1618" s="3" t="s">
+        <v>2712</v>
+      </c>
+      <c r="O1618" s="2"/>
+      <c r="P1618" s="2" t="s">
+        <v>2717</v>
+      </c>
+      <c r="Q1618" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1619" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1619" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1619" s="6" t="s">
+        <v>2718</v>
+      </c>
+      <c r="M1619" s="2" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1619" s="3" t="s">
+        <v>2712</v>
+      </c>
+      <c r="O1619" s="2"/>
+      <c r="P1619" s="2" t="s">
+        <v>2719</v>
+      </c>
+      <c r="Q1619" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1620" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1620" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1620" s="2" t="s">
+        <v>2720</v>
+      </c>
+      <c r="M1620" s="2" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1620" s="3" t="s">
+        <v>2712</v>
+      </c>
+      <c r="O1620" s="2"/>
+      <c r="P1620" s="2" t="s">
+        <v>2721</v>
+      </c>
+      <c r="Q1620" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1621" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1621" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1621" s="2" t="s">
+        <v>2722</v>
+      </c>
+      <c r="M1621" s="2" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1621" s="3" t="s">
+        <v>2712</v>
+      </c>
+      <c r="O1621" s="2"/>
+      <c r="P1621" s="2" t="s">
+        <v>2723</v>
+      </c>
+      <c r="Q1621" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1622" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1622" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1622" s="2" t="s">
+        <v>2724</v>
+      </c>
+      <c r="M1622" s="2" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1622" s="3" t="s">
+        <v>2712</v>
+      </c>
+      <c r="O1622" s="2"/>
+      <c r="P1622" s="2" t="s">
+        <v>2725</v>
+      </c>
+      <c r="Q1622" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1623" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1623" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1623" s="2" t="s">
+        <v>2726</v>
+      </c>
+      <c r="M1623" s="2" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1623" s="3" t="s">
+        <v>2712</v>
+      </c>
+      <c r="O1623" s="2"/>
+      <c r="P1623" s="2" t="s">
+        <v>2727</v>
+      </c>
+      <c r="Q1623" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1624" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1624" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1624" s="2" t="s">
+        <v>2728</v>
+      </c>
+      <c r="M1624" s="2" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1624" s="3" t="s">
+        <v>2712</v>
+      </c>
+      <c r="O1624" s="2"/>
+      <c r="P1624" s="2" t="s">
+        <v>2729</v>
+      </c>
+      <c r="Q1624" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1625" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1625" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1625" s="2" t="s">
+        <v>2730</v>
+      </c>
+      <c r="M1625" s="2" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1625" s="3" t="s">
+        <v>2712</v>
+      </c>
+      <c r="O1625" s="2"/>
+      <c r="P1625" s="2" t="s">
+        <v>2731</v>
+      </c>
+      <c r="Q1625" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1626" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1626" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1626" s="2" t="s">
+        <v>2730</v>
+      </c>
+      <c r="M1626" s="2" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1626" s="3" t="s">
+        <v>2712</v>
+      </c>
+      <c r="O1626" s="2"/>
+      <c r="P1626" s="2" t="s">
+        <v>2732</v>
+      </c>
+      <c r="Q1626" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1627" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1627" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1627" s="2" t="s">
+        <v>2733</v>
+      </c>
+      <c r="M1627" s="2" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1627" s="3" t="s">
+        <v>2734</v>
+      </c>
+      <c r="O1627" s="2"/>
+      <c r="P1627" s="2" t="s">
+        <v>2735</v>
+      </c>
+      <c r="Q1627" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1628" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1628" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1628" s="2" t="s">
+        <v>2736</v>
+      </c>
+      <c r="M1628" s="2" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1628" s="3" t="s">
+        <v>2734</v>
+      </c>
+      <c r="O1628" s="2"/>
+      <c r="P1628" s="2" t="s">
+        <v>2737</v>
+      </c>
+      <c r="Q1628" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1629" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1629" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1629" s="2" t="s">
+        <v>2738</v>
+      </c>
+      <c r="M1629" s="2" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1629" s="3" t="s">
+        <v>2734</v>
+      </c>
+      <c r="O1629" s="2"/>
+      <c r="P1629" s="2" t="s">
+        <v>2739</v>
+      </c>
+      <c r="Q1629" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1630" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1630" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1630" s="2" t="s">
+        <v>2740</v>
+      </c>
+      <c r="M1630" s="2" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1630" s="3" t="s">
+        <v>2734</v>
+      </c>
+      <c r="O1630" s="2"/>
+      <c r="P1630" s="2" t="s">
+        <v>2741</v>
+      </c>
+      <c r="Q1630" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1631" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1631" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1631" s="6" t="s">
+        <v>2742</v>
+      </c>
+      <c r="M1631" s="2" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1631" s="3" t="s">
+        <v>2734</v>
+      </c>
+      <c r="O1631" s="2"/>
+      <c r="P1631" s="2" t="s">
+        <v>2743</v>
+      </c>
+      <c r="Q1631" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1632" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1632" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1632" s="2" t="s">
+        <v>2744</v>
+      </c>
+      <c r="M1632" s="2" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1632" s="3" t="s">
+        <v>2745</v>
+      </c>
+      <c r="O1632" s="2"/>
+      <c r="P1632" s="2" t="s">
+        <v>2746</v>
+      </c>
+      <c r="Q1632" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1633" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1633" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1633" s="2" t="s">
+        <v>2747</v>
+      </c>
+      <c r="M1633" s="2" t="s">
+        <v>1190</v>
+      </c>
+      <c r="N1633" s="3" t="s">
+        <v>2748</v>
+      </c>
+      <c r="O1633" s="2"/>
+      <c r="P1633" s="3" t="s">
+        <v>2749</v>
+      </c>
+      <c r="Q1633" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1634" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1634" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1634" s="2" t="s">
+        <v>2750</v>
+      </c>
+      <c r="M1634" s="2" t="s">
+        <v>1190</v>
+      </c>
+      <c r="N1634" s="3" t="s">
+        <v>2751</v>
+      </c>
+      <c r="O1634" s="2"/>
+      <c r="P1634" s="2" t="s">
+        <v>2752</v>
+      </c>
+      <c r="Q1634" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1635" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1635" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1635" s="2" t="s">
+        <v>2753</v>
+      </c>
+      <c r="M1635" s="2" t="s">
+        <v>1190</v>
+      </c>
+      <c r="N1635" s="3" t="s">
+        <v>2751</v>
+      </c>
+      <c r="O1635" s="2"/>
+      <c r="P1635" s="2" t="s">
+        <v>2754</v>
+      </c>
+      <c r="Q1635" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1636" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1636" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1636" s="5" t="s">
+        <v>2753</v>
+      </c>
+      <c r="M1636" s="2" t="s">
+        <v>1190</v>
+      </c>
+      <c r="N1636" s="3" t="s">
+        <v>2751</v>
+      </c>
+      <c r="O1636" s="2"/>
+      <c r="P1636" s="2" t="s">
+        <v>2755</v>
+      </c>
+      <c r="Q1636" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1637" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1637" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1637" s="2" t="s">
+        <v>2756</v>
+      </c>
+      <c r="M1637" s="2" t="s">
+        <v>1190</v>
+      </c>
+      <c r="N1637" s="3" t="s">
+        <v>2757</v>
+      </c>
+      <c r="O1637" s="2"/>
+      <c r="P1637" s="2" t="s">
+        <v>2758</v>
+      </c>
+      <c r="Q1637" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1638" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1638" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1638" s="2" t="s">
+        <v>2759</v>
+      </c>
+      <c r="M1638" s="5" t="s">
+        <v>1190</v>
+      </c>
+      <c r="N1638" s="3" t="s">
+        <v>2757</v>
+      </c>
+      <c r="O1638" s="2"/>
+      <c r="P1638" s="2" t="s">
+        <v>2760</v>
+      </c>
+      <c r="Q1638" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1639" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1639" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1639" s="2" t="s">
+        <v>2761</v>
+      </c>
+      <c r="M1639" s="2" t="s">
+        <v>1190</v>
+      </c>
+      <c r="N1639" s="3" t="s">
+        <v>2757</v>
+      </c>
+      <c r="O1639" s="2"/>
+      <c r="P1639" s="2" t="s">
+        <v>2762</v>
+      </c>
+      <c r="Q1639" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1640" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1640" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1640" s="2" t="s">
+        <v>2763</v>
+      </c>
+      <c r="M1640" s="2" t="s">
+        <v>1190</v>
+      </c>
+      <c r="N1640" s="3" t="s">
+        <v>2757</v>
+      </c>
+      <c r="O1640" s="2"/>
+      <c r="P1640" s="2" t="s">
+        <v>2764</v>
+      </c>
+      <c r="Q1640" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1641" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1641" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1641" s="3" t="s">
+        <v>2765</v>
+      </c>
+      <c r="M1641" s="2" t="s">
+        <v>1190</v>
+      </c>
+      <c r="N1641" s="3" t="s">
+        <v>2757</v>
+      </c>
+      <c r="O1641" s="2"/>
+      <c r="P1641" s="2" t="s">
+        <v>2766</v>
+      </c>
+      <c r="Q1641" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1642" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1642" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1642" s="2" t="s">
+        <v>2767</v>
+      </c>
+      <c r="M1642" s="2" t="s">
+        <v>1190</v>
+      </c>
+      <c r="N1642" s="3" t="s">
+        <v>2757</v>
+      </c>
+      <c r="O1642" s="2"/>
+      <c r="P1642" s="2" t="s">
+        <v>2768</v>
+      </c>
+      <c r="Q1642" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1643" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1643" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1643" s="2" t="s">
+        <v>2769</v>
+      </c>
+      <c r="M1643" s="2" t="s">
+        <v>1190</v>
+      </c>
+      <c r="N1643" s="3" t="s">
+        <v>2757</v>
+      </c>
+      <c r="O1643" s="2"/>
+      <c r="P1643" s="2" t="s">
+        <v>2770</v>
+      </c>
+      <c r="Q1643" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1644" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1644" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1644" s="2" t="s">
+        <v>2771</v>
+      </c>
+      <c r="M1644" s="2" t="s">
+        <v>1190</v>
+      </c>
+      <c r="N1644" s="3" t="s">
+        <v>2757</v>
+      </c>
+      <c r="O1644" s="2"/>
+      <c r="P1644" s="2" t="s">
+        <v>2772</v>
+      </c>
+      <c r="Q1644" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1645" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1645" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1645" s="2" t="s">
+        <v>2773</v>
+      </c>
+      <c r="M1645" s="2" t="s">
+        <v>1190</v>
+      </c>
+      <c r="N1645" s="3" t="s">
+        <v>2757</v>
+      </c>
+      <c r="O1645" s="2"/>
+      <c r="P1645" s="2" t="s">
+        <v>2774</v>
+      </c>
+      <c r="Q1645" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1646" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1646" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1646" s="2" t="s">
+        <v>2775</v>
+      </c>
+      <c r="M1646" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1646" s="3" t="s">
+        <v>2776</v>
+      </c>
+      <c r="O1646" s="2"/>
+      <c r="P1646" s="2" t="s">
+        <v>2777</v>
+      </c>
+      <c r="Q1646" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1647" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1647" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1647" s="2" t="s">
+        <v>2778</v>
+      </c>
+      <c r="M1647" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1647" s="3" t="s">
+        <v>2776</v>
+      </c>
+      <c r="O1647" s="2"/>
+      <c r="P1647" s="2" t="s">
+        <v>2779</v>
+      </c>
+      <c r="Q1647" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1648" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1648" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1648" s="2" t="s">
+        <v>2780</v>
+      </c>
+      <c r="M1648" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1648" s="3" t="s">
+        <v>2776</v>
+      </c>
+      <c r="O1648" s="2"/>
+      <c r="P1648" s="2" t="s">
+        <v>2781</v>
+      </c>
+      <c r="Q1648" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1649" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1649" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1649" s="2" t="s">
+        <v>2782</v>
+      </c>
+      <c r="M1649" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1649" s="3" t="s">
+        <v>2776</v>
+      </c>
+      <c r="O1649" s="2"/>
+      <c r="P1649" s="2" t="s">
+        <v>2783</v>
+      </c>
+      <c r="Q1649" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1650" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1650" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1650" s="2" t="s">
+        <v>2784</v>
+      </c>
+      <c r="M1650" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1650" s="3" t="s">
+        <v>2776</v>
+      </c>
+      <c r="O1650" s="2"/>
+      <c r="P1650" s="2" t="s">
+        <v>2785</v>
+      </c>
+      <c r="Q1650" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1651" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1651" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1651" s="2" t="s">
+        <v>2784</v>
+      </c>
+      <c r="M1651" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1651" s="3" t="s">
+        <v>2776</v>
+      </c>
+      <c r="O1651" s="2"/>
+      <c r="P1651" s="2" t="s">
+        <v>2786</v>
+      </c>
+      <c r="Q1651" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1652" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1652" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1652" s="2" t="s">
+        <v>2784</v>
+      </c>
+      <c r="M1652" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1652" s="3" t="s">
+        <v>2776</v>
+      </c>
+      <c r="O1652" s="2"/>
+      <c r="P1652" s="2" t="s">
+        <v>2787</v>
+      </c>
+      <c r="Q1652" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1653" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1653" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1653" s="2" t="s">
+        <v>2784</v>
+      </c>
+      <c r="M1653" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1653" s="3" t="s">
+        <v>2776</v>
+      </c>
+      <c r="O1653" s="2"/>
+      <c r="P1653" s="2" t="s">
+        <v>2788</v>
+      </c>
+      <c r="Q1653" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1654" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1654" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1654" s="2" t="s">
+        <v>2784</v>
+      </c>
+      <c r="M1654" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1654" s="3" t="s">
+        <v>2776</v>
+      </c>
+      <c r="O1654" s="2"/>
+      <c r="P1654" s="2" t="s">
+        <v>2789</v>
+      </c>
+      <c r="Q1654" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1655" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1655" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1655" s="2" t="s">
+        <v>2778</v>
+      </c>
+      <c r="M1655" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1655" s="3" t="s">
+        <v>2776</v>
+      </c>
+      <c r="O1655" s="2"/>
+      <c r="P1655" s="2" t="s">
+        <v>2790</v>
+      </c>
+      <c r="Q1655" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1656" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1656" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1656" s="2" t="s">
+        <v>2791</v>
+      </c>
+      <c r="M1656" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1656" s="3" t="s">
+        <v>2776</v>
+      </c>
+      <c r="O1656" s="2"/>
+      <c r="P1656" s="2" t="s">
+        <v>2792</v>
+      </c>
+      <c r="Q1656" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1657" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1657" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1657" s="2" t="s">
+        <v>2793</v>
+      </c>
+      <c r="M1657" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1657" s="3" t="s">
+        <v>2776</v>
+      </c>
+      <c r="O1657" s="2"/>
+      <c r="P1657" s="2" t="s">
+        <v>2794</v>
+      </c>
+      <c r="Q1657" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1658" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1658" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1658" s="2" t="s">
+        <v>2793</v>
+      </c>
+      <c r="M1658" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1658" s="3" t="s">
+        <v>2776</v>
+      </c>
+      <c r="O1658" s="2"/>
+      <c r="P1658" s="2" t="s">
+        <v>2795</v>
+      </c>
+      <c r="Q1658" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1659" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1659" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1659" s="2" t="s">
+        <v>2796</v>
+      </c>
+      <c r="M1659" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1659" s="3" t="s">
+        <v>2776</v>
+      </c>
+      <c r="O1659" s="2"/>
+      <c r="P1659" s="2" t="s">
+        <v>2797</v>
+      </c>
+      <c r="Q1659" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1660" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1660" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1660" s="2" t="s">
+        <v>2798</v>
+      </c>
+      <c r="M1660" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1660" s="3" t="s">
+        <v>2776</v>
+      </c>
+      <c r="O1660" s="2"/>
+      <c r="P1660" s="2" t="s">
+        <v>2799</v>
+      </c>
+      <c r="Q1660" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1661" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1661" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1661" s="2" t="s">
+        <v>2800</v>
+      </c>
+      <c r="M1661" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1661" s="3" t="s">
+        <v>2776</v>
+      </c>
+      <c r="O1661" s="2"/>
+      <c r="P1661" s="2" t="s">
+        <v>2801</v>
+      </c>
+      <c r="Q1661" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1662" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1662" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1662" s="2" t="s">
+        <v>2802</v>
+      </c>
+      <c r="M1662" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1662" s="3" t="s">
+        <v>2776</v>
+      </c>
+      <c r="O1662" s="2"/>
+      <c r="P1662" s="2" t="s">
+        <v>2803</v>
+      </c>
+      <c r="Q1662" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1663" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1663" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1663" s="2" t="s">
+        <v>2804</v>
+      </c>
+      <c r="M1663" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1663" s="3" t="s">
+        <v>2805</v>
+      </c>
+      <c r="O1663" s="2"/>
+      <c r="P1663" s="2" t="s">
+        <v>2806</v>
+      </c>
+      <c r="Q1663" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1664" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1664" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1664" s="2" t="s">
+        <v>2807</v>
+      </c>
+      <c r="M1664" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1664" s="3" t="s">
+        <v>2808</v>
+      </c>
+      <c r="O1664" s="2"/>
+      <c r="P1664" s="2" t="s">
+        <v>2809</v>
+      </c>
+      <c r="Q1664" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1665" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1665" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1665" s="2" t="s">
+        <v>2804</v>
+      </c>
+      <c r="M1665" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1665" s="3" t="s">
+        <v>2808</v>
+      </c>
+      <c r="O1665" s="2"/>
+      <c r="P1665" s="2" t="s">
+        <v>2810</v>
+      </c>
+      <c r="Q1665" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1666" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1666" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1666" s="2" t="s">
+        <v>2811</v>
+      </c>
+      <c r="M1666" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1666" s="3" t="s">
+        <v>2808</v>
+      </c>
+      <c r="O1666" s="2"/>
+      <c r="P1666" s="2" t="s">
+        <v>2812</v>
+      </c>
+      <c r="Q1666" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1667" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1667" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1667" s="2" t="s">
+        <v>2813</v>
+      </c>
+      <c r="M1667" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1667" s="3" t="s">
+        <v>2808</v>
+      </c>
+      <c r="O1667" s="2"/>
+      <c r="P1667" s="2" t="s">
+        <v>2814</v>
+      </c>
+      <c r="Q1667" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1668" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1668" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1668" s="2" t="s">
+        <v>2815</v>
+      </c>
+      <c r="M1668" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1668" s="3" t="s">
+        <v>2808</v>
+      </c>
+      <c r="O1668" s="2"/>
+      <c r="P1668" s="2" t="s">
+        <v>2816</v>
+      </c>
+      <c r="Q1668" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1669" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1669" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1669" s="6" t="s">
+        <v>2817</v>
+      </c>
+      <c r="M1669" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1669" s="3" t="s">
+        <v>2818</v>
+      </c>
+      <c r="O1669" s="2"/>
+      <c r="P1669" s="2" t="s">
+        <v>2819</v>
+      </c>
+      <c r="Q1669" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1670" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1670" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1670" s="2" t="s">
+        <v>2820</v>
+      </c>
+      <c r="M1670" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1670" s="3" t="s">
+        <v>2818</v>
+      </c>
+      <c r="O1670" s="2"/>
+      <c r="P1670" s="2" t="s">
+        <v>2821</v>
+      </c>
+      <c r="Q1670" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1671" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1671" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1671" s="2" t="s">
+        <v>2822</v>
+      </c>
+      <c r="M1671" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1671" s="3" t="s">
+        <v>2818</v>
+      </c>
+      <c r="O1671" s="2"/>
+      <c r="P1671" s="2" t="s">
+        <v>2823</v>
+      </c>
+      <c r="Q1671" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1672" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1672" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1672" s="2" t="s">
+        <v>2822</v>
+      </c>
+      <c r="M1672" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1672" s="3" t="s">
+        <v>2818</v>
+      </c>
+      <c r="O1672" s="2"/>
+      <c r="P1672" s="2" t="s">
+        <v>2824</v>
+      </c>
+      <c r="Q1672" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1673" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1673" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1673" s="2" t="s">
+        <v>2822</v>
+      </c>
+      <c r="M1673" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1673" s="3" t="s">
+        <v>2818</v>
+      </c>
+      <c r="O1673" s="2"/>
+      <c r="P1673" s="2" t="s">
+        <v>2825</v>
+      </c>
+      <c r="Q1673" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1674" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1674" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1674" s="2" t="s">
+        <v>2826</v>
+      </c>
+      <c r="M1674" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1674" s="3" t="s">
+        <v>2818</v>
+      </c>
+      <c r="O1674" s="2"/>
+      <c r="P1674" s="2" t="s">
+        <v>2827</v>
+      </c>
+      <c r="Q1674" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1675" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1675" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1675" s="2" t="s">
+        <v>2828</v>
+      </c>
+      <c r="M1675" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1675" s="3" t="s">
+        <v>2818</v>
+      </c>
+      <c r="O1675" s="2"/>
+      <c r="P1675" s="2" t="s">
+        <v>2829</v>
+      </c>
+      <c r="Q1675" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1676" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1676" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1676" s="2" t="s">
+        <v>2820</v>
+      </c>
+      <c r="M1676" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1676" s="3" t="s">
+        <v>2818</v>
+      </c>
+      <c r="O1676" s="2"/>
+      <c r="P1676" s="2" t="s">
+        <v>2830</v>
+      </c>
+      <c r="Q1676" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1677" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1677" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1677" s="6" t="s">
+        <v>2831</v>
+      </c>
+      <c r="M1677" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1677" s="3" t="s">
+        <v>2818</v>
+      </c>
+      <c r="O1677" s="2"/>
+      <c r="P1677" s="2" t="s">
+        <v>2832</v>
+      </c>
+      <c r="Q1677" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1678" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1678" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1678" s="2" t="s">
+        <v>2833</v>
+      </c>
+      <c r="M1678" s="2" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1678" s="3" t="s">
+        <v>2834</v>
+      </c>
+      <c r="O1678" s="2"/>
+      <c r="P1678" s="2" t="s">
+        <v>2835</v>
+      </c>
+      <c r="Q1678" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1679" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1679" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1679" s="2" t="s">
+        <v>2836</v>
+      </c>
+      <c r="M1679" s="2" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1679" s="3" t="s">
+        <v>2834</v>
+      </c>
+      <c r="O1679" s="2"/>
+      <c r="P1679" s="2" t="s">
+        <v>2837</v>
+      </c>
+      <c r="Q1679" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1680" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1680" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1680" s="2" t="s">
+        <v>2838</v>
+      </c>
+      <c r="M1680" s="2" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1680" s="3" t="s">
+        <v>2834</v>
+      </c>
+      <c r="O1680" s="2"/>
+      <c r="P1680" s="2" t="s">
+        <v>2839</v>
+      </c>
+      <c r="Q1680" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1681" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1681" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1681" s="2" t="s">
+        <v>2840</v>
+      </c>
+      <c r="M1681" s="2" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1681" s="3" t="s">
+        <v>2834</v>
+      </c>
+      <c r="O1681" s="2"/>
+      <c r="P1681" s="2" t="s">
+        <v>2841</v>
+      </c>
+      <c r="Q1681" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1682" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1682" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1682" s="2" t="s">
+        <v>2842</v>
+      </c>
+      <c r="M1682" s="2" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1682" s="3" t="s">
+        <v>2834</v>
+      </c>
+      <c r="O1682" s="2"/>
+      <c r="P1682" s="2" t="s">
+        <v>2843</v>
+      </c>
+      <c r="Q1682" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1683" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1683" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1683" s="2" t="s">
+        <v>2844</v>
+      </c>
+      <c r="M1683" s="2" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1683" s="3" t="s">
+        <v>2834</v>
+      </c>
+      <c r="O1683" s="2"/>
+      <c r="P1683" s="2" t="s">
+        <v>2845</v>
+      </c>
+      <c r="Q1683" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1684" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1684" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1684" s="2" t="s">
+        <v>2846</v>
+      </c>
+      <c r="M1684" s="2" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1684" s="3" t="s">
+        <v>2834</v>
+      </c>
+      <c r="O1684" s="2"/>
+      <c r="P1684" s="2" t="s">
+        <v>2847</v>
+      </c>
+      <c r="Q1684" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1685" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1685" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1685" s="2" t="s">
+        <v>2848</v>
+      </c>
+      <c r="M1685" s="2" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1685" s="3" t="s">
+        <v>2834</v>
+      </c>
+      <c r="O1685" s="2"/>
+      <c r="P1685" s="2" t="s">
+        <v>2849</v>
+      </c>
+      <c r="Q1685" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1686" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1686" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1686" s="2" t="s">
+        <v>2850</v>
+      </c>
+      <c r="M1686" s="2" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1686" s="3" t="s">
+        <v>2834</v>
+      </c>
+      <c r="O1686" s="2"/>
+      <c r="P1686" s="2" t="s">
+        <v>2851</v>
+      </c>
+      <c r="Q1686" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1687" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1687" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1687" s="2" t="s">
+        <v>2852</v>
+      </c>
+      <c r="M1687" s="2" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1687" s="3" t="s">
+        <v>2834</v>
+      </c>
+      <c r="O1687" s="2"/>
+      <c r="P1687" s="2" t="s">
+        <v>2853</v>
+      </c>
+      <c r="Q1687" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1688" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1688" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1688" s="2" t="s">
+        <v>2854</v>
+      </c>
+      <c r="M1688" s="2" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1688" s="3" t="s">
+        <v>2834</v>
+      </c>
+      <c r="O1688" s="2"/>
+      <c r="P1688" s="2" t="s">
+        <v>2855</v>
+      </c>
+      <c r="Q1688" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1689" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1689" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1689" s="2" t="s">
+        <v>2856</v>
+      </c>
+      <c r="M1689" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1689" s="3" t="s">
+        <v>2857</v>
+      </c>
+      <c r="O1689" s="2"/>
+      <c r="P1689" s="2" t="s">
+        <v>2858</v>
+      </c>
+      <c r="Q1689" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1690" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1690" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1690" s="5" t="s">
+        <v>2856</v>
+      </c>
+      <c r="M1690" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1690" s="3" t="s">
+        <v>2857</v>
+      </c>
+      <c r="O1690" s="2"/>
+      <c r="P1690" s="2" t="s">
+        <v>2859</v>
+      </c>
+      <c r="Q1690" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1691" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1691" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1691" s="2" t="s">
+        <v>2860</v>
+      </c>
+      <c r="M1691" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1691" s="3" t="s">
+        <v>2857</v>
+      </c>
+      <c r="O1691" s="2"/>
+      <c r="P1691" s="2" t="s">
+        <v>2861</v>
+      </c>
+      <c r="Q1691" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1692" spans="2:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="B1692" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1692" s="7" t="s">
+        <v>2862</v>
+      </c>
+      <c r="M1692" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1692" s="3" t="s">
+        <v>2857</v>
+      </c>
+      <c r="O1692" s="2"/>
+      <c r="P1692" s="2" t="s">
+        <v>2863</v>
+      </c>
+      <c r="Q1692" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1693" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1693" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1693" s="2" t="s">
+        <v>2864</v>
+      </c>
+      <c r="M1693" s="2" t="s">
+        <v>1650</v>
+      </c>
+      <c r="N1693" s="3" t="s">
+        <v>2865</v>
+      </c>
+      <c r="O1693" s="2"/>
+      <c r="P1693" s="2" t="s">
+        <v>2866</v>
+      </c>
+      <c r="Q1693" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1694" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1694" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1694" s="2" t="s">
+        <v>2867</v>
+      </c>
+      <c r="M1694" s="2" t="s">
+        <v>1650</v>
+      </c>
+      <c r="N1694" s="3" t="s">
+        <v>2865</v>
+      </c>
+      <c r="O1694" s="2"/>
+      <c r="P1694" s="2" t="s">
+        <v>2868</v>
+      </c>
+      <c r="Q1694" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1695" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1695" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1695" s="2" t="s">
+        <v>2869</v>
+      </c>
+      <c r="M1695" s="2" t="s">
+        <v>1650</v>
+      </c>
+      <c r="N1695" s="3" t="s">
+        <v>2865</v>
+      </c>
+      <c r="O1695" s="2"/>
+      <c r="P1695" s="2" t="s">
+        <v>2870</v>
+      </c>
+      <c r="Q1695" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1696" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1696" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1696" s="2" t="s">
+        <v>2871</v>
+      </c>
+      <c r="M1696" s="2" t="s">
+        <v>1650</v>
+      </c>
+      <c r="N1696" s="3" t="s">
+        <v>2865</v>
+      </c>
+      <c r="O1696" s="2"/>
+      <c r="P1696" s="2" t="s">
+        <v>2872</v>
+      </c>
+      <c r="Q1696" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1697" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1697" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1697" s="2" t="s">
+        <v>2873</v>
+      </c>
+      <c r="M1697" s="2" t="s">
+        <v>1650</v>
+      </c>
+      <c r="N1697" s="3" t="s">
+        <v>2865</v>
+      </c>
+      <c r="O1697" s="2"/>
+      <c r="P1697" s="2" t="s">
+        <v>2874</v>
+      </c>
+      <c r="Q1697" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1698" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1698" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1698" s="2" t="s">
+        <v>2875</v>
+      </c>
+      <c r="M1698" s="2" t="s">
+        <v>1650</v>
+      </c>
+      <c r="N1698" s="3" t="s">
+        <v>2876</v>
+      </c>
+      <c r="O1698" s="2"/>
+      <c r="P1698" s="2" t="s">
+        <v>2877</v>
+      </c>
+      <c r="Q1698" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1699" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1699" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1699" s="2" t="s">
+        <v>2878</v>
+      </c>
+      <c r="M1699" s="2" t="s">
+        <v>1650</v>
+      </c>
+      <c r="N1699" s="3" t="s">
+        <v>2876</v>
+      </c>
+      <c r="O1699" s="2"/>
+      <c r="P1699" s="2" t="s">
+        <v>2879</v>
+      </c>
+      <c r="Q1699" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1700" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1700" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1700" s="2" t="s">
+        <v>2880</v>
+      </c>
+      <c r="M1700" s="2" t="s">
+        <v>1650</v>
+      </c>
+      <c r="N1700" s="3" t="s">
+        <v>2876</v>
+      </c>
+      <c r="O1700" s="2"/>
+      <c r="P1700" s="2" t="s">
+        <v>2881</v>
+      </c>
+      <c r="Q1700" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1701" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1701" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1701" s="2" t="s">
+        <v>2882</v>
+      </c>
+      <c r="M1701" s="2" t="s">
+        <v>1650</v>
+      </c>
+      <c r="N1701" s="3" t="s">
+        <v>2876</v>
+      </c>
+      <c r="O1701" s="2"/>
+      <c r="P1701" s="2" t="s">
+        <v>2883</v>
+      </c>
+      <c r="Q1701" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1702" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1702" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1702" s="2" t="s">
+        <v>2884</v>
+      </c>
+      <c r="M1702" s="2" t="s">
+        <v>1650</v>
+      </c>
+      <c r="N1702" s="3" t="s">
+        <v>2876</v>
+      </c>
+      <c r="O1702" s="2"/>
+      <c r="P1702" s="2" t="s">
+        <v>2885</v>
+      </c>
+      <c r="Q1702" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1703" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1703" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1703" s="5" t="s">
+        <v>2884</v>
+      </c>
+      <c r="M1703" s="2" t="s">
+        <v>1650</v>
+      </c>
+      <c r="N1703" s="3" t="s">
+        <v>2876</v>
+      </c>
+      <c r="O1703" s="2"/>
+      <c r="P1703" s="2" t="s">
+        <v>2886</v>
+      </c>
+      <c r="Q1703" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1704" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1704" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1704" s="2" t="s">
+        <v>2887</v>
+      </c>
+      <c r="M1704" s="2" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1704" s="3" t="s">
+        <v>2888</v>
+      </c>
+      <c r="O1704" s="2"/>
+      <c r="P1704" s="2" t="s">
+        <v>2889</v>
+      </c>
+      <c r="Q1704" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1705" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1705" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1705" s="2" t="s">
+        <v>2890</v>
+      </c>
+      <c r="M1705" s="2" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1705" s="3" t="s">
+        <v>2888</v>
+      </c>
+      <c r="O1705" s="2"/>
+      <c r="P1705" s="2" t="s">
+        <v>2891</v>
+      </c>
+      <c r="Q1705" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1706" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1706" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1706" s="2" t="s">
+        <v>2892</v>
+      </c>
+      <c r="M1706" s="2" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1706" s="3" t="s">
+        <v>2888</v>
+      </c>
+      <c r="O1706" s="2"/>
+      <c r="P1706" s="2" t="s">
+        <v>2893</v>
+      </c>
+      <c r="Q1706" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1707" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1707" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1707" s="2" t="s">
+        <v>2894</v>
+      </c>
+      <c r="M1707" s="2" t="s">
+        <v>1190</v>
+      </c>
+      <c r="N1707" s="3" t="s">
+        <v>2895</v>
+      </c>
+      <c r="O1707" s="2"/>
+      <c r="P1707" s="2" t="s">
+        <v>2896</v>
+      </c>
+      <c r="Q1707" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1708" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1708" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1708" s="2" t="s">
+        <v>2897</v>
+      </c>
+      <c r="M1708" s="2" t="s">
+        <v>1190</v>
+      </c>
+      <c r="N1708" s="3" t="s">
+        <v>2895</v>
+      </c>
+      <c r="O1708" s="2"/>
+      <c r="P1708" s="2" t="s">
+        <v>2898</v>
+      </c>
+      <c r="Q1708" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1709" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1709" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1709" s="2" t="s">
+        <v>2899</v>
+      </c>
+      <c r="M1709" s="2" t="s">
+        <v>1190</v>
+      </c>
+      <c r="N1709" s="3" t="s">
+        <v>2895</v>
+      </c>
+      <c r="O1709" s="2"/>
+      <c r="P1709" s="2" t="s">
+        <v>2900</v>
+      </c>
+      <c r="Q1709" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1710" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1710" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1710" s="2" t="s">
+        <v>2901</v>
+      </c>
+      <c r="M1710" s="2" t="s">
+        <v>1190</v>
+      </c>
+      <c r="N1710" s="3" t="s">
+        <v>2895</v>
+      </c>
+      <c r="O1710" s="2"/>
+      <c r="P1710" s="2" t="s">
+        <v>2902</v>
+      </c>
+      <c r="Q1710" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1711" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1711" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1711" s="2" t="s">
+        <v>2903</v>
+      </c>
+      <c r="M1711" s="2" t="s">
+        <v>1190</v>
+      </c>
+      <c r="N1711" s="3" t="s">
+        <v>2895</v>
+      </c>
+      <c r="O1711" s="2"/>
+      <c r="P1711" s="2" t="s">
+        <v>2904</v>
+      </c>
+      <c r="Q1711" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1712" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1712" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1712" s="2" t="s">
+        <v>2905</v>
+      </c>
+      <c r="M1712" s="2" t="s">
+        <v>1190</v>
+      </c>
+      <c r="N1712" s="3" t="s">
+        <v>2895</v>
+      </c>
+      <c r="O1712" s="2"/>
+      <c r="P1712" s="2" t="s">
+        <v>2906</v>
+      </c>
+      <c r="Q1712" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1713" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1713" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1713" s="2" t="s">
+        <v>2907</v>
+      </c>
+      <c r="M1713" s="2" t="s">
+        <v>1190</v>
+      </c>
+      <c r="N1713" s="3" t="s">
+        <v>2895</v>
+      </c>
+      <c r="O1713" s="2"/>
+      <c r="P1713" s="2" t="s">
+        <v>2908</v>
+      </c>
+      <c r="Q1713" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1714" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1714" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1714" s="2" t="s">
+        <v>2909</v>
+      </c>
+      <c r="M1714" s="2" t="s">
+        <v>1190</v>
+      </c>
+      <c r="N1714" s="3" t="s">
+        <v>2895</v>
+      </c>
+      <c r="O1714" s="2"/>
+      <c r="P1714" s="2" t="s">
+        <v>2910</v>
+      </c>
+      <c r="Q1714" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1715" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1715" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1715" s="2" t="s">
+        <v>2911</v>
+      </c>
+      <c r="M1715" s="2" t="s">
+        <v>1190</v>
+      </c>
+      <c r="N1715" s="3" t="s">
+        <v>2895</v>
+      </c>
+      <c r="O1715" s="2"/>
+      <c r="P1715" s="2" t="s">
+        <v>2912</v>
+      </c>
+      <c r="Q1715" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1716" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1716" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1716" s="2" t="s">
+        <v>2913</v>
+      </c>
+      <c r="M1716" s="2" t="s">
+        <v>1190</v>
+      </c>
+      <c r="N1716" s="3" t="s">
+        <v>2895</v>
+      </c>
+      <c r="O1716" s="2"/>
+      <c r="P1716" s="2" t="s">
+        <v>2914</v>
+      </c>
+      <c r="Q1716" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1717" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1717" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1717" s="2" t="s">
+        <v>2664</v>
+      </c>
+      <c r="M1717" s="2" t="s">
+        <v>1190</v>
+      </c>
+      <c r="N1717" s="3" t="s">
+        <v>2895</v>
+      </c>
+      <c r="O1717" s="2"/>
+      <c r="P1717" s="2" t="s">
+        <v>2915</v>
+      </c>
+      <c r="Q1717" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1718" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1718" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1718" s="2" t="s">
+        <v>2913</v>
+      </c>
+      <c r="M1718" s="2" t="s">
+        <v>1190</v>
+      </c>
+      <c r="N1718" s="3" t="s">
+        <v>2895</v>
+      </c>
+      <c r="O1718" s="2"/>
+      <c r="P1718" s="2" t="s">
+        <v>2916</v>
+      </c>
+      <c r="Q1718" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1719" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1719" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1719" s="2" t="s">
+        <v>2618</v>
+      </c>
+      <c r="M1719" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1719" s="3" t="s">
+        <v>2917</v>
+      </c>
+      <c r="O1719" s="2"/>
+      <c r="P1719" s="2" t="s">
+        <v>2918</v>
+      </c>
+      <c r="Q1719" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1720" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1720" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1720" s="5" t="s">
+        <v>2618</v>
+      </c>
+      <c r="M1720" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1720" s="3" t="s">
+        <v>2917</v>
+      </c>
+      <c r="O1720" s="2"/>
+      <c r="P1720" s="2" t="s">
+        <v>2919</v>
+      </c>
+      <c r="Q1720" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1721" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1721" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1721" s="2" t="s">
+        <v>2920</v>
+      </c>
+      <c r="M1721" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1721" s="3" t="s">
+        <v>2917</v>
+      </c>
+      <c r="O1721" s="2"/>
+      <c r="P1721" s="2" t="s">
+        <v>2921</v>
+      </c>
+      <c r="Q1721" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1722" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1722" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1722" s="2" t="s">
+        <v>2922</v>
+      </c>
+      <c r="M1722" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1722" s="3" t="s">
+        <v>2917</v>
+      </c>
+      <c r="O1722" s="2"/>
+      <c r="P1722" s="2" t="s">
+        <v>2923</v>
+      </c>
+      <c r="Q1722" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1723" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1723" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1723" s="2" t="s">
+        <v>2924</v>
+      </c>
+      <c r="M1723" s="2" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1723" s="3" t="s">
+        <v>2925</v>
+      </c>
+      <c r="O1723" s="2"/>
+      <c r="P1723" s="2" t="s">
+        <v>2926</v>
+      </c>
+      <c r="Q1723" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1724" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1724" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1724" s="2" t="s">
+        <v>2924</v>
+      </c>
+      <c r="M1724" s="2" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1724" s="3" t="s">
+        <v>2925</v>
+      </c>
+      <c r="O1724" s="2"/>
+      <c r="P1724" s="2" t="s">
+        <v>2927</v>
+      </c>
+      <c r="Q1724" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1725" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1725" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1725" s="2" t="s">
+        <v>2615</v>
+      </c>
+      <c r="M1725" s="2" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1725" s="3" t="s">
+        <v>2925</v>
+      </c>
+      <c r="O1725" s="2"/>
+      <c r="P1725" s="2" t="s">
+        <v>2928</v>
+      </c>
+      <c r="Q1725" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1726" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1726" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1726" s="2" t="s">
+        <v>2929</v>
+      </c>
+      <c r="M1726" s="2" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1726" s="3" t="s">
+        <v>2925</v>
+      </c>
+      <c r="O1726" s="2"/>
+      <c r="P1726" s="2" t="s">
+        <v>2930</v>
+      </c>
+      <c r="Q1726" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1727" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1727" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1727" s="2" t="s">
+        <v>2929</v>
+      </c>
+      <c r="M1727" s="2" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1727" s="3" t="s">
+        <v>2925</v>
+      </c>
+      <c r="O1727" s="2"/>
+      <c r="P1727" s="2" t="s">
+        <v>2931</v>
+      </c>
+      <c r="Q1727" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1728" spans="2:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="B1728" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1728" s="3" t="s">
+        <v>2932</v>
+      </c>
+      <c r="M1728" s="2" t="s">
+        <v>1190</v>
+      </c>
+      <c r="N1728" s="3" t="s">
+        <v>2933</v>
+      </c>
+      <c r="O1728" s="8"/>
+      <c r="P1728" s="9" t="s">
+        <v>2934</v>
+      </c>
+      <c r="Q1728" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1729" spans="2:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="B1729" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1729" s="3" t="s">
+        <v>2935</v>
+      </c>
+      <c r="M1729" s="2" t="s">
+        <v>1190</v>
+      </c>
+      <c r="N1729" s="3" t="s">
+        <v>2933</v>
+      </c>
+      <c r="O1729" s="2"/>
+      <c r="P1729" s="9" t="s">
+        <v>2936</v>
+      </c>
+      <c r="Q1729" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1730" spans="2:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="B1730" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1730" s="3" t="s">
+        <v>2937</v>
+      </c>
+      <c r="M1730" s="2" t="s">
+        <v>1190</v>
+      </c>
+      <c r="N1730" s="3" t="s">
+        <v>2933</v>
+      </c>
+      <c r="O1730" s="2"/>
+      <c r="P1730" s="9" t="s">
+        <v>2938</v>
+      </c>
+      <c r="Q1730" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1731" spans="2:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="B1731" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1731" s="5" t="s">
+        <v>2939</v>
+      </c>
+      <c r="M1731" s="2" t="s">
+        <v>1190</v>
+      </c>
+      <c r="N1731" s="3" t="s">
+        <v>2933</v>
+      </c>
+      <c r="O1731" s="2"/>
+      <c r="P1731" s="9" t="s">
+        <v>2940</v>
+      </c>
+      <c r="Q1731" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1732" spans="2:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="B1732" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1732" s="3" t="s">
+        <v>2941</v>
+      </c>
+      <c r="M1732" s="2" t="s">
+        <v>1190</v>
+      </c>
+      <c r="N1732" s="3" t="s">
+        <v>2933</v>
+      </c>
+      <c r="O1732" s="2"/>
+      <c r="P1732" s="9" t="s">
+        <v>2942</v>
+      </c>
+      <c r="Q1732" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1733" spans="2:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="B1733" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1733" s="3" t="s">
+        <v>2943</v>
+      </c>
+      <c r="M1733" s="2" t="s">
+        <v>1190</v>
+      </c>
+      <c r="N1733" s="3" t="s">
+        <v>2933</v>
+      </c>
+      <c r="O1733" s="2"/>
+      <c r="P1733" s="9" t="s">
+        <v>2944</v>
+      </c>
+      <c r="Q1733" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1734" spans="2:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="B1734" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1734" s="3" t="s">
+        <v>2945</v>
+      </c>
+      <c r="M1734" s="2" t="s">
+        <v>1190</v>
+      </c>
+      <c r="N1734" s="3" t="s">
+        <v>2933</v>
+      </c>
+      <c r="O1734" s="2"/>
+      <c r="P1734" s="9" t="s">
+        <v>2946</v>
+      </c>
+      <c r="Q1734" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1735" spans="2:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="B1735" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1735" s="3" t="s">
+        <v>2947</v>
+      </c>
+      <c r="M1735" s="2" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1735" s="3" t="s">
+        <v>2948</v>
+      </c>
+      <c r="O1735" s="2"/>
+      <c r="P1735" s="9" t="s">
+        <v>2949</v>
+      </c>
+      <c r="Q1735" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1736" spans="2:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="B1736" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1736" s="5" t="s">
+        <v>2950</v>
+      </c>
+      <c r="M1736" s="2" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1736" s="3" t="s">
+        <v>2948</v>
+      </c>
+      <c r="O1736" s="2"/>
+      <c r="P1736" s="9" t="s">
+        <v>2951</v>
+      </c>
+      <c r="Q1736" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1737" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1737" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1737" s="2" t="s">
+        <v>2950</v>
+      </c>
+      <c r="M1737" s="2" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1737" s="3" t="s">
+        <v>2948</v>
+      </c>
+      <c r="O1737" s="2"/>
+      <c r="P1737" s="2" t="s">
+        <v>2952</v>
+      </c>
+      <c r="Q1737" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1738" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1738" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1738" s="3" t="s">
+        <v>2953</v>
+      </c>
+      <c r="M1738" s="2" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1738" s="3" t="s">
+        <v>2948</v>
+      </c>
+      <c r="O1738" s="2"/>
+      <c r="P1738" s="2" t="s">
+        <v>2954</v>
+      </c>
+      <c r="Q1738" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1739" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1739" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1739" s="2" t="s">
+        <v>2950</v>
+      </c>
+      <c r="M1739" s="2" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1739" s="3" t="s">
+        <v>2948</v>
+      </c>
+      <c r="O1739" s="2"/>
+      <c r="P1739" s="2" t="s">
+        <v>2955</v>
+      </c>
+      <c r="Q1739" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1740" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1740" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1740" s="3" t="s">
+        <v>2956</v>
+      </c>
+      <c r="M1740" s="2" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1740" s="3" t="s">
+        <v>2948</v>
+      </c>
+      <c r="O1740" s="2"/>
+      <c r="P1740" s="2" t="s">
+        <v>2957</v>
+      </c>
+      <c r="Q1740" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1741" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1741" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1741" s="3" t="s">
+        <v>2958</v>
+      </c>
+      <c r="M1741" s="2" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1741" s="3" t="s">
+        <v>2948</v>
+      </c>
+      <c r="O1741" s="2"/>
+      <c r="P1741" s="2" t="s">
+        <v>2959</v>
+      </c>
+      <c r="Q1741" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1742" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1742" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1742" s="3" t="s">
+        <v>2960</v>
+      </c>
+      <c r="M1742" s="2" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1742" s="3" t="s">
+        <v>2948</v>
+      </c>
+      <c r="O1742" s="2"/>
+      <c r="P1742" s="2" t="s">
+        <v>2961</v>
+      </c>
+      <c r="Q1742" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1743" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1743" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1743" s="3" t="s">
+        <v>2962</v>
+      </c>
+      <c r="M1743" s="2" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1743" s="3" t="s">
+        <v>2948</v>
+      </c>
+      <c r="O1743" s="2"/>
+      <c r="P1743" s="2" t="s">
+        <v>2963</v>
+      </c>
+      <c r="Q1743" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1744" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1744" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1744" s="2" t="s">
+        <v>2964</v>
+      </c>
+      <c r="M1744" s="2" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1744" s="3" t="s">
+        <v>2948</v>
+      </c>
+      <c r="O1744" s="2"/>
+      <c r="P1744" s="2" t="s">
+        <v>2965</v>
+      </c>
+      <c r="Q1744" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1745" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1745" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1745" s="2" t="s">
+        <v>2966</v>
+      </c>
+      <c r="M1745" s="2" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1745" s="3" t="s">
+        <v>2948</v>
+      </c>
+      <c r="O1745" s="2"/>
+      <c r="P1745" s="2" t="s">
+        <v>2967</v>
+      </c>
+      <c r="Q1745" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1746" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1746" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1746" s="3" t="s">
+        <v>2964</v>
+      </c>
+      <c r="M1746" s="2" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1746" s="3" t="s">
+        <v>2948</v>
+      </c>
+      <c r="O1746" s="2"/>
+      <c r="P1746" s="2" t="s">
+        <v>2968</v>
+      </c>
+      <c r="Q1746" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1747" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1747" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1747" s="3" t="s">
+        <v>2969</v>
+      </c>
+      <c r="M1747" s="2" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1747" s="3" t="s">
+        <v>2948</v>
+      </c>
+      <c r="O1747" s="2"/>
+      <c r="P1747" s="2" t="s">
+        <v>2970</v>
+      </c>
+      <c r="Q1747" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1748" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1748" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1748" s="3" t="s">
+        <v>2971</v>
+      </c>
+      <c r="M1748" s="2" t="s">
+        <v>1080</v>
+      </c>
+      <c r="N1748" s="3" t="s">
+        <v>2972</v>
+      </c>
+      <c r="O1748" s="2"/>
+      <c r="P1748" s="2" t="s">
+        <v>2973</v>
+      </c>
+      <c r="Q1748" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1749" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1749" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1749" s="3" t="s">
+        <v>1051</v>
+      </c>
+      <c r="M1749" s="2" t="s">
+        <v>1080</v>
+      </c>
+      <c r="N1749" s="3" t="s">
+        <v>2972</v>
+      </c>
+      <c r="O1749" s="2"/>
+      <c r="P1749" s="2" t="s">
+        <v>2974</v>
+      </c>
+      <c r="Q1749" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1750" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1750" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1750" s="3" t="s">
+        <v>2975</v>
+      </c>
+      <c r="M1750" s="2" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1750" s="3" t="s">
+        <v>2976</v>
+      </c>
+      <c r="O1750" s="2"/>
+      <c r="P1750" s="2" t="s">
+        <v>2977</v>
+      </c>
+      <c r="Q1750" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1751" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1751" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1751" s="3" t="s">
+        <v>2978</v>
+      </c>
+      <c r="M1751" s="2" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1751" s="3" t="s">
+        <v>2976</v>
+      </c>
+      <c r="O1751" s="2"/>
+      <c r="P1751" s="2" t="s">
+        <v>2979</v>
+      </c>
+      <c r="Q1751" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1752" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1752" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1752" s="3" t="s">
+        <v>2978</v>
+      </c>
+      <c r="M1752" s="2" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1752" s="3" t="s">
+        <v>2976</v>
+      </c>
+      <c r="O1752" s="2"/>
+      <c r="P1752" s="2" t="s">
+        <v>2980</v>
+      </c>
+      <c r="Q1752" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1753" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1753" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1753" s="2" t="s">
+        <v>2978</v>
+      </c>
+      <c r="M1753" s="2" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1753" s="3" t="s">
+        <v>2976</v>
+      </c>
+      <c r="O1753" s="2"/>
+      <c r="P1753" s="2" t="s">
+        <v>2981</v>
+      </c>
+      <c r="Q1753" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1754" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1754" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1754" s="3" t="s">
+        <v>2982</v>
+      </c>
+      <c r="M1754" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="N1754" s="3" t="s">
+        <v>2983</v>
+      </c>
+      <c r="O1754" s="2"/>
+      <c r="P1754" s="2" t="s">
+        <v>2984</v>
+      </c>
+      <c r="Q1754" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1755" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1755" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1755" s="3" t="s">
+        <v>2985</v>
+      </c>
+      <c r="M1755" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="N1755" s="3" t="s">
+        <v>2983</v>
+      </c>
+      <c r="O1755" s="2"/>
+      <c r="P1755" s="2" t="s">
+        <v>2986</v>
+      </c>
+      <c r="Q1755" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1756" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1756" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1756" s="3" t="s">
+        <v>2987</v>
+      </c>
+      <c r="M1756" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="N1756" s="3" t="s">
+        <v>2983</v>
+      </c>
+      <c r="O1756" s="2"/>
+      <c r="P1756" s="2" t="s">
+        <v>2988</v>
+      </c>
+      <c r="Q1756" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1757" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1757" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1757" s="3" t="s">
+        <v>2989</v>
+      </c>
+      <c r="M1757" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="N1757" s="3" t="s">
+        <v>2983</v>
+      </c>
+      <c r="O1757" s="2"/>
+      <c r="P1757" s="2" t="s">
+        <v>2990</v>
+      </c>
+      <c r="Q1757" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -75459,6 +79809,186 @@
     <hyperlink ref="N1600" r:id="rId59"/>
     <hyperlink ref="N1601" r:id="rId60"/>
     <hyperlink ref="N1602" r:id="rId61"/>
+    <hyperlink ref="N1603" r:id="rId62"/>
+    <hyperlink ref="N1604" r:id="rId63"/>
+    <hyperlink ref="N1605" r:id="rId64"/>
+    <hyperlink ref="N1606" r:id="rId65"/>
+    <hyperlink ref="N1607" r:id="rId66"/>
+    <hyperlink ref="N1608" r:id="rId67"/>
+    <hyperlink ref="N1609" r:id="rId68"/>
+    <hyperlink ref="N1610" r:id="rId69"/>
+    <hyperlink ref="N1611" r:id="rId70"/>
+    <hyperlink ref="N1612" r:id="rId71"/>
+    <hyperlink ref="N1613" r:id="rId72"/>
+    <hyperlink ref="N1614" r:id="rId73"/>
+    <hyperlink ref="N1615" r:id="rId74"/>
+    <hyperlink ref="N1616" r:id="rId75"/>
+    <hyperlink ref="N1617" r:id="rId76"/>
+    <hyperlink ref="N1618" r:id="rId77"/>
+    <hyperlink ref="N1619" r:id="rId78"/>
+    <hyperlink ref="N1620" r:id="rId79"/>
+    <hyperlink ref="N1621" r:id="rId80"/>
+    <hyperlink ref="N1622" r:id="rId81"/>
+    <hyperlink ref="N1623" r:id="rId82"/>
+    <hyperlink ref="N1624" r:id="rId83"/>
+    <hyperlink ref="N1625" r:id="rId84"/>
+    <hyperlink ref="N1626" r:id="rId85"/>
+    <hyperlink ref="N1627" r:id="rId86"/>
+    <hyperlink ref="N1628" r:id="rId87"/>
+    <hyperlink ref="N1629" r:id="rId88"/>
+    <hyperlink ref="N1630" r:id="rId89"/>
+    <hyperlink ref="N1631" r:id="rId90"/>
+    <hyperlink ref="N1632" r:id="rId91"/>
+    <hyperlink ref="N1633" r:id="rId92"/>
+    <hyperlink ref="P1633" r:id="rId93"/>
+    <hyperlink ref="N1634" r:id="rId94"/>
+    <hyperlink ref="N1635" r:id="rId95"/>
+    <hyperlink ref="N1636" r:id="rId96"/>
+    <hyperlink ref="N1637" r:id="rId97"/>
+    <hyperlink ref="N1638" r:id="rId98"/>
+    <hyperlink ref="N1639" r:id="rId99"/>
+    <hyperlink ref="N1640" r:id="rId100"/>
+    <hyperlink ref="L1641" r:id="rId101"/>
+    <hyperlink ref="N1641" r:id="rId102"/>
+    <hyperlink ref="N1642" r:id="rId103"/>
+    <hyperlink ref="N1643" r:id="rId104"/>
+    <hyperlink ref="N1644" r:id="rId105"/>
+    <hyperlink ref="N1645" r:id="rId106"/>
+    <hyperlink ref="N1646" r:id="rId107"/>
+    <hyperlink ref="N1647" r:id="rId108"/>
+    <hyperlink ref="N1648" r:id="rId109"/>
+    <hyperlink ref="N1649" r:id="rId110"/>
+    <hyperlink ref="N1650" r:id="rId111"/>
+    <hyperlink ref="N1651" r:id="rId112"/>
+    <hyperlink ref="N1652" r:id="rId113"/>
+    <hyperlink ref="N1653" r:id="rId114"/>
+    <hyperlink ref="N1654" r:id="rId115"/>
+    <hyperlink ref="N1655" r:id="rId116"/>
+    <hyperlink ref="N1656" r:id="rId117"/>
+    <hyperlink ref="N1657" r:id="rId118"/>
+    <hyperlink ref="N1658" r:id="rId119"/>
+    <hyperlink ref="N1659" r:id="rId120"/>
+    <hyperlink ref="N1660" r:id="rId121"/>
+    <hyperlink ref="N1661" r:id="rId122"/>
+    <hyperlink ref="N1662" r:id="rId123"/>
+    <hyperlink ref="N1663" r:id="rId124"/>
+    <hyperlink ref="N1664" r:id="rId125"/>
+    <hyperlink ref="N1665" r:id="rId126"/>
+    <hyperlink ref="N1666" r:id="rId127"/>
+    <hyperlink ref="N1667" r:id="rId128"/>
+    <hyperlink ref="N1668" r:id="rId129"/>
+    <hyperlink ref="N1669" r:id="rId130"/>
+    <hyperlink ref="N1670" r:id="rId131"/>
+    <hyperlink ref="N1671" r:id="rId132"/>
+    <hyperlink ref="N1672" r:id="rId133"/>
+    <hyperlink ref="N1673" r:id="rId134"/>
+    <hyperlink ref="N1674" r:id="rId135"/>
+    <hyperlink ref="N1675" r:id="rId136"/>
+    <hyperlink ref="N1676" r:id="rId137"/>
+    <hyperlink ref="N1677" r:id="rId138"/>
+    <hyperlink ref="N1678" r:id="rId139"/>
+    <hyperlink ref="N1679" r:id="rId140"/>
+    <hyperlink ref="N1680" r:id="rId141"/>
+    <hyperlink ref="N1681" r:id="rId142"/>
+    <hyperlink ref="N1682" r:id="rId143"/>
+    <hyperlink ref="N1683" r:id="rId144"/>
+    <hyperlink ref="N1684" r:id="rId145"/>
+    <hyperlink ref="N1685" r:id="rId146"/>
+    <hyperlink ref="N1686" r:id="rId147"/>
+    <hyperlink ref="N1687" r:id="rId148"/>
+    <hyperlink ref="N1688" r:id="rId149"/>
+    <hyperlink ref="N1689" r:id="rId150"/>
+    <hyperlink ref="N1690" r:id="rId151"/>
+    <hyperlink ref="N1691" r:id="rId152"/>
+    <hyperlink ref="N1692" r:id="rId153"/>
+    <hyperlink ref="N1693" r:id="rId154"/>
+    <hyperlink ref="N1694" r:id="rId155"/>
+    <hyperlink ref="N1695" r:id="rId156"/>
+    <hyperlink ref="N1696" r:id="rId157"/>
+    <hyperlink ref="N1697" r:id="rId158"/>
+    <hyperlink ref="N1698" r:id="rId159"/>
+    <hyperlink ref="N1699" r:id="rId160"/>
+    <hyperlink ref="N1700" r:id="rId161"/>
+    <hyperlink ref="N1701" r:id="rId162"/>
+    <hyperlink ref="N1702" r:id="rId163"/>
+    <hyperlink ref="N1703" r:id="rId164"/>
+    <hyperlink ref="N1704" r:id="rId165"/>
+    <hyperlink ref="N1705" r:id="rId166"/>
+    <hyperlink ref="N1706" r:id="rId167"/>
+    <hyperlink ref="N1707" r:id="rId168"/>
+    <hyperlink ref="N1708" r:id="rId169"/>
+    <hyperlink ref="N1709" r:id="rId170"/>
+    <hyperlink ref="N1710" r:id="rId171"/>
+    <hyperlink ref="N1711" r:id="rId172"/>
+    <hyperlink ref="N1712" r:id="rId173"/>
+    <hyperlink ref="N1713" r:id="rId174"/>
+    <hyperlink ref="N1714" r:id="rId175"/>
+    <hyperlink ref="N1715" r:id="rId176"/>
+    <hyperlink ref="N1716" r:id="rId177"/>
+    <hyperlink ref="N1717" r:id="rId178"/>
+    <hyperlink ref="N1718" r:id="rId179"/>
+    <hyperlink ref="N1719" r:id="rId180"/>
+    <hyperlink ref="N1720" r:id="rId181"/>
+    <hyperlink ref="N1721" r:id="rId182"/>
+    <hyperlink ref="N1722" r:id="rId183"/>
+    <hyperlink ref="N1723" r:id="rId184"/>
+    <hyperlink ref="N1724" r:id="rId185"/>
+    <hyperlink ref="N1725" r:id="rId186"/>
+    <hyperlink ref="N1726" r:id="rId187"/>
+    <hyperlink ref="N1727" r:id="rId188"/>
+    <hyperlink ref="L1728" r:id="rId189"/>
+    <hyperlink ref="N1728" r:id="rId190"/>
+    <hyperlink ref="L1729" r:id="rId191"/>
+    <hyperlink ref="N1729" r:id="rId192"/>
+    <hyperlink ref="L1730" r:id="rId193"/>
+    <hyperlink ref="N1730" r:id="rId194"/>
+    <hyperlink ref="N1731" r:id="rId195"/>
+    <hyperlink ref="L1732" r:id="rId196"/>
+    <hyperlink ref="N1732" r:id="rId197"/>
+    <hyperlink ref="L1733" r:id="rId198"/>
+    <hyperlink ref="N1733" r:id="rId199"/>
+    <hyperlink ref="L1734" r:id="rId200"/>
+    <hyperlink ref="N1734" r:id="rId201"/>
+    <hyperlink ref="L1735" r:id="rId202"/>
+    <hyperlink ref="N1735" r:id="rId203"/>
+    <hyperlink ref="N1736" r:id="rId204"/>
+    <hyperlink ref="N1737" r:id="rId205"/>
+    <hyperlink ref="L1738" r:id="rId206"/>
+    <hyperlink ref="N1738" r:id="rId207"/>
+    <hyperlink ref="N1739" r:id="rId208"/>
+    <hyperlink ref="L1740" r:id="rId209"/>
+    <hyperlink ref="N1740" r:id="rId210"/>
+    <hyperlink ref="L1741" r:id="rId211"/>
+    <hyperlink ref="N1741" r:id="rId212"/>
+    <hyperlink ref="L1742" r:id="rId213"/>
+    <hyperlink ref="N1742" r:id="rId214"/>
+    <hyperlink ref="L1743" r:id="rId215"/>
+    <hyperlink ref="N1743" r:id="rId216"/>
+    <hyperlink ref="N1744" r:id="rId217"/>
+    <hyperlink ref="N1745" r:id="rId218"/>
+    <hyperlink ref="L1746" r:id="rId219"/>
+    <hyperlink ref="N1746" r:id="rId220"/>
+    <hyperlink ref="L1747" r:id="rId221"/>
+    <hyperlink ref="N1747" r:id="rId222"/>
+    <hyperlink ref="L1748" r:id="rId223"/>
+    <hyperlink ref="N1748" r:id="rId224"/>
+    <hyperlink ref="L1749" r:id="rId225"/>
+    <hyperlink ref="N1749" r:id="rId226"/>
+    <hyperlink ref="L1750" r:id="rId227"/>
+    <hyperlink ref="N1750" r:id="rId228"/>
+    <hyperlink ref="L1751" r:id="rId229"/>
+    <hyperlink ref="N1751" r:id="rId230"/>
+    <hyperlink ref="L1752" r:id="rId231"/>
+    <hyperlink ref="N1752" r:id="rId232"/>
+    <hyperlink ref="N1753" r:id="rId233"/>
+    <hyperlink ref="L1754" r:id="rId234"/>
+    <hyperlink ref="N1754" r:id="rId235"/>
+    <hyperlink ref="L1755" r:id="rId236"/>
+    <hyperlink ref="N1755" r:id="rId237"/>
+    <hyperlink ref="L1756" r:id="rId238"/>
+    <hyperlink ref="N1756" r:id="rId239"/>
+    <hyperlink ref="L1757" r:id="rId240"/>
+    <hyperlink ref="N1757" r:id="rId241"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/webserver/model_data/TrainingData_ml.xlsx
+++ b/webserver/model_data/TrainingData_ml.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16323" uniqueCount="2991">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17598" uniqueCount="3445">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -9023,6 +9023,1369 @@
   </si>
   <si>
     <t>Das war er nicht, das wird ihm nicht gerecht, so ein Beitrag hat er nicht verdient.</t>
+  </si>
+  <si>
+    <t>Luisa Neubauer kommt aus einer reichen Familie</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> und wird von den wirtschaftlichen Folgen der Corona Krise genau so wenig betroffen sein,</t>
+  </si>
+  <si>
+    <t>Sie gehört einer kleinen Gesellschaftsschicht an, die immer wie das Fett
+in der Suppe oben schwimmt.</t>
+  </si>
+  <si>
+    <t>Werner Jost</t>
+  </si>
+  <si>
+    <t>https://jungefreiheit.de/kultur/gesellschaft/2020/neubauer-aus-coronakrise-fuer-klimakrise-lernen/</t>
+  </si>
+  <si>
+    <t>Ja typisch Luisa</t>
+  </si>
+  <si>
+    <t>Ratio1</t>
+  </si>
+  <si>
+    <t>Was für geistig arme junge FfF-Frauen, schade um Deutschland Zukunft</t>
+  </si>
+  <si>
+    <t>Das dumme, verwöhnte Mädel soll in die Schule gehen und endlich mal was lernen</t>
+  </si>
+  <si>
+    <t>Münchner</t>
+  </si>
+  <si>
+    <t>Es gibt in der Politik schon genügend Dammschwätzer, da braucht man sie nicht auch noch.</t>
+  </si>
+  <si>
+    <t>Links-Rot-Grün und „Gegen-Rechts“ ist so dämlich, daß sie nicht mal den jetzigen Warnschuss Corona verstehen und daraus lernen was wirklich wichtig is</t>
+  </si>
+  <si>
+    <t>Liebe Italiener, jetzt mal die große Klappe halten</t>
+  </si>
+  <si>
+    <t>https://jungefreiheit.de/politik/ausland/2020/italien-geeint-in-der-wut-auf-deutschland/</t>
+  </si>
+  <si>
+    <t>Euer Sparvermögen ist deutlich höher als das der Deutschen</t>
+  </si>
+  <si>
+    <t>Die meisten von euch Wohnen im Eigentum und euer Renteneintrittsalter ist geringer als wie in Deutschland</t>
+  </si>
+  <si>
+    <t>Also hier nicht auf hohen Niveau jammern, sondern mal anpacken und länger arbeiten</t>
+  </si>
+  <si>
+    <t>Die EU ist in meinen Augen als Wirtschaftsgemeinschaft ein sehr sinnvolles Konstrukt – als EWG ist sie ja auch gestartet</t>
+  </si>
+  <si>
+    <t>Wertkonservativer Akademiker</t>
+  </si>
+  <si>
+    <t>Wirklich kritisch war aber erst die Einführung des Euro.</t>
+  </si>
+  <si>
+    <t>Hinter den Bonds steht nichts anderes als die Erwartung von Ländern wie Italien, dass die leistungsfähigeren Staaten sie durchfüttern sollen</t>
+  </si>
+  <si>
+    <t>In Deutschland sind es Bundesländer wie Berlin oder Bremen, in der EU Länder wie Italien oder Griechenland, die für sich das Recht in Anspruch nehmen, über ihre Verhältnisse zu leben</t>
+  </si>
+  <si>
+    <t>Und an uns hat auch keiner Forderungen zu richten !</t>
+  </si>
+  <si>
+    <t>Ich kann da nur sagen : „Selbst schuld“ !!!!!</t>
+  </si>
+  <si>
+    <t>Und vor allem die Deutschen mit ihrem Schuldkult und ihrer daraus resultierenden Hypermoral</t>
+  </si>
+  <si>
+    <t>Wenn Politiker und Journalisten überall mit ihrer „unseligen Vergangenheit“ hausieren gehen</t>
+  </si>
+  <si>
+    <t>Und wer hat heute das Sagen ? Gefallsüchtige Narren !</t>
+  </si>
+  <si>
+    <t>Ich finde Ihren Kommentar hervorragend.</t>
+  </si>
+  <si>
+    <t>https://www.achgut.com/artikel/mein_abstand_zu_trump_und_bolsonaro</t>
+  </si>
+  <si>
+    <t>Da mag einiges richtig sein an der Analyse</t>
+  </si>
+  <si>
+    <t>Bruno Didrichsons</t>
+  </si>
+  <si>
+    <t>Gut gebrüllt, Löwe Zeyer !</t>
+  </si>
+  <si>
+    <t>Karla Neumann</t>
+  </si>
+  <si>
+    <t>Das hat Vorbildcharakter, der Artikel auch.</t>
+  </si>
+  <si>
+    <t>Eugen Richter</t>
+  </si>
+  <si>
+    <t>Ich muss zugeben, daß mir die Arbeit von Lav Diaz bisher noch unbekannt war.</t>
+  </si>
+  <si>
+    <t>xl</t>
+  </si>
+  <si>
+    <t>https://www.zeit.de/2020/15/norte-the-end-of-history-lav-diaz-stream</t>
+  </si>
+  <si>
+    <t>Vielen Dank für den Tipp</t>
+  </si>
+  <si>
+    <t>Sorry, ich habe mich verrechnet.</t>
+  </si>
+  <si>
+    <t>shantivanille</t>
+  </si>
+  <si>
+    <t>Bei denen gehe ich allerdings tatsächlich davon aus, dass ihnen die Problematik klar ist</t>
+  </si>
+  <si>
+    <t>Aber bitte die Rechnung fair machen und nicht nur zu Lasten der neuen Technik</t>
+  </si>
+  <si>
+    <t>RFC2460</t>
+  </si>
+  <si>
+    <t>Natürlich kostet Streaming CO2</t>
+  </si>
+  <si>
+    <t>Kommt halt immer darauf an, was man persönlich gerne macht.</t>
+  </si>
+  <si>
+    <t>Sie haben mich bei meinen Vorurteilen gegenüber Tellkamp ertappt</t>
+  </si>
+  <si>
+    <t>Daniel Petters</t>
+  </si>
+  <si>
+    <t>https://www.zeit.de/2020/15/uwe-tellkamp-das-atelier-kritik-rechtspopulismus/seite-2</t>
+  </si>
+  <si>
+    <t>Sie differenzieren auf entwaffnende Weise</t>
+  </si>
+  <si>
+    <t>Die FDP ist doch eine Spaßpartei, was soll diesr humorlose Junggreis sonst machen?</t>
+  </si>
+  <si>
+    <t>https://www.zeit.de/politik/deutschland/2020-04/christian-lindner-coronavirus-kommunikation-provokation</t>
+  </si>
+  <si>
+    <t>Vogell</t>
+  </si>
+  <si>
+    <t>Ein weeeenig hat C. L. ja recht, das wird er wohl auch sagen dürfen?!</t>
+  </si>
+  <si>
+    <t>StringerBell</t>
+  </si>
+  <si>
+    <t>Die Medien verunglimpfen Wodarg, Mölling und co. und die Regierung sieht nur das RKI als heilige Instanz</t>
+  </si>
+  <si>
+    <t>Er ist unbedeutend und schreit förmlich nach Aufmerksamkeit</t>
+  </si>
+  <si>
+    <t>Caboose_</t>
+  </si>
+  <si>
+    <t>Die merken so was noch, die sind schlauer als der gemeine afD-Wähler ;-)</t>
+  </si>
+  <si>
+    <t>Die Medien verunglimpfen niemand</t>
+  </si>
+  <si>
+    <t>zadong</t>
+  </si>
+  <si>
+    <t>Wodarg ist ein selbstgefälliger Schwätzer, Wissenschaftlich sind seine lausigen Einlassungen wiederlegt</t>
+  </si>
+  <si>
+    <t>Die anderen greifen zu YouTube, wo sie reden, aber nix zu sagen haben.</t>
+  </si>
+  <si>
+    <t>Lindner sieht halt die Chance diejenigen Waehler von der AfD zu gewinnen</t>
+  </si>
+  <si>
+    <t>Al Rhein</t>
+  </si>
+  <si>
+    <t>Wieso insinuieren Sie hier, man wolle ihm verbieten, etwas zu sagen?</t>
+  </si>
+  <si>
+    <t>NeueMitte</t>
+  </si>
+  <si>
+    <t>Also ich erkläre es ihnen mal so.</t>
+  </si>
+  <si>
+    <t>Gebe Ihnen grundsätzlich ja recht. Allein die Glaubwürdigkeit ist dahin.</t>
+  </si>
+  <si>
+    <t>Bockwurst</t>
+  </si>
+  <si>
+    <t>Ihr Post unter diesem Artikel ist ein Paradebeispiel, für dessen Richtigkeit.</t>
+  </si>
+  <si>
+    <t>Trollfinder</t>
+  </si>
+  <si>
+    <t>Ich finde es schon in Ordnung dass wenigstens eine Partei auf eine gewisse Gleischschaltung hinweist</t>
+  </si>
+  <si>
+    <t>Clemenules</t>
+  </si>
+  <si>
+    <t>Schade, dass Medien wie "Spiegel" und "Zeit" sich benutzen lassen, indem sie diese PR-Masche mitmachen.</t>
+  </si>
+  <si>
+    <t>Mumblik</t>
+  </si>
+  <si>
+    <t>Der Junggreis - Volltreffer</t>
+  </si>
+  <si>
+    <t>Lazzava</t>
+  </si>
+  <si>
+    <t>"Junggreis" ist einfach herrlich und passt auch recht gut, wie ich finde.</t>
+  </si>
+  <si>
+    <t>und_die_Sintflut gab es doch</t>
+  </si>
+  <si>
+    <t>Sehr schöner Ausschnitt und Ausblick in . die Literatur der Dreißiger-/Vierziger Jahre des 21. Jahrhunderts</t>
+  </si>
+  <si>
+    <t>Pippilangstrumpfviktualia</t>
+  </si>
+  <si>
+    <t>https://www.zeit.de/2020/16/therapie-coronavirus-social-distancing-lagerkoller-psychologie</t>
+  </si>
+  <si>
+    <t>lifestyle</t>
+  </si>
+  <si>
+    <t>sind die überlangen und unschön verschachtelten Sätze hier ein bewusst eingesetztes Stilmittel, um die Ungeordnetheit im Kopf von Frau B. darzustellen?</t>
+  </si>
+  <si>
+    <t>Indossatar</t>
+  </si>
+  <si>
+    <t>Oder schreibt sie immer so?</t>
+  </si>
+  <si>
+    <t>Im Übrigen werde ich den Text nunmehr ein zweites Mal zu lesen versuchen, um ggfls. auch einen inhaltlichen Zugang zu erlangen.</t>
+  </si>
+  <si>
+    <t>sehr schlechter Stil</t>
+  </si>
+  <si>
+    <t>Philipp Senthoff</t>
+  </si>
+  <si>
+    <t>Ich kann mich meinem Vorredner nur anschließen</t>
+  </si>
+  <si>
+    <t>Es heißt "Bevölkerungsgesundheit", liebe Frau Baum!</t>
+  </si>
+  <si>
+    <t>Schöne Melodie, schöner Inhalt.</t>
+  </si>
+  <si>
+    <t>Clownworld</t>
+  </si>
+  <si>
+    <t>Was regen Sie sich auf? Sie haben doch Zeit.</t>
+  </si>
+  <si>
+    <t>OnlyOnePlanet</t>
+  </si>
+  <si>
+    <t>Oder haben Sie es dank "Internet für alle" verlernt, einen komplexeren Text zu lesen und sind schon mit nur einer einzigen Seite überfordert?</t>
+  </si>
+  <si>
+    <t>Ich hab's genossen, mal ein wenig mitdenken zu müssen</t>
+  </si>
+  <si>
+    <t>Solche Sätze muss man erstmal hinbekommen!</t>
+  </si>
+  <si>
+    <t>Ich fands eigentlich ganz nett zu lesen.</t>
+  </si>
+  <si>
+    <t>Abandon_Hope</t>
+  </si>
+  <si>
+    <t>Muß man nicht lesen. Laßt es einfach.</t>
+  </si>
+  <si>
+    <t>Wolfhuber</t>
+  </si>
+  <si>
+    <t>Sehr spannend zu lesen und eine echte Herausforderung.</t>
+  </si>
+  <si>
+    <t>karl-m</t>
+  </si>
+  <si>
+    <t>Schöne Doppelbedeutung.</t>
+  </si>
+  <si>
+    <t>Archieb</t>
+  </si>
+  <si>
+    <t>Ja .... was soll uns diese Selbstdarstellung sagen?</t>
+  </si>
+  <si>
+    <t>Baumkronenläufer</t>
+  </si>
+  <si>
+    <t>Wow, ein Artikel, in dem ich tatsächlich die eigene Lebenswirklichkeit gerade an mehr als nur einer Stelle wiederfinde!</t>
+  </si>
+  <si>
+    <t>Snoll</t>
+  </si>
+  <si>
+    <t>Und dazu auch noch ansprechend geschrieben, sehr schön!</t>
+  </si>
+  <si>
+    <t>Herrlich, danke für diese Zeilen!</t>
+  </si>
+  <si>
+    <t>absolutjan</t>
+  </si>
+  <si>
+    <t>Schöner Artikel, hübsche Sprache, etwas Glosse - liest sich recht süffig.</t>
+  </si>
+  <si>
+    <t>deep_franz</t>
+  </si>
+  <si>
+    <t>Auch wenn man seine Ausraster lustig findet, sind solche Charaktere in echt überhaupt nicht lustig</t>
+  </si>
+  <si>
+    <t>Inkasso Meddl</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=70NBC3EdkN4</t>
+  </si>
+  <si>
+    <t>Der klassische narzist dem man besser nicht begegnet.</t>
+  </si>
+  <si>
+    <t>Heinz Fahrngruber</t>
+  </si>
+  <si>
+    <t>kreativdenker</t>
+  </si>
+  <si>
+    <t>Ich finde es ehrlich gesagt ekelhaft wie ein Mensch durch eine oberflächliche und tendenzielle Berichterstattung deffamiert wird</t>
+  </si>
+  <si>
+    <t>Kennzeichnet es klarer, wenn ihr schon so tief sinken müsst, um für pure Unterhaltung über verstorbene Menschen herzuziehen</t>
+  </si>
+  <si>
+    <t>Den hätte ich gerne im Dschungelcamp erlebt.</t>
+  </si>
+  <si>
+    <t>Samhain88</t>
+  </si>
+  <si>
+    <t>Yvi Green</t>
+  </si>
+  <si>
+    <t>Ich bin auch cholerisch, deswegen mag ich ihn und er macht mir auch keine Angst</t>
+  </si>
+  <si>
+    <t>Aber er war zweifellos ein Irrer</t>
+  </si>
+  <si>
+    <t>Die Störung nennt sich Narzissmus</t>
+  </si>
+  <si>
+    <t>Raze</t>
+  </si>
+  <si>
+    <t>Narzissmus wird leider viel zu selten in den deutschen Medien beim Namen genommen.</t>
+  </si>
+  <si>
+    <t>Irgendwie muss ich ihm bewundern das er sich für nichts zu schade ist</t>
+  </si>
+  <si>
+    <t>ChrizzAT</t>
+  </si>
+  <si>
+    <t>Was für ein asozialer Penner.</t>
+  </si>
+  <si>
+    <t>Luke Lucky</t>
+  </si>
+  <si>
+    <t>Ein großes Lob für die musikalische Untermalung der Doku</t>
+  </si>
+  <si>
+    <t>Charlotte K</t>
+  </si>
+  <si>
+    <t>Warum spricht hier noch niemand über das Koks..?</t>
+  </si>
+  <si>
+    <t>Tim Diehl</t>
+  </si>
+  <si>
+    <t>Als Schauspieler maßlos überbewertet, als Mensch scheinbar eine Katastrophe</t>
+  </si>
+  <si>
+    <t>Matthias Kern</t>
+  </si>
+  <si>
+    <t>Schade, das dieser Psychopath so vielen Menschen schaden konnte</t>
+  </si>
+  <si>
+    <t>in einem anderen Beruf hätte er womöglich viel mehr Schaden angerichtet</t>
+  </si>
+  <si>
+    <t>SabuPtolemy</t>
+  </si>
+  <si>
+    <t>Sind wir nicht alle manchmal etwas Kinski ?</t>
+  </si>
+  <si>
+    <t>Agent Metropolis</t>
+  </si>
+  <si>
+    <t>Heutzutage wäre er zich mal angezeigt worden und hätte Geldstrafen zahlen müssen bis Hartz 4</t>
+  </si>
+  <si>
+    <t>Koukz</t>
+  </si>
+  <si>
+    <t>Und natürlich hätte er niemals irgendwo einen Job gefunden.</t>
+  </si>
+  <si>
+    <t>Schrecklicher Typ</t>
+  </si>
+  <si>
+    <t>Janos Audron</t>
+  </si>
+  <si>
+    <t>Ein Verbrecher, ein Monster.</t>
+  </si>
+  <si>
+    <t>DanielChias67 Chias</t>
+  </si>
+  <si>
+    <t>Unmöglicher Mensch.</t>
+  </si>
+  <si>
+    <t>Monika Gniatkowski</t>
+  </si>
+  <si>
+    <t>Der Klaus hatte einen an der Waffel.... PUNKT</t>
+  </si>
+  <si>
+    <t>Getier2k</t>
+  </si>
+  <si>
+    <t>Er war so bescheuert, dass er sich noch nicht mal über die Konsequenzen im klaren war</t>
+  </si>
+  <si>
+    <t>Diablo_mufc85</t>
+  </si>
+  <si>
+    <t>Mit Abstand das lustigste, was ich je im deutschen Fernsehen hab !</t>
+  </si>
+  <si>
+    <t>Urzus</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=JUcS4DrExOo</t>
+  </si>
+  <si>
+    <t>Ich liebe Stromberg! und ich finde dass Christoph Maria Herbst dass so überagend spielt</t>
+  </si>
+  <si>
+    <t>Stromberg ist einige der sehr sehr wenigen Ausnahmen wo alle Staffeln + Film einfach geil sind!</t>
+  </si>
+  <si>
+    <t>Hattsteiner-Hof TV</t>
+  </si>
+  <si>
+    <t>Mara Dona</t>
+  </si>
+  <si>
+    <t>Das Niveau bleibt erstklassig komisch und die Story bleibt voll in der Spur!</t>
+  </si>
+  <si>
+    <t>Schaue alles quasi jedes Jahr ein Mal von vorne bis zum Film durch</t>
+  </si>
+  <si>
+    <t>Ich habe mal im Büro gearbeitet, ich habe diese Typen erlebt, es gibt sie, ich konnte es nicht glauben</t>
+  </si>
+  <si>
+    <t>Overtime Freak</t>
+  </si>
+  <si>
+    <t>So eine Legende der Typ</t>
+  </si>
+  <si>
+    <t>Jonathan Schmidt</t>
+  </si>
+  <si>
+    <t>Ich LIEBE diese Serie</t>
+  </si>
+  <si>
+    <t>DieZackigenZackos 47</t>
+  </si>
+  <si>
+    <t>Ich checke einfach erst jetzt dass das die deutsche Version von the Office ist</t>
+  </si>
+  <si>
+    <t>Fatazo 1997</t>
+  </si>
+  <si>
+    <t>Für mich das beste an Serie im Deutschen Fernsehen</t>
+  </si>
+  <si>
+    <t>Wotan Asgard</t>
+  </si>
+  <si>
+    <t>seh ich anders, aber da darf ja jeder seine eigene Meinung haben</t>
+  </si>
+  <si>
+    <t>DerKingChaos</t>
+  </si>
+  <si>
+    <t>Wer braucht diesen Vollidioten?</t>
+  </si>
+  <si>
+    <t>Jens Stender</t>
+  </si>
+  <si>
+    <t>Und selber bringt der Depp auch nix brauchbares zustande.</t>
+  </si>
+  <si>
+    <t>Vollpfosten des Jahrhunderts.</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hN7268V_ObU</t>
+  </si>
+  <si>
+    <t>Eine Super-Comedy Sendung!</t>
+  </si>
+  <si>
+    <t>StickyFinger</t>
+  </si>
+  <si>
+    <t>Aber wahrscheinlich würden man diese Art von Humor nicht verstehen</t>
+  </si>
+  <si>
+    <t>Grausam das Geschreie am Ende!!</t>
+  </si>
+  <si>
+    <t>Harald Giese</t>
+  </si>
+  <si>
+    <t>Ansonsten genial wie immer.</t>
+  </si>
+  <si>
+    <t>Bis zu dem Punkt GENIALE FOLGE</t>
+  </si>
+  <si>
+    <t>Georg E</t>
+  </si>
+  <si>
+    <t>Leider reißen die letzten Minuten die ganze Folge runter</t>
+  </si>
+  <si>
+    <t>Das Geschrei am Ende hat die Folge kaputt gemacht. Furchtbar.</t>
+  </si>
+  <si>
+    <t>U.C.</t>
+  </si>
+  <si>
+    <t>Traurig und schön</t>
+  </si>
+  <si>
+    <t>Wolfgang Folz</t>
+  </si>
+  <si>
+    <t>Das Geschreie am Schluss nervt total,keine Weltklasse!</t>
+  </si>
+  <si>
+    <t>stinkkaefer</t>
+  </si>
+  <si>
+    <t>Das ist absolute Spitzenklasse!!! Wirklich schön!!!</t>
+  </si>
+  <si>
+    <t>Markus Wittemann</t>
+  </si>
+  <si>
+    <t>Reine Weltfolge!</t>
+  </si>
+  <si>
+    <t>Loo Vinaii</t>
+  </si>
+  <si>
+    <t>Was ist das für nen Hampelmann da am Ende. Der nervt ja gewaltig</t>
+  </si>
+  <si>
+    <t>KoronaOde</t>
+  </si>
+  <si>
+    <t>Unfassbar schöne Folge</t>
+  </si>
+  <si>
+    <t>andreas jung</t>
+  </si>
+  <si>
+    <t>so unendlich klassisch - zeitlos</t>
+  </si>
+  <si>
+    <t>Sorta Awesome</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=4RullCxjJZA</t>
+  </si>
+  <si>
+    <t>So geil, wie Harald Schmidt ganz alltägliche Dinge auseinander nehmen und eine mega geile Story draus machen kann</t>
+  </si>
+  <si>
+    <t>MaBo Berlin</t>
+  </si>
+  <si>
+    <t>Das ist Deutschland, super Harald</t>
+  </si>
+  <si>
+    <t>John Snow</t>
+  </si>
+  <si>
+    <t>Schaue ich immer wieder gerne... und es trifft auch genau so zu, wie die faust aufs auge</t>
+  </si>
+  <si>
+    <t>Der Master</t>
+  </si>
+  <si>
+    <t>Schöner Klassiker, hatte ich damals noch live gesehen.</t>
+  </si>
+  <si>
+    <t>H. Celine</t>
+  </si>
+  <si>
+    <t>OBERgeil!!!</t>
+  </si>
+  <si>
+    <t>achmett katapulski</t>
+  </si>
+  <si>
+    <t>Einfach geil</t>
+  </si>
+  <si>
+    <t>Avni Veliji</t>
+  </si>
+  <si>
+    <t>Weltklasse!</t>
+  </si>
+  <si>
+    <t>Titus Tortellini</t>
+  </si>
+  <si>
+    <t>genau so isses genial!!</t>
+  </si>
+  <si>
+    <t>frajosa59</t>
+  </si>
+  <si>
+    <t>so ist es leider :-(</t>
+  </si>
+  <si>
+    <t>1969Iceman</t>
+  </si>
+  <si>
+    <t>Sehr realitätsgetreu dargestellt</t>
+  </si>
+  <si>
+    <t>jack dulon</t>
+  </si>
+  <si>
+    <t>ist so was von wahr</t>
+  </si>
+  <si>
+    <t>Mad9977 Productions</t>
+  </si>
+  <si>
+    <t>immer noch aktuell!</t>
+  </si>
+  <si>
+    <t>Jürgen Naeve</t>
+  </si>
+  <si>
+    <t>Köstlich</t>
+  </si>
+  <si>
+    <t>Michael Müller</t>
+  </si>
+  <si>
+    <t>so der hammer</t>
+  </si>
+  <si>
+    <t>Tomcat</t>
+  </si>
+  <si>
+    <t>Mein Gott, wie lebensnah.</t>
+  </si>
+  <si>
+    <t>Hans Dampf</t>
+  </si>
+  <si>
+    <t>Ich hab geschrien und geweint vor Lachen!</t>
+  </si>
+  <si>
+    <t>SilberfuchsAg47</t>
+  </si>
+  <si>
+    <t>Fantastisch!</t>
+  </si>
+  <si>
+    <t>Flower_Tower</t>
+  </si>
+  <si>
+    <t>Super,hahahahahaha</t>
+  </si>
+  <si>
+    <t>Heinz Germany</t>
+  </si>
+  <si>
+    <t>so entlarvend</t>
+  </si>
+  <si>
+    <t>Geburtswehe</t>
+  </si>
+  <si>
+    <t>grandiose rhetorik.</t>
+  </si>
+  <si>
+    <t>Duphe</t>
+  </si>
+  <si>
+    <t>das so locker frei runterzureden ist echt schwerstarbeit</t>
+  </si>
+  <si>
+    <t>er ist in topform hier.</t>
+  </si>
+  <si>
+    <t>das is ganz gross, hammer!!</t>
+  </si>
+  <si>
+    <t>eL mExx</t>
+  </si>
+  <si>
+    <t>Nie wurde der deutsche Spießer besser karikiert.</t>
+  </si>
+  <si>
+    <t>FermanWiles</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=zlfuusKRUuM</t>
+  </si>
+  <si>
+    <t>Helge muss man einfach beneiden</t>
+  </si>
+  <si>
+    <t>Dark Battra</t>
+  </si>
+  <si>
+    <t>Er ist nie zur Medienhure geworden wie viele andere</t>
+  </si>
+  <si>
+    <t>er ist sich und seiner Kunst treu geblieben</t>
+  </si>
+  <si>
+    <t>er ist immer am Boden geblieben</t>
+  </si>
+  <si>
+    <t>Danke für den tollen Abend Helge :)</t>
+  </si>
+  <si>
+    <t>Super Typ</t>
+  </si>
+  <si>
+    <t>Candymen</t>
+  </si>
+  <si>
+    <t>Helge Schneider,wo Wahnsinn und Genialität ganz nah beieiander liegen</t>
+  </si>
+  <si>
+    <t>Hört euch doch mal die Musik an.</t>
+  </si>
+  <si>
+    <t>Viele glauben er redet nur oberflächlichen Quatsch, aber der Typ ist ein Genie!</t>
+  </si>
+  <si>
+    <t>blasterbeam</t>
+  </si>
+  <si>
+    <t>E.M.B.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Aber nach dem Film Texas in einem open View in Köln, musste ich das Urteil revidieren</t>
+  </si>
+  <si>
+    <t>Entertainer der besonderen Art.</t>
+  </si>
+  <si>
+    <t>typisches tv total publikium</t>
+  </si>
+  <si>
+    <t>EN20ZWANZIG</t>
+  </si>
+  <si>
+    <t>lacht dann wenn es nicht lustig ist und wenn helge einene raus haut schauen se wie ein auto!</t>
+  </si>
+  <si>
+    <t>Helge ist Kult , einfach top</t>
+  </si>
+  <si>
+    <t>Pulverfass</t>
+  </si>
+  <si>
+    <t>wie der Mann Saxophon spielt! Gänsehautentzündung!</t>
+  </si>
+  <si>
+    <t>Jörg Albert</t>
+  </si>
+  <si>
+    <t>Als ich ihn das erste Mal gesehen hab dachte ich, was für ein Blödsinn!</t>
+  </si>
+  <si>
+    <t>Das ist sicher vielen Leuten so gegangen, vielen jetzt noch!</t>
+  </si>
+  <si>
+    <t>pure magic.</t>
+  </si>
+  <si>
+    <t>Lars Westerhausen</t>
+  </si>
+  <si>
+    <t>was für ein begnadeter Musiker!!! Genial</t>
+  </si>
+  <si>
+    <t>danu11</t>
+  </si>
+  <si>
+    <t>Genialer Musiker !</t>
+  </si>
+  <si>
+    <t>Michael Treser</t>
+  </si>
+  <si>
+    <t>was eine geile sau :D</t>
+  </si>
+  <si>
+    <t>mTwsyless</t>
+  </si>
+  <si>
+    <t>Ein toller Mensch...</t>
+  </si>
+  <si>
+    <t>Andy Pipkin</t>
+  </si>
+  <si>
+    <t>Großartiger Künstler.</t>
+  </si>
+  <si>
+    <t>Fififlirt</t>
+  </si>
+  <si>
+    <t>sein Können sucht seinesgleichen</t>
+  </si>
+  <si>
+    <t>James2013Rhyme</t>
+  </si>
+  <si>
+    <t>Großartiger Meister der Unterhaltung, einfach großartig!</t>
+  </si>
+  <si>
+    <t>Drachenreiterklaus</t>
+  </si>
+  <si>
+    <t>Legende.</t>
+  </si>
+  <si>
+    <t>Der Elite</t>
+  </si>
+  <si>
+    <t>Wahnsinn; wie gechilled und down to earth er ist!</t>
+  </si>
+  <si>
+    <t>Draki</t>
+  </si>
+  <si>
+    <t>Helge ist wirklich ein Juwel der deutschen Medienlandschaft.</t>
+  </si>
+  <si>
+    <t>Ich glaube nicht, dass Helge es nötig hat, im Fernsehen aufzutreten!</t>
+  </si>
+  <si>
+    <t>davidivad1199</t>
+  </si>
+  <si>
+    <t>Ein spitzen Musiker. :-)</t>
+  </si>
+  <si>
+    <t>Delorean 1984</t>
+  </si>
+  <si>
+    <t>Eine lebende Legende !</t>
+  </si>
+  <si>
+    <t>Dynamite1Deluxe</t>
+  </si>
+  <si>
+    <t>Helge ist kult und als Jazzer grandios!!!</t>
+  </si>
+  <si>
+    <t>Adam Mirski</t>
+  </si>
+  <si>
+    <t>Bjarne war einfach klasse</t>
+  </si>
+  <si>
+    <t>Nelke Thüringen</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=bcHKA-SSnRw</t>
+  </si>
+  <si>
+    <t>So ein symphatischer Kerl</t>
+  </si>
+  <si>
+    <t>So Ra</t>
+  </si>
+  <si>
+    <t>Die Beiden zusammen sind ein super Team</t>
+  </si>
+  <si>
+    <t>Sehr lustig dieser Bjarne</t>
+  </si>
+  <si>
+    <t>Tina bintbina</t>
+  </si>
+  <si>
+    <t>Ich kannte ihn gar nicht</t>
+  </si>
+  <si>
+    <t>Einfach genial die Ina, mach weiter so und deine Gäste sind der Hammer</t>
+  </si>
+  <si>
+    <t>Claus-Peter Fuchs</t>
+  </si>
+  <si>
+    <t>Total sympathische Reaktion</t>
+  </si>
+  <si>
+    <t>dancetothemusic99</t>
+  </si>
+  <si>
+    <t>Die Badekappe von Ina ist aber hässlich</t>
+  </si>
+  <si>
+    <t>Renate Niebert</t>
+  </si>
+  <si>
+    <t>Ich kann der teils beängstigenden Ruhe nichts abgewinnen</t>
+  </si>
+  <si>
+    <t>https://www.welt.de/vermischtes/article207213819/Kuriose-Phaenomene-Wie-Corona-unsere-Welt-veraendert.html</t>
+  </si>
+  <si>
+    <t>Björn A.</t>
+  </si>
+  <si>
+    <t>Ich möchte es mir nicht vorstellen.</t>
+  </si>
+  <si>
+    <t>oller Mann</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aber der Alltag kommt zurück, ob wir mögen oder nicht. </t>
+  </si>
+  <si>
+    <t>Johann A.</t>
+  </si>
+  <si>
+    <t>Alle reden, niemand agiert mit uns wenigen, bestmöglich eingesetzt umzugehen.</t>
+  </si>
+  <si>
+    <t>Brigitte S.</t>
+  </si>
+  <si>
+    <t>Doch, ich bin völlig bei Ihnen und poste das als Arzt hier auch, vielen Dank für Ihren Einsatz!</t>
+  </si>
+  <si>
+    <t>Dr. Bob</t>
+  </si>
+  <si>
+    <t>Ein schöner Gedenkartikel, vielen Dank dafür!</t>
+  </si>
+  <si>
+    <t>science</t>
+  </si>
+  <si>
+    <t>https://www.zeit.de/kultur/2020-04/john-conway-mathematiker-game-of-life-nachruf</t>
+  </si>
+  <si>
+    <t>Ich habe noch nie von ihm gehört, und ich bin sicher nicht die Einzige, die über sein weiteres Werk jetzt, nach der Lektüre dieses Artikels, zu lesen motiviert ist</t>
+  </si>
+  <si>
+    <t>superidee</t>
+  </si>
+  <si>
+    <t>John Conway und sein Game of Life haben mich in meinem Mathematikstudium durchaus geprägt</t>
+  </si>
+  <si>
+    <t>AlexFromTheWoods</t>
+  </si>
+  <si>
+    <t>Es erfüllt mich mit Trauer</t>
+  </si>
+  <si>
+    <t>Sehr angenehmer und ruhiger Typ</t>
+  </si>
+  <si>
+    <t>Dritter Benutzername</t>
+  </si>
+  <si>
+    <t>Und Ihr klug zum Artikel gewähltes Avatarbild, sehr schön!</t>
+  </si>
+  <si>
+    <t>Zeitnahe Antwort</t>
+  </si>
+  <si>
+    <t>Ein schöner Nachruf - er ist dem Meister würdig!</t>
+  </si>
+  <si>
+    <t>PeterKai</t>
+  </si>
+  <si>
+    <t>Ein toller Mathematiker.</t>
+  </si>
+  <si>
+    <t>Wüstenfux</t>
+  </si>
+  <si>
+    <t>Trauriger Anlass, aber trotzdem danke für den Artikel</t>
+  </si>
+  <si>
+    <t>Cele</t>
+  </si>
+  <si>
+    <t>Auf diese Weise kriegen Mathenoobs (wie ich) Infos über dieses extrem coole Phänomen</t>
+  </si>
+  <si>
+    <t>Trauig aber auch tapfer wie Menschen diese Krise durch/erleben</t>
+  </si>
+  <si>
+    <t>JuliusU995</t>
+  </si>
+  <si>
+    <t>https://www.zeit.de/2020/16/corona-krise-weltweit-angst-stillstand-ausnahmezustand</t>
+  </si>
+  <si>
+    <t>Über die, denen es richtig übel geht will wahrscheinlich keiner lesen.</t>
+  </si>
+  <si>
+    <t>Deadend12</t>
+  </si>
+  <si>
+    <t>Ansonsten eine ziemlich dämliche Idee.</t>
+  </si>
+  <si>
+    <t>HaseImPfeffer</t>
+  </si>
+  <si>
+    <t>Googeln Sie doch mal - Sie könnten erstaunt sein</t>
+  </si>
+  <si>
+    <t>Hennings Tanzeinlagen lassen mich an meiner soliden Heterosexualität zweifeln</t>
+  </si>
+  <si>
+    <t>IIDonOllill</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=RacxNskxySo</t>
+  </si>
+  <si>
+    <t>ich kann diese Loredana Capital Bra Mist nicht mehr in den Charts hören</t>
+  </si>
+  <si>
+    <t>Cansu Erna</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ZsGBM0vDorI</t>
+  </si>
+  <si>
+    <t>Warum ist sowas nicht in den Charts oder in den Trends</t>
+  </si>
+  <si>
+    <t>Hut ab vor den Eltern</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hfewnK7SaEk</t>
+  </si>
+  <si>
+    <t>Dawid Agostini</t>
+  </si>
+  <si>
+    <t>Ich bin jedenfalls sehr erstaunt über die Menschen in Conchitas Heimatort</t>
+  </si>
+  <si>
+    <t>LottasMommy</t>
+  </si>
+  <si>
+    <t>Der ewige Kotzbrocken Sido</t>
+  </si>
+  <si>
+    <t>delmond trion</t>
+  </si>
+  <si>
+    <t>Der hats echt drauf, dass er es überall verkackt und keiner ihn mag!</t>
+  </si>
+  <si>
+    <t>Man ist so wie man ist und man sollte auch so respektiert werden!</t>
+  </si>
+  <si>
+    <t>Ein RaZor</t>
+  </si>
+  <si>
+    <t>Am meisten beeindruckt mich der Pfarrer</t>
+  </si>
+  <si>
+    <t>Stephanie Hill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An alle Hater: schämt Euch </t>
+  </si>
+  <si>
+    <t>Lost Jacky</t>
+  </si>
+  <si>
+    <t>Enduro Camaro Dusty</t>
+  </si>
+  <si>
+    <t>Die Welt braucht Menschen, wie Conchita Wurst</t>
+  </si>
+  <si>
+    <t>Sie sind es doch, die für eine besser Zukunft stehen, die das Leben leben und neue Impulse schaffen!</t>
+  </si>
+  <si>
+    <t>So ein scheinheiliges Dorf</t>
+  </si>
+  <si>
+    <t>Katharina Livey</t>
+  </si>
+  <si>
+    <t>Jetzt, wo Tom berühmt ist, wird er plötzlich geliebt!</t>
+  </si>
+  <si>
+    <t>Ihre Musik ist nicht meins- aber Conchitas Persönlichkeit ist umwerfend</t>
+  </si>
+  <si>
+    <t>silverdollar1921</t>
+  </si>
+  <si>
+    <t>DAS PERVERSE IST DIE NEUE MODE</t>
+  </si>
+  <si>
+    <t>Campos Rodriguez</t>
+  </si>
+  <si>
+    <t>einige davon sind echt kaum zu ertragen, einfach unterste schublade!</t>
+  </si>
+  <si>
+    <t>redToffifee</t>
+  </si>
+  <si>
+    <t>andererseits, warum ein falsches bild der realität erstellen?</t>
+  </si>
+  <si>
+    <t>youtube ist so ziemlich das einzige medium, auf dem sich internettrolle feige austoben dürfen, ohne konsequenzen befürchten zu müssen.</t>
+  </si>
+  <si>
+    <t>Wenn ich so die Kommentare durchlese, wird mir schlecht</t>
+  </si>
+  <si>
+    <t>Lena Strobl</t>
+  </si>
+  <si>
+    <t>Die meisten haten einfach, ohne einen richtigen GRUND!</t>
+  </si>
+  <si>
+    <t>Ganz toller Beitrag</t>
+  </si>
+  <si>
+    <t>TheM&amp;Mgrace</t>
+  </si>
+  <si>
+    <t>ich finde traurig das Menschen immer wieder diskriminiert werden.</t>
+  </si>
+  <si>
+    <t>Stern Lein</t>
+  </si>
+  <si>
+    <t>dumme menschen find ich blöd</t>
+  </si>
+  <si>
+    <t>Versagt haben dann auch diese Personen die keine weisse Hautfarbe haben und geistigen Dünnschiss von sich geben</t>
+  </si>
+  <si>
+    <t>Karsten Voß</t>
+  </si>
+  <si>
+    <t>Eine Denkweise wie im Mittelalter</t>
+  </si>
+  <si>
+    <t>Wie konnte deutschrap in den paar jahren so tief sinken</t>
+  </si>
+  <si>
+    <t>4quA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=RveIJFR7LV4</t>
+  </si>
+  <si>
+    <t>Da war Rap noch Rap.</t>
+  </si>
+  <si>
+    <t>Leon Karadeniz</t>
+  </si>
+  <si>
+    <t>Für mich als Sprecherin des langweiligen Hochdeutschs der reinste "Ohrgasmus"</t>
+  </si>
+  <si>
+    <t>LizSweetbrock</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=GWgisTPKCdk</t>
+  </si>
+  <si>
+    <t>Geils liadl</t>
+  </si>
+  <si>
+    <t>Paula Servas</t>
+  </si>
+  <si>
+    <t>dieses deutschland wünsch ich mir zurück</t>
+  </si>
+  <si>
+    <t>drakestar13</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ubKinQvpc6w</t>
+  </si>
+  <si>
+    <t>Das Lied gehört zum Weltkulturerbe!!!</t>
+  </si>
+  <si>
+    <t>Fun Thomas</t>
+  </si>
+  <si>
+    <t>da war die Welt noch in ordnung</t>
+  </si>
+  <si>
+    <t>David Black</t>
+  </si>
+  <si>
+    <t>ich wette die 13 denen das nicht gefällt heißen WALTER xDDDD</t>
+  </si>
+  <si>
+    <t>Fabian Theilacker</t>
+  </si>
+  <si>
+    <t>Klassiker vom feinsten!</t>
+  </si>
+  <si>
+    <t>Lord Peter Live</t>
+  </si>
+  <si>
+    <t>Der Mann ist und bleibt ne Pflaume!</t>
+  </si>
+  <si>
+    <t>Ulrich Friehe</t>
+  </si>
+  <si>
+    <t>Aktuell sucht er nur einen Sündenbock</t>
+  </si>
+  <si>
+    <t>r.schwietzek</t>
+  </si>
+  <si>
+    <t>https://www.zeit.de/politik/ausland/2020-04/usa-donald-trump-who-zahlungen-coronavirus?page=2#comments</t>
+  </si>
+  <si>
+    <t>Oh je...wieder einmal der linke Pseudoheld #Precht zu Gast</t>
+  </si>
+  <si>
+    <t>Bergspezialist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Es wurde soviel Kluges, Nachdenkenswertes gesagt gestern bei #Lanz. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diese blöckenden Kommentare zur Sendung verblüffen mich immer wieder. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soviel geballte Dummheit. </t>
+  </si>
+  <si>
+    <t>Haben die sich die Sendung überhaupt angeschaut?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Haben die nix Besseres zu tun? Als #Twitter vollzuspammen?</t>
+  </si>
+  <si>
+    <t>CityguideMunich</t>
+  </si>
+  <si>
+    <t>Die grösste Labbersülztüte</t>
+  </si>
+  <si>
+    <t>Diese Figuren haben Deutschland erledigt</t>
+  </si>
+  <si>
+    <t>https://twitter.com/search?q=%23Lanz&amp;src=trend_click</t>
+  </si>
+  <si>
+    <t>Lanz ist einfach ein schlechter Journalist</t>
+  </si>
+  <si>
+    <t>Hans B....</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wer sieht sich denn solche Idioten - Sendungen an ? </t>
+  </si>
+  <si>
+    <t>ARD und ZDF sind der größte journalistische Abschaum in Deutschland.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gehilfe Jeder Regierung und selbst jetzt, wo wir faschistische Zustände haben, kommen nur Lügen und Halbwahrheiten. #Lanz</t>
+  </si>
+  <si>
+    <t>Carina Sonntag</t>
   </si>
 </sst>
 </file>
@@ -9130,7 +10493,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -9143,6 +10506,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -9443,12 +10809,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W1757"/>
+  <dimension ref="A1:W2012"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1750" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="125" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1988" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="L1757" sqref="L1757"/>
+      <selection pane="bottomLeft" activeCell="P2013" sqref="P2013"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -79744,6 +81110,4341 @@
       </c>
       <c r="Q1757" s="2" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="1758" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="L1758" t="s">
+        <v>2994</v>
+      </c>
+      <c r="M1758" s="2" t="s">
+        <v>1190</v>
+      </c>
+      <c r="N1758" t="s">
+        <v>2995</v>
+      </c>
+      <c r="P1758" t="s">
+        <v>2991</v>
+      </c>
+      <c r="Q1758" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1759" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="L1759" t="s">
+        <v>2994</v>
+      </c>
+      <c r="M1759" s="2" t="s">
+        <v>1190</v>
+      </c>
+      <c r="N1759" t="s">
+        <v>2995</v>
+      </c>
+      <c r="P1759" t="s">
+        <v>2992</v>
+      </c>
+      <c r="Q1759" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1760" spans="2:17" ht="30" x14ac:dyDescent="0.2">
+      <c r="L1760" t="s">
+        <v>2994</v>
+      </c>
+      <c r="M1760" s="2" t="s">
+        <v>1190</v>
+      </c>
+      <c r="N1760" t="s">
+        <v>2995</v>
+      </c>
+      <c r="P1760" s="10" t="s">
+        <v>2993</v>
+      </c>
+      <c r="Q1760" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1761" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1761" t="s">
+        <v>2997</v>
+      </c>
+      <c r="M1761" s="2" t="s">
+        <v>1190</v>
+      </c>
+      <c r="N1761" t="s">
+        <v>2995</v>
+      </c>
+      <c r="P1761" t="s">
+        <v>2996</v>
+      </c>
+      <c r="Q1761" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1762" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1762" t="s">
+        <v>2997</v>
+      </c>
+      <c r="M1762" s="2" t="s">
+        <v>1190</v>
+      </c>
+      <c r="N1762" t="s">
+        <v>2995</v>
+      </c>
+      <c r="P1762" t="s">
+        <v>2998</v>
+      </c>
+      <c r="Q1762" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1763" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1763" t="s">
+        <v>3000</v>
+      </c>
+      <c r="M1763" s="2" t="s">
+        <v>1190</v>
+      </c>
+      <c r="N1763" t="s">
+        <v>2995</v>
+      </c>
+      <c r="P1763" t="s">
+        <v>2999</v>
+      </c>
+      <c r="Q1763" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1764" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1764" t="s">
+        <v>3000</v>
+      </c>
+      <c r="M1764" s="2" t="s">
+        <v>1190</v>
+      </c>
+      <c r="N1764" t="s">
+        <v>2995</v>
+      </c>
+      <c r="P1764" t="s">
+        <v>3001</v>
+      </c>
+      <c r="Q1764" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1765" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1765" t="s">
+        <v>3000</v>
+      </c>
+      <c r="M1765" s="2" t="s">
+        <v>1190</v>
+      </c>
+      <c r="N1765" t="s">
+        <v>2995</v>
+      </c>
+      <c r="P1765" t="s">
+        <v>3002</v>
+      </c>
+      <c r="Q1765" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1766" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1766" t="s">
+        <v>3000</v>
+      </c>
+      <c r="M1766" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1766" t="s">
+        <v>3004</v>
+      </c>
+      <c r="P1766" t="s">
+        <v>3003</v>
+      </c>
+      <c r="Q1766" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1767" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1767" t="s">
+        <v>3000</v>
+      </c>
+      <c r="M1767" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1767" t="s">
+        <v>3004</v>
+      </c>
+      <c r="P1767" t="s">
+        <v>3005</v>
+      </c>
+      <c r="Q1767" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1768" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1768" t="s">
+        <v>3000</v>
+      </c>
+      <c r="M1768" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1768" t="s">
+        <v>3004</v>
+      </c>
+      <c r="P1768" t="s">
+        <v>3006</v>
+      </c>
+      <c r="Q1768" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1769" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1769" t="s">
+        <v>3000</v>
+      </c>
+      <c r="M1769" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1769" t="s">
+        <v>3004</v>
+      </c>
+      <c r="P1769" t="s">
+        <v>3007</v>
+      </c>
+      <c r="Q1769" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1770" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1770" t="s">
+        <v>3009</v>
+      </c>
+      <c r="M1770" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1770" t="s">
+        <v>3004</v>
+      </c>
+      <c r="P1770" t="s">
+        <v>3008</v>
+      </c>
+      <c r="Q1770" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1771" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1771" t="s">
+        <v>3009</v>
+      </c>
+      <c r="M1771" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1771" t="s">
+        <v>3004</v>
+      </c>
+      <c r="P1771" t="s">
+        <v>3010</v>
+      </c>
+      <c r="Q1771" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1772" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1772" t="s">
+        <v>3009</v>
+      </c>
+      <c r="M1772" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1772" t="s">
+        <v>3004</v>
+      </c>
+      <c r="P1772" t="s">
+        <v>3011</v>
+      </c>
+      <c r="Q1772" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1773" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1773" t="s">
+        <v>3009</v>
+      </c>
+      <c r="M1773" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1773" t="s">
+        <v>3004</v>
+      </c>
+      <c r="P1773" t="s">
+        <v>3012</v>
+      </c>
+      <c r="Q1773" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1774" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1774" t="s">
+        <v>2994</v>
+      </c>
+      <c r="M1774" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1774" t="s">
+        <v>3004</v>
+      </c>
+      <c r="P1774" t="s">
+        <v>3013</v>
+      </c>
+      <c r="Q1774" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1775" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1775" t="s">
+        <v>2994</v>
+      </c>
+      <c r="M1775" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1775" t="s">
+        <v>3004</v>
+      </c>
+      <c r="P1775" t="s">
+        <v>3014</v>
+      </c>
+      <c r="Q1775" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1776" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1776" t="s">
+        <v>2994</v>
+      </c>
+      <c r="M1776" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1776" t="s">
+        <v>3004</v>
+      </c>
+      <c r="P1776" t="s">
+        <v>3015</v>
+      </c>
+      <c r="Q1776" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1777" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1777" t="s">
+        <v>2994</v>
+      </c>
+      <c r="M1777" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1777" t="s">
+        <v>3004</v>
+      </c>
+      <c r="P1777" t="s">
+        <v>3016</v>
+      </c>
+      <c r="Q1777" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1778" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1778" t="s">
+        <v>2994</v>
+      </c>
+      <c r="M1778" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1778" t="s">
+        <v>3004</v>
+      </c>
+      <c r="P1778" t="s">
+        <v>3017</v>
+      </c>
+      <c r="Q1778" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1779" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1779" t="s">
+        <v>1538</v>
+      </c>
+      <c r="M1779" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1779" t="s">
+        <v>3019</v>
+      </c>
+      <c r="P1779" t="s">
+        <v>3018</v>
+      </c>
+      <c r="Q1779" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1780" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1780" t="s">
+        <v>3021</v>
+      </c>
+      <c r="M1780" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1780" t="s">
+        <v>3019</v>
+      </c>
+      <c r="P1780" t="s">
+        <v>3020</v>
+      </c>
+      <c r="Q1780" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1781" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1781" t="s">
+        <v>3023</v>
+      </c>
+      <c r="M1781" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1781" t="s">
+        <v>3019</v>
+      </c>
+      <c r="P1781" t="s">
+        <v>3022</v>
+      </c>
+      <c r="Q1781" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1782" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1782" t="s">
+        <v>3025</v>
+      </c>
+      <c r="M1782" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1782" t="s">
+        <v>3019</v>
+      </c>
+      <c r="P1782" t="s">
+        <v>3024</v>
+      </c>
+      <c r="Q1782" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1783" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1783" t="s">
+        <v>3027</v>
+      </c>
+      <c r="M1783" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="N1783" t="s">
+        <v>3028</v>
+      </c>
+      <c r="P1783" t="s">
+        <v>3026</v>
+      </c>
+      <c r="Q1783" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1784" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1784" t="s">
+        <v>3027</v>
+      </c>
+      <c r="M1784" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="N1784" t="s">
+        <v>3028</v>
+      </c>
+      <c r="P1784" t="s">
+        <v>3029</v>
+      </c>
+      <c r="Q1784" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1785" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1785" t="s">
+        <v>3031</v>
+      </c>
+      <c r="M1785" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="N1785" t="s">
+        <v>3028</v>
+      </c>
+      <c r="P1785" t="s">
+        <v>3030</v>
+      </c>
+      <c r="Q1785" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1786" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1786" t="s">
+        <v>3031</v>
+      </c>
+      <c r="M1786" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="N1786" t="s">
+        <v>3028</v>
+      </c>
+      <c r="P1786" t="s">
+        <v>3032</v>
+      </c>
+      <c r="Q1786" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1787" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1787" t="s">
+        <v>3034</v>
+      </c>
+      <c r="M1787" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="N1787" t="s">
+        <v>3028</v>
+      </c>
+      <c r="P1787" t="s">
+        <v>3033</v>
+      </c>
+      <c r="Q1787" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1788" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1788" t="s">
+        <v>3034</v>
+      </c>
+      <c r="M1788" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="N1788" t="s">
+        <v>3028</v>
+      </c>
+      <c r="P1788" t="s">
+        <v>3035</v>
+      </c>
+      <c r="Q1788" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1789" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1789" t="s">
+        <v>1871</v>
+      </c>
+      <c r="M1789" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="N1789" t="s">
+        <v>3028</v>
+      </c>
+      <c r="P1789" t="s">
+        <v>3036</v>
+      </c>
+      <c r="Q1789" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1790" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1790" t="s">
+        <v>3038</v>
+      </c>
+      <c r="M1790" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="N1790" t="s">
+        <v>3039</v>
+      </c>
+      <c r="P1790" t="s">
+        <v>3037</v>
+      </c>
+      <c r="Q1790" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1791" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1791" t="s">
+        <v>3038</v>
+      </c>
+      <c r="M1791" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="N1791" t="s">
+        <v>3039</v>
+      </c>
+      <c r="P1791" t="s">
+        <v>3040</v>
+      </c>
+      <c r="Q1791" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1792" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1792" t="s">
+        <v>3043</v>
+      </c>
+      <c r="M1792" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1792" t="s">
+        <v>3042</v>
+      </c>
+      <c r="P1792" t="s">
+        <v>3041</v>
+      </c>
+      <c r="Q1792" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1793" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1793" t="s">
+        <v>3045</v>
+      </c>
+      <c r="M1793" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1793" t="s">
+        <v>3042</v>
+      </c>
+      <c r="P1793" t="s">
+        <v>3044</v>
+      </c>
+      <c r="Q1793" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1794" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1794" t="s">
+        <v>3045</v>
+      </c>
+      <c r="M1794" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1794" t="s">
+        <v>3042</v>
+      </c>
+      <c r="P1794" t="s">
+        <v>3046</v>
+      </c>
+      <c r="Q1794" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1795" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1795" t="s">
+        <v>3048</v>
+      </c>
+      <c r="M1795" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1795" t="s">
+        <v>3042</v>
+      </c>
+      <c r="P1795" t="s">
+        <v>3047</v>
+      </c>
+      <c r="Q1795" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1796" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1796" t="s">
+        <v>1722</v>
+      </c>
+      <c r="M1796" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1796" t="s">
+        <v>3042</v>
+      </c>
+      <c r="P1796" t="s">
+        <v>3049</v>
+      </c>
+      <c r="Q1796" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1797" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1797" t="s">
+        <v>3051</v>
+      </c>
+      <c r="M1797" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1797" t="s">
+        <v>3042</v>
+      </c>
+      <c r="P1797" t="s">
+        <v>3050</v>
+      </c>
+      <c r="Q1797" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1798" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1798" t="s">
+        <v>3051</v>
+      </c>
+      <c r="M1798" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1798" t="s">
+        <v>3042</v>
+      </c>
+      <c r="P1798" t="s">
+        <v>3052</v>
+      </c>
+      <c r="Q1798" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1799" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1799" t="s">
+        <v>3051</v>
+      </c>
+      <c r="M1799" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1799" t="s">
+        <v>3042</v>
+      </c>
+      <c r="P1799" t="s">
+        <v>3053</v>
+      </c>
+      <c r="Q1799" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1800" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1800" t="s">
+        <v>3055</v>
+      </c>
+      <c r="M1800" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1800" t="s">
+        <v>3042</v>
+      </c>
+      <c r="P1800" t="s">
+        <v>3054</v>
+      </c>
+      <c r="Q1800" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1801" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1801" t="s">
+        <v>3057</v>
+      </c>
+      <c r="M1801" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1801" t="s">
+        <v>3042</v>
+      </c>
+      <c r="P1801" t="s">
+        <v>3056</v>
+      </c>
+      <c r="Q1801" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1802" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1802" t="s">
+        <v>2966</v>
+      </c>
+      <c r="M1802" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1802" t="s">
+        <v>3042</v>
+      </c>
+      <c r="P1802" t="s">
+        <v>3058</v>
+      </c>
+      <c r="Q1802" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1803" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1803" t="s">
+        <v>3060</v>
+      </c>
+      <c r="M1803" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1803" t="s">
+        <v>3042</v>
+      </c>
+      <c r="P1803" t="s">
+        <v>3059</v>
+      </c>
+      <c r="Q1803" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1804" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1804" t="s">
+        <v>3062</v>
+      </c>
+      <c r="M1804" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1804" t="s">
+        <v>3042</v>
+      </c>
+      <c r="P1804" t="s">
+        <v>3061</v>
+      </c>
+      <c r="Q1804" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1805" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1805" t="s">
+        <v>3064</v>
+      </c>
+      <c r="M1805" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1805" t="s">
+        <v>3042</v>
+      </c>
+      <c r="P1805" t="s">
+        <v>3063</v>
+      </c>
+      <c r="Q1805" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1806" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1806" t="s">
+        <v>3066</v>
+      </c>
+      <c r="M1806" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1806" t="s">
+        <v>3042</v>
+      </c>
+      <c r="P1806" t="s">
+        <v>3065</v>
+      </c>
+      <c r="Q1806" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1807" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1807" t="s">
+        <v>3068</v>
+      </c>
+      <c r="M1807" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1807" t="s">
+        <v>3042</v>
+      </c>
+      <c r="P1807" t="s">
+        <v>3067</v>
+      </c>
+      <c r="Q1807" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1808" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1808" t="s">
+        <v>3070</v>
+      </c>
+      <c r="M1808" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1808" t="s">
+        <v>3042</v>
+      </c>
+      <c r="P1808" t="s">
+        <v>3069</v>
+      </c>
+      <c r="Q1808" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1809" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1809" t="s">
+        <v>3072</v>
+      </c>
+      <c r="M1809" s="2" t="s">
+        <v>3074</v>
+      </c>
+      <c r="N1809" t="s">
+        <v>3073</v>
+      </c>
+      <c r="P1809" t="s">
+        <v>3071</v>
+      </c>
+      <c r="Q1809" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1810" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1810" t="s">
+        <v>3076</v>
+      </c>
+      <c r="M1810" s="2" t="s">
+        <v>3074</v>
+      </c>
+      <c r="N1810" t="s">
+        <v>3073</v>
+      </c>
+      <c r="P1810" t="s">
+        <v>3075</v>
+      </c>
+      <c r="Q1810" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1811" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1811" t="s">
+        <v>3076</v>
+      </c>
+      <c r="M1811" s="2" t="s">
+        <v>3074</v>
+      </c>
+      <c r="N1811" t="s">
+        <v>3073</v>
+      </c>
+      <c r="P1811" t="s">
+        <v>3077</v>
+      </c>
+      <c r="Q1811" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1812" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1812" t="s">
+        <v>3076</v>
+      </c>
+      <c r="M1812" s="2" t="s">
+        <v>3074</v>
+      </c>
+      <c r="N1812" t="s">
+        <v>3073</v>
+      </c>
+      <c r="P1812" t="s">
+        <v>3078</v>
+      </c>
+      <c r="Q1812" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1813" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1813" t="s">
+        <v>3080</v>
+      </c>
+      <c r="M1813" s="2" t="s">
+        <v>3074</v>
+      </c>
+      <c r="N1813" t="s">
+        <v>3073</v>
+      </c>
+      <c r="P1813" t="s">
+        <v>3079</v>
+      </c>
+      <c r="Q1813" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1814" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1814" t="s">
+        <v>3080</v>
+      </c>
+      <c r="M1814" s="2" t="s">
+        <v>3074</v>
+      </c>
+      <c r="N1814" t="s">
+        <v>3073</v>
+      </c>
+      <c r="P1814" t="s">
+        <v>3081</v>
+      </c>
+      <c r="Q1814" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1815" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1815" t="s">
+        <v>3080</v>
+      </c>
+      <c r="M1815" s="2" t="s">
+        <v>3074</v>
+      </c>
+      <c r="N1815" t="s">
+        <v>3073</v>
+      </c>
+      <c r="P1815" t="s">
+        <v>3082</v>
+      </c>
+      <c r="Q1815" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1816" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1816" t="s">
+        <v>3084</v>
+      </c>
+      <c r="M1816" s="2" t="s">
+        <v>3074</v>
+      </c>
+      <c r="N1816" t="s">
+        <v>3073</v>
+      </c>
+      <c r="P1816" t="s">
+        <v>3083</v>
+      </c>
+      <c r="Q1816" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1817" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1817" t="s">
+        <v>3086</v>
+      </c>
+      <c r="M1817" s="2" t="s">
+        <v>3074</v>
+      </c>
+      <c r="N1817" t="s">
+        <v>3073</v>
+      </c>
+      <c r="P1817" t="s">
+        <v>3085</v>
+      </c>
+      <c r="Q1817" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1818" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1818" t="s">
+        <v>3086</v>
+      </c>
+      <c r="M1818" s="2" t="s">
+        <v>3074</v>
+      </c>
+      <c r="N1818" t="s">
+        <v>3073</v>
+      </c>
+      <c r="P1818" t="s">
+        <v>3087</v>
+      </c>
+      <c r="Q1818" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1819" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1819" t="s">
+        <v>3086</v>
+      </c>
+      <c r="M1819" s="2" t="s">
+        <v>3074</v>
+      </c>
+      <c r="N1819" t="s">
+        <v>3073</v>
+      </c>
+      <c r="P1819" t="s">
+        <v>3088</v>
+      </c>
+      <c r="Q1819" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1820" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1820" t="s">
+        <v>3086</v>
+      </c>
+      <c r="M1820" s="2" t="s">
+        <v>3074</v>
+      </c>
+      <c r="N1820" t="s">
+        <v>3073</v>
+      </c>
+      <c r="P1820" t="s">
+        <v>3089</v>
+      </c>
+      <c r="Q1820" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1821" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1821" t="s">
+        <v>3091</v>
+      </c>
+      <c r="M1821" s="2" t="s">
+        <v>3074</v>
+      </c>
+      <c r="N1821" t="s">
+        <v>3073</v>
+      </c>
+      <c r="P1821" t="s">
+        <v>3090</v>
+      </c>
+      <c r="Q1821" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1822" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1822" t="s">
+        <v>3093</v>
+      </c>
+      <c r="M1822" s="2" t="s">
+        <v>3074</v>
+      </c>
+      <c r="N1822" t="s">
+        <v>3073</v>
+      </c>
+      <c r="P1822" t="s">
+        <v>3092</v>
+      </c>
+      <c r="Q1822" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1823" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1823" t="s">
+        <v>3095</v>
+      </c>
+      <c r="M1823" s="2" t="s">
+        <v>3074</v>
+      </c>
+      <c r="N1823" t="s">
+        <v>3073</v>
+      </c>
+      <c r="P1823" t="s">
+        <v>3094</v>
+      </c>
+      <c r="Q1823" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1824" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1824" t="s">
+        <v>3097</v>
+      </c>
+      <c r="M1824" s="2" t="s">
+        <v>3074</v>
+      </c>
+      <c r="N1824" t="s">
+        <v>3073</v>
+      </c>
+      <c r="P1824" t="s">
+        <v>3096</v>
+      </c>
+      <c r="Q1824" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1825" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1825" t="s">
+        <v>3099</v>
+      </c>
+      <c r="M1825" s="2" t="s">
+        <v>3074</v>
+      </c>
+      <c r="N1825" t="s">
+        <v>3073</v>
+      </c>
+      <c r="P1825" t="s">
+        <v>3098</v>
+      </c>
+      <c r="Q1825" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1826" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1826" t="s">
+        <v>3101</v>
+      </c>
+      <c r="M1826" s="2" t="s">
+        <v>3074</v>
+      </c>
+      <c r="N1826" t="s">
+        <v>3073</v>
+      </c>
+      <c r="P1826" t="s">
+        <v>3100</v>
+      </c>
+      <c r="Q1826" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1827" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1827" t="s">
+        <v>3101</v>
+      </c>
+      <c r="M1827" s="2" t="s">
+        <v>3074</v>
+      </c>
+      <c r="N1827" t="s">
+        <v>3073</v>
+      </c>
+      <c r="P1827" t="s">
+        <v>3102</v>
+      </c>
+      <c r="Q1827" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1828" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1828" t="s">
+        <v>3104</v>
+      </c>
+      <c r="M1828" s="2" t="s">
+        <v>3074</v>
+      </c>
+      <c r="N1828" t="s">
+        <v>3073</v>
+      </c>
+      <c r="P1828" t="s">
+        <v>3103</v>
+      </c>
+      <c r="Q1828" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1829" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1829" t="s">
+        <v>3106</v>
+      </c>
+      <c r="M1829" s="2" t="s">
+        <v>3074</v>
+      </c>
+      <c r="N1829" t="s">
+        <v>3073</v>
+      </c>
+      <c r="P1829" t="s">
+        <v>3105</v>
+      </c>
+      <c r="Q1829" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1830" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1830" t="s">
+        <v>3108</v>
+      </c>
+      <c r="M1830" t="s">
+        <v>270</v>
+      </c>
+      <c r="N1830" t="s">
+        <v>3109</v>
+      </c>
+      <c r="P1830" t="s">
+        <v>3107</v>
+      </c>
+      <c r="Q1830" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1831" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1831" t="s">
+        <v>3111</v>
+      </c>
+      <c r="M1831" t="s">
+        <v>270</v>
+      </c>
+      <c r="N1831" t="s">
+        <v>3109</v>
+      </c>
+      <c r="P1831" t="s">
+        <v>3110</v>
+      </c>
+      <c r="Q1831" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1832" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1832" t="s">
+        <v>3112</v>
+      </c>
+      <c r="M1832" t="s">
+        <v>270</v>
+      </c>
+      <c r="N1832" t="s">
+        <v>3109</v>
+      </c>
+      <c r="P1832" t="s">
+        <v>3113</v>
+      </c>
+      <c r="Q1832" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1833" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1833" t="s">
+        <v>3112</v>
+      </c>
+      <c r="M1833" t="s">
+        <v>270</v>
+      </c>
+      <c r="N1833" t="s">
+        <v>3109</v>
+      </c>
+      <c r="P1833" t="s">
+        <v>3114</v>
+      </c>
+      <c r="Q1833" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1834" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1834" t="s">
+        <v>3116</v>
+      </c>
+      <c r="M1834" t="s">
+        <v>270</v>
+      </c>
+      <c r="N1834" t="s">
+        <v>3109</v>
+      </c>
+      <c r="P1834" t="s">
+        <v>3115</v>
+      </c>
+      <c r="Q1834" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1835" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1835" t="s">
+        <v>3117</v>
+      </c>
+      <c r="M1835" t="s">
+        <v>270</v>
+      </c>
+      <c r="N1835" t="s">
+        <v>3109</v>
+      </c>
+      <c r="P1835" t="s">
+        <v>3118</v>
+      </c>
+      <c r="Q1835" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1836" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1836" t="s">
+        <v>3117</v>
+      </c>
+      <c r="M1836" t="s">
+        <v>270</v>
+      </c>
+      <c r="N1836" t="s">
+        <v>3109</v>
+      </c>
+      <c r="P1836" t="s">
+        <v>3119</v>
+      </c>
+      <c r="Q1836" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1837" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1837" t="s">
+        <v>3121</v>
+      </c>
+      <c r="M1837" t="s">
+        <v>270</v>
+      </c>
+      <c r="N1837" t="s">
+        <v>3109</v>
+      </c>
+      <c r="P1837" t="s">
+        <v>3120</v>
+      </c>
+      <c r="Q1837" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1838" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1838" t="s">
+        <v>3121</v>
+      </c>
+      <c r="M1838" t="s">
+        <v>270</v>
+      </c>
+      <c r="N1838" t="s">
+        <v>3109</v>
+      </c>
+      <c r="P1838" t="s">
+        <v>3122</v>
+      </c>
+      <c r="Q1838" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1839" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1839" t="s">
+        <v>3124</v>
+      </c>
+      <c r="M1839" t="s">
+        <v>270</v>
+      </c>
+      <c r="N1839" t="s">
+        <v>3109</v>
+      </c>
+      <c r="P1839" t="s">
+        <v>3123</v>
+      </c>
+      <c r="Q1839" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1840" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1840" t="s">
+        <v>3126</v>
+      </c>
+      <c r="M1840" t="s">
+        <v>270</v>
+      </c>
+      <c r="N1840" t="s">
+        <v>3109</v>
+      </c>
+      <c r="P1840" t="s">
+        <v>3125</v>
+      </c>
+      <c r="Q1840" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1841" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1841" t="s">
+        <v>3128</v>
+      </c>
+      <c r="M1841" t="s">
+        <v>270</v>
+      </c>
+      <c r="N1841" t="s">
+        <v>3109</v>
+      </c>
+      <c r="P1841" t="s">
+        <v>3127</v>
+      </c>
+      <c r="Q1841" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1842" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1842" t="s">
+        <v>3130</v>
+      </c>
+      <c r="M1842" t="s">
+        <v>270</v>
+      </c>
+      <c r="N1842" t="s">
+        <v>3109</v>
+      </c>
+      <c r="P1842" t="s">
+        <v>3129</v>
+      </c>
+      <c r="Q1842" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1843" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1843" t="s">
+        <v>3132</v>
+      </c>
+      <c r="M1843" t="s">
+        <v>270</v>
+      </c>
+      <c r="N1843" t="s">
+        <v>3109</v>
+      </c>
+      <c r="P1843" t="s">
+        <v>3131</v>
+      </c>
+      <c r="Q1843" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1844" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1844" t="s">
+        <v>3132</v>
+      </c>
+      <c r="M1844" t="s">
+        <v>270</v>
+      </c>
+      <c r="N1844" t="s">
+        <v>3109</v>
+      </c>
+      <c r="P1844" t="s">
+        <v>3133</v>
+      </c>
+      <c r="Q1844" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1845" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1845" t="s">
+        <v>3135</v>
+      </c>
+      <c r="M1845" t="s">
+        <v>270</v>
+      </c>
+      <c r="N1845" t="s">
+        <v>3109</v>
+      </c>
+      <c r="P1845" t="s">
+        <v>3134</v>
+      </c>
+      <c r="Q1845" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1846" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1846" t="s">
+        <v>3137</v>
+      </c>
+      <c r="M1846" t="s">
+        <v>270</v>
+      </c>
+      <c r="N1846" t="s">
+        <v>3109</v>
+      </c>
+      <c r="P1846" t="s">
+        <v>3136</v>
+      </c>
+      <c r="Q1846" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1847" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1847" t="s">
+        <v>3139</v>
+      </c>
+      <c r="M1847" t="s">
+        <v>270</v>
+      </c>
+      <c r="N1847" t="s">
+        <v>3109</v>
+      </c>
+      <c r="P1847" t="s">
+        <v>3138</v>
+      </c>
+      <c r="Q1847" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1848" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1848" t="s">
+        <v>3139</v>
+      </c>
+      <c r="M1848" t="s">
+        <v>270</v>
+      </c>
+      <c r="N1848" t="s">
+        <v>3109</v>
+      </c>
+      <c r="P1848" t="s">
+        <v>3140</v>
+      </c>
+      <c r="Q1848" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1849" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1849" t="s">
+        <v>3142</v>
+      </c>
+      <c r="M1849" t="s">
+        <v>270</v>
+      </c>
+      <c r="N1849" t="s">
+        <v>3109</v>
+      </c>
+      <c r="P1849" t="s">
+        <v>3141</v>
+      </c>
+      <c r="Q1849" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1850" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1850" t="s">
+        <v>3144</v>
+      </c>
+      <c r="M1850" t="s">
+        <v>270</v>
+      </c>
+      <c r="N1850" t="s">
+        <v>3109</v>
+      </c>
+      <c r="P1850" t="s">
+        <v>3143</v>
+      </c>
+      <c r="Q1850" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1851" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1851" t="s">
+        <v>3146</v>
+      </c>
+      <c r="M1851" t="s">
+        <v>270</v>
+      </c>
+      <c r="N1851" t="s">
+        <v>3109</v>
+      </c>
+      <c r="P1851" t="s">
+        <v>3145</v>
+      </c>
+      <c r="Q1851" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1852" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1852" t="s">
+        <v>3148</v>
+      </c>
+      <c r="M1852" t="s">
+        <v>270</v>
+      </c>
+      <c r="N1852" t="s">
+        <v>3109</v>
+      </c>
+      <c r="P1852" t="s">
+        <v>3147</v>
+      </c>
+      <c r="Q1852" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1853" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1853" t="s">
+        <v>3150</v>
+      </c>
+      <c r="M1853" t="s">
+        <v>270</v>
+      </c>
+      <c r="N1853" t="s">
+        <v>3109</v>
+      </c>
+      <c r="P1853" t="s">
+        <v>3149</v>
+      </c>
+      <c r="Q1853" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1854" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1854" t="s">
+        <v>3152</v>
+      </c>
+      <c r="M1854" t="s">
+        <v>1431</v>
+      </c>
+      <c r="N1854" t="s">
+        <v>3153</v>
+      </c>
+      <c r="P1854" t="s">
+        <v>3151</v>
+      </c>
+      <c r="Q1854" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1855" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1855" t="s">
+        <v>3156</v>
+      </c>
+      <c r="M1855" t="s">
+        <v>1431</v>
+      </c>
+      <c r="N1855" t="s">
+        <v>3153</v>
+      </c>
+      <c r="P1855" t="s">
+        <v>3154</v>
+      </c>
+      <c r="Q1855" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1856" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1856" t="s">
+        <v>3157</v>
+      </c>
+      <c r="M1856" t="s">
+        <v>1431</v>
+      </c>
+      <c r="N1856" t="s">
+        <v>3153</v>
+      </c>
+      <c r="P1856" t="s">
+        <v>3155</v>
+      </c>
+      <c r="Q1856" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1857" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1857" t="s">
+        <v>3157</v>
+      </c>
+      <c r="M1857" t="s">
+        <v>1431</v>
+      </c>
+      <c r="N1857" t="s">
+        <v>3153</v>
+      </c>
+      <c r="P1857" t="s">
+        <v>3158</v>
+      </c>
+      <c r="Q1857" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1858" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1858" t="s">
+        <v>3157</v>
+      </c>
+      <c r="M1858" t="s">
+        <v>1431</v>
+      </c>
+      <c r="N1858" t="s">
+        <v>3153</v>
+      </c>
+      <c r="P1858" t="s">
+        <v>3159</v>
+      </c>
+      <c r="Q1858" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1859" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1859" t="s">
+        <v>3161</v>
+      </c>
+      <c r="M1859" t="s">
+        <v>1431</v>
+      </c>
+      <c r="N1859" t="s">
+        <v>3153</v>
+      </c>
+      <c r="P1859" t="s">
+        <v>3160</v>
+      </c>
+      <c r="Q1859" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1860" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1860" t="s">
+        <v>3163</v>
+      </c>
+      <c r="M1860" t="s">
+        <v>1431</v>
+      </c>
+      <c r="N1860" t="s">
+        <v>3153</v>
+      </c>
+      <c r="P1860" t="s">
+        <v>3162</v>
+      </c>
+      <c r="Q1860" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1861" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1861" t="s">
+        <v>3165</v>
+      </c>
+      <c r="M1861" t="s">
+        <v>1431</v>
+      </c>
+      <c r="N1861" t="s">
+        <v>3153</v>
+      </c>
+      <c r="P1861" t="s">
+        <v>3164</v>
+      </c>
+      <c r="Q1861" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1862" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1862" t="s">
+        <v>3167</v>
+      </c>
+      <c r="M1862" t="s">
+        <v>1431</v>
+      </c>
+      <c r="N1862" t="s">
+        <v>3153</v>
+      </c>
+      <c r="P1862" t="s">
+        <v>3166</v>
+      </c>
+      <c r="Q1862" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1863" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1863" t="s">
+        <v>3169</v>
+      </c>
+      <c r="M1863" t="s">
+        <v>1431</v>
+      </c>
+      <c r="N1863" t="s">
+        <v>3153</v>
+      </c>
+      <c r="P1863" t="s">
+        <v>3168</v>
+      </c>
+      <c r="Q1863" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1864" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1864" t="s">
+        <v>3171</v>
+      </c>
+      <c r="M1864" t="s">
+        <v>1431</v>
+      </c>
+      <c r="N1864" t="s">
+        <v>3153</v>
+      </c>
+      <c r="P1864" t="s">
+        <v>3170</v>
+      </c>
+      <c r="Q1864" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1865" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1865" t="s">
+        <v>3173</v>
+      </c>
+      <c r="M1865" t="s">
+        <v>1431</v>
+      </c>
+      <c r="N1865" t="s">
+        <v>3153</v>
+      </c>
+      <c r="P1865" t="s">
+        <v>3172</v>
+      </c>
+      <c r="Q1865" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1866" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1866" t="s">
+        <v>3173</v>
+      </c>
+      <c r="M1866" t="s">
+        <v>1431</v>
+      </c>
+      <c r="N1866" t="s">
+        <v>3153</v>
+      </c>
+      <c r="P1866" t="s">
+        <v>3174</v>
+      </c>
+      <c r="Q1866" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1867" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1867" t="s">
+        <v>3173</v>
+      </c>
+      <c r="M1867" t="s">
+        <v>1431</v>
+      </c>
+      <c r="N1867" t="s">
+        <v>3153</v>
+      </c>
+      <c r="P1867" t="s">
+        <v>3175</v>
+      </c>
+      <c r="Q1867" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1868" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1868" t="s">
+        <v>3178</v>
+      </c>
+      <c r="M1868" t="s">
+        <v>1431</v>
+      </c>
+      <c r="N1868" t="s">
+        <v>3176</v>
+      </c>
+      <c r="P1868" t="s">
+        <v>3177</v>
+      </c>
+      <c r="Q1868" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1869" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1869" t="s">
+        <v>3178</v>
+      </c>
+      <c r="M1869" t="s">
+        <v>1431</v>
+      </c>
+      <c r="N1869" t="s">
+        <v>3176</v>
+      </c>
+      <c r="P1869" t="s">
+        <v>3179</v>
+      </c>
+      <c r="Q1869" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1870" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1870" t="s">
+        <v>3181</v>
+      </c>
+      <c r="M1870" t="s">
+        <v>1431</v>
+      </c>
+      <c r="N1870" t="s">
+        <v>3176</v>
+      </c>
+      <c r="P1870" t="s">
+        <v>3180</v>
+      </c>
+      <c r="Q1870" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1871" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1871" t="s">
+        <v>3181</v>
+      </c>
+      <c r="M1871" t="s">
+        <v>1431</v>
+      </c>
+      <c r="N1871" t="s">
+        <v>3176</v>
+      </c>
+      <c r="P1871" t="s">
+        <v>3182</v>
+      </c>
+      <c r="Q1871" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1872" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1872" t="s">
+        <v>3184</v>
+      </c>
+      <c r="M1872" t="s">
+        <v>1431</v>
+      </c>
+      <c r="N1872" t="s">
+        <v>3176</v>
+      </c>
+      <c r="P1872" t="s">
+        <v>3183</v>
+      </c>
+      <c r="Q1872" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1873" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1873" t="s">
+        <v>3184</v>
+      </c>
+      <c r="M1873" t="s">
+        <v>1431</v>
+      </c>
+      <c r="N1873" t="s">
+        <v>3176</v>
+      </c>
+      <c r="P1873" t="s">
+        <v>3185</v>
+      </c>
+      <c r="Q1873" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1874" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1874" t="s">
+        <v>3187</v>
+      </c>
+      <c r="M1874" t="s">
+        <v>1431</v>
+      </c>
+      <c r="N1874" t="s">
+        <v>3176</v>
+      </c>
+      <c r="P1874" t="s">
+        <v>3186</v>
+      </c>
+      <c r="Q1874" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1875" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1875" t="s">
+        <v>3189</v>
+      </c>
+      <c r="M1875" t="s">
+        <v>1431</v>
+      </c>
+      <c r="N1875" t="s">
+        <v>3176</v>
+      </c>
+      <c r="P1875" t="s">
+        <v>3188</v>
+      </c>
+      <c r="Q1875" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1876" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1876" t="s">
+        <v>3191</v>
+      </c>
+      <c r="M1876" t="s">
+        <v>1431</v>
+      </c>
+      <c r="N1876" t="s">
+        <v>3176</v>
+      </c>
+      <c r="P1876" t="s">
+        <v>3190</v>
+      </c>
+      <c r="Q1876" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1877" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1877" t="s">
+        <v>3193</v>
+      </c>
+      <c r="M1877" t="s">
+        <v>1431</v>
+      </c>
+      <c r="N1877" t="s">
+        <v>3176</v>
+      </c>
+      <c r="P1877" t="s">
+        <v>3192</v>
+      </c>
+      <c r="Q1877" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1878" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1878" t="s">
+        <v>3195</v>
+      </c>
+      <c r="M1878" t="s">
+        <v>1431</v>
+      </c>
+      <c r="N1878" t="s">
+        <v>3176</v>
+      </c>
+      <c r="P1878" t="s">
+        <v>3194</v>
+      </c>
+      <c r="Q1878" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1879" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1879" t="s">
+        <v>3197</v>
+      </c>
+      <c r="M1879" t="s">
+        <v>1431</v>
+      </c>
+      <c r="N1879" t="s">
+        <v>3176</v>
+      </c>
+      <c r="P1879" t="s">
+        <v>3196</v>
+      </c>
+      <c r="Q1879" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1880" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1880" t="s">
+        <v>3199</v>
+      </c>
+      <c r="M1880" t="s">
+        <v>1431</v>
+      </c>
+      <c r="N1880" t="s">
+        <v>3176</v>
+      </c>
+      <c r="P1880" t="s">
+        <v>3198</v>
+      </c>
+      <c r="Q1880" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1881" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1881" t="s">
+        <v>3201</v>
+      </c>
+      <c r="M1881" t="s">
+        <v>1431</v>
+      </c>
+      <c r="N1881" t="s">
+        <v>3202</v>
+      </c>
+      <c r="P1881" t="s">
+        <v>3200</v>
+      </c>
+      <c r="Q1881" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1882" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1882" t="s">
+        <v>3204</v>
+      </c>
+      <c r="M1882" t="s">
+        <v>1431</v>
+      </c>
+      <c r="N1882" t="s">
+        <v>3202</v>
+      </c>
+      <c r="P1882" t="s">
+        <v>3203</v>
+      </c>
+      <c r="Q1882" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1883" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1883" t="s">
+        <v>3206</v>
+      </c>
+      <c r="M1883" t="s">
+        <v>1431</v>
+      </c>
+      <c r="N1883" t="s">
+        <v>3202</v>
+      </c>
+      <c r="P1883" t="s">
+        <v>3205</v>
+      </c>
+      <c r="Q1883" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1884" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1884" t="s">
+        <v>3208</v>
+      </c>
+      <c r="M1884" t="s">
+        <v>1431</v>
+      </c>
+      <c r="N1884" t="s">
+        <v>3202</v>
+      </c>
+      <c r="P1884" t="s">
+        <v>3207</v>
+      </c>
+      <c r="Q1884" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1885" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1885" t="s">
+        <v>3210</v>
+      </c>
+      <c r="M1885" t="s">
+        <v>1431</v>
+      </c>
+      <c r="N1885" t="s">
+        <v>3202</v>
+      </c>
+      <c r="P1885" t="s">
+        <v>3209</v>
+      </c>
+      <c r="Q1885" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1886" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1886" t="s">
+        <v>3212</v>
+      </c>
+      <c r="M1886" t="s">
+        <v>1431</v>
+      </c>
+      <c r="N1886" t="s">
+        <v>3202</v>
+      </c>
+      <c r="P1886" t="s">
+        <v>3211</v>
+      </c>
+      <c r="Q1886" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1887" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1887" t="s">
+        <v>3214</v>
+      </c>
+      <c r="M1887" t="s">
+        <v>1431</v>
+      </c>
+      <c r="N1887" t="s">
+        <v>3202</v>
+      </c>
+      <c r="P1887" t="s">
+        <v>3213</v>
+      </c>
+      <c r="Q1887" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1888" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1888" t="s">
+        <v>3216</v>
+      </c>
+      <c r="M1888" t="s">
+        <v>1431</v>
+      </c>
+      <c r="N1888" t="s">
+        <v>3202</v>
+      </c>
+      <c r="P1888" t="s">
+        <v>3215</v>
+      </c>
+      <c r="Q1888" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1889" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1889" t="s">
+        <v>3218</v>
+      </c>
+      <c r="M1889" t="s">
+        <v>1431</v>
+      </c>
+      <c r="N1889" t="s">
+        <v>3202</v>
+      </c>
+      <c r="P1889" t="s">
+        <v>3217</v>
+      </c>
+      <c r="Q1889" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1890" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1890" t="s">
+        <v>3220</v>
+      </c>
+      <c r="M1890" t="s">
+        <v>1431</v>
+      </c>
+      <c r="N1890" t="s">
+        <v>3202</v>
+      </c>
+      <c r="P1890" t="s">
+        <v>3219</v>
+      </c>
+      <c r="Q1890" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1891" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1891" t="s">
+        <v>3222</v>
+      </c>
+      <c r="M1891" t="s">
+        <v>1431</v>
+      </c>
+      <c r="N1891" t="s">
+        <v>3202</v>
+      </c>
+      <c r="P1891" t="s">
+        <v>3221</v>
+      </c>
+      <c r="Q1891" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1892" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1892" t="s">
+        <v>3224</v>
+      </c>
+      <c r="M1892" t="s">
+        <v>1431</v>
+      </c>
+      <c r="N1892" t="s">
+        <v>3202</v>
+      </c>
+      <c r="P1892" t="s">
+        <v>3223</v>
+      </c>
+      <c r="Q1892" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1893" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1893" t="s">
+        <v>3226</v>
+      </c>
+      <c r="M1893" t="s">
+        <v>1431</v>
+      </c>
+      <c r="N1893" t="s">
+        <v>3202</v>
+      </c>
+      <c r="P1893" t="s">
+        <v>3225</v>
+      </c>
+      <c r="Q1893" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1894" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1894" t="s">
+        <v>3228</v>
+      </c>
+      <c r="M1894" t="s">
+        <v>1431</v>
+      </c>
+      <c r="N1894" t="s">
+        <v>3202</v>
+      </c>
+      <c r="P1894" t="s">
+        <v>3227</v>
+      </c>
+      <c r="Q1894" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1895" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1895" t="s">
+        <v>3230</v>
+      </c>
+      <c r="M1895" t="s">
+        <v>1431</v>
+      </c>
+      <c r="N1895" t="s">
+        <v>3202</v>
+      </c>
+      <c r="P1895" t="s">
+        <v>3229</v>
+      </c>
+      <c r="Q1895" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1896" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1896" t="s">
+        <v>3232</v>
+      </c>
+      <c r="M1896" t="s">
+        <v>1431</v>
+      </c>
+      <c r="N1896" t="s">
+        <v>3202</v>
+      </c>
+      <c r="P1896" t="s">
+        <v>3231</v>
+      </c>
+      <c r="Q1896" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1897" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1897" t="s">
+        <v>3234</v>
+      </c>
+      <c r="M1897" t="s">
+        <v>1431</v>
+      </c>
+      <c r="N1897" t="s">
+        <v>3202</v>
+      </c>
+      <c r="P1897" t="s">
+        <v>3233</v>
+      </c>
+      <c r="Q1897" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1898" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1898" t="s">
+        <v>3236</v>
+      </c>
+      <c r="M1898" t="s">
+        <v>1431</v>
+      </c>
+      <c r="N1898" t="s">
+        <v>3202</v>
+      </c>
+      <c r="P1898" t="s">
+        <v>3235</v>
+      </c>
+      <c r="Q1898" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1899" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1899" t="s">
+        <v>3238</v>
+      </c>
+      <c r="M1899" t="s">
+        <v>1431</v>
+      </c>
+      <c r="N1899" t="s">
+        <v>3202</v>
+      </c>
+      <c r="P1899" t="s">
+        <v>3237</v>
+      </c>
+      <c r="Q1899" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1900" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1900" t="s">
+        <v>3240</v>
+      </c>
+      <c r="M1900" t="s">
+        <v>1431</v>
+      </c>
+      <c r="N1900" t="s">
+        <v>3202</v>
+      </c>
+      <c r="P1900" t="s">
+        <v>3239</v>
+      </c>
+      <c r="Q1900" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1901" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1901" t="s">
+        <v>3242</v>
+      </c>
+      <c r="M1901" t="s">
+        <v>1431</v>
+      </c>
+      <c r="N1901" t="s">
+        <v>3202</v>
+      </c>
+      <c r="P1901" t="s">
+        <v>3241</v>
+      </c>
+      <c r="Q1901" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1902" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1902" t="s">
+        <v>3242</v>
+      </c>
+      <c r="M1902" t="s">
+        <v>1431</v>
+      </c>
+      <c r="N1902" t="s">
+        <v>3202</v>
+      </c>
+      <c r="P1902" t="s">
+        <v>3243</v>
+      </c>
+      <c r="Q1902" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1903" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1903" t="s">
+        <v>3242</v>
+      </c>
+      <c r="M1903" t="s">
+        <v>1431</v>
+      </c>
+      <c r="N1903" t="s">
+        <v>3202</v>
+      </c>
+      <c r="P1903" t="s">
+        <v>3244</v>
+      </c>
+      <c r="Q1903" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1904" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1904" t="s">
+        <v>3246</v>
+      </c>
+      <c r="M1904" t="s">
+        <v>1431</v>
+      </c>
+      <c r="N1904" t="s">
+        <v>3202</v>
+      </c>
+      <c r="P1904" t="s">
+        <v>3245</v>
+      </c>
+      <c r="Q1904" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1905" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1905" t="s">
+        <v>3248</v>
+      </c>
+      <c r="M1905" t="s">
+        <v>1431</v>
+      </c>
+      <c r="N1905" t="s">
+        <v>3202</v>
+      </c>
+      <c r="P1905" t="s">
+        <v>3247</v>
+      </c>
+      <c r="Q1905" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1906" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1906" t="s">
+        <v>3251</v>
+      </c>
+      <c r="M1906" t="s">
+        <v>1431</v>
+      </c>
+      <c r="N1906" t="s">
+        <v>3249</v>
+      </c>
+      <c r="P1906" t="s">
+        <v>3250</v>
+      </c>
+      <c r="Q1906" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1907" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1907" t="s">
+        <v>3251</v>
+      </c>
+      <c r="M1907" t="s">
+        <v>1431</v>
+      </c>
+      <c r="N1907" t="s">
+        <v>3249</v>
+      </c>
+      <c r="P1907" t="s">
+        <v>3252</v>
+      </c>
+      <c r="Q1907" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1908" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1908" t="s">
+        <v>3251</v>
+      </c>
+      <c r="M1908" t="s">
+        <v>1431</v>
+      </c>
+      <c r="N1908" t="s">
+        <v>3249</v>
+      </c>
+      <c r="P1908" t="s">
+        <v>3253</v>
+      </c>
+      <c r="Q1908" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1909" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1909" t="s">
+        <v>3251</v>
+      </c>
+      <c r="M1909" t="s">
+        <v>1431</v>
+      </c>
+      <c r="N1909" t="s">
+        <v>3249</v>
+      </c>
+      <c r="P1909" t="s">
+        <v>3254</v>
+      </c>
+      <c r="Q1909" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1910" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1910" t="s">
+        <v>3251</v>
+      </c>
+      <c r="M1910" t="s">
+        <v>1431</v>
+      </c>
+      <c r="N1910" t="s">
+        <v>3249</v>
+      </c>
+      <c r="P1910" t="s">
+        <v>3255</v>
+      </c>
+      <c r="Q1910" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1911" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1911" t="s">
+        <v>3257</v>
+      </c>
+      <c r="M1911" t="s">
+        <v>1431</v>
+      </c>
+      <c r="N1911" t="s">
+        <v>3249</v>
+      </c>
+      <c r="P1911" t="s">
+        <v>3256</v>
+      </c>
+      <c r="Q1911" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1912" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1912" t="s">
+        <v>3257</v>
+      </c>
+      <c r="M1912" t="s">
+        <v>1431</v>
+      </c>
+      <c r="N1912" t="s">
+        <v>3249</v>
+      </c>
+      <c r="P1912" t="s">
+        <v>3258</v>
+      </c>
+      <c r="Q1912" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1913" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1913" t="s">
+        <v>3261</v>
+      </c>
+      <c r="M1913" t="s">
+        <v>1431</v>
+      </c>
+      <c r="N1913" t="s">
+        <v>3249</v>
+      </c>
+      <c r="P1913" t="s">
+        <v>3259</v>
+      </c>
+      <c r="Q1913" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1914" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1914" t="s">
+        <v>3261</v>
+      </c>
+      <c r="M1914" t="s">
+        <v>1431</v>
+      </c>
+      <c r="N1914" t="s">
+        <v>3249</v>
+      </c>
+      <c r="P1914" t="s">
+        <v>3260</v>
+      </c>
+      <c r="Q1914" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1915" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1915" t="s">
+        <v>3262</v>
+      </c>
+      <c r="M1915" t="s">
+        <v>1431</v>
+      </c>
+      <c r="N1915" t="s">
+        <v>3249</v>
+      </c>
+      <c r="P1915" t="s">
+        <v>3263</v>
+      </c>
+      <c r="Q1915" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1916" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1916" t="s">
+        <v>3262</v>
+      </c>
+      <c r="M1916" t="s">
+        <v>1431</v>
+      </c>
+      <c r="N1916" t="s">
+        <v>3249</v>
+      </c>
+      <c r="P1916" t="s">
+        <v>3264</v>
+      </c>
+      <c r="Q1916" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1917" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1917" t="s">
+        <v>3266</v>
+      </c>
+      <c r="M1917" t="s">
+        <v>1431</v>
+      </c>
+      <c r="N1917" t="s">
+        <v>3249</v>
+      </c>
+      <c r="P1917" t="s">
+        <v>3265</v>
+      </c>
+      <c r="Q1917" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1918" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1918" t="s">
+        <v>3266</v>
+      </c>
+      <c r="M1918" t="s">
+        <v>1431</v>
+      </c>
+      <c r="N1918" t="s">
+        <v>3249</v>
+      </c>
+      <c r="P1918" t="s">
+        <v>3267</v>
+      </c>
+      <c r="Q1918" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1919" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1919" t="s">
+        <v>3269</v>
+      </c>
+      <c r="M1919" t="s">
+        <v>1431</v>
+      </c>
+      <c r="N1919" t="s">
+        <v>3249</v>
+      </c>
+      <c r="P1919" t="s">
+        <v>3268</v>
+      </c>
+      <c r="Q1919" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1920" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1920" t="s">
+        <v>3271</v>
+      </c>
+      <c r="M1920" t="s">
+        <v>1431</v>
+      </c>
+      <c r="N1920" t="s">
+        <v>3249</v>
+      </c>
+      <c r="P1920" t="s">
+        <v>3270</v>
+      </c>
+      <c r="Q1920" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1921" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1921" t="s">
+        <v>3271</v>
+      </c>
+      <c r="M1921" t="s">
+        <v>1431</v>
+      </c>
+      <c r="N1921" t="s">
+        <v>3249</v>
+      </c>
+      <c r="P1921" t="s">
+        <v>3272</v>
+      </c>
+      <c r="Q1921" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1922" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1922" t="s">
+        <v>3271</v>
+      </c>
+      <c r="M1922" t="s">
+        <v>1431</v>
+      </c>
+      <c r="N1922" t="s">
+        <v>3249</v>
+      </c>
+      <c r="P1922" t="s">
+        <v>3273</v>
+      </c>
+      <c r="Q1922" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1923" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1923" t="s">
+        <v>3275</v>
+      </c>
+      <c r="M1923" t="s">
+        <v>1431</v>
+      </c>
+      <c r="N1923" t="s">
+        <v>3249</v>
+      </c>
+      <c r="P1923" t="s">
+        <v>3274</v>
+      </c>
+      <c r="Q1923" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1924" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1924" t="s">
+        <v>3277</v>
+      </c>
+      <c r="M1924" t="s">
+        <v>1431</v>
+      </c>
+      <c r="N1924" t="s">
+        <v>3249</v>
+      </c>
+      <c r="P1924" t="s">
+        <v>3276</v>
+      </c>
+      <c r="Q1924" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1925" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1925" t="s">
+        <v>3279</v>
+      </c>
+      <c r="M1925" t="s">
+        <v>1431</v>
+      </c>
+      <c r="N1925" t="s">
+        <v>3249</v>
+      </c>
+      <c r="P1925" t="s">
+        <v>3278</v>
+      </c>
+      <c r="Q1925" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1926" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1926" t="s">
+        <v>3281</v>
+      </c>
+      <c r="M1926" t="s">
+        <v>1431</v>
+      </c>
+      <c r="N1926" t="s">
+        <v>3249</v>
+      </c>
+      <c r="P1926" t="s">
+        <v>3280</v>
+      </c>
+      <c r="Q1926" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1927" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1927" t="s">
+        <v>3283</v>
+      </c>
+      <c r="M1927" t="s">
+        <v>1431</v>
+      </c>
+      <c r="N1927" t="s">
+        <v>3249</v>
+      </c>
+      <c r="P1927" t="s">
+        <v>3282</v>
+      </c>
+      <c r="Q1927" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1928" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1928" t="s">
+        <v>3285</v>
+      </c>
+      <c r="M1928" t="s">
+        <v>1431</v>
+      </c>
+      <c r="N1928" t="s">
+        <v>3249</v>
+      </c>
+      <c r="P1928" t="s">
+        <v>3284</v>
+      </c>
+      <c r="Q1928" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1929" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1929" t="s">
+        <v>3287</v>
+      </c>
+      <c r="M1929" t="s">
+        <v>1431</v>
+      </c>
+      <c r="N1929" t="s">
+        <v>3249</v>
+      </c>
+      <c r="P1929" t="s">
+        <v>3286</v>
+      </c>
+      <c r="Q1929" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1930" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1930" t="s">
+        <v>3289</v>
+      </c>
+      <c r="M1930" t="s">
+        <v>1431</v>
+      </c>
+      <c r="N1930" t="s">
+        <v>3249</v>
+      </c>
+      <c r="P1930" t="s">
+        <v>3288</v>
+      </c>
+      <c r="Q1930" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1931" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1931" t="s">
+        <v>3291</v>
+      </c>
+      <c r="M1931" t="s">
+        <v>1431</v>
+      </c>
+      <c r="N1931" t="s">
+        <v>3249</v>
+      </c>
+      <c r="P1931" t="s">
+        <v>3290</v>
+      </c>
+      <c r="Q1931" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1932" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1932" t="s">
+        <v>3293</v>
+      </c>
+      <c r="M1932" t="s">
+        <v>1431</v>
+      </c>
+      <c r="N1932" t="s">
+        <v>3249</v>
+      </c>
+      <c r="P1932" t="s">
+        <v>3292</v>
+      </c>
+      <c r="Q1932" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1933" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1933" t="s">
+        <v>3293</v>
+      </c>
+      <c r="M1933" t="s">
+        <v>1431</v>
+      </c>
+      <c r="N1933" t="s">
+        <v>3249</v>
+      </c>
+      <c r="P1933" t="s">
+        <v>3294</v>
+      </c>
+      <c r="Q1933" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1934" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1934" t="s">
+        <v>3296</v>
+      </c>
+      <c r="M1934" t="s">
+        <v>1431</v>
+      </c>
+      <c r="N1934" t="s">
+        <v>3249</v>
+      </c>
+      <c r="P1934" t="s">
+        <v>3295</v>
+      </c>
+      <c r="Q1934" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1935" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1935" t="s">
+        <v>3298</v>
+      </c>
+      <c r="M1935" t="s">
+        <v>1431</v>
+      </c>
+      <c r="N1935" t="s">
+        <v>3249</v>
+      </c>
+      <c r="P1935" t="s">
+        <v>3297</v>
+      </c>
+      <c r="Q1935" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1936" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1936" t="s">
+        <v>3300</v>
+      </c>
+      <c r="M1936" t="s">
+        <v>1431</v>
+      </c>
+      <c r="N1936" t="s">
+        <v>3249</v>
+      </c>
+      <c r="P1936" t="s">
+        <v>3299</v>
+      </c>
+      <c r="Q1936" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1937" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1937" t="s">
+        <v>3302</v>
+      </c>
+      <c r="M1937" t="s">
+        <v>1431</v>
+      </c>
+      <c r="N1937" t="s">
+        <v>3249</v>
+      </c>
+      <c r="P1937" t="s">
+        <v>3301</v>
+      </c>
+      <c r="Q1937" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1938" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1938" t="s">
+        <v>3304</v>
+      </c>
+      <c r="M1938" t="s">
+        <v>1431</v>
+      </c>
+      <c r="N1938" t="s">
+        <v>3305</v>
+      </c>
+      <c r="P1938" t="s">
+        <v>3303</v>
+      </c>
+      <c r="Q1938" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1939" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1939" t="s">
+        <v>3307</v>
+      </c>
+      <c r="M1939" t="s">
+        <v>1431</v>
+      </c>
+      <c r="N1939" t="s">
+        <v>3305</v>
+      </c>
+      <c r="P1939" t="s">
+        <v>3306</v>
+      </c>
+      <c r="Q1939" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1940" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1940" t="s">
+        <v>3307</v>
+      </c>
+      <c r="M1940" t="s">
+        <v>1431</v>
+      </c>
+      <c r="N1940" t="s">
+        <v>3305</v>
+      </c>
+      <c r="P1940" t="s">
+        <v>3308</v>
+      </c>
+      <c r="Q1940" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1941" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1941" t="s">
+        <v>3310</v>
+      </c>
+      <c r="M1941" t="s">
+        <v>1431</v>
+      </c>
+      <c r="N1941" t="s">
+        <v>3305</v>
+      </c>
+      <c r="P1941" t="s">
+        <v>3309</v>
+      </c>
+      <c r="Q1941" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1942" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1942" t="s">
+        <v>3310</v>
+      </c>
+      <c r="M1942" t="s">
+        <v>1431</v>
+      </c>
+      <c r="N1942" t="s">
+        <v>3305</v>
+      </c>
+      <c r="P1942" t="s">
+        <v>3311</v>
+      </c>
+      <c r="Q1942" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1943" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1943" t="s">
+        <v>3313</v>
+      </c>
+      <c r="M1943" t="s">
+        <v>1431</v>
+      </c>
+      <c r="N1943" t="s">
+        <v>3305</v>
+      </c>
+      <c r="P1943" t="s">
+        <v>3312</v>
+      </c>
+      <c r="Q1943" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1944" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1944" t="s">
+        <v>3315</v>
+      </c>
+      <c r="M1944" t="s">
+        <v>1431</v>
+      </c>
+      <c r="N1944" t="s">
+        <v>3305</v>
+      </c>
+      <c r="P1944" t="s">
+        <v>3314</v>
+      </c>
+      <c r="Q1944" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1945" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1945" t="s">
+        <v>3317</v>
+      </c>
+      <c r="M1945" t="s">
+        <v>1431</v>
+      </c>
+      <c r="N1945" t="s">
+        <v>3305</v>
+      </c>
+      <c r="P1945" t="s">
+        <v>3316</v>
+      </c>
+      <c r="Q1945" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1946" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1946" t="s">
+        <v>3320</v>
+      </c>
+      <c r="M1946" t="s">
+        <v>1650</v>
+      </c>
+      <c r="N1946" t="s">
+        <v>3319</v>
+      </c>
+      <c r="P1946" t="s">
+        <v>3318</v>
+      </c>
+      <c r="Q1946" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1947" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1947" t="s">
+        <v>3322</v>
+      </c>
+      <c r="M1947" t="s">
+        <v>1650</v>
+      </c>
+      <c r="N1947" t="s">
+        <v>3319</v>
+      </c>
+      <c r="P1947" t="s">
+        <v>3321</v>
+      </c>
+      <c r="Q1947" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1948" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1948" t="s">
+        <v>3324</v>
+      </c>
+      <c r="M1948" t="s">
+        <v>1650</v>
+      </c>
+      <c r="N1948" t="s">
+        <v>3319</v>
+      </c>
+      <c r="P1948" t="s">
+        <v>3323</v>
+      </c>
+      <c r="Q1948" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1949" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1949" t="s">
+        <v>3326</v>
+      </c>
+      <c r="M1949" t="s">
+        <v>1650</v>
+      </c>
+      <c r="N1949" t="s">
+        <v>3319</v>
+      </c>
+      <c r="P1949" t="s">
+        <v>3325</v>
+      </c>
+      <c r="Q1949" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1950" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1950" t="s">
+        <v>3328</v>
+      </c>
+      <c r="M1950" t="s">
+        <v>1650</v>
+      </c>
+      <c r="N1950" t="s">
+        <v>3319</v>
+      </c>
+      <c r="P1950" t="s">
+        <v>3327</v>
+      </c>
+      <c r="Q1950" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1951" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1951" t="s">
+        <v>2956</v>
+      </c>
+      <c r="M1951" t="s">
+        <v>3330</v>
+      </c>
+      <c r="N1951" t="s">
+        <v>3331</v>
+      </c>
+      <c r="P1951" t="s">
+        <v>3329</v>
+      </c>
+      <c r="Q1951" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1952" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1952" t="s">
+        <v>3333</v>
+      </c>
+      <c r="M1952" t="s">
+        <v>3330</v>
+      </c>
+      <c r="N1952" t="s">
+        <v>3331</v>
+      </c>
+      <c r="P1952" t="s">
+        <v>3332</v>
+      </c>
+      <c r="Q1952" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1953" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1953" t="s">
+        <v>3335</v>
+      </c>
+      <c r="M1953" t="s">
+        <v>3330</v>
+      </c>
+      <c r="N1953" t="s">
+        <v>3331</v>
+      </c>
+      <c r="P1953" t="s">
+        <v>3334</v>
+      </c>
+      <c r="Q1953" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1954" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1954" t="s">
+        <v>3335</v>
+      </c>
+      <c r="M1954" t="s">
+        <v>3330</v>
+      </c>
+      <c r="N1954" t="s">
+        <v>3331</v>
+      </c>
+      <c r="P1954" t="s">
+        <v>3336</v>
+      </c>
+      <c r="Q1954" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1955" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1955" t="s">
+        <v>3338</v>
+      </c>
+      <c r="M1955" t="s">
+        <v>3330</v>
+      </c>
+      <c r="N1955" t="s">
+        <v>3331</v>
+      </c>
+      <c r="P1955" t="s">
+        <v>3337</v>
+      </c>
+      <c r="Q1955" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1956" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1956" t="s">
+        <v>3340</v>
+      </c>
+      <c r="M1956" t="s">
+        <v>3330</v>
+      </c>
+      <c r="N1956" t="s">
+        <v>3331</v>
+      </c>
+      <c r="P1956" t="s">
+        <v>3339</v>
+      </c>
+      <c r="Q1956" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1957" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1957" t="s">
+        <v>3342</v>
+      </c>
+      <c r="M1957" t="s">
+        <v>3330</v>
+      </c>
+      <c r="N1957" t="s">
+        <v>3331</v>
+      </c>
+      <c r="P1957" t="s">
+        <v>3341</v>
+      </c>
+      <c r="Q1957" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1958" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1958" t="s">
+        <v>3344</v>
+      </c>
+      <c r="M1958" t="s">
+        <v>3330</v>
+      </c>
+      <c r="N1958" t="s">
+        <v>3331</v>
+      </c>
+      <c r="P1958" t="s">
+        <v>3343</v>
+      </c>
+      <c r="Q1958" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1959" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1959" t="s">
+        <v>3346</v>
+      </c>
+      <c r="M1959" t="s">
+        <v>3330</v>
+      </c>
+      <c r="N1959" t="s">
+        <v>3331</v>
+      </c>
+      <c r="P1959" t="s">
+        <v>3345</v>
+      </c>
+      <c r="Q1959" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1960" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1960" t="s">
+        <v>3346</v>
+      </c>
+      <c r="M1960" t="s">
+        <v>3330</v>
+      </c>
+      <c r="N1960" t="s">
+        <v>3331</v>
+      </c>
+      <c r="P1960" t="s">
+        <v>3347</v>
+      </c>
+      <c r="Q1960" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1961" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1961" t="s">
+        <v>3349</v>
+      </c>
+      <c r="M1961" t="s">
+        <v>1650</v>
+      </c>
+      <c r="N1961" t="s">
+        <v>3350</v>
+      </c>
+      <c r="P1961" t="s">
+        <v>3348</v>
+      </c>
+      <c r="Q1961" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1962" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1962" t="s">
+        <v>3352</v>
+      </c>
+      <c r="M1962" t="s">
+        <v>1650</v>
+      </c>
+      <c r="N1962" t="s">
+        <v>3350</v>
+      </c>
+      <c r="P1962" t="s">
+        <v>3351</v>
+      </c>
+      <c r="Q1962" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1963" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1963" t="s">
+        <v>3354</v>
+      </c>
+      <c r="M1963" t="s">
+        <v>1650</v>
+      </c>
+      <c r="N1963" t="s">
+        <v>3350</v>
+      </c>
+      <c r="P1963" t="s">
+        <v>3353</v>
+      </c>
+      <c r="Q1963" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1964" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1964" t="s">
+        <v>3354</v>
+      </c>
+      <c r="M1964" t="s">
+        <v>1650</v>
+      </c>
+      <c r="N1964" t="s">
+        <v>3350</v>
+      </c>
+      <c r="P1964" t="s">
+        <v>3355</v>
+      </c>
+      <c r="Q1964" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1965" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1965" t="s">
+        <v>3357</v>
+      </c>
+      <c r="M1965" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1965" t="s">
+        <v>3358</v>
+      </c>
+      <c r="P1965" t="s">
+        <v>3356</v>
+      </c>
+      <c r="Q1965" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1966" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1966" t="s">
+        <v>3360</v>
+      </c>
+      <c r="M1966" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1966" t="s">
+        <v>3361</v>
+      </c>
+      <c r="P1966" t="s">
+        <v>3359</v>
+      </c>
+      <c r="Q1966" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1967" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1967" t="s">
+        <v>3360</v>
+      </c>
+      <c r="M1967" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1967" t="s">
+        <v>3361</v>
+      </c>
+      <c r="P1967" t="s">
+        <v>3362</v>
+      </c>
+      <c r="Q1967" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1968" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1968" t="s">
+        <v>3365</v>
+      </c>
+      <c r="M1968" t="s">
+        <v>1431</v>
+      </c>
+      <c r="N1968" t="s">
+        <v>3364</v>
+      </c>
+      <c r="P1968" t="s">
+        <v>3363</v>
+      </c>
+      <c r="Q1968" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1969" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1969" t="s">
+        <v>3367</v>
+      </c>
+      <c r="M1969" t="s">
+        <v>1431</v>
+      </c>
+      <c r="N1969" t="s">
+        <v>3364</v>
+      </c>
+      <c r="P1969" t="s">
+        <v>3366</v>
+      </c>
+      <c r="Q1969" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1970" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1970" t="s">
+        <v>3369</v>
+      </c>
+      <c r="M1970" t="s">
+        <v>1431</v>
+      </c>
+      <c r="N1970" t="s">
+        <v>3364</v>
+      </c>
+      <c r="P1970" t="s">
+        <v>3368</v>
+      </c>
+      <c r="Q1970" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1971" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1971" t="s">
+        <v>3369</v>
+      </c>
+      <c r="M1971" t="s">
+        <v>1431</v>
+      </c>
+      <c r="N1971" t="s">
+        <v>3364</v>
+      </c>
+      <c r="P1971" t="s">
+        <v>3370</v>
+      </c>
+      <c r="Q1971" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1972" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1972" t="s">
+        <v>3372</v>
+      </c>
+      <c r="M1972" t="s">
+        <v>1431</v>
+      </c>
+      <c r="N1972" t="s">
+        <v>3364</v>
+      </c>
+      <c r="P1972" t="s">
+        <v>3371</v>
+      </c>
+      <c r="Q1972" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1973" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1973" t="s">
+        <v>3374</v>
+      </c>
+      <c r="M1973" t="s">
+        <v>1431</v>
+      </c>
+      <c r="N1973" t="s">
+        <v>3364</v>
+      </c>
+      <c r="P1973" t="s">
+        <v>3373</v>
+      </c>
+      <c r="Q1973" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1974" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1974" t="s">
+        <v>3376</v>
+      </c>
+      <c r="M1974" t="s">
+        <v>1431</v>
+      </c>
+      <c r="N1974" t="s">
+        <v>3364</v>
+      </c>
+      <c r="P1974" t="s">
+        <v>3375</v>
+      </c>
+      <c r="Q1974" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1975" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1975" t="s">
+        <v>3377</v>
+      </c>
+      <c r="M1975" t="s">
+        <v>1431</v>
+      </c>
+      <c r="N1975" t="s">
+        <v>3364</v>
+      </c>
+      <c r="P1975" t="s">
+        <v>3378</v>
+      </c>
+      <c r="Q1975" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1976" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1976" t="s">
+        <v>3377</v>
+      </c>
+      <c r="M1976" t="s">
+        <v>1431</v>
+      </c>
+      <c r="N1976" t="s">
+        <v>3364</v>
+      </c>
+      <c r="P1976" t="s">
+        <v>3379</v>
+      </c>
+      <c r="Q1976" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1977" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1977" t="s">
+        <v>3381</v>
+      </c>
+      <c r="M1977" t="s">
+        <v>1431</v>
+      </c>
+      <c r="N1977" t="s">
+        <v>3364</v>
+      </c>
+      <c r="P1977" t="s">
+        <v>3380</v>
+      </c>
+      <c r="Q1977" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1978" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1978" t="s">
+        <v>3381</v>
+      </c>
+      <c r="M1978" t="s">
+        <v>1431</v>
+      </c>
+      <c r="N1978" t="s">
+        <v>3364</v>
+      </c>
+      <c r="P1978" t="s">
+        <v>3382</v>
+      </c>
+      <c r="Q1978" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1979" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1979" t="s">
+        <v>3384</v>
+      </c>
+      <c r="M1979" t="s">
+        <v>1431</v>
+      </c>
+      <c r="N1979" t="s">
+        <v>3364</v>
+      </c>
+      <c r="P1979" t="s">
+        <v>3383</v>
+      </c>
+      <c r="Q1979" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1980" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1980" t="s">
+        <v>3386</v>
+      </c>
+      <c r="M1980" t="s">
+        <v>1431</v>
+      </c>
+      <c r="N1980" t="s">
+        <v>3364</v>
+      </c>
+      <c r="P1980" t="s">
+        <v>3385</v>
+      </c>
+      <c r="Q1980" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1981" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1981" t="s">
+        <v>3388</v>
+      </c>
+      <c r="M1981" t="s">
+        <v>1431</v>
+      </c>
+      <c r="N1981" t="s">
+        <v>3364</v>
+      </c>
+      <c r="P1981" t="s">
+        <v>3387</v>
+      </c>
+      <c r="Q1981" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1982" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1982" t="s">
+        <v>3388</v>
+      </c>
+      <c r="M1982" t="s">
+        <v>1431</v>
+      </c>
+      <c r="N1982" t="s">
+        <v>3364</v>
+      </c>
+      <c r="P1982" t="s">
+        <v>3389</v>
+      </c>
+      <c r="Q1982" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1983" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1983" t="s">
+        <v>3388</v>
+      </c>
+      <c r="M1983" t="s">
+        <v>1431</v>
+      </c>
+      <c r="N1983" t="s">
+        <v>3364</v>
+      </c>
+      <c r="P1983" t="s">
+        <v>3390</v>
+      </c>
+      <c r="Q1983" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1984" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1984" t="s">
+        <v>3392</v>
+      </c>
+      <c r="M1984" t="s">
+        <v>1431</v>
+      </c>
+      <c r="N1984" t="s">
+        <v>3364</v>
+      </c>
+      <c r="P1984" t="s">
+        <v>3391</v>
+      </c>
+      <c r="Q1984" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1985" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1985" t="s">
+        <v>3392</v>
+      </c>
+      <c r="M1985" t="s">
+        <v>1431</v>
+      </c>
+      <c r="N1985" t="s">
+        <v>3364</v>
+      </c>
+      <c r="P1985" t="s">
+        <v>3393</v>
+      </c>
+      <c r="Q1985" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1986" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1986" t="s">
+        <v>3395</v>
+      </c>
+      <c r="M1986" t="s">
+        <v>1431</v>
+      </c>
+      <c r="N1986" t="s">
+        <v>3364</v>
+      </c>
+      <c r="P1986" t="s">
+        <v>3394</v>
+      </c>
+      <c r="Q1986" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1987" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1987" t="s">
+        <v>3397</v>
+      </c>
+      <c r="M1987" t="s">
+        <v>1431</v>
+      </c>
+      <c r="N1987" t="s">
+        <v>3364</v>
+      </c>
+      <c r="P1987" t="s">
+        <v>3396</v>
+      </c>
+      <c r="Q1987" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1988" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1988" t="s">
+        <v>3397</v>
+      </c>
+      <c r="M1988" t="s">
+        <v>1431</v>
+      </c>
+      <c r="N1988" t="s">
+        <v>3364</v>
+      </c>
+      <c r="P1988" t="s">
+        <v>3398</v>
+      </c>
+      <c r="Q1988" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1989" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1989" t="s">
+        <v>3400</v>
+      </c>
+      <c r="M1989" t="s">
+        <v>1431</v>
+      </c>
+      <c r="N1989" t="s">
+        <v>3364</v>
+      </c>
+      <c r="P1989" t="s">
+        <v>3399</v>
+      </c>
+      <c r="Q1989" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1990" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1990" t="s">
+        <v>3400</v>
+      </c>
+      <c r="M1990" t="s">
+        <v>1431</v>
+      </c>
+      <c r="N1990" t="s">
+        <v>3364</v>
+      </c>
+      <c r="P1990" t="s">
+        <v>3401</v>
+      </c>
+      <c r="Q1990" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1991" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1991" t="s">
+        <v>3403</v>
+      </c>
+      <c r="M1991" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1991" t="s">
+        <v>3404</v>
+      </c>
+      <c r="P1991" t="s">
+        <v>3402</v>
+      </c>
+      <c r="Q1991" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1992" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1992" t="s">
+        <v>3406</v>
+      </c>
+      <c r="M1992" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1992" t="s">
+        <v>3404</v>
+      </c>
+      <c r="P1992" t="s">
+        <v>3405</v>
+      </c>
+      <c r="Q1992" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1993" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1993" t="s">
+        <v>3408</v>
+      </c>
+      <c r="M1993" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1993" t="s">
+        <v>3409</v>
+      </c>
+      <c r="P1993" t="s">
+        <v>3407</v>
+      </c>
+      <c r="Q1993" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1994" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1994" t="s">
+        <v>3411</v>
+      </c>
+      <c r="M1994" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1994" t="s">
+        <v>3409</v>
+      </c>
+      <c r="P1994" t="s">
+        <v>3410</v>
+      </c>
+      <c r="Q1994" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1995" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1995" t="s">
+        <v>3413</v>
+      </c>
+      <c r="M1995" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1995" t="s">
+        <v>3414</v>
+      </c>
+      <c r="P1995" t="s">
+        <v>3412</v>
+      </c>
+      <c r="Q1995" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1996" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1996" t="s">
+        <v>3416</v>
+      </c>
+      <c r="M1996" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1996" t="s">
+        <v>3414</v>
+      </c>
+      <c r="P1996" t="s">
+        <v>3415</v>
+      </c>
+      <c r="Q1996" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1997" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1997" t="s">
+        <v>3418</v>
+      </c>
+      <c r="M1997" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1997" t="s">
+        <v>3414</v>
+      </c>
+      <c r="P1997" t="s">
+        <v>3417</v>
+      </c>
+      <c r="Q1997" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1998" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1998" t="s">
+        <v>3420</v>
+      </c>
+      <c r="M1998" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1998" t="s">
+        <v>3414</v>
+      </c>
+      <c r="P1998" t="s">
+        <v>3419</v>
+      </c>
+      <c r="Q1998" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1999" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L1999" t="s">
+        <v>3422</v>
+      </c>
+      <c r="M1999" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N1999" t="s">
+        <v>3414</v>
+      </c>
+      <c r="P1999" t="s">
+        <v>3421</v>
+      </c>
+      <c r="Q1999" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2000" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L2000" t="s">
+        <v>3424</v>
+      </c>
+      <c r="M2000" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N2000" t="s">
+        <v>3414</v>
+      </c>
+      <c r="P2000" t="s">
+        <v>3423</v>
+      </c>
+      <c r="Q2000" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2001" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L2001" t="s">
+        <v>3426</v>
+      </c>
+      <c r="M2001" t="s">
+        <v>62</v>
+      </c>
+      <c r="N2001" t="s">
+        <v>3427</v>
+      </c>
+      <c r="P2001" t="s">
+        <v>3425</v>
+      </c>
+      <c r="Q2001" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2002" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L2002" t="s">
+        <v>3429</v>
+      </c>
+      <c r="M2002" t="s">
+        <v>483</v>
+      </c>
+      <c r="N2002" t="s">
+        <v>3438</v>
+      </c>
+      <c r="P2002" t="s">
+        <v>3428</v>
+      </c>
+      <c r="Q2002" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2003" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L2003" t="s">
+        <v>3435</v>
+      </c>
+      <c r="M2003" t="s">
+        <v>483</v>
+      </c>
+      <c r="N2003" t="s">
+        <v>3438</v>
+      </c>
+      <c r="P2003" t="s">
+        <v>3430</v>
+      </c>
+      <c r="Q2003" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2004" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L2004" t="s">
+        <v>3435</v>
+      </c>
+      <c r="M2004" t="s">
+        <v>483</v>
+      </c>
+      <c r="N2004" t="s">
+        <v>3438</v>
+      </c>
+      <c r="P2004" t="s">
+        <v>3431</v>
+      </c>
+      <c r="Q2004" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2005" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L2005" t="s">
+        <v>3435</v>
+      </c>
+      <c r="M2005" t="s">
+        <v>483</v>
+      </c>
+      <c r="N2005" t="s">
+        <v>3438</v>
+      </c>
+      <c r="P2005" t="s">
+        <v>3432</v>
+      </c>
+      <c r="Q2005" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2006" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L2006" t="s">
+        <v>3435</v>
+      </c>
+      <c r="M2006" t="s">
+        <v>483</v>
+      </c>
+      <c r="N2006" t="s">
+        <v>3438</v>
+      </c>
+      <c r="P2006" t="s">
+        <v>3433</v>
+      </c>
+      <c r="Q2006" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2007" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L2007" t="s">
+        <v>3435</v>
+      </c>
+      <c r="M2007" t="s">
+        <v>483</v>
+      </c>
+      <c r="N2007" t="s">
+        <v>3438</v>
+      </c>
+      <c r="P2007" t="s">
+        <v>3434</v>
+      </c>
+      <c r="Q2007" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2008" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L2008" t="s">
+        <v>3437</v>
+      </c>
+      <c r="M2008" t="s">
+        <v>483</v>
+      </c>
+      <c r="N2008" t="s">
+        <v>3438</v>
+      </c>
+      <c r="P2008" t="s">
+        <v>3436</v>
+      </c>
+      <c r="Q2008" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2009" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L2009" t="s">
+        <v>3440</v>
+      </c>
+      <c r="M2009" t="s">
+        <v>483</v>
+      </c>
+      <c r="N2009" t="s">
+        <v>3438</v>
+      </c>
+      <c r="P2009" t="s">
+        <v>3439</v>
+      </c>
+      <c r="Q2009" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2010" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L2010" t="s">
+        <v>3444</v>
+      </c>
+      <c r="M2010" t="s">
+        <v>483</v>
+      </c>
+      <c r="N2010" t="s">
+        <v>3438</v>
+      </c>
+      <c r="P2010" t="s">
+        <v>3441</v>
+      </c>
+      <c r="Q2010" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2011" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L2011" t="s">
+        <v>3444</v>
+      </c>
+      <c r="M2011" t="s">
+        <v>483</v>
+      </c>
+      <c r="N2011" t="s">
+        <v>3438</v>
+      </c>
+      <c r="P2011" t="s">
+        <v>3442</v>
+      </c>
+      <c r="Q2011" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2012" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L2012" t="s">
+        <v>3444</v>
+      </c>
+      <c r="M2012" t="s">
+        <v>483</v>
+      </c>
+      <c r="N2012" t="s">
+        <v>3438</v>
+      </c>
+      <c r="P2012" t="s">
+        <v>3443</v>
+      </c>
+      <c r="Q2012" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -79989,6 +85690,10 @@
     <hyperlink ref="N1756" r:id="rId239"/>
     <hyperlink ref="L1757" r:id="rId240"/>
     <hyperlink ref="N1757" r:id="rId241"/>
+    <hyperlink ref="P1853" r:id="rId242"/>
+    <hyperlink ref="P2002" r:id="rId243" display="Oh je...wieder einmal der linke Pseudoheld #Precht zu Ga"/>
+    <hyperlink ref="P2009" r:id="rId244"/>
+    <hyperlink ref="P2010" r:id="rId245" display="Wer sieht sich denn solche Idioten - Sendungen an ? ARD und ZDF sind der größte journalistische Abschaum in Deutschland. Gehilfe Jeder Regierung und selbst jetzt, wo wir faschistische Zustände haben, kommen nur Lügen und Halbwahrheiten. #Lanz"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
